--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="212">
   <si>
     <t>Fail</t>
   </si>
@@ -160,22 +160,6 @@
     <t>user is registered successfully. The minimum length is 1 character</t>
   </si>
   <si>
-    <t>Register with name longer than 30 characters</t>
-  </si>
-  <si>
-    <t>1: Open blog "Register" page
-2: Type "test{today's date}@test.com" in "Email" field
-3: Type "Ivan Ivanov Ivan Ivanov Ivan Iv" in "Full Name" field
-4: Type "123456" in "Password" field
-5: Type "123456"in "Confirm Password"field 6: Click on "Register" button</t>
-  </si>
-  <si>
-    <t>"The field Full Name must be a string with a maximum length of 30." message should be shown to user</t>
-  </si>
-  <si>
-    <t>user is registered successfully. The maximum length is 50 characters</t>
-  </si>
-  <si>
     <t>1: Open blog "Register" page
 2: Type "test{today's date}@test.com" in "Email" field
 3: Type "1van Ivanov" in "Full Name" field
@@ -221,23 +205,7 @@
 5: Type "12345"in "Confirm Password"field 6: Click on "Register" button</t>
   </si>
   <si>
-    <t>Register with password longer than 30 characters</t>
-  </si>
-  <si>
-    <t>1: Open blog "Register" page
-2: Type "test{today's date}@test.com" in "Email" field
-3: Type "Ivan Ivanov" in "Full Name" field
-4: Type "0123456789012345678901234567891" in "Password" field
-5: Type "0123456789012345678901234567891" in "Confirm Password"field 6: Click on "Register" button</t>
-  </si>
-  <si>
     <t>"Password must be at least 6 symbols" message should be shown to user</t>
-  </si>
-  <si>
-    <t>"Password must maximum 30 symbols long." message should be shown to user</t>
-  </si>
-  <si>
-    <t>user is registered successfully. The maximum length is 100 characters, after that "The Password must be at least 1 characters long." message is shown to user</t>
   </si>
   <si>
     <t>Register with empty "Password" field</t>
@@ -759,9 +727,6 @@
     <t>RP_TC15</t>
   </si>
   <si>
-    <t>RP_TC16</t>
-  </si>
-  <si>
     <t>LP_TC1</t>
   </si>
   <si>
@@ -847,6 +812,32 @@
   </si>
   <si>
     <t>5. Tests on  "Edit Users" page</t>
+  </si>
+  <si>
+    <t>Register with name longer than 50 characters</t>
+  </si>
+  <si>
+    <t>"The field Full Name must be a string with a maximum length of 50." message should be shown to user</t>
+  </si>
+  <si>
+    <t>Register with password longer than 50 characters</t>
+  </si>
+  <si>
+    <t>"Password must maximum 50 symbols long." message should be shown to user</t>
+  </si>
+  <si>
+    <t>1: Open blog "Register" page
+2: Type "test{today's date}@test.com" in "Email" field
+3: Type any name with more that 50 characters in "Full Name" field
+4: Type "123456" in "Password" field
+5: Type "123456"in "Confirm Password"field 6: Click on "Register" button</t>
+  </si>
+  <si>
+    <t>1: Open blog "Register" page
+2: Type "test{today's date}@test.com" in "Email" field
+3: Type "Ivan Ivanov" in "Full Name" field
+4: Type any password longer than 50 symbols in "Password" field
+5: Type "0123456789012345678901234567891" in "Confirm Password"field 6: Click on "Register" button</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1288,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1395,9 +1386,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1419,11 +1407,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1434,23 +1422,38 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1482,9 +1485,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1497,29 +1497,17 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4124,10 +4112,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R544"/>
+  <dimension ref="A1:R543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -4148,95 +4136,95 @@
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
+      <c r="B3" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="12.75">
       <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="12.75">
+    <row r="5" spans="1:15" s="23" customFormat="1" ht="25.5">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4244,7 +4232,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="33">
-        <f>COUNTIF(J12:J128,"Pass")</f>
+        <f>COUNTIF(J12:J127,"Pass")</f>
         <v>29</v>
       </c>
       <c r="C6" s="33"/>
@@ -4252,18 +4240,18 @@
         <v>14</v>
       </c>
       <c r="E6" s="10">
-        <f>COUNTIF(J10:J751,"Pending")</f>
+        <f>COUNTIF(J10:J750,"Pending")</f>
         <v>0</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4271,153 +4259,153 @@
         <v>0</v>
       </c>
       <c r="B7" s="34">
-        <f>COUNTIF(J12:J128,"Fail")</f>
-        <v>15</v>
+        <f>COUNTIF(J12:J127,"Fail")</f>
+        <v>14</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="15">
-        <f>COUNTIF(A12:A128,"TC*")</f>
+        <f>COUNTIF(A12:A127,"TC*")</f>
         <v>0</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="76" t="s">
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="51" t="s">
+      <c r="L9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="72" t="s">
+      <c r="N9" s="57" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="72"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" s="26" customFormat="1" ht="15">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="79"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="81"/>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A12" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
+      <c r="A12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54"/>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A13" s="30" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="47">
+      <c r="I13" s="46">
         <v>42841</v>
       </c>
       <c r="J13" s="29" t="s">
@@ -4425,7 +4413,7 @@
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M13" s="29" t="s">
         <v>18</v>
@@ -4434,7 +4422,7 @@
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A14" s="30" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>19</v>
@@ -4443,13 +4431,13 @@
       <c r="D14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="47">
+      <c r="I14" s="46">
         <v>42841</v>
       </c>
       <c r="J14" s="29" t="s">
@@ -4457,7 +4445,7 @@
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M14" s="29" t="s">
         <v>18</v>
@@ -4466,22 +4454,22 @@
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A15" s="30" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="47">
+      <c r="I15" s="46">
         <v>42841</v>
       </c>
       <c r="J15" s="29" t="s">
@@ -4491,7 +4479,7 @@
         <v>24</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M15" s="29" t="s">
         <v>18</v>
@@ -4500,22 +4488,22 @@
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A16" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="47">
+      <c r="I16" s="46">
         <v>42841</v>
       </c>
       <c r="J16" s="29" t="s">
@@ -4523,7 +4511,7 @@
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M16" s="29" t="s">
         <v>18</v>
@@ -4532,7 +4520,7 @@
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A17" s="30" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>27</v>
@@ -4541,13 +4529,13 @@
       <c r="D17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="47">
+      <c r="I17" s="46">
         <v>42841</v>
       </c>
       <c r="J17" s="29" t="s">
@@ -4557,7 +4545,7 @@
         <v>30</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M17" s="29" t="s">
         <v>18</v>
@@ -4566,32 +4554,30 @@
     </row>
     <row r="18" spans="1:18" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A18" s="30" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+        <v>210</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="47">
+      <c r="I18" s="46">
         <v>42841</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K18" s="29"/>
       <c r="L18" s="29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M18" s="29" t="s">
         <v>18</v>
@@ -4600,32 +4586,32 @@
     </row>
     <row r="19" spans="1:18" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A19" s="30" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="47">
+      <c r="I19" s="46">
         <v>42841</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>0</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M19" s="29" t="s">
         <v>18</v>
@@ -4634,22 +4620,22 @@
     </row>
     <row r="20" spans="1:18" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A20" s="30" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
+        <v>44</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <v>42841</v>
       </c>
       <c r="J20" s="29" t="s">
@@ -4657,7 +4643,7 @@
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M20" s="29" t="s">
         <v>18</v>
@@ -4666,22 +4652,22 @@
     </row>
     <row r="21" spans="1:18" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A21" s="30" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
+        <v>38</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="47">
+      <c r="I21" s="46">
         <v>42841</v>
       </c>
       <c r="J21" s="29" t="s">
@@ -4689,135 +4675,135 @@
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M21" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:18" s="31" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="22" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A22" s="30" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="47">
+      <c r="I22" s="46">
         <v>42841</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43" t="s">
-        <v>168</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="M22" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="32"/>
     </row>
-    <row r="23" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="23" spans="1:18" s="31" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A23" s="30" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+        <v>211</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="47">
+      <c r="I23" s="46">
         <v>42841</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>0</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="32"/>
-    </row>
-    <row r="24" spans="1:18" s="31" customFormat="1" ht="153" outlineLevel="1">
+      <c r="N23" s="42"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+    </row>
+    <row r="24" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A24" s="30" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+        <v>48</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="47">
+      <c r="I24" s="46">
         <v>42841</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="29" t="s">
-        <v>169</v>
+        <v>13</v>
+      </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
+      <c r="N24" s="32"/>
     </row>
     <row r="25" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A25" s="30" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+        <v>49</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="47">
+      <c r="I25" s="46">
         <v>42841</v>
       </c>
       <c r="J25" s="29" t="s">
@@ -4825,31 +4811,31 @@
       </c>
       <c r="K25" s="38"/>
       <c r="L25" s="38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M25" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="26" spans="1:18" s="31" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A26" s="30" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
+        <v>52</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="47">
+      <c r="I26" s="46">
         <v>42841</v>
       </c>
       <c r="J26" s="29" t="s">
@@ -4857,7 +4843,7 @@
       </c>
       <c r="K26" s="38"/>
       <c r="L26" s="38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M26" s="29" t="s">
         <v>18</v>
@@ -4866,22 +4852,22 @@
     </row>
     <row r="27" spans="1:18" s="31" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A27" s="30" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
+        <v>55</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="47">
+      <c r="I27" s="46">
         <v>42841</v>
       </c>
       <c r="J27" s="29" t="s">
@@ -4889,83 +4875,83 @@
       </c>
       <c r="K27" s="38"/>
       <c r="L27" s="38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M27" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N27" s="32"/>
     </row>
-    <row r="28" spans="1:18" s="31" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A28" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="47">
-        <v>42841</v>
-      </c>
-      <c r="J28" s="29" t="s">
+    <row r="28" spans="1:18" s="3" customFormat="1" ht="12.75">
+      <c r="A28" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="54"/>
+    </row>
+    <row r="29" spans="1:18" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A29" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="46">
+        <v>42843</v>
+      </c>
+      <c r="J29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="M28" s="29" t="s">
+      <c r="K29" s="38"/>
+      <c r="L29" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="M29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="32"/>
-    </row>
-    <row r="29" spans="1:18" s="3" customFormat="1" ht="12.75">
-      <c r="A29" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="55"/>
+      <c r="N29" s="32"/>
     </row>
     <row r="30" spans="1:18" s="31" customFormat="1" ht="51" outlineLevel="1">
       <c r="A30" s="30" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>74</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C30" s="32"/>
       <c r="D30" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
+        <v>70</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="47">
+      <c r="I30" s="46">
         <v>42843</v>
       </c>
       <c r="J30" s="29" t="s">
@@ -4973,31 +4959,33 @@
       </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M30" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:18" s="31" customFormat="1" ht="51" outlineLevel="1">
+    <row r="31" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A31" s="30" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="32"/>
+        <v>63</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>67</v>
+      </c>
       <c r="D31" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
+        <v>71</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="47">
+      <c r="I31" s="46">
         <v>42843</v>
       </c>
       <c r="J31" s="29" t="s">
@@ -5005,33 +4993,33 @@
       </c>
       <c r="K31" s="38"/>
       <c r="L31" s="38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M31" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:18" s="31" customFormat="1" ht="51" outlineLevel="1">
+    <row r="32" spans="1:18" s="31" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A32" s="30" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
+        <v>72</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="47">
+      <c r="I32" s="46">
         <v>42843</v>
       </c>
       <c r="J32" s="29" t="s">
@@ -5039,33 +5027,33 @@
       </c>
       <c r="K32" s="38"/>
       <c r="L32" s="38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M32" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
+    <row r="33" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A33" s="30" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
+        <v>128</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="47">
+      <c r="I33" s="46">
         <v>42843</v>
       </c>
       <c r="J33" s="29" t="s">
@@ -5073,85 +5061,85 @@
       </c>
       <c r="K33" s="38"/>
       <c r="L33" s="38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M33" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A34" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="29" t="s">
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="12.75">
+      <c r="A34" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="54"/>
+    </row>
+    <row r="35" spans="1:14" s="31" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="A35" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="47">
+      <c r="E35" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="46">
         <v>42843</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J35" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="M34" s="29" t="s">
+      <c r="K35" s="38"/>
+      <c r="L35" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="M35" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="N34" s="32"/>
-    </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" ht="12.75">
-      <c r="A35" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="55"/>
-    </row>
-    <row r="36" spans="1:14" s="31" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="N35" s="32"/>
+    </row>
+    <row r="36" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
       <c r="A36" s="30" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B36" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
+        <v>77</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="47">
+      <c r="I36" s="46">
         <v>42843</v>
       </c>
       <c r="J36" s="29" t="s">
@@ -5159,33 +5147,33 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M36" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
+    <row r="37" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A37" s="30" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
+        <v>80</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="47">
+      <c r="I37" s="46">
         <v>42843</v>
       </c>
       <c r="J37" s="29" t="s">
@@ -5193,7 +5181,7 @@
       </c>
       <c r="K37" s="38"/>
       <c r="L37" s="38" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M37" s="29" t="s">
         <v>18</v>
@@ -5202,102 +5190,104 @@
     </row>
     <row r="38" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A38" s="30" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
+        <v>81</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="47">
+      <c r="I38" s="46">
         <v>42843</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="47" t="s">
+        <v>151</v>
+      </c>
       <c r="L38" s="38" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M38" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N38" s="32"/>
     </row>
-    <row r="39" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="39" spans="1:14" s="31" customFormat="1" ht="102" outlineLevel="1">
       <c r="A39" s="30" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
+        <v>137</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="47">
+      <c r="I39" s="46">
         <v>42843</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K39" s="48" t="s">
-        <v>159</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K39" s="47"/>
       <c r="L39" s="38" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M39" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N39" s="32"/>
     </row>
-    <row r="40" spans="1:14" s="31" customFormat="1" ht="102" outlineLevel="1">
+    <row r="40" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A40" s="30" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+        <v>82</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="47">
+      <c r="I40" s="46">
         <v>42843</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="47" t="s">
+        <v>151</v>
+      </c>
       <c r="L40" s="38" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M40" s="29" t="s">
         <v>18</v>
@@ -5306,122 +5296,122 @@
     </row>
     <row r="41" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A41" s="30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
+        <v>86</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="47">
+      <c r="I41" s="46">
         <v>42843</v>
       </c>
       <c r="J41" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K41" s="48" t="s">
-        <v>159</v>
+      <c r="K41" s="47" t="s">
+        <v>148</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M41" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N41" s="32"/>
     </row>
-    <row r="42" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A42" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="29" t="s">
+    <row r="42" spans="1:14" s="3" customFormat="1" ht="12.75">
+      <c r="A42" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="54"/>
+    </row>
+    <row r="43" spans="1:14" s="31" customFormat="1" ht="165.75" outlineLevel="1">
+      <c r="A43" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="46">
+        <v>42843</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="32"/>
+    </row>
+    <row r="44" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
+      <c r="A44" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="47">
+      <c r="D44" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="46">
         <v>42843</v>
       </c>
-      <c r="J42" s="29" t="s">
+      <c r="J44" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="L42" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="M42" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N42" s="32"/>
-    </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" ht="12.75">
-      <c r="A43" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="55"/>
-    </row>
-    <row r="44" spans="1:14" s="31" customFormat="1" ht="165.75" outlineLevel="1">
-      <c r="A44" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="47">
-        <v>42843</v>
-      </c>
-      <c r="J44" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="38"/>
+      <c r="K44" s="47" t="s">
+        <v>150</v>
+      </c>
       <c r="L44" s="38" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M44" s="29" t="s">
         <v>18</v>
@@ -5430,68 +5420,68 @@
     </row>
     <row r="45" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
       <c r="A45" s="30" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
+        <v>144</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="47">
+      <c r="I45" s="46">
         <v>42843</v>
       </c>
       <c r="J45" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="48" t="s">
-        <v>158</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K45" s="38"/>
       <c r="L45" s="38" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M45" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N45" s="32"/>
     </row>
-    <row r="46" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
+    <row r="46" spans="1:14" s="31" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A46" s="30" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
+        <v>139</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="47">
+      <c r="I46" s="46">
         <v>42843</v>
       </c>
       <c r="J46" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="47" t="s">
+        <v>150</v>
+      </c>
       <c r="L46" s="38" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M46" s="29" t="s">
         <v>18</v>
@@ -5500,330 +5490,328 @@
     </row>
     <row r="47" spans="1:14" s="31" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A47" s="30" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
+        <v>140</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="47">
+      <c r="I47" s="46">
         <v>42843</v>
       </c>
       <c r="J47" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K47" s="48" t="s">
-        <v>158</v>
+      <c r="K47" s="47" t="s">
+        <v>148</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M47" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N47" s="32"/>
     </row>
-    <row r="48" spans="1:14" s="31" customFormat="1" ht="114.75" outlineLevel="1">
+    <row r="48" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A48" s="30" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B48" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>116</v>
-      </c>
       <c r="D48" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
+        <v>153</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
       <c r="H48" s="28"/>
-      <c r="I48" s="47">
+      <c r="I48" s="46">
         <v>42843</v>
       </c>
       <c r="J48" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="L48" s="38" t="s">
-        <v>169</v>
+        <v>13</v>
+      </c>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47" t="s">
+        <v>161</v>
       </c>
       <c r="M48" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N48" s="32"/>
     </row>
-    <row r="49" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="49" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A49" s="30" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B49" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="56" t="s">
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="46">
+        <v>42843</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" s="47" t="s">
         <v>160</v>
-      </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="47">
-        <v>42843</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48" t="s">
-        <v>169</v>
       </c>
       <c r="M49" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N49" s="32"/>
     </row>
-    <row r="50" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="50" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A50" s="30" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
+        <v>95</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
       <c r="H50" s="28"/>
-      <c r="I50" s="47">
+      <c r="I50" s="46">
         <v>42843</v>
       </c>
       <c r="J50" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K50" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="L50" s="48" t="s">
-        <v>168</v>
+      <c r="K50" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="47" t="s">
+        <v>160</v>
       </c>
       <c r="M50" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N50" s="32"/>
     </row>
-    <row r="51" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="51" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
       <c r="A51" s="30" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B51" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
+      <c r="E51" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
       <c r="H51" s="28"/>
-      <c r="I51" s="47">
+      <c r="I51" s="46">
         <v>42843</v>
       </c>
       <c r="J51" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="L51" s="48" t="s">
-        <v>168</v>
+        <v>13</v>
+      </c>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47" t="s">
+        <v>161</v>
       </c>
       <c r="M51" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N51" s="32"/>
     </row>
-    <row r="52" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
+    <row r="52" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
       <c r="A52" s="30" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
+        <v>141</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="28"/>
-      <c r="I52" s="47">
+      <c r="I52" s="46">
         <v>42843</v>
       </c>
       <c r="J52" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48" t="s">
-        <v>169</v>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38" t="s">
+        <v>161</v>
       </c>
       <c r="M52" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N52" s="32"/>
     </row>
-    <row r="53" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
+    <row r="53" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A53" s="30" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
+        <v>155</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
       <c r="H53" s="28"/>
-      <c r="I53" s="47">
+      <c r="I53" s="46">
         <v>42843</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38" t="s">
-        <v>169</v>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47" t="s">
+        <v>161</v>
       </c>
       <c r="M53" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N53" s="32"/>
     </row>
-    <row r="54" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A54" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="B54" s="40" t="s">
+    <row r="54" spans="1:14" s="3" customFormat="1" ht="12.75">
+      <c r="A54" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="54"/>
+    </row>
+    <row r="55" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A55" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="46">
+        <v>42847</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="32"/>
+    </row>
+    <row r="56" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A56" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E54" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="47">
-        <v>42843</v>
-      </c>
-      <c r="J54" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="M54" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N54" s="32"/>
-    </row>
-    <row r="55" spans="1:14" s="3" customFormat="1" ht="12.75">
-      <c r="A55" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="55"/>
-    </row>
-    <row r="56" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A56" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
+      <c r="E56" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
       <c r="H56" s="28"/>
-      <c r="I56" s="47">
+      <c r="I56" s="46">
         <v>42847</v>
       </c>
       <c r="J56" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48" t="s">
-        <v>168</v>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47" t="s">
+        <v>160</v>
       </c>
       <c r="M56" s="29" t="s">
         <v>18</v>
@@ -5832,66 +5820,68 @@
     </row>
     <row r="57" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A57" s="30" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
+        <v>157</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
       <c r="H57" s="28"/>
-      <c r="I57" s="47">
+      <c r="I57" s="46">
         <v>42847</v>
       </c>
       <c r="J57" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48" t="s">
-        <v>168</v>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47" t="s">
+        <v>160</v>
       </c>
       <c r="M57" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N57" s="32"/>
     </row>
-    <row r="58" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="58" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A58" s="30" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C58" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
       <c r="H58" s="28"/>
-      <c r="I58" s="47">
+      <c r="I58" s="46">
         <v>42847</v>
       </c>
       <c r="J58" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48" t="s">
-        <v>168</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="L58" s="47" t="s">
+        <v>160</v>
       </c>
       <c r="M58" s="29" t="s">
         <v>18</v>
@@ -5900,73 +5890,46 @@
     </row>
     <row r="59" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A59" s="30" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
+        <v>123</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
       <c r="H59" s="28"/>
-      <c r="I59" s="47">
+      <c r="I59" s="46">
         <v>42847</v>
       </c>
       <c r="J59" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K59" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="L59" s="48" t="s">
-        <v>168</v>
+        <v>13</v>
+      </c>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47" t="s">
+        <v>160</v>
       </c>
       <c r="M59" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N59" s="32"/>
     </row>
-    <row r="60" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A60" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="47">
-        <v>42847</v>
-      </c>
-      <c r="J60" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="M60" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N60" s="32"/>
+    <row r="60" spans="1:14" ht="12" customHeight="1">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
     </row>
     <row r="61" spans="1:14" ht="12" customHeight="1">
       <c r="B61"/>
@@ -6049,9 +6012,7 @@
       <c r="M69"/>
       <c r="N69"/>
     </row>
-    <row r="70" spans="2:14" ht="12" customHeight="1">
-      <c r="B70"/>
-      <c r="C70"/>
+    <row r="70" spans="2:14" ht="13.5">
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
@@ -9369,53 +9330,23 @@
       <c r="M543"/>
       <c r="N543"/>
     </row>
-    <row r="544" spans="10:14" ht="13.5">
-      <c r="J544"/>
-      <c r="K544"/>
-      <c r="L544"/>
-      <c r="M544"/>
-      <c r="N544"/>
-    </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="A55:N55"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E15:G15"/>
+  <mergeCells count="69">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -9432,22 +9363,44 @@
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A29:N29"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="A54:N54"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Team Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA-Automation-Team-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="All Test Cases" sheetId="122" r:id="rId1"/>
@@ -1407,11 +1407,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1422,38 +1422,23 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1485,6 +1470,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1497,17 +1485,29 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4114,21 +4114,21 @@
   </sheetPr>
   <dimension ref="A1:R543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="18.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="39"/>
-    <col min="11" max="13" width="13.125" style="39" customWidth="1"/>
+    <col min="11" max="13" width="13.109375" style="39" customWidth="1"/>
     <col min="14" max="14" width="18" style="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4136,10 +4136,10 @@
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -4172,59 +4172,59 @@
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="12.75">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="26.4">
       <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="25.5">
+    <row r="5" spans="1:15" s="23" customFormat="1" ht="26.4">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4246,12 +4246,12 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4273,20 +4273,20 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4299,78 +4299,78 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="79" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="50" t="s">
         <v>16</v>
       </c>
       <c r="L9" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="57" t="s">
+      <c r="N9" s="71" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="56"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="49"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" s="26" customFormat="1" ht="15">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="81"/>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="78"/>
+    </row>
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="13.2">
       <c r="A12" s="52" t="s">
         <v>75</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="M12" s="53"/>
       <c r="N12" s="54"/>
     </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="13" spans="1:15" s="3" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A13" s="30" t="s">
         <v>162</v>
       </c>
@@ -4399,11 +4399,11 @@
       <c r="D13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="28"/>
       <c r="I13" s="46">
         <v>42841</v>
@@ -4431,11 +4431,11 @@
       <c r="D14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="28"/>
       <c r="I14" s="46">
         <v>42841</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="15" spans="1:15" s="3" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A15" s="30" t="s">
         <v>164</v>
       </c>
@@ -4463,11 +4463,11 @@
       <c r="D15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="28"/>
       <c r="I15" s="46">
         <v>42841</v>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="16" spans="1:15" s="3" customFormat="1" ht="79.2" outlineLevel="1">
       <c r="A16" s="30" t="s">
         <v>165</v>
       </c>
@@ -4497,11 +4497,11 @@
       <c r="D16" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="28"/>
       <c r="I16" s="46">
         <v>42841</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="N16" s="27"/>
     </row>
-    <row r="17" spans="1:18" s="3" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="17" spans="1:18" s="3" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A17" s="30" t="s">
         <v>166</v>
       </c>
@@ -4529,11 +4529,11 @@
       <c r="D17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="28"/>
       <c r="I17" s="46">
         <v>42841</v>
@@ -4563,11 +4563,11 @@
       <c r="D18" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="28"/>
       <c r="I18" s="46">
         <v>42841</v>
@@ -4595,11 +4595,11 @@
       <c r="D19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="28"/>
       <c r="I19" s="46">
         <v>42841</v>
@@ -4629,11 +4629,11 @@
       <c r="D20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="28"/>
       <c r="I20" s="46">
         <v>42841</v>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:18" s="3" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="21" spans="1:18" s="3" customFormat="1" ht="105.6" outlineLevel="1">
       <c r="A21" s="30" t="s">
         <v>170</v>
       </c>
@@ -4661,11 +4661,11 @@
       <c r="D21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="28"/>
       <c r="I21" s="46">
         <v>42841</v>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="22" spans="1:18" s="31" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A22" s="30" t="s">
         <v>171</v>
       </c>
@@ -4693,11 +4693,11 @@
       <c r="D22" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="28"/>
       <c r="I22" s="46">
         <v>42841</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="N22" s="32"/>
     </row>
-    <row r="23" spans="1:18" s="31" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="23" spans="1:18" s="31" customFormat="1" ht="118.8" outlineLevel="1">
       <c r="A23" s="30" t="s">
         <v>172</v>
       </c>
@@ -4727,11 +4727,11 @@
       <c r="D23" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="28"/>
       <c r="I23" s="46">
         <v>42841</v>
@@ -4754,7 +4754,7 @@
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
     </row>
-    <row r="24" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="24" spans="1:18" s="31" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A24" s="30" t="s">
         <v>173</v>
       </c>
@@ -4765,11 +4765,11 @@
       <c r="D24" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="28"/>
       <c r="I24" s="46">
         <v>42841</v>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="N24" s="32"/>
     </row>
-    <row r="25" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="25" spans="1:18" s="31" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A25" s="30" t="s">
         <v>174</v>
       </c>
@@ -4797,11 +4797,11 @@
       <c r="D25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="28"/>
       <c r="I25" s="46">
         <v>42841</v>
@@ -4829,11 +4829,11 @@
       <c r="D26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="28"/>
       <c r="I26" s="46">
         <v>42841</v>
@@ -4861,11 +4861,11 @@
       <c r="D27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="28"/>
       <c r="I27" s="46">
         <v>42841</v>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="N27" s="32"/>
     </row>
-    <row r="28" spans="1:18" s="3" customFormat="1" ht="12.75">
+    <row r="28" spans="1:18" s="3" customFormat="1" ht="13.2">
       <c r="A28" s="52" t="s">
         <v>74</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="M28" s="53"/>
       <c r="N28" s="54"/>
     </row>
-    <row r="29" spans="1:18" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="29" spans="1:18" s="31" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A29" s="30" t="s">
         <v>177</v>
       </c>
@@ -4913,11 +4913,11 @@
       <c r="D29" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="28"/>
       <c r="I29" s="46">
         <v>42843</v>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:18" s="31" customFormat="1" ht="51" outlineLevel="1">
+    <row r="30" spans="1:18" s="31" customFormat="1" ht="52.8" outlineLevel="1">
       <c r="A30" s="30" t="s">
         <v>178</v>
       </c>
@@ -4945,11 +4945,11 @@
       <c r="D30" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="28"/>
       <c r="I30" s="46">
         <v>42843</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="31" spans="1:18" s="31" customFormat="1" ht="79.2" outlineLevel="1">
       <c r="A31" s="30" t="s">
         <v>179</v>
       </c>
@@ -4979,11 +4979,11 @@
       <c r="D31" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="28"/>
       <c r="I31" s="46">
         <v>42843</v>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:18" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="32" spans="1:18" s="31" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A32" s="30" t="s">
         <v>180</v>
       </c>
@@ -5013,11 +5013,11 @@
       <c r="D32" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="28"/>
       <c r="I32" s="46">
         <v>42843</v>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+    <row r="33" spans="1:14" s="31" customFormat="1" ht="26.4" outlineLevel="1">
       <c r="A33" s="30" t="s">
         <v>181</v>
       </c>
@@ -5047,11 +5047,11 @@
       <c r="D33" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
       <c r="H33" s="28"/>
       <c r="I33" s="46">
         <v>42843</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" ht="12.75">
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="13.2">
       <c r="A34" s="52" t="s">
         <v>73</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="M34" s="53"/>
       <c r="N34" s="54"/>
     </row>
-    <row r="35" spans="1:14" s="31" customFormat="1" ht="140.25" outlineLevel="1">
+    <row r="35" spans="1:14" s="31" customFormat="1" ht="145.19999999999999" outlineLevel="1">
       <c r="A35" s="30" t="s">
         <v>182</v>
       </c>
@@ -5099,11 +5099,11 @@
       <c r="D35" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="28"/>
       <c r="I35" s="46">
         <v>42843</v>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="N35" s="32"/>
     </row>
-    <row r="36" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
+    <row r="36" spans="1:14" s="31" customFormat="1" ht="66" outlineLevel="1">
       <c r="A36" s="30" t="s">
         <v>183</v>
       </c>
@@ -5133,11 +5133,11 @@
       <c r="D36" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="28"/>
       <c r="I36" s="46">
         <v>42843</v>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="37" spans="1:14" s="31" customFormat="1" ht="118.8" outlineLevel="1">
       <c r="A37" s="30" t="s">
         <v>184</v>
       </c>
@@ -5167,11 +5167,11 @@
       <c r="D37" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="28"/>
       <c r="I37" s="46">
         <v>42843</v>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="N37" s="32"/>
     </row>
-    <row r="38" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="38" spans="1:14" s="31" customFormat="1" ht="105.6" outlineLevel="1">
       <c r="A38" s="30" t="s">
         <v>185</v>
       </c>
@@ -5201,11 +5201,11 @@
       <c r="D38" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
       <c r="H38" s="28"/>
       <c r="I38" s="46">
         <v>42843</v>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="N38" s="32"/>
     </row>
-    <row r="39" spans="1:14" s="31" customFormat="1" ht="102" outlineLevel="1">
+    <row r="39" spans="1:14" s="31" customFormat="1" ht="118.8" outlineLevel="1">
       <c r="A39" s="30" t="s">
         <v>186</v>
       </c>
@@ -5237,11 +5237,11 @@
       <c r="D39" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
       <c r="H39" s="28"/>
       <c r="I39" s="46">
         <v>42843</v>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="N39" s="32"/>
     </row>
-    <row r="40" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="40" spans="1:14" s="31" customFormat="1" ht="66" outlineLevel="1">
       <c r="A40" s="30" t="s">
         <v>187</v>
       </c>
@@ -5271,11 +5271,11 @@
       <c r="D40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="28"/>
       <c r="I40" s="46">
         <v>42843</v>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="N40" s="32"/>
     </row>
-    <row r="41" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="41" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
       <c r="A41" s="30" t="s">
         <v>188</v>
       </c>
@@ -5307,11 +5307,11 @@
       <c r="D41" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
       <c r="H41" s="28"/>
       <c r="I41" s="46">
         <v>42843</v>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="N41" s="32"/>
     </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" ht="12.75">
+    <row r="42" spans="1:14" s="3" customFormat="1" ht="13.2">
       <c r="A42" s="52" t="s">
         <v>87</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="M42" s="53"/>
       <c r="N42" s="54"/>
     </row>
-    <row r="43" spans="1:14" s="31" customFormat="1" ht="165.75" outlineLevel="1">
+    <row r="43" spans="1:14" s="31" customFormat="1" ht="171.6" outlineLevel="1">
       <c r="A43" s="30" t="s">
         <v>189</v>
       </c>
@@ -5361,11 +5361,11 @@
       <c r="D43" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
       <c r="H43" s="28"/>
       <c r="I43" s="46">
         <v>42843</v>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="N43" s="32"/>
     </row>
-    <row r="44" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
+    <row r="44" spans="1:14" s="31" customFormat="1" ht="158.4" outlineLevel="1">
       <c r="A44" s="30" t="s">
         <v>190</v>
       </c>
@@ -5395,11 +5395,11 @@
       <c r="D44" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
       <c r="H44" s="28"/>
       <c r="I44" s="46">
         <v>42843</v>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="N44" s="32"/>
     </row>
-    <row r="45" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
+    <row r="45" spans="1:14" s="31" customFormat="1" ht="158.4" outlineLevel="1">
       <c r="A45" s="30" t="s">
         <v>191</v>
       </c>
@@ -5431,11 +5431,11 @@
       <c r="D45" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="H45" s="28"/>
       <c r="I45" s="46">
         <v>42843</v>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="N45" s="32"/>
     </row>
-    <row r="46" spans="1:14" s="31" customFormat="1" ht="114.75" outlineLevel="1">
+    <row r="46" spans="1:14" s="31" customFormat="1" ht="132" outlineLevel="1">
       <c r="A46" s="30" t="s">
         <v>192</v>
       </c>
@@ -5465,11 +5465,11 @@
       <c r="D46" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="28"/>
       <c r="I46" s="46">
         <v>42843</v>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="N46" s="32"/>
     </row>
-    <row r="47" spans="1:14" s="31" customFormat="1" ht="114.75" outlineLevel="1">
+    <row r="47" spans="1:14" s="31" customFormat="1" ht="118.8" outlineLevel="1">
       <c r="A47" s="30" t="s">
         <v>193</v>
       </c>
@@ -5501,11 +5501,11 @@
       <c r="D47" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
       <c r="H47" s="28"/>
       <c r="I47" s="46">
         <v>42843</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="N47" s="32"/>
     </row>
-    <row r="48" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="48" spans="1:14" s="31" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A48" s="30" t="s">
         <v>194</v>
       </c>
@@ -5537,11 +5537,11 @@
       <c r="D48" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="28"/>
       <c r="I48" s="46">
         <v>42843</v>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="N48" s="32"/>
     </row>
-    <row r="49" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="49" spans="1:14" s="31" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A49" s="30" t="s">
         <v>195</v>
       </c>
@@ -5571,11 +5571,11 @@
       <c r="D49" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
       <c r="H49" s="28"/>
       <c r="I49" s="46">
         <v>42843</v>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="N49" s="32"/>
     </row>
-    <row r="50" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="50" spans="1:14" s="31" customFormat="1" ht="92.4" outlineLevel="1">
       <c r="A50" s="30" t="s">
         <v>196</v>
       </c>
@@ -5607,11 +5607,11 @@
       <c r="D50" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
       <c r="H50" s="28"/>
       <c r="I50" s="46">
         <v>42843</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="N50" s="32"/>
     </row>
-    <row r="51" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
+    <row r="51" spans="1:14" s="31" customFormat="1" ht="52.8" outlineLevel="1">
       <c r="A51" s="30" t="s">
         <v>197</v>
       </c>
@@ -5643,11 +5643,11 @@
       <c r="D51" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
       <c r="H51" s="28"/>
       <c r="I51" s="46">
         <v>42843</v>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="N51" s="32"/>
     </row>
-    <row r="52" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
+    <row r="52" spans="1:14" s="31" customFormat="1" ht="158.4" outlineLevel="1">
       <c r="A52" s="30" t="s">
         <v>199</v>
       </c>
@@ -5677,11 +5677,11 @@
       <c r="D52" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
       <c r="H52" s="28"/>
       <c r="I52" s="46">
         <v>42843</v>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="N52" s="32"/>
     </row>
-    <row r="53" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="53" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
       <c r="A53" s="30" t="s">
         <v>198</v>
       </c>
@@ -5711,11 +5711,11 @@
       <c r="D53" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
       <c r="H53" s="28"/>
       <c r="I53" s="46">
         <v>42843</v>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="N53" s="32"/>
     </row>
-    <row r="54" spans="1:14" s="3" customFormat="1" ht="12.75">
+    <row r="54" spans="1:14" s="3" customFormat="1" ht="13.2">
       <c r="A54" s="52" t="s">
         <v>205</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="M54" s="53"/>
       <c r="N54" s="54"/>
     </row>
-    <row r="55" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+    <row r="55" spans="1:14" s="31" customFormat="1" ht="26.4" outlineLevel="1">
       <c r="A55" s="30" t="s">
         <v>200</v>
       </c>
@@ -5763,11 +5763,11 @@
       <c r="D55" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
       <c r="H55" s="28"/>
       <c r="I55" s="46">
         <v>42847</v>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="N55" s="32"/>
     </row>
-    <row r="56" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="56" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
       <c r="A56" s="30" t="s">
         <v>201</v>
       </c>
@@ -5797,11 +5797,11 @@
       <c r="D56" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
       <c r="H56" s="28"/>
       <c r="I56" s="46">
         <v>42847</v>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="N56" s="32"/>
     </row>
-    <row r="57" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="57" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
       <c r="A57" s="30" t="s">
         <v>202</v>
       </c>
@@ -5831,11 +5831,11 @@
       <c r="D57" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
       <c r="H57" s="28"/>
       <c r="I57" s="46">
         <v>42847</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="N57" s="32"/>
     </row>
-    <row r="58" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="58" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
       <c r="A58" s="30" t="s">
         <v>203</v>
       </c>
@@ -5865,11 +5865,11 @@
       <c r="D58" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="28"/>
       <c r="I58" s="46">
         <v>42847</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="N58" s="32"/>
     </row>
-    <row r="59" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="59" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
       <c r="A59" s="30" t="s">
         <v>204</v>
       </c>
@@ -5901,11 +5901,11 @@
       <c r="D59" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
       <c r="H59" s="28"/>
       <c r="I59" s="46">
         <v>42847</v>
@@ -6012,3318 +6012,3318 @@
       <c r="M69"/>
       <c r="N69"/>
     </row>
-    <row r="70" spans="2:14" ht="13.5">
+    <row r="70" spans="2:14" ht="13.2">
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
     </row>
-    <row r="71" spans="2:14" ht="13.5">
+    <row r="71" spans="2:14" ht="13.2">
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
     </row>
-    <row r="72" spans="2:14" ht="13.5">
+    <row r="72" spans="2:14" ht="13.2">
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
     </row>
-    <row r="73" spans="2:14" ht="13.5">
+    <row r="73" spans="2:14" ht="13.2">
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
     </row>
-    <row r="74" spans="2:14" ht="13.5">
+    <row r="74" spans="2:14" ht="13.2">
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
     </row>
-    <row r="75" spans="2:14" ht="13.5">
+    <row r="75" spans="2:14" ht="13.2">
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
     </row>
-    <row r="76" spans="2:14" ht="13.5">
+    <row r="76" spans="2:14" ht="13.2">
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
     </row>
-    <row r="77" spans="2:14" ht="13.5">
+    <row r="77" spans="2:14" ht="13.2">
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
     </row>
-    <row r="78" spans="2:14" ht="13.5">
+    <row r="78" spans="2:14" ht="13.2">
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
     </row>
-    <row r="79" spans="2:14" ht="13.5">
+    <row r="79" spans="2:14" ht="13.2">
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79"/>
     </row>
-    <row r="80" spans="2:14" ht="13.5">
+    <row r="80" spans="2:14" ht="13.2">
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
     </row>
-    <row r="81" spans="10:14" ht="13.5">
+    <row r="81" spans="10:14" ht="13.2">
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
     </row>
-    <row r="82" spans="10:14" ht="13.5">
+    <row r="82" spans="10:14" ht="13.2">
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
       <c r="N82"/>
     </row>
-    <row r="83" spans="10:14" ht="13.5">
+    <row r="83" spans="10:14" ht="13.2">
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
     </row>
-    <row r="84" spans="10:14" ht="13.5">
+    <row r="84" spans="10:14" ht="13.2">
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
     </row>
-    <row r="85" spans="10:14" ht="13.5">
+    <row r="85" spans="10:14" ht="13.2">
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85"/>
     </row>
-    <row r="86" spans="10:14" ht="13.5">
+    <row r="86" spans="10:14" ht="13.2">
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86"/>
     </row>
-    <row r="87" spans="10:14" ht="13.5">
+    <row r="87" spans="10:14" ht="13.2">
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87"/>
     </row>
-    <row r="88" spans="10:14" ht="13.5">
+    <row r="88" spans="10:14" ht="13.2">
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88"/>
     </row>
-    <row r="89" spans="10:14" ht="13.5">
+    <row r="89" spans="10:14" ht="13.2">
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
     </row>
-    <row r="90" spans="10:14" ht="13.5">
+    <row r="90" spans="10:14" ht="13.2">
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
       <c r="N90"/>
     </row>
-    <row r="91" spans="10:14" ht="13.5">
+    <row r="91" spans="10:14" ht="13.2">
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91"/>
       <c r="N91"/>
     </row>
-    <row r="92" spans="10:14" ht="13.5">
+    <row r="92" spans="10:14" ht="13.2">
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92"/>
       <c r="M92"/>
       <c r="N92"/>
     </row>
-    <row r="93" spans="10:14" ht="13.5">
+    <row r="93" spans="10:14" ht="13.2">
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
       <c r="N93"/>
     </row>
-    <row r="94" spans="10:14" ht="13.5">
+    <row r="94" spans="10:14" ht="13.2">
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
       <c r="N94"/>
     </row>
-    <row r="95" spans="10:14" ht="13.5">
+    <row r="95" spans="10:14" ht="13.2">
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95"/>
     </row>
-    <row r="96" spans="10:14" ht="13.5">
+    <row r="96" spans="10:14" ht="13.2">
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
       <c r="M96"/>
       <c r="N96"/>
     </row>
-    <row r="97" spans="10:14" ht="13.5">
+    <row r="97" spans="10:14" ht="13.2">
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97"/>
     </row>
-    <row r="98" spans="10:14" ht="13.5">
+    <row r="98" spans="10:14" ht="13.2">
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
     </row>
-    <row r="99" spans="10:14" ht="13.5">
+    <row r="99" spans="10:14" ht="13.2">
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
     </row>
-    <row r="100" spans="10:14" ht="13.5">
+    <row r="100" spans="10:14" ht="13.2">
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100"/>
     </row>
-    <row r="101" spans="10:14" ht="13.5">
+    <row r="101" spans="10:14" ht="13.2">
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
     </row>
-    <row r="102" spans="10:14" ht="13.5">
+    <row r="102" spans="10:14" ht="13.2">
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
     </row>
-    <row r="103" spans="10:14" ht="13.5">
+    <row r="103" spans="10:14" ht="13.2">
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
     </row>
-    <row r="104" spans="10:14" ht="13.5">
+    <row r="104" spans="10:14" ht="13.2">
       <c r="J104"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
     </row>
-    <row r="105" spans="10:14" ht="13.5">
+    <row r="105" spans="10:14" ht="13.2">
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
     </row>
-    <row r="106" spans="10:14" ht="13.5">
+    <row r="106" spans="10:14" ht="13.2">
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
       <c r="N106"/>
     </row>
-    <row r="107" spans="10:14" ht="13.5">
+    <row r="107" spans="10:14" ht="13.2">
       <c r="J107"/>
       <c r="K107"/>
       <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
     </row>
-    <row r="108" spans="10:14" ht="13.5">
+    <row r="108" spans="10:14" ht="13.2">
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
     </row>
-    <row r="109" spans="10:14" ht="13.5">
+    <row r="109" spans="10:14" ht="13.2">
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
     </row>
-    <row r="110" spans="10:14" ht="13.5">
+    <row r="110" spans="10:14" ht="13.2">
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110"/>
       <c r="M110"/>
       <c r="N110"/>
     </row>
-    <row r="111" spans="10:14" ht="13.5">
+    <row r="111" spans="10:14" ht="13.2">
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
     </row>
-    <row r="112" spans="10:14" ht="13.5">
+    <row r="112" spans="10:14" ht="13.2">
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
     </row>
-    <row r="113" spans="10:14" ht="13.5">
+    <row r="113" spans="10:14" ht="13.2">
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
     </row>
-    <row r="114" spans="10:14" ht="13.5">
+    <row r="114" spans="10:14" ht="13.2">
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114"/>
     </row>
-    <row r="115" spans="10:14" ht="13.5">
+    <row r="115" spans="10:14" ht="13.2">
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115"/>
     </row>
-    <row r="116" spans="10:14" ht="13.5">
+    <row r="116" spans="10:14" ht="13.2">
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116"/>
       <c r="M116"/>
       <c r="N116"/>
     </row>
-    <row r="117" spans="10:14" ht="13.5">
+    <row r="117" spans="10:14" ht="13.2">
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
     </row>
-    <row r="118" spans="10:14" ht="13.5">
+    <row r="118" spans="10:14" ht="13.2">
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118"/>
       <c r="M118"/>
       <c r="N118"/>
     </row>
-    <row r="119" spans="10:14" ht="13.5">
+    <row r="119" spans="10:14" ht="13.2">
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
-    <row r="120" spans="10:14" ht="13.5">
+    <row r="120" spans="10:14" ht="13.2">
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120"/>
       <c r="M120"/>
       <c r="N120"/>
     </row>
-    <row r="121" spans="10:14" ht="13.5">
+    <row r="121" spans="10:14" ht="13.2">
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121"/>
       <c r="M121"/>
       <c r="N121"/>
     </row>
-    <row r="122" spans="10:14" ht="13.5">
+    <row r="122" spans="10:14" ht="13.2">
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122"/>
       <c r="M122"/>
       <c r="N122"/>
     </row>
-    <row r="123" spans="10:14" ht="13.5">
+    <row r="123" spans="10:14" ht="13.2">
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123"/>
       <c r="N123"/>
     </row>
-    <row r="124" spans="10:14" ht="13.5">
+    <row r="124" spans="10:14" ht="13.2">
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
     </row>
-    <row r="125" spans="10:14" ht="13.5">
+    <row r="125" spans="10:14" ht="13.2">
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
     </row>
-    <row r="126" spans="10:14" ht="13.5">
+    <row r="126" spans="10:14" ht="13.2">
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126"/>
       <c r="M126"/>
       <c r="N126"/>
     </row>
-    <row r="127" spans="10:14" ht="13.5">
+    <row r="127" spans="10:14" ht="13.2">
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127"/>
       <c r="M127"/>
       <c r="N127"/>
     </row>
-    <row r="128" spans="10:14" ht="13.5">
+    <row r="128" spans="10:14" ht="13.2">
       <c r="J128"/>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
     </row>
-    <row r="129" spans="10:14" ht="13.5">
+    <row r="129" spans="10:14" ht="13.2">
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
     </row>
-    <row r="130" spans="10:14" ht="13.5">
+    <row r="130" spans="10:14" ht="13.2">
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
     </row>
-    <row r="131" spans="10:14" ht="13.5">
+    <row r="131" spans="10:14" ht="13.2">
       <c r="J131"/>
       <c r="K131"/>
       <c r="L131"/>
       <c r="M131"/>
       <c r="N131"/>
     </row>
-    <row r="132" spans="10:14" ht="13.5">
+    <row r="132" spans="10:14" ht="13.2">
       <c r="J132"/>
       <c r="K132"/>
       <c r="L132"/>
       <c r="M132"/>
       <c r="N132"/>
     </row>
-    <row r="133" spans="10:14" ht="13.5">
+    <row r="133" spans="10:14" ht="13.2">
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
     </row>
-    <row r="134" spans="10:14" ht="13.5">
+    <row r="134" spans="10:14" ht="13.2">
       <c r="J134"/>
       <c r="K134"/>
       <c r="L134"/>
       <c r="M134"/>
       <c r="N134"/>
     </row>
-    <row r="135" spans="10:14" ht="13.5">
+    <row r="135" spans="10:14" ht="13.2">
       <c r="J135"/>
       <c r="K135"/>
       <c r="L135"/>
       <c r="M135"/>
       <c r="N135"/>
     </row>
-    <row r="136" spans="10:14" ht="13.5">
+    <row r="136" spans="10:14" ht="13.2">
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
       <c r="N136"/>
     </row>
-    <row r="137" spans="10:14" ht="13.5">
+    <row r="137" spans="10:14" ht="13.2">
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137"/>
       <c r="M137"/>
       <c r="N137"/>
     </row>
-    <row r="138" spans="10:14" ht="13.5">
+    <row r="138" spans="10:14" ht="13.2">
       <c r="J138"/>
       <c r="K138"/>
       <c r="L138"/>
       <c r="M138"/>
       <c r="N138"/>
     </row>
-    <row r="139" spans="10:14" ht="13.5">
+    <row r="139" spans="10:14" ht="13.2">
       <c r="J139"/>
       <c r="K139"/>
       <c r="L139"/>
       <c r="M139"/>
       <c r="N139"/>
     </row>
-    <row r="140" spans="10:14" ht="13.5">
+    <row r="140" spans="10:14" ht="13.2">
       <c r="J140"/>
       <c r="K140"/>
       <c r="L140"/>
       <c r="M140"/>
       <c r="N140"/>
     </row>
-    <row r="141" spans="10:14" ht="13.5">
+    <row r="141" spans="10:14" ht="13.2">
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141"/>
       <c r="M141"/>
       <c r="N141"/>
     </row>
-    <row r="142" spans="10:14" ht="13.5">
+    <row r="142" spans="10:14" ht="13.2">
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142"/>
       <c r="M142"/>
       <c r="N142"/>
     </row>
-    <row r="143" spans="10:14" ht="13.5">
+    <row r="143" spans="10:14" ht="13.2">
       <c r="J143"/>
       <c r="K143"/>
       <c r="L143"/>
       <c r="M143"/>
       <c r="N143"/>
     </row>
-    <row r="144" spans="10:14" ht="13.5">
+    <row r="144" spans="10:14" ht="13.2">
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144"/>
       <c r="M144"/>
       <c r="N144"/>
     </row>
-    <row r="145" spans="10:14" ht="13.5">
+    <row r="145" spans="10:14" ht="13.2">
       <c r="J145"/>
       <c r="K145"/>
       <c r="L145"/>
       <c r="M145"/>
       <c r="N145"/>
     </row>
-    <row r="146" spans="10:14" ht="13.5">
+    <row r="146" spans="10:14" ht="13.2">
       <c r="J146"/>
       <c r="K146"/>
       <c r="L146"/>
       <c r="M146"/>
       <c r="N146"/>
     </row>
-    <row r="147" spans="10:14" ht="13.5">
+    <row r="147" spans="10:14" ht="13.2">
       <c r="J147"/>
       <c r="K147"/>
       <c r="L147"/>
       <c r="M147"/>
       <c r="N147"/>
     </row>
-    <row r="148" spans="10:14" ht="13.5">
+    <row r="148" spans="10:14" ht="13.2">
       <c r="J148"/>
       <c r="K148"/>
       <c r="L148"/>
       <c r="M148"/>
       <c r="N148"/>
     </row>
-    <row r="149" spans="10:14" ht="13.5">
+    <row r="149" spans="10:14" ht="13.2">
       <c r="J149"/>
       <c r="K149"/>
       <c r="L149"/>
       <c r="M149"/>
       <c r="N149"/>
     </row>
-    <row r="150" spans="10:14" ht="13.5">
+    <row r="150" spans="10:14" ht="13.2">
       <c r="J150"/>
       <c r="K150"/>
       <c r="L150"/>
       <c r="M150"/>
       <c r="N150"/>
     </row>
-    <row r="151" spans="10:14" ht="13.5">
+    <row r="151" spans="10:14" ht="13.2">
       <c r="J151"/>
       <c r="K151"/>
       <c r="L151"/>
       <c r="M151"/>
       <c r="N151"/>
     </row>
-    <row r="152" spans="10:14" ht="13.5">
+    <row r="152" spans="10:14" ht="13.2">
       <c r="J152"/>
       <c r="K152"/>
       <c r="L152"/>
       <c r="M152"/>
       <c r="N152"/>
     </row>
-    <row r="153" spans="10:14" ht="13.5">
+    <row r="153" spans="10:14" ht="13.2">
       <c r="J153"/>
       <c r="K153"/>
       <c r="L153"/>
       <c r="M153"/>
       <c r="N153"/>
     </row>
-    <row r="154" spans="10:14" ht="13.5">
+    <row r="154" spans="10:14" ht="13.2">
       <c r="J154"/>
       <c r="K154"/>
       <c r="L154"/>
       <c r="M154"/>
       <c r="N154"/>
     </row>
-    <row r="155" spans="10:14" ht="13.5">
+    <row r="155" spans="10:14" ht="13.2">
       <c r="J155"/>
       <c r="K155"/>
       <c r="L155"/>
       <c r="M155"/>
       <c r="N155"/>
     </row>
-    <row r="156" spans="10:14" ht="13.5">
+    <row r="156" spans="10:14" ht="13.2">
       <c r="J156"/>
       <c r="K156"/>
       <c r="L156"/>
       <c r="M156"/>
       <c r="N156"/>
     </row>
-    <row r="157" spans="10:14" ht="13.5">
+    <row r="157" spans="10:14" ht="13.2">
       <c r="J157"/>
       <c r="K157"/>
       <c r="L157"/>
       <c r="M157"/>
       <c r="N157"/>
     </row>
-    <row r="158" spans="10:14" ht="13.5">
+    <row r="158" spans="10:14" ht="13.2">
       <c r="J158"/>
       <c r="K158"/>
       <c r="L158"/>
       <c r="M158"/>
       <c r="N158"/>
     </row>
-    <row r="159" spans="10:14" ht="13.5">
+    <row r="159" spans="10:14" ht="13.2">
       <c r="J159"/>
       <c r="K159"/>
       <c r="L159"/>
       <c r="M159"/>
       <c r="N159"/>
     </row>
-    <row r="160" spans="10:14" ht="13.5">
+    <row r="160" spans="10:14" ht="13.2">
       <c r="J160"/>
       <c r="K160"/>
       <c r="L160"/>
       <c r="M160"/>
       <c r="N160"/>
     </row>
-    <row r="161" spans="10:14" ht="13.5">
+    <row r="161" spans="10:14" ht="13.2">
       <c r="J161"/>
       <c r="K161"/>
       <c r="L161"/>
       <c r="M161"/>
       <c r="N161"/>
     </row>
-    <row r="162" spans="10:14" ht="13.5">
+    <row r="162" spans="10:14" ht="13.2">
       <c r="J162"/>
       <c r="K162"/>
       <c r="L162"/>
       <c r="M162"/>
       <c r="N162"/>
     </row>
-    <row r="163" spans="10:14" ht="13.5">
+    <row r="163" spans="10:14" ht="13.2">
       <c r="J163"/>
       <c r="K163"/>
       <c r="L163"/>
       <c r="M163"/>
       <c r="N163"/>
     </row>
-    <row r="164" spans="10:14" ht="13.5">
+    <row r="164" spans="10:14" ht="13.2">
       <c r="J164"/>
       <c r="K164"/>
       <c r="L164"/>
       <c r="M164"/>
       <c r="N164"/>
     </row>
-    <row r="165" spans="10:14" ht="13.5">
+    <row r="165" spans="10:14" ht="13.2">
       <c r="J165"/>
       <c r="K165"/>
       <c r="L165"/>
       <c r="M165"/>
       <c r="N165"/>
     </row>
-    <row r="166" spans="10:14" ht="13.5">
+    <row r="166" spans="10:14" ht="13.2">
       <c r="J166"/>
       <c r="K166"/>
       <c r="L166"/>
       <c r="M166"/>
       <c r="N166"/>
     </row>
-    <row r="167" spans="10:14" ht="13.5">
+    <row r="167" spans="10:14" ht="13.2">
       <c r="J167"/>
       <c r="K167"/>
       <c r="L167"/>
       <c r="M167"/>
       <c r="N167"/>
     </row>
-    <row r="168" spans="10:14" ht="13.5">
+    <row r="168" spans="10:14" ht="13.2">
       <c r="J168"/>
       <c r="K168"/>
       <c r="L168"/>
       <c r="M168"/>
       <c r="N168"/>
     </row>
-    <row r="169" spans="10:14" ht="13.5">
+    <row r="169" spans="10:14" ht="13.2">
       <c r="J169"/>
       <c r="K169"/>
       <c r="L169"/>
       <c r="M169"/>
       <c r="N169"/>
     </row>
-    <row r="170" spans="10:14" ht="13.5">
+    <row r="170" spans="10:14" ht="13.2">
       <c r="J170"/>
       <c r="K170"/>
       <c r="L170"/>
       <c r="M170"/>
       <c r="N170"/>
     </row>
-    <row r="171" spans="10:14" ht="13.5">
+    <row r="171" spans="10:14" ht="13.2">
       <c r="J171"/>
       <c r="K171"/>
       <c r="L171"/>
       <c r="M171"/>
       <c r="N171"/>
     </row>
-    <row r="172" spans="10:14" ht="13.5">
+    <row r="172" spans="10:14" ht="13.2">
       <c r="J172"/>
       <c r="K172"/>
       <c r="L172"/>
       <c r="M172"/>
       <c r="N172"/>
     </row>
-    <row r="173" spans="10:14" ht="13.5">
+    <row r="173" spans="10:14" ht="13.2">
       <c r="J173"/>
       <c r="K173"/>
       <c r="L173"/>
       <c r="M173"/>
       <c r="N173"/>
     </row>
-    <row r="174" spans="10:14" ht="13.5">
+    <row r="174" spans="10:14" ht="13.2">
       <c r="J174"/>
       <c r="K174"/>
       <c r="L174"/>
       <c r="M174"/>
       <c r="N174"/>
     </row>
-    <row r="175" spans="10:14" ht="13.5">
+    <row r="175" spans="10:14" ht="13.2">
       <c r="J175"/>
       <c r="K175"/>
       <c r="L175"/>
       <c r="M175"/>
       <c r="N175"/>
     </row>
-    <row r="176" spans="10:14" ht="13.5">
+    <row r="176" spans="10:14" ht="13.2">
       <c r="J176"/>
       <c r="K176"/>
       <c r="L176"/>
       <c r="M176"/>
       <c r="N176"/>
     </row>
-    <row r="177" spans="10:14" ht="13.5">
+    <row r="177" spans="10:14" ht="13.2">
       <c r="J177"/>
       <c r="K177"/>
       <c r="L177"/>
       <c r="M177"/>
       <c r="N177"/>
     </row>
-    <row r="178" spans="10:14" ht="13.5">
+    <row r="178" spans="10:14" ht="13.2">
       <c r="J178"/>
       <c r="K178"/>
       <c r="L178"/>
       <c r="M178"/>
       <c r="N178"/>
     </row>
-    <row r="179" spans="10:14" ht="13.5">
+    <row r="179" spans="10:14" ht="13.2">
       <c r="J179"/>
       <c r="K179"/>
       <c r="L179"/>
       <c r="M179"/>
       <c r="N179"/>
     </row>
-    <row r="180" spans="10:14" ht="13.5">
+    <row r="180" spans="10:14" ht="13.2">
       <c r="J180"/>
       <c r="K180"/>
       <c r="L180"/>
       <c r="M180"/>
       <c r="N180"/>
     </row>
-    <row r="181" spans="10:14" ht="13.5">
+    <row r="181" spans="10:14" ht="13.2">
       <c r="J181"/>
       <c r="K181"/>
       <c r="L181"/>
       <c r="M181"/>
       <c r="N181"/>
     </row>
-    <row r="182" spans="10:14" ht="13.5">
+    <row r="182" spans="10:14" ht="13.2">
       <c r="J182"/>
       <c r="K182"/>
       <c r="L182"/>
       <c r="M182"/>
       <c r="N182"/>
     </row>
-    <row r="183" spans="10:14" ht="13.5">
+    <row r="183" spans="10:14" ht="13.2">
       <c r="J183"/>
       <c r="K183"/>
       <c r="L183"/>
       <c r="M183"/>
       <c r="N183"/>
     </row>
-    <row r="184" spans="10:14" ht="13.5">
+    <row r="184" spans="10:14" ht="13.2">
       <c r="J184"/>
       <c r="K184"/>
       <c r="L184"/>
       <c r="M184"/>
       <c r="N184"/>
     </row>
-    <row r="185" spans="10:14" ht="13.5">
+    <row r="185" spans="10:14" ht="13.2">
       <c r="J185"/>
       <c r="K185"/>
       <c r="L185"/>
       <c r="M185"/>
       <c r="N185"/>
     </row>
-    <row r="186" spans="10:14" ht="13.5">
+    <row r="186" spans="10:14" ht="13.2">
       <c r="J186"/>
       <c r="K186"/>
       <c r="L186"/>
       <c r="M186"/>
       <c r="N186"/>
     </row>
-    <row r="187" spans="10:14" ht="13.5">
+    <row r="187" spans="10:14" ht="13.2">
       <c r="J187"/>
       <c r="K187"/>
       <c r="L187"/>
       <c r="M187"/>
       <c r="N187"/>
     </row>
-    <row r="188" spans="10:14" ht="13.5">
+    <row r="188" spans="10:14" ht="13.2">
       <c r="J188"/>
       <c r="K188"/>
       <c r="L188"/>
       <c r="M188"/>
       <c r="N188"/>
     </row>
-    <row r="189" spans="10:14" ht="13.5">
+    <row r="189" spans="10:14" ht="13.2">
       <c r="J189"/>
       <c r="K189"/>
       <c r="L189"/>
       <c r="M189"/>
       <c r="N189"/>
     </row>
-    <row r="190" spans="10:14" ht="13.5">
+    <row r="190" spans="10:14" ht="13.2">
       <c r="J190"/>
       <c r="K190"/>
       <c r="L190"/>
       <c r="M190"/>
       <c r="N190"/>
     </row>
-    <row r="191" spans="10:14" ht="13.5">
+    <row r="191" spans="10:14" ht="13.2">
       <c r="J191"/>
       <c r="K191"/>
       <c r="L191"/>
       <c r="M191"/>
       <c r="N191"/>
     </row>
-    <row r="192" spans="10:14" ht="13.5">
+    <row r="192" spans="10:14" ht="13.2">
       <c r="J192"/>
       <c r="K192"/>
       <c r="L192"/>
       <c r="M192"/>
       <c r="N192"/>
     </row>
-    <row r="193" spans="10:14" ht="13.5">
+    <row r="193" spans="10:14" ht="13.2">
       <c r="J193"/>
       <c r="K193"/>
       <c r="L193"/>
       <c r="M193"/>
       <c r="N193"/>
     </row>
-    <row r="194" spans="10:14" ht="13.5">
+    <row r="194" spans="10:14" ht="13.2">
       <c r="J194"/>
       <c r="K194"/>
       <c r="L194"/>
       <c r="M194"/>
       <c r="N194"/>
     </row>
-    <row r="195" spans="10:14" ht="13.5">
+    <row r="195" spans="10:14" ht="13.2">
       <c r="J195"/>
       <c r="K195"/>
       <c r="L195"/>
       <c r="M195"/>
       <c r="N195"/>
     </row>
-    <row r="196" spans="10:14" ht="13.5">
+    <row r="196" spans="10:14" ht="13.2">
       <c r="J196"/>
       <c r="K196"/>
       <c r="L196"/>
       <c r="M196"/>
       <c r="N196"/>
     </row>
-    <row r="197" spans="10:14" ht="13.5">
+    <row r="197" spans="10:14" ht="13.2">
       <c r="J197"/>
       <c r="K197"/>
       <c r="L197"/>
       <c r="M197"/>
       <c r="N197"/>
     </row>
-    <row r="198" spans="10:14" ht="13.5">
+    <row r="198" spans="10:14" ht="13.2">
       <c r="J198"/>
       <c r="K198"/>
       <c r="L198"/>
       <c r="M198"/>
       <c r="N198"/>
     </row>
-    <row r="199" spans="10:14" ht="13.5">
+    <row r="199" spans="10:14" ht="13.2">
       <c r="J199"/>
       <c r="K199"/>
       <c r="L199"/>
       <c r="M199"/>
       <c r="N199"/>
     </row>
-    <row r="200" spans="10:14" ht="13.5">
+    <row r="200" spans="10:14" ht="13.2">
       <c r="J200"/>
       <c r="K200"/>
       <c r="L200"/>
       <c r="M200"/>
       <c r="N200"/>
     </row>
-    <row r="201" spans="10:14" ht="13.5">
+    <row r="201" spans="10:14" ht="13.2">
       <c r="J201"/>
       <c r="K201"/>
       <c r="L201"/>
       <c r="M201"/>
       <c r="N201"/>
     </row>
-    <row r="202" spans="10:14" ht="13.5">
+    <row r="202" spans="10:14" ht="13.2">
       <c r="J202"/>
       <c r="K202"/>
       <c r="L202"/>
       <c r="M202"/>
       <c r="N202"/>
     </row>
-    <row r="203" spans="10:14" ht="13.5">
+    <row r="203" spans="10:14" ht="13.2">
       <c r="J203"/>
       <c r="K203"/>
       <c r="L203"/>
       <c r="M203"/>
       <c r="N203"/>
     </row>
-    <row r="204" spans="10:14" ht="13.5">
+    <row r="204" spans="10:14" ht="13.2">
       <c r="J204"/>
       <c r="K204"/>
       <c r="L204"/>
       <c r="M204"/>
       <c r="N204"/>
     </row>
-    <row r="205" spans="10:14" ht="13.5">
+    <row r="205" spans="10:14" ht="13.2">
       <c r="J205"/>
       <c r="K205"/>
       <c r="L205"/>
       <c r="M205"/>
       <c r="N205"/>
     </row>
-    <row r="206" spans="10:14" ht="13.5">
+    <row r="206" spans="10:14" ht="13.2">
       <c r="J206"/>
       <c r="K206"/>
       <c r="L206"/>
       <c r="M206"/>
       <c r="N206"/>
     </row>
-    <row r="207" spans="10:14" ht="13.5">
+    <row r="207" spans="10:14" ht="13.2">
       <c r="J207"/>
       <c r="K207"/>
       <c r="L207"/>
       <c r="M207"/>
       <c r="N207"/>
     </row>
-    <row r="208" spans="10:14" ht="13.5">
+    <row r="208" spans="10:14" ht="13.2">
       <c r="J208"/>
       <c r="K208"/>
       <c r="L208"/>
       <c r="M208"/>
       <c r="N208"/>
     </row>
-    <row r="209" spans="10:14" ht="13.5">
+    <row r="209" spans="10:14" ht="13.2">
       <c r="J209"/>
       <c r="K209"/>
       <c r="L209"/>
       <c r="M209"/>
       <c r="N209"/>
     </row>
-    <row r="210" spans="10:14" ht="13.5">
+    <row r="210" spans="10:14" ht="13.2">
       <c r="J210"/>
       <c r="K210"/>
       <c r="L210"/>
       <c r="M210"/>
       <c r="N210"/>
     </row>
-    <row r="211" spans="10:14" ht="13.5">
+    <row r="211" spans="10:14" ht="13.2">
       <c r="J211"/>
       <c r="K211"/>
       <c r="L211"/>
       <c r="M211"/>
       <c r="N211"/>
     </row>
-    <row r="212" spans="10:14" ht="13.5">
+    <row r="212" spans="10:14" ht="13.2">
       <c r="J212"/>
       <c r="K212"/>
       <c r="L212"/>
       <c r="M212"/>
       <c r="N212"/>
     </row>
-    <row r="213" spans="10:14" ht="13.5">
+    <row r="213" spans="10:14" ht="13.2">
       <c r="J213"/>
       <c r="K213"/>
       <c r="L213"/>
       <c r="M213"/>
       <c r="N213"/>
     </row>
-    <row r="214" spans="10:14" ht="13.5">
+    <row r="214" spans="10:14" ht="13.2">
       <c r="J214"/>
       <c r="K214"/>
       <c r="L214"/>
       <c r="M214"/>
       <c r="N214"/>
     </row>
-    <row r="215" spans="10:14" ht="13.5">
+    <row r="215" spans="10:14" ht="13.2">
       <c r="J215"/>
       <c r="K215"/>
       <c r="L215"/>
       <c r="M215"/>
       <c r="N215"/>
     </row>
-    <row r="216" spans="10:14" ht="13.5">
+    <row r="216" spans="10:14" ht="13.2">
       <c r="J216"/>
       <c r="K216"/>
       <c r="L216"/>
       <c r="M216"/>
       <c r="N216"/>
     </row>
-    <row r="217" spans="10:14" ht="13.5">
+    <row r="217" spans="10:14" ht="13.2">
       <c r="J217"/>
       <c r="K217"/>
       <c r="L217"/>
       <c r="M217"/>
       <c r="N217"/>
     </row>
-    <row r="218" spans="10:14" ht="13.5">
+    <row r="218" spans="10:14" ht="13.2">
       <c r="J218"/>
       <c r="K218"/>
       <c r="L218"/>
       <c r="M218"/>
       <c r="N218"/>
     </row>
-    <row r="219" spans="10:14" ht="13.5">
+    <row r="219" spans="10:14" ht="13.2">
       <c r="J219"/>
       <c r="K219"/>
       <c r="L219"/>
       <c r="M219"/>
       <c r="N219"/>
     </row>
-    <row r="220" spans="10:14" ht="13.5">
+    <row r="220" spans="10:14" ht="13.2">
       <c r="J220"/>
       <c r="K220"/>
       <c r="L220"/>
       <c r="M220"/>
       <c r="N220"/>
     </row>
-    <row r="221" spans="10:14" ht="13.5">
+    <row r="221" spans="10:14" ht="13.2">
       <c r="J221"/>
       <c r="K221"/>
       <c r="L221"/>
       <c r="M221"/>
       <c r="N221"/>
     </row>
-    <row r="222" spans="10:14" ht="13.5">
+    <row r="222" spans="10:14" ht="13.2">
       <c r="J222"/>
       <c r="K222"/>
       <c r="L222"/>
       <c r="M222"/>
       <c r="N222"/>
     </row>
-    <row r="223" spans="10:14" ht="13.5">
+    <row r="223" spans="10:14" ht="13.2">
       <c r="J223"/>
       <c r="K223"/>
       <c r="L223"/>
       <c r="M223"/>
       <c r="N223"/>
     </row>
-    <row r="224" spans="10:14" ht="13.5">
+    <row r="224" spans="10:14" ht="13.2">
       <c r="J224"/>
       <c r="K224"/>
       <c r="L224"/>
       <c r="M224"/>
       <c r="N224"/>
     </row>
-    <row r="225" spans="10:14" ht="13.5">
+    <row r="225" spans="10:14" ht="13.2">
       <c r="J225"/>
       <c r="K225"/>
       <c r="L225"/>
       <c r="M225"/>
       <c r="N225"/>
     </row>
-    <row r="226" spans="10:14" ht="13.5">
+    <row r="226" spans="10:14" ht="13.2">
       <c r="J226"/>
       <c r="K226"/>
       <c r="L226"/>
       <c r="M226"/>
       <c r="N226"/>
     </row>
-    <row r="227" spans="10:14" ht="13.5">
+    <row r="227" spans="10:14" ht="13.2">
       <c r="J227"/>
       <c r="K227"/>
       <c r="L227"/>
       <c r="M227"/>
       <c r="N227"/>
     </row>
-    <row r="228" spans="10:14" ht="13.5">
+    <row r="228" spans="10:14" ht="13.2">
       <c r="J228"/>
       <c r="K228"/>
       <c r="L228"/>
       <c r="M228"/>
       <c r="N228"/>
     </row>
-    <row r="229" spans="10:14" ht="13.5">
+    <row r="229" spans="10:14" ht="13.2">
       <c r="J229"/>
       <c r="K229"/>
       <c r="L229"/>
       <c r="M229"/>
       <c r="N229"/>
     </row>
-    <row r="230" spans="10:14" ht="13.5">
+    <row r="230" spans="10:14" ht="13.2">
       <c r="J230"/>
       <c r="K230"/>
       <c r="L230"/>
       <c r="M230"/>
       <c r="N230"/>
     </row>
-    <row r="231" spans="10:14" ht="13.5">
+    <row r="231" spans="10:14" ht="13.2">
       <c r="J231"/>
       <c r="K231"/>
       <c r="L231"/>
       <c r="M231"/>
       <c r="N231"/>
     </row>
-    <row r="232" spans="10:14" ht="13.5">
+    <row r="232" spans="10:14" ht="13.2">
       <c r="J232"/>
       <c r="K232"/>
       <c r="L232"/>
       <c r="M232"/>
       <c r="N232"/>
     </row>
-    <row r="233" spans="10:14" ht="13.5">
+    <row r="233" spans="10:14" ht="13.2">
       <c r="J233"/>
       <c r="K233"/>
       <c r="L233"/>
       <c r="M233"/>
       <c r="N233"/>
     </row>
-    <row r="234" spans="10:14" ht="13.5">
+    <row r="234" spans="10:14" ht="13.2">
       <c r="J234"/>
       <c r="K234"/>
       <c r="L234"/>
       <c r="M234"/>
       <c r="N234"/>
     </row>
-    <row r="235" spans="10:14" ht="13.5">
+    <row r="235" spans="10:14" ht="13.2">
       <c r="J235"/>
       <c r="K235"/>
       <c r="L235"/>
       <c r="M235"/>
       <c r="N235"/>
     </row>
-    <row r="236" spans="10:14" ht="13.5">
+    <row r="236" spans="10:14" ht="13.2">
       <c r="J236"/>
       <c r="K236"/>
       <c r="L236"/>
       <c r="M236"/>
       <c r="N236"/>
     </row>
-    <row r="237" spans="10:14" ht="13.5">
+    <row r="237" spans="10:14" ht="13.2">
       <c r="J237"/>
       <c r="K237"/>
       <c r="L237"/>
       <c r="M237"/>
       <c r="N237"/>
     </row>
-    <row r="238" spans="10:14" ht="13.5">
+    <row r="238" spans="10:14" ht="13.2">
       <c r="J238"/>
       <c r="K238"/>
       <c r="L238"/>
       <c r="M238"/>
       <c r="N238"/>
     </row>
-    <row r="239" spans="10:14" ht="13.5">
+    <row r="239" spans="10:14" ht="13.2">
       <c r="J239"/>
       <c r="K239"/>
       <c r="L239"/>
       <c r="M239"/>
       <c r="N239"/>
     </row>
-    <row r="240" spans="10:14" ht="13.5">
+    <row r="240" spans="10:14" ht="13.2">
       <c r="J240"/>
       <c r="K240"/>
       <c r="L240"/>
       <c r="M240"/>
       <c r="N240"/>
     </row>
-    <row r="241" spans="10:14" ht="13.5">
+    <row r="241" spans="10:14" ht="13.2">
       <c r="J241"/>
       <c r="K241"/>
       <c r="L241"/>
       <c r="M241"/>
       <c r="N241"/>
     </row>
-    <row r="242" spans="10:14" ht="13.5">
+    <row r="242" spans="10:14" ht="13.2">
       <c r="J242"/>
       <c r="K242"/>
       <c r="L242"/>
       <c r="M242"/>
       <c r="N242"/>
     </row>
-    <row r="243" spans="10:14" ht="13.5">
+    <row r="243" spans="10:14" ht="13.2">
       <c r="J243"/>
       <c r="K243"/>
       <c r="L243"/>
       <c r="M243"/>
       <c r="N243"/>
     </row>
-    <row r="244" spans="10:14" ht="13.5">
+    <row r="244" spans="10:14" ht="13.2">
       <c r="J244"/>
       <c r="K244"/>
       <c r="L244"/>
       <c r="M244"/>
       <c r="N244"/>
     </row>
-    <row r="245" spans="10:14" ht="13.5">
+    <row r="245" spans="10:14" ht="13.2">
       <c r="J245"/>
       <c r="K245"/>
       <c r="L245"/>
       <c r="M245"/>
       <c r="N245"/>
     </row>
-    <row r="246" spans="10:14" ht="13.5">
+    <row r="246" spans="10:14" ht="13.2">
       <c r="J246"/>
       <c r="K246"/>
       <c r="L246"/>
       <c r="M246"/>
       <c r="N246"/>
     </row>
-    <row r="247" spans="10:14" ht="13.5">
+    <row r="247" spans="10:14" ht="13.2">
       <c r="J247"/>
       <c r="K247"/>
       <c r="L247"/>
       <c r="M247"/>
       <c r="N247"/>
     </row>
-    <row r="248" spans="10:14" ht="13.5">
+    <row r="248" spans="10:14" ht="13.2">
       <c r="J248"/>
       <c r="K248"/>
       <c r="L248"/>
       <c r="M248"/>
       <c r="N248"/>
     </row>
-    <row r="249" spans="10:14" ht="13.5">
+    <row r="249" spans="10:14" ht="13.2">
       <c r="J249"/>
       <c r="K249"/>
       <c r="L249"/>
       <c r="M249"/>
       <c r="N249"/>
     </row>
-    <row r="250" spans="10:14" ht="13.5">
+    <row r="250" spans="10:14" ht="13.2">
       <c r="J250"/>
       <c r="K250"/>
       <c r="L250"/>
       <c r="M250"/>
       <c r="N250"/>
     </row>
-    <row r="251" spans="10:14" ht="13.5">
+    <row r="251" spans="10:14" ht="13.2">
       <c r="J251"/>
       <c r="K251"/>
       <c r="L251"/>
       <c r="M251"/>
       <c r="N251"/>
     </row>
-    <row r="252" spans="10:14" ht="13.5">
+    <row r="252" spans="10:14" ht="13.2">
       <c r="J252"/>
       <c r="K252"/>
       <c r="L252"/>
       <c r="M252"/>
       <c r="N252"/>
     </row>
-    <row r="253" spans="10:14" ht="13.5">
+    <row r="253" spans="10:14" ht="13.2">
       <c r="J253"/>
       <c r="K253"/>
       <c r="L253"/>
       <c r="M253"/>
       <c r="N253"/>
     </row>
-    <row r="254" spans="10:14" ht="13.5">
+    <row r="254" spans="10:14" ht="13.2">
       <c r="J254"/>
       <c r="K254"/>
       <c r="L254"/>
       <c r="M254"/>
       <c r="N254"/>
     </row>
-    <row r="255" spans="10:14" ht="13.5">
+    <row r="255" spans="10:14" ht="13.2">
       <c r="J255"/>
       <c r="K255"/>
       <c r="L255"/>
       <c r="M255"/>
       <c r="N255"/>
     </row>
-    <row r="256" spans="10:14" ht="13.5">
+    <row r="256" spans="10:14" ht="13.2">
       <c r="J256"/>
       <c r="K256"/>
       <c r="L256"/>
       <c r="M256"/>
       <c r="N256"/>
     </row>
-    <row r="257" spans="10:14" ht="13.5">
+    <row r="257" spans="10:14" ht="13.2">
       <c r="J257"/>
       <c r="K257"/>
       <c r="L257"/>
       <c r="M257"/>
       <c r="N257"/>
     </row>
-    <row r="258" spans="10:14" ht="13.5">
+    <row r="258" spans="10:14" ht="13.2">
       <c r="J258"/>
       <c r="K258"/>
       <c r="L258"/>
       <c r="M258"/>
       <c r="N258"/>
     </row>
-    <row r="259" spans="10:14" ht="13.5">
+    <row r="259" spans="10:14" ht="13.2">
       <c r="J259"/>
       <c r="K259"/>
       <c r="L259"/>
       <c r="M259"/>
       <c r="N259"/>
     </row>
-    <row r="260" spans="10:14" ht="13.5">
+    <row r="260" spans="10:14" ht="13.2">
       <c r="J260"/>
       <c r="K260"/>
       <c r="L260"/>
       <c r="M260"/>
       <c r="N260"/>
     </row>
-    <row r="261" spans="10:14" ht="13.5">
+    <row r="261" spans="10:14" ht="13.2">
       <c r="J261"/>
       <c r="K261"/>
       <c r="L261"/>
       <c r="M261"/>
       <c r="N261"/>
     </row>
-    <row r="262" spans="10:14" ht="13.5">
+    <row r="262" spans="10:14" ht="13.2">
       <c r="J262"/>
       <c r="K262"/>
       <c r="L262"/>
       <c r="M262"/>
       <c r="N262"/>
     </row>
-    <row r="263" spans="10:14" ht="13.5">
+    <row r="263" spans="10:14" ht="13.2">
       <c r="J263"/>
       <c r="K263"/>
       <c r="L263"/>
       <c r="M263"/>
       <c r="N263"/>
     </row>
-    <row r="264" spans="10:14" ht="13.5">
+    <row r="264" spans="10:14" ht="13.2">
       <c r="J264"/>
       <c r="K264"/>
       <c r="L264"/>
       <c r="M264"/>
       <c r="N264"/>
     </row>
-    <row r="265" spans="10:14" ht="13.5">
+    <row r="265" spans="10:14" ht="13.2">
       <c r="J265"/>
       <c r="K265"/>
       <c r="L265"/>
       <c r="M265"/>
       <c r="N265"/>
     </row>
-    <row r="266" spans="10:14" ht="13.5">
+    <row r="266" spans="10:14" ht="13.2">
       <c r="J266"/>
       <c r="K266"/>
       <c r="L266"/>
       <c r="M266"/>
       <c r="N266"/>
     </row>
-    <row r="267" spans="10:14" ht="13.5">
+    <row r="267" spans="10:14" ht="13.2">
       <c r="J267"/>
       <c r="K267"/>
       <c r="L267"/>
       <c r="M267"/>
       <c r="N267"/>
     </row>
-    <row r="268" spans="10:14" ht="13.5">
+    <row r="268" spans="10:14" ht="13.2">
       <c r="J268"/>
       <c r="K268"/>
       <c r="L268"/>
       <c r="M268"/>
       <c r="N268"/>
     </row>
-    <row r="269" spans="10:14" ht="13.5">
+    <row r="269" spans="10:14" ht="13.2">
       <c r="J269"/>
       <c r="K269"/>
       <c r="L269"/>
       <c r="M269"/>
       <c r="N269"/>
     </row>
-    <row r="270" spans="10:14" ht="13.5">
+    <row r="270" spans="10:14" ht="13.2">
       <c r="J270"/>
       <c r="K270"/>
       <c r="L270"/>
       <c r="M270"/>
       <c r="N270"/>
     </row>
-    <row r="271" spans="10:14" ht="13.5">
+    <row r="271" spans="10:14" ht="13.2">
       <c r="J271"/>
       <c r="K271"/>
       <c r="L271"/>
       <c r="M271"/>
       <c r="N271"/>
     </row>
-    <row r="272" spans="10:14" ht="13.5">
+    <row r="272" spans="10:14" ht="13.2">
       <c r="J272"/>
       <c r="K272"/>
       <c r="L272"/>
       <c r="M272"/>
       <c r="N272"/>
     </row>
-    <row r="273" spans="10:14" ht="13.5">
+    <row r="273" spans="10:14" ht="13.2">
       <c r="J273"/>
       <c r="K273"/>
       <c r="L273"/>
       <c r="M273"/>
       <c r="N273"/>
     </row>
-    <row r="274" spans="10:14" ht="13.5">
+    <row r="274" spans="10:14" ht="13.2">
       <c r="J274"/>
       <c r="K274"/>
       <c r="L274"/>
       <c r="M274"/>
       <c r="N274"/>
     </row>
-    <row r="275" spans="10:14" ht="13.5">
+    <row r="275" spans="10:14" ht="13.2">
       <c r="J275"/>
       <c r="K275"/>
       <c r="L275"/>
       <c r="M275"/>
       <c r="N275"/>
     </row>
-    <row r="276" spans="10:14" ht="13.5">
+    <row r="276" spans="10:14" ht="13.2">
       <c r="J276"/>
       <c r="K276"/>
       <c r="L276"/>
       <c r="M276"/>
       <c r="N276"/>
     </row>
-    <row r="277" spans="10:14" ht="13.5">
+    <row r="277" spans="10:14" ht="13.2">
       <c r="J277"/>
       <c r="K277"/>
       <c r="L277"/>
       <c r="M277"/>
       <c r="N277"/>
     </row>
-    <row r="278" spans="10:14" ht="13.5">
+    <row r="278" spans="10:14" ht="13.2">
       <c r="J278"/>
       <c r="K278"/>
       <c r="L278"/>
       <c r="M278"/>
       <c r="N278"/>
     </row>
-    <row r="279" spans="10:14" ht="13.5">
+    <row r="279" spans="10:14" ht="13.2">
       <c r="J279"/>
       <c r="K279"/>
       <c r="L279"/>
       <c r="M279"/>
       <c r="N279"/>
     </row>
-    <row r="280" spans="10:14" ht="13.5">
+    <row r="280" spans="10:14" ht="13.2">
       <c r="J280"/>
       <c r="K280"/>
       <c r="L280"/>
       <c r="M280"/>
       <c r="N280"/>
     </row>
-    <row r="281" spans="10:14" ht="13.5">
+    <row r="281" spans="10:14" ht="13.2">
       <c r="J281"/>
       <c r="K281"/>
       <c r="L281"/>
       <c r="M281"/>
       <c r="N281"/>
     </row>
-    <row r="282" spans="10:14" ht="13.5">
+    <row r="282" spans="10:14" ht="13.2">
       <c r="J282"/>
       <c r="K282"/>
       <c r="L282"/>
       <c r="M282"/>
       <c r="N282"/>
     </row>
-    <row r="283" spans="10:14" ht="13.5">
+    <row r="283" spans="10:14" ht="13.2">
       <c r="J283"/>
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
       <c r="N283"/>
     </row>
-    <row r="284" spans="10:14" ht="13.5">
+    <row r="284" spans="10:14" ht="13.2">
       <c r="J284"/>
       <c r="K284"/>
       <c r="L284"/>
       <c r="M284"/>
       <c r="N284"/>
     </row>
-    <row r="285" spans="10:14" ht="13.5">
+    <row r="285" spans="10:14" ht="13.2">
       <c r="J285"/>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
       <c r="N285"/>
     </row>
-    <row r="286" spans="10:14" ht="13.5">
+    <row r="286" spans="10:14" ht="13.2">
       <c r="J286"/>
       <c r="K286"/>
       <c r="L286"/>
       <c r="M286"/>
       <c r="N286"/>
     </row>
-    <row r="287" spans="10:14" ht="13.5">
+    <row r="287" spans="10:14" ht="13.2">
       <c r="J287"/>
       <c r="K287"/>
       <c r="L287"/>
       <c r="M287"/>
       <c r="N287"/>
     </row>
-    <row r="288" spans="10:14" ht="13.5">
+    <row r="288" spans="10:14" ht="13.2">
       <c r="J288"/>
       <c r="K288"/>
       <c r="L288"/>
       <c r="M288"/>
       <c r="N288"/>
     </row>
-    <row r="289" spans="10:14" ht="13.5">
+    <row r="289" spans="10:14" ht="13.2">
       <c r="J289"/>
       <c r="K289"/>
       <c r="L289"/>
       <c r="M289"/>
       <c r="N289"/>
     </row>
-    <row r="290" spans="10:14" ht="13.5">
+    <row r="290" spans="10:14" ht="13.2">
       <c r="J290"/>
       <c r="K290"/>
       <c r="L290"/>
       <c r="M290"/>
       <c r="N290"/>
     </row>
-    <row r="291" spans="10:14" ht="13.5">
+    <row r="291" spans="10:14" ht="13.2">
       <c r="J291"/>
       <c r="K291"/>
       <c r="L291"/>
       <c r="M291"/>
       <c r="N291"/>
     </row>
-    <row r="292" spans="10:14" ht="13.5">
+    <row r="292" spans="10:14" ht="13.2">
       <c r="J292"/>
       <c r="K292"/>
       <c r="L292"/>
       <c r="M292"/>
       <c r="N292"/>
     </row>
-    <row r="293" spans="10:14" ht="13.5">
+    <row r="293" spans="10:14" ht="13.2">
       <c r="J293"/>
       <c r="K293"/>
       <c r="L293"/>
       <c r="M293"/>
       <c r="N293"/>
     </row>
-    <row r="294" spans="10:14" ht="13.5">
+    <row r="294" spans="10:14" ht="13.2">
       <c r="J294"/>
       <c r="K294"/>
       <c r="L294"/>
       <c r="M294"/>
       <c r="N294"/>
     </row>
-    <row r="295" spans="10:14" ht="13.5">
+    <row r="295" spans="10:14" ht="13.2">
       <c r="J295"/>
       <c r="K295"/>
       <c r="L295"/>
       <c r="M295"/>
       <c r="N295"/>
     </row>
-    <row r="296" spans="10:14" ht="13.5">
+    <row r="296" spans="10:14" ht="13.2">
       <c r="J296"/>
       <c r="K296"/>
       <c r="L296"/>
       <c r="M296"/>
       <c r="N296"/>
     </row>
-    <row r="297" spans="10:14" ht="13.5">
+    <row r="297" spans="10:14" ht="13.2">
       <c r="J297"/>
       <c r="K297"/>
       <c r="L297"/>
       <c r="M297"/>
       <c r="N297"/>
     </row>
-    <row r="298" spans="10:14" ht="13.5">
+    <row r="298" spans="10:14" ht="13.2">
       <c r="J298"/>
       <c r="K298"/>
       <c r="L298"/>
       <c r="M298"/>
       <c r="N298"/>
     </row>
-    <row r="299" spans="10:14" ht="13.5">
+    <row r="299" spans="10:14" ht="13.2">
       <c r="J299"/>
       <c r="K299"/>
       <c r="L299"/>
       <c r="M299"/>
       <c r="N299"/>
     </row>
-    <row r="300" spans="10:14" ht="13.5">
+    <row r="300" spans="10:14" ht="13.2">
       <c r="J300"/>
       <c r="K300"/>
       <c r="L300"/>
       <c r="M300"/>
       <c r="N300"/>
     </row>
-    <row r="301" spans="10:14" ht="13.5">
+    <row r="301" spans="10:14" ht="13.2">
       <c r="J301"/>
       <c r="K301"/>
       <c r="L301"/>
       <c r="M301"/>
       <c r="N301"/>
     </row>
-    <row r="302" spans="10:14" ht="13.5">
+    <row r="302" spans="10:14" ht="13.2">
       <c r="J302"/>
       <c r="K302"/>
       <c r="L302"/>
       <c r="M302"/>
       <c r="N302"/>
     </row>
-    <row r="303" spans="10:14" ht="13.5">
+    <row r="303" spans="10:14" ht="13.2">
       <c r="J303"/>
       <c r="K303"/>
       <c r="L303"/>
       <c r="M303"/>
       <c r="N303"/>
     </row>
-    <row r="304" spans="10:14" ht="13.5">
+    <row r="304" spans="10:14" ht="13.2">
       <c r="J304"/>
       <c r="K304"/>
       <c r="L304"/>
       <c r="M304"/>
       <c r="N304"/>
     </row>
-    <row r="305" spans="10:14" ht="13.5">
+    <row r="305" spans="10:14" ht="13.2">
       <c r="J305"/>
       <c r="K305"/>
       <c r="L305"/>
       <c r="M305"/>
       <c r="N305"/>
     </row>
-    <row r="306" spans="10:14" ht="13.5">
+    <row r="306" spans="10:14" ht="13.2">
       <c r="J306"/>
       <c r="K306"/>
       <c r="L306"/>
       <c r="M306"/>
       <c r="N306"/>
     </row>
-    <row r="307" spans="10:14" ht="13.5">
+    <row r="307" spans="10:14" ht="13.2">
       <c r="J307"/>
       <c r="K307"/>
       <c r="L307"/>
       <c r="M307"/>
       <c r="N307"/>
     </row>
-    <row r="308" spans="10:14" ht="13.5">
+    <row r="308" spans="10:14" ht="13.2">
       <c r="J308"/>
       <c r="K308"/>
       <c r="L308"/>
       <c r="M308"/>
       <c r="N308"/>
     </row>
-    <row r="309" spans="10:14" ht="13.5">
+    <row r="309" spans="10:14" ht="13.2">
       <c r="J309"/>
       <c r="K309"/>
       <c r="L309"/>
       <c r="M309"/>
       <c r="N309"/>
     </row>
-    <row r="310" spans="10:14" ht="13.5">
+    <row r="310" spans="10:14" ht="13.2">
       <c r="J310"/>
       <c r="K310"/>
       <c r="L310"/>
       <c r="M310"/>
       <c r="N310"/>
     </row>
-    <row r="311" spans="10:14" ht="13.5">
+    <row r="311" spans="10:14" ht="13.2">
       <c r="J311"/>
       <c r="K311"/>
       <c r="L311"/>
       <c r="M311"/>
       <c r="N311"/>
     </row>
-    <row r="312" spans="10:14" ht="13.5">
+    <row r="312" spans="10:14" ht="13.2">
       <c r="J312"/>
       <c r="K312"/>
       <c r="L312"/>
       <c r="M312"/>
       <c r="N312"/>
     </row>
-    <row r="313" spans="10:14" ht="13.5">
+    <row r="313" spans="10:14" ht="13.2">
       <c r="J313"/>
       <c r="K313"/>
       <c r="L313"/>
       <c r="M313"/>
       <c r="N313"/>
     </row>
-    <row r="314" spans="10:14" ht="13.5">
+    <row r="314" spans="10:14" ht="13.2">
       <c r="J314"/>
       <c r="K314"/>
       <c r="L314"/>
       <c r="M314"/>
       <c r="N314"/>
     </row>
-    <row r="315" spans="10:14" ht="13.5">
+    <row r="315" spans="10:14" ht="13.2">
       <c r="J315"/>
       <c r="K315"/>
       <c r="L315"/>
       <c r="M315"/>
       <c r="N315"/>
     </row>
-    <row r="316" spans="10:14" ht="13.5">
+    <row r="316" spans="10:14" ht="13.2">
       <c r="J316"/>
       <c r="K316"/>
       <c r="L316"/>
       <c r="M316"/>
       <c r="N316"/>
     </row>
-    <row r="317" spans="10:14" ht="13.5">
+    <row r="317" spans="10:14" ht="13.2">
       <c r="J317"/>
       <c r="K317"/>
       <c r="L317"/>
       <c r="M317"/>
       <c r="N317"/>
     </row>
-    <row r="318" spans="10:14" ht="13.5">
+    <row r="318" spans="10:14" ht="13.2">
       <c r="J318"/>
       <c r="K318"/>
       <c r="L318"/>
       <c r="M318"/>
       <c r="N318"/>
     </row>
-    <row r="319" spans="10:14" ht="13.5">
+    <row r="319" spans="10:14" ht="13.2">
       <c r="J319"/>
       <c r="K319"/>
       <c r="L319"/>
       <c r="M319"/>
       <c r="N319"/>
     </row>
-    <row r="320" spans="10:14" ht="13.5">
+    <row r="320" spans="10:14" ht="13.2">
       <c r="J320"/>
       <c r="K320"/>
       <c r="L320"/>
       <c r="M320"/>
       <c r="N320"/>
     </row>
-    <row r="321" spans="10:14" ht="13.5">
+    <row r="321" spans="10:14" ht="13.2">
       <c r="J321"/>
       <c r="K321"/>
       <c r="L321"/>
       <c r="M321"/>
       <c r="N321"/>
     </row>
-    <row r="322" spans="10:14" ht="13.5">
+    <row r="322" spans="10:14" ht="13.2">
       <c r="J322"/>
       <c r="K322"/>
       <c r="L322"/>
       <c r="M322"/>
       <c r="N322"/>
     </row>
-    <row r="323" spans="10:14" ht="13.5">
+    <row r="323" spans="10:14" ht="13.2">
       <c r="J323"/>
       <c r="K323"/>
       <c r="L323"/>
       <c r="M323"/>
       <c r="N323"/>
     </row>
-    <row r="324" spans="10:14" ht="13.5">
+    <row r="324" spans="10:14" ht="13.2">
       <c r="J324"/>
       <c r="K324"/>
       <c r="L324"/>
       <c r="M324"/>
       <c r="N324"/>
     </row>
-    <row r="325" spans="10:14" ht="13.5">
+    <row r="325" spans="10:14" ht="13.2">
       <c r="J325"/>
       <c r="K325"/>
       <c r="L325"/>
       <c r="M325"/>
       <c r="N325"/>
     </row>
-    <row r="326" spans="10:14" ht="13.5">
+    <row r="326" spans="10:14" ht="13.2">
       <c r="J326"/>
       <c r="K326"/>
       <c r="L326"/>
       <c r="M326"/>
       <c r="N326"/>
     </row>
-    <row r="327" spans="10:14" ht="13.5">
+    <row r="327" spans="10:14" ht="13.2">
       <c r="J327"/>
       <c r="K327"/>
       <c r="L327"/>
       <c r="M327"/>
       <c r="N327"/>
     </row>
-    <row r="328" spans="10:14" ht="13.5">
+    <row r="328" spans="10:14" ht="13.2">
       <c r="J328"/>
       <c r="K328"/>
       <c r="L328"/>
       <c r="M328"/>
       <c r="N328"/>
     </row>
-    <row r="329" spans="10:14" ht="13.5">
+    <row r="329" spans="10:14" ht="13.2">
       <c r="J329"/>
       <c r="K329"/>
       <c r="L329"/>
       <c r="M329"/>
       <c r="N329"/>
     </row>
-    <row r="330" spans="10:14" ht="13.5">
+    <row r="330" spans="10:14" ht="13.2">
       <c r="J330"/>
       <c r="K330"/>
       <c r="L330"/>
       <c r="M330"/>
       <c r="N330"/>
     </row>
-    <row r="331" spans="10:14" ht="13.5">
+    <row r="331" spans="10:14" ht="13.2">
       <c r="J331"/>
       <c r="K331"/>
       <c r="L331"/>
       <c r="M331"/>
       <c r="N331"/>
     </row>
-    <row r="332" spans="10:14" ht="13.5">
+    <row r="332" spans="10:14" ht="13.2">
       <c r="J332"/>
       <c r="K332"/>
       <c r="L332"/>
       <c r="M332"/>
       <c r="N332"/>
     </row>
-    <row r="333" spans="10:14" ht="13.5">
+    <row r="333" spans="10:14" ht="13.2">
       <c r="J333"/>
       <c r="K333"/>
       <c r="L333"/>
       <c r="M333"/>
       <c r="N333"/>
     </row>
-    <row r="334" spans="10:14" ht="13.5">
+    <row r="334" spans="10:14" ht="13.2">
       <c r="J334"/>
       <c r="K334"/>
       <c r="L334"/>
       <c r="M334"/>
       <c r="N334"/>
     </row>
-    <row r="335" spans="10:14" ht="13.5">
+    <row r="335" spans="10:14" ht="13.2">
       <c r="J335"/>
       <c r="K335"/>
       <c r="L335"/>
       <c r="M335"/>
       <c r="N335"/>
     </row>
-    <row r="336" spans="10:14" ht="13.5">
+    <row r="336" spans="10:14" ht="13.2">
       <c r="J336"/>
       <c r="K336"/>
       <c r="L336"/>
       <c r="M336"/>
       <c r="N336"/>
     </row>
-    <row r="337" spans="10:14" ht="13.5">
+    <row r="337" spans="10:14" ht="13.2">
       <c r="J337"/>
       <c r="K337"/>
       <c r="L337"/>
       <c r="M337"/>
       <c r="N337"/>
     </row>
-    <row r="338" spans="10:14" ht="13.5">
+    <row r="338" spans="10:14" ht="13.2">
       <c r="J338"/>
       <c r="K338"/>
       <c r="L338"/>
       <c r="M338"/>
       <c r="N338"/>
     </row>
-    <row r="339" spans="10:14" ht="13.5">
+    <row r="339" spans="10:14" ht="13.2">
       <c r="J339"/>
       <c r="K339"/>
       <c r="L339"/>
       <c r="M339"/>
       <c r="N339"/>
     </row>
-    <row r="340" spans="10:14" ht="13.5">
+    <row r="340" spans="10:14" ht="13.2">
       <c r="J340"/>
       <c r="K340"/>
       <c r="L340"/>
       <c r="M340"/>
       <c r="N340"/>
     </row>
-    <row r="341" spans="10:14" ht="13.5">
+    <row r="341" spans="10:14" ht="13.2">
       <c r="J341"/>
       <c r="K341"/>
       <c r="L341"/>
       <c r="M341"/>
       <c r="N341"/>
     </row>
-    <row r="342" spans="10:14" ht="13.5">
+    <row r="342" spans="10:14" ht="13.2">
       <c r="J342"/>
       <c r="K342"/>
       <c r="L342"/>
       <c r="M342"/>
       <c r="N342"/>
     </row>
-    <row r="343" spans="10:14" ht="13.5">
+    <row r="343" spans="10:14" ht="13.2">
       <c r="J343"/>
       <c r="K343"/>
       <c r="L343"/>
       <c r="M343"/>
       <c r="N343"/>
     </row>
-    <row r="344" spans="10:14" ht="13.5">
+    <row r="344" spans="10:14" ht="13.2">
       <c r="J344"/>
       <c r="K344"/>
       <c r="L344"/>
       <c r="M344"/>
       <c r="N344"/>
     </row>
-    <row r="345" spans="10:14" ht="13.5">
+    <row r="345" spans="10:14" ht="13.2">
       <c r="J345"/>
       <c r="K345"/>
       <c r="L345"/>
       <c r="M345"/>
       <c r="N345"/>
     </row>
-    <row r="346" spans="10:14" ht="13.5">
+    <row r="346" spans="10:14" ht="13.2">
       <c r="J346"/>
       <c r="K346"/>
       <c r="L346"/>
       <c r="M346"/>
       <c r="N346"/>
     </row>
-    <row r="347" spans="10:14" ht="13.5">
+    <row r="347" spans="10:14" ht="13.2">
       <c r="J347"/>
       <c r="K347"/>
       <c r="L347"/>
       <c r="M347"/>
       <c r="N347"/>
     </row>
-    <row r="348" spans="10:14" ht="13.5">
+    <row r="348" spans="10:14" ht="13.2">
       <c r="J348"/>
       <c r="K348"/>
       <c r="L348"/>
       <c r="M348"/>
       <c r="N348"/>
     </row>
-    <row r="349" spans="10:14" ht="13.5">
+    <row r="349" spans="10:14" ht="13.2">
       <c r="J349"/>
       <c r="K349"/>
       <c r="L349"/>
       <c r="M349"/>
       <c r="N349"/>
     </row>
-    <row r="350" spans="10:14" ht="13.5">
+    <row r="350" spans="10:14" ht="13.2">
       <c r="J350"/>
       <c r="K350"/>
       <c r="L350"/>
       <c r="M350"/>
       <c r="N350"/>
     </row>
-    <row r="351" spans="10:14" ht="13.5">
+    <row r="351" spans="10:14" ht="13.2">
       <c r="J351"/>
       <c r="K351"/>
       <c r="L351"/>
       <c r="M351"/>
       <c r="N351"/>
     </row>
-    <row r="352" spans="10:14" ht="13.5">
+    <row r="352" spans="10:14" ht="13.2">
       <c r="J352"/>
       <c r="K352"/>
       <c r="L352"/>
       <c r="M352"/>
       <c r="N352"/>
     </row>
-    <row r="353" spans="10:14" ht="13.5">
+    <row r="353" spans="10:14" ht="13.2">
       <c r="J353"/>
       <c r="K353"/>
       <c r="L353"/>
       <c r="M353"/>
       <c r="N353"/>
     </row>
-    <row r="354" spans="10:14" ht="13.5">
+    <row r="354" spans="10:14" ht="13.2">
       <c r="J354"/>
       <c r="K354"/>
       <c r="L354"/>
       <c r="M354"/>
       <c r="N354"/>
     </row>
-    <row r="355" spans="10:14" ht="13.5">
+    <row r="355" spans="10:14" ht="13.2">
       <c r="J355"/>
       <c r="K355"/>
       <c r="L355"/>
       <c r="M355"/>
       <c r="N355"/>
     </row>
-    <row r="356" spans="10:14" ht="13.5">
+    <row r="356" spans="10:14" ht="13.2">
       <c r="J356"/>
       <c r="K356"/>
       <c r="L356"/>
       <c r="M356"/>
       <c r="N356"/>
     </row>
-    <row r="357" spans="10:14" ht="13.5">
+    <row r="357" spans="10:14" ht="13.2">
       <c r="J357"/>
       <c r="K357"/>
       <c r="L357"/>
       <c r="M357"/>
       <c r="N357"/>
     </row>
-    <row r="358" spans="10:14" ht="13.5">
+    <row r="358" spans="10:14" ht="13.2">
       <c r="J358"/>
       <c r="K358"/>
       <c r="L358"/>
       <c r="M358"/>
       <c r="N358"/>
     </row>
-    <row r="359" spans="10:14" ht="13.5">
+    <row r="359" spans="10:14" ht="13.2">
       <c r="J359"/>
       <c r="K359"/>
       <c r="L359"/>
       <c r="M359"/>
       <c r="N359"/>
     </row>
-    <row r="360" spans="10:14" ht="13.5">
+    <row r="360" spans="10:14" ht="13.2">
       <c r="J360"/>
       <c r="K360"/>
       <c r="L360"/>
       <c r="M360"/>
       <c r="N360"/>
     </row>
-    <row r="361" spans="10:14" ht="13.5">
+    <row r="361" spans="10:14" ht="13.2">
       <c r="J361"/>
       <c r="K361"/>
       <c r="L361"/>
       <c r="M361"/>
       <c r="N361"/>
     </row>
-    <row r="362" spans="10:14" ht="13.5">
+    <row r="362" spans="10:14" ht="13.2">
       <c r="J362"/>
       <c r="K362"/>
       <c r="L362"/>
       <c r="M362"/>
       <c r="N362"/>
     </row>
-    <row r="363" spans="10:14" ht="13.5">
+    <row r="363" spans="10:14" ht="13.2">
       <c r="J363"/>
       <c r="K363"/>
       <c r="L363"/>
       <c r="M363"/>
       <c r="N363"/>
     </row>
-    <row r="364" spans="10:14" ht="13.5">
+    <row r="364" spans="10:14" ht="13.2">
       <c r="J364"/>
       <c r="K364"/>
       <c r="L364"/>
       <c r="M364"/>
       <c r="N364"/>
     </row>
-    <row r="365" spans="10:14" ht="13.5">
+    <row r="365" spans="10:14" ht="13.2">
       <c r="J365"/>
       <c r="K365"/>
       <c r="L365"/>
       <c r="M365"/>
       <c r="N365"/>
     </row>
-    <row r="366" spans="10:14" ht="13.5">
+    <row r="366" spans="10:14" ht="13.2">
       <c r="J366"/>
       <c r="K366"/>
       <c r="L366"/>
       <c r="M366"/>
       <c r="N366"/>
     </row>
-    <row r="367" spans="10:14" ht="13.5">
+    <row r="367" spans="10:14" ht="13.2">
       <c r="J367"/>
       <c r="K367"/>
       <c r="L367"/>
       <c r="M367"/>
       <c r="N367"/>
     </row>
-    <row r="368" spans="10:14" ht="13.5">
+    <row r="368" spans="10:14" ht="13.2">
       <c r="J368"/>
       <c r="K368"/>
       <c r="L368"/>
       <c r="M368"/>
       <c r="N368"/>
     </row>
-    <row r="369" spans="10:14" ht="13.5">
+    <row r="369" spans="10:14" ht="13.2">
       <c r="J369"/>
       <c r="K369"/>
       <c r="L369"/>
       <c r="M369"/>
       <c r="N369"/>
     </row>
-    <row r="370" spans="10:14" ht="13.5">
+    <row r="370" spans="10:14" ht="13.2">
       <c r="J370"/>
       <c r="K370"/>
       <c r="L370"/>
       <c r="M370"/>
       <c r="N370"/>
     </row>
-    <row r="371" spans="10:14" ht="13.5">
+    <row r="371" spans="10:14" ht="13.2">
       <c r="J371"/>
       <c r="K371"/>
       <c r="L371"/>
       <c r="M371"/>
       <c r="N371"/>
     </row>
-    <row r="372" spans="10:14" ht="13.5">
+    <row r="372" spans="10:14" ht="13.2">
       <c r="J372"/>
       <c r="K372"/>
       <c r="L372"/>
       <c r="M372"/>
       <c r="N372"/>
     </row>
-    <row r="373" spans="10:14" ht="13.5">
+    <row r="373" spans="10:14" ht="13.2">
       <c r="J373"/>
       <c r="K373"/>
       <c r="L373"/>
       <c r="M373"/>
       <c r="N373"/>
     </row>
-    <row r="374" spans="10:14" ht="13.5">
+    <row r="374" spans="10:14" ht="13.2">
       <c r="J374"/>
       <c r="K374"/>
       <c r="L374"/>
       <c r="M374"/>
       <c r="N374"/>
     </row>
-    <row r="375" spans="10:14" ht="13.5">
+    <row r="375" spans="10:14" ht="13.2">
       <c r="J375"/>
       <c r="K375"/>
       <c r="L375"/>
       <c r="M375"/>
       <c r="N375"/>
     </row>
-    <row r="376" spans="10:14" ht="13.5">
+    <row r="376" spans="10:14" ht="13.2">
       <c r="J376"/>
       <c r="K376"/>
       <c r="L376"/>
       <c r="M376"/>
       <c r="N376"/>
     </row>
-    <row r="377" spans="10:14" ht="13.5">
+    <row r="377" spans="10:14" ht="13.2">
       <c r="J377"/>
       <c r="K377"/>
       <c r="L377"/>
       <c r="M377"/>
       <c r="N377"/>
     </row>
-    <row r="378" spans="10:14" ht="13.5">
+    <row r="378" spans="10:14" ht="13.2">
       <c r="J378"/>
       <c r="K378"/>
       <c r="L378"/>
       <c r="M378"/>
       <c r="N378"/>
     </row>
-    <row r="379" spans="10:14" ht="13.5">
+    <row r="379" spans="10:14" ht="13.2">
       <c r="J379"/>
       <c r="K379"/>
       <c r="L379"/>
       <c r="M379"/>
       <c r="N379"/>
     </row>
-    <row r="380" spans="10:14" ht="13.5">
+    <row r="380" spans="10:14" ht="13.2">
       <c r="J380"/>
       <c r="K380"/>
       <c r="L380"/>
       <c r="M380"/>
       <c r="N380"/>
     </row>
-    <row r="381" spans="10:14" ht="13.5">
+    <row r="381" spans="10:14" ht="13.2">
       <c r="J381"/>
       <c r="K381"/>
       <c r="L381"/>
       <c r="M381"/>
       <c r="N381"/>
     </row>
-    <row r="382" spans="10:14" ht="13.5">
+    <row r="382" spans="10:14" ht="13.2">
       <c r="J382"/>
       <c r="K382"/>
       <c r="L382"/>
       <c r="M382"/>
       <c r="N382"/>
     </row>
-    <row r="383" spans="10:14" ht="13.5">
+    <row r="383" spans="10:14" ht="13.2">
       <c r="J383"/>
       <c r="K383"/>
       <c r="L383"/>
       <c r="M383"/>
       <c r="N383"/>
     </row>
-    <row r="384" spans="10:14" ht="13.5">
+    <row r="384" spans="10:14" ht="13.2">
       <c r="J384"/>
       <c r="K384"/>
       <c r="L384"/>
       <c r="M384"/>
       <c r="N384"/>
     </row>
-    <row r="385" spans="10:14" ht="13.5">
+    <row r="385" spans="10:14" ht="13.2">
       <c r="J385"/>
       <c r="K385"/>
       <c r="L385"/>
       <c r="M385"/>
       <c r="N385"/>
     </row>
-    <row r="386" spans="10:14" ht="13.5">
+    <row r="386" spans="10:14" ht="13.2">
       <c r="J386"/>
       <c r="K386"/>
       <c r="L386"/>
       <c r="M386"/>
       <c r="N386"/>
     </row>
-    <row r="387" spans="10:14" ht="13.5">
+    <row r="387" spans="10:14" ht="13.2">
       <c r="J387"/>
       <c r="K387"/>
       <c r="L387"/>
       <c r="M387"/>
       <c r="N387"/>
     </row>
-    <row r="388" spans="10:14" ht="13.5">
+    <row r="388" spans="10:14" ht="13.2">
       <c r="J388"/>
       <c r="K388"/>
       <c r="L388"/>
       <c r="M388"/>
       <c r="N388"/>
     </row>
-    <row r="389" spans="10:14" ht="13.5">
+    <row r="389" spans="10:14" ht="13.2">
       <c r="J389"/>
       <c r="K389"/>
       <c r="L389"/>
       <c r="M389"/>
       <c r="N389"/>
     </row>
-    <row r="390" spans="10:14" ht="13.5">
+    <row r="390" spans="10:14" ht="13.2">
       <c r="J390"/>
       <c r="K390"/>
       <c r="L390"/>
       <c r="M390"/>
       <c r="N390"/>
     </row>
-    <row r="391" spans="10:14" ht="13.5">
+    <row r="391" spans="10:14" ht="13.2">
       <c r="J391"/>
       <c r="K391"/>
       <c r="L391"/>
       <c r="M391"/>
       <c r="N391"/>
     </row>
-    <row r="392" spans="10:14" ht="13.5">
+    <row r="392" spans="10:14" ht="13.2">
       <c r="J392"/>
       <c r="K392"/>
       <c r="L392"/>
       <c r="M392"/>
       <c r="N392"/>
     </row>
-    <row r="393" spans="10:14" ht="13.5">
+    <row r="393" spans="10:14" ht="13.2">
       <c r="J393"/>
       <c r="K393"/>
       <c r="L393"/>
       <c r="M393"/>
       <c r="N393"/>
     </row>
-    <row r="394" spans="10:14" ht="13.5">
+    <row r="394" spans="10:14" ht="13.2">
       <c r="J394"/>
       <c r="K394"/>
       <c r="L394"/>
       <c r="M394"/>
       <c r="N394"/>
     </row>
-    <row r="395" spans="10:14" ht="13.5">
+    <row r="395" spans="10:14" ht="13.2">
       <c r="J395"/>
       <c r="K395"/>
       <c r="L395"/>
       <c r="M395"/>
       <c r="N395"/>
     </row>
-    <row r="396" spans="10:14" ht="13.5">
+    <row r="396" spans="10:14" ht="13.2">
       <c r="J396"/>
       <c r="K396"/>
       <c r="L396"/>
       <c r="M396"/>
       <c r="N396"/>
     </row>
-    <row r="397" spans="10:14" ht="13.5">
+    <row r="397" spans="10:14" ht="13.2">
       <c r="J397"/>
       <c r="K397"/>
       <c r="L397"/>
       <c r="M397"/>
       <c r="N397"/>
     </row>
-    <row r="398" spans="10:14" ht="13.5">
+    <row r="398" spans="10:14" ht="13.2">
       <c r="J398"/>
       <c r="K398"/>
       <c r="L398"/>
       <c r="M398"/>
       <c r="N398"/>
     </row>
-    <row r="399" spans="10:14" ht="13.5">
+    <row r="399" spans="10:14" ht="13.2">
       <c r="J399"/>
       <c r="K399"/>
       <c r="L399"/>
       <c r="M399"/>
       <c r="N399"/>
     </row>
-    <row r="400" spans="10:14" ht="13.5">
+    <row r="400" spans="10:14" ht="13.2">
       <c r="J400"/>
       <c r="K400"/>
       <c r="L400"/>
       <c r="M400"/>
       <c r="N400"/>
     </row>
-    <row r="401" spans="10:14" ht="13.5">
+    <row r="401" spans="10:14" ht="13.2">
       <c r="J401"/>
       <c r="K401"/>
       <c r="L401"/>
       <c r="M401"/>
       <c r="N401"/>
     </row>
-    <row r="402" spans="10:14" ht="13.5">
+    <row r="402" spans="10:14" ht="13.2">
       <c r="J402"/>
       <c r="K402"/>
       <c r="L402"/>
       <c r="M402"/>
       <c r="N402"/>
     </row>
-    <row r="403" spans="10:14" ht="13.5">
+    <row r="403" spans="10:14" ht="13.2">
       <c r="J403"/>
       <c r="K403"/>
       <c r="L403"/>
       <c r="M403"/>
       <c r="N403"/>
     </row>
-    <row r="404" spans="10:14" ht="13.5">
+    <row r="404" spans="10:14" ht="13.2">
       <c r="J404"/>
       <c r="K404"/>
       <c r="L404"/>
       <c r="M404"/>
       <c r="N404"/>
     </row>
-    <row r="405" spans="10:14" ht="13.5">
+    <row r="405" spans="10:14" ht="13.2">
       <c r="J405"/>
       <c r="K405"/>
       <c r="L405"/>
       <c r="M405"/>
       <c r="N405"/>
     </row>
-    <row r="406" spans="10:14" ht="13.5">
+    <row r="406" spans="10:14" ht="13.2">
       <c r="J406"/>
       <c r="K406"/>
       <c r="L406"/>
       <c r="M406"/>
       <c r="N406"/>
     </row>
-    <row r="407" spans="10:14" ht="13.5">
+    <row r="407" spans="10:14" ht="13.2">
       <c r="J407"/>
       <c r="K407"/>
       <c r="L407"/>
       <c r="M407"/>
       <c r="N407"/>
     </row>
-    <row r="408" spans="10:14" ht="13.5">
+    <row r="408" spans="10:14" ht="13.2">
       <c r="J408"/>
       <c r="K408"/>
       <c r="L408"/>
       <c r="M408"/>
       <c r="N408"/>
     </row>
-    <row r="409" spans="10:14" ht="13.5">
+    <row r="409" spans="10:14" ht="13.2">
       <c r="J409"/>
       <c r="K409"/>
       <c r="L409"/>
       <c r="M409"/>
       <c r="N409"/>
     </row>
-    <row r="410" spans="10:14" ht="13.5">
+    <row r="410" spans="10:14" ht="13.2">
       <c r="J410"/>
       <c r="K410"/>
       <c r="L410"/>
       <c r="M410"/>
       <c r="N410"/>
     </row>
-    <row r="411" spans="10:14" ht="13.5">
+    <row r="411" spans="10:14" ht="13.2">
       <c r="J411"/>
       <c r="K411"/>
       <c r="L411"/>
       <c r="M411"/>
       <c r="N411"/>
     </row>
-    <row r="412" spans="10:14" ht="13.5">
+    <row r="412" spans="10:14" ht="13.2">
       <c r="J412"/>
       <c r="K412"/>
       <c r="L412"/>
       <c r="M412"/>
       <c r="N412"/>
     </row>
-    <row r="413" spans="10:14" ht="13.5">
+    <row r="413" spans="10:14" ht="13.2">
       <c r="J413"/>
       <c r="K413"/>
       <c r="L413"/>
       <c r="M413"/>
       <c r="N413"/>
     </row>
-    <row r="414" spans="10:14" ht="13.5">
+    <row r="414" spans="10:14" ht="13.2">
       <c r="J414"/>
       <c r="K414"/>
       <c r="L414"/>
       <c r="M414"/>
       <c r="N414"/>
     </row>
-    <row r="415" spans="10:14" ht="13.5">
+    <row r="415" spans="10:14" ht="13.2">
       <c r="J415"/>
       <c r="K415"/>
       <c r="L415"/>
       <c r="M415"/>
       <c r="N415"/>
     </row>
-    <row r="416" spans="10:14" ht="13.5">
+    <row r="416" spans="10:14" ht="13.2">
       <c r="J416"/>
       <c r="K416"/>
       <c r="L416"/>
       <c r="M416"/>
       <c r="N416"/>
     </row>
-    <row r="417" spans="10:14" ht="13.5">
+    <row r="417" spans="10:14" ht="13.2">
       <c r="J417"/>
       <c r="K417"/>
       <c r="L417"/>
       <c r="M417"/>
       <c r="N417"/>
     </row>
-    <row r="418" spans="10:14" ht="13.5">
+    <row r="418" spans="10:14" ht="13.2">
       <c r="J418"/>
       <c r="K418"/>
       <c r="L418"/>
       <c r="M418"/>
       <c r="N418"/>
     </row>
-    <row r="419" spans="10:14" ht="13.5">
+    <row r="419" spans="10:14" ht="13.2">
       <c r="J419"/>
       <c r="K419"/>
       <c r="L419"/>
       <c r="M419"/>
       <c r="N419"/>
     </row>
-    <row r="420" spans="10:14" ht="13.5">
+    <row r="420" spans="10:14" ht="13.2">
       <c r="J420"/>
       <c r="K420"/>
       <c r="L420"/>
       <c r="M420"/>
       <c r="N420"/>
     </row>
-    <row r="421" spans="10:14" ht="13.5">
+    <row r="421" spans="10:14" ht="13.2">
       <c r="J421"/>
       <c r="K421"/>
       <c r="L421"/>
       <c r="M421"/>
       <c r="N421"/>
     </row>
-    <row r="422" spans="10:14" ht="13.5">
+    <row r="422" spans="10:14" ht="13.2">
       <c r="J422"/>
       <c r="K422"/>
       <c r="L422"/>
       <c r="M422"/>
       <c r="N422"/>
     </row>
-    <row r="423" spans="10:14" ht="13.5">
+    <row r="423" spans="10:14" ht="13.2">
       <c r="J423"/>
       <c r="K423"/>
       <c r="L423"/>
       <c r="M423"/>
       <c r="N423"/>
     </row>
-    <row r="424" spans="10:14" ht="13.5">
+    <row r="424" spans="10:14" ht="13.2">
       <c r="J424"/>
       <c r="K424"/>
       <c r="L424"/>
       <c r="M424"/>
       <c r="N424"/>
     </row>
-    <row r="425" spans="10:14" ht="13.5">
+    <row r="425" spans="10:14" ht="13.2">
       <c r="J425"/>
       <c r="K425"/>
       <c r="L425"/>
       <c r="M425"/>
       <c r="N425"/>
     </row>
-    <row r="426" spans="10:14" ht="13.5">
+    <row r="426" spans="10:14" ht="13.2">
       <c r="J426"/>
       <c r="K426"/>
       <c r="L426"/>
       <c r="M426"/>
       <c r="N426"/>
     </row>
-    <row r="427" spans="10:14" ht="13.5">
+    <row r="427" spans="10:14" ht="13.2">
       <c r="J427"/>
       <c r="K427"/>
       <c r="L427"/>
       <c r="M427"/>
       <c r="N427"/>
     </row>
-    <row r="428" spans="10:14" ht="13.5">
+    <row r="428" spans="10:14" ht="13.2">
       <c r="J428"/>
       <c r="K428"/>
       <c r="L428"/>
       <c r="M428"/>
       <c r="N428"/>
     </row>
-    <row r="429" spans="10:14" ht="13.5">
+    <row r="429" spans="10:14" ht="13.2">
       <c r="J429"/>
       <c r="K429"/>
       <c r="L429"/>
       <c r="M429"/>
       <c r="N429"/>
     </row>
-    <row r="430" spans="10:14" ht="13.5">
+    <row r="430" spans="10:14" ht="13.2">
       <c r="J430"/>
       <c r="K430"/>
       <c r="L430"/>
       <c r="M430"/>
       <c r="N430"/>
     </row>
-    <row r="431" spans="10:14" ht="13.5">
+    <row r="431" spans="10:14" ht="13.2">
       <c r="J431"/>
       <c r="K431"/>
       <c r="L431"/>
       <c r="M431"/>
       <c r="N431"/>
     </row>
-    <row r="432" spans="10:14" ht="13.5">
+    <row r="432" spans="10:14" ht="13.2">
       <c r="J432"/>
       <c r="K432"/>
       <c r="L432"/>
       <c r="M432"/>
       <c r="N432"/>
     </row>
-    <row r="433" spans="10:14" ht="13.5">
+    <row r="433" spans="10:14" ht="13.2">
       <c r="J433"/>
       <c r="K433"/>
       <c r="L433"/>
       <c r="M433"/>
       <c r="N433"/>
     </row>
-    <row r="434" spans="10:14" ht="13.5">
+    <row r="434" spans="10:14" ht="13.2">
       <c r="J434"/>
       <c r="K434"/>
       <c r="L434"/>
       <c r="M434"/>
       <c r="N434"/>
     </row>
-    <row r="435" spans="10:14" ht="13.5">
+    <row r="435" spans="10:14" ht="13.2">
       <c r="J435"/>
       <c r="K435"/>
       <c r="L435"/>
       <c r="M435"/>
       <c r="N435"/>
     </row>
-    <row r="436" spans="10:14" ht="13.5">
+    <row r="436" spans="10:14" ht="13.2">
       <c r="J436"/>
       <c r="K436"/>
       <c r="L436"/>
       <c r="M436"/>
       <c r="N436"/>
     </row>
-    <row r="437" spans="10:14" ht="13.5">
+    <row r="437" spans="10:14" ht="13.2">
       <c r="J437"/>
       <c r="K437"/>
       <c r="L437"/>
       <c r="M437"/>
       <c r="N437"/>
     </row>
-    <row r="438" spans="10:14" ht="13.5">
+    <row r="438" spans="10:14" ht="13.2">
       <c r="J438"/>
       <c r="K438"/>
       <c r="L438"/>
       <c r="M438"/>
       <c r="N438"/>
     </row>
-    <row r="439" spans="10:14" ht="13.5">
+    <row r="439" spans="10:14" ht="13.2">
       <c r="J439"/>
       <c r="K439"/>
       <c r="L439"/>
       <c r="M439"/>
       <c r="N439"/>
     </row>
-    <row r="440" spans="10:14" ht="13.5">
+    <row r="440" spans="10:14" ht="13.2">
       <c r="J440"/>
       <c r="K440"/>
       <c r="L440"/>
       <c r="M440"/>
       <c r="N440"/>
     </row>
-    <row r="441" spans="10:14" ht="13.5">
+    <row r="441" spans="10:14" ht="13.2">
       <c r="J441"/>
       <c r="K441"/>
       <c r="L441"/>
       <c r="M441"/>
       <c r="N441"/>
     </row>
-    <row r="442" spans="10:14" ht="13.5">
+    <row r="442" spans="10:14" ht="13.2">
       <c r="J442"/>
       <c r="K442"/>
       <c r="L442"/>
       <c r="M442"/>
       <c r="N442"/>
     </row>
-    <row r="443" spans="10:14" ht="13.5">
+    <row r="443" spans="10:14" ht="13.2">
       <c r="J443"/>
       <c r="K443"/>
       <c r="L443"/>
       <c r="M443"/>
       <c r="N443"/>
     </row>
-    <row r="444" spans="10:14" ht="13.5">
+    <row r="444" spans="10:14" ht="13.2">
       <c r="J444"/>
       <c r="K444"/>
       <c r="L444"/>
       <c r="M444"/>
       <c r="N444"/>
     </row>
-    <row r="445" spans="10:14" ht="13.5">
+    <row r="445" spans="10:14" ht="13.2">
       <c r="J445"/>
       <c r="K445"/>
       <c r="L445"/>
       <c r="M445"/>
       <c r="N445"/>
     </row>
-    <row r="446" spans="10:14" ht="13.5">
+    <row r="446" spans="10:14" ht="13.2">
       <c r="J446"/>
       <c r="K446"/>
       <c r="L446"/>
       <c r="M446"/>
       <c r="N446"/>
     </row>
-    <row r="447" spans="10:14" ht="13.5">
+    <row r="447" spans="10:14" ht="13.2">
       <c r="J447"/>
       <c r="K447"/>
       <c r="L447"/>
       <c r="M447"/>
       <c r="N447"/>
     </row>
-    <row r="448" spans="10:14" ht="13.5">
+    <row r="448" spans="10:14" ht="13.2">
       <c r="J448"/>
       <c r="K448"/>
       <c r="L448"/>
       <c r="M448"/>
       <c r="N448"/>
     </row>
-    <row r="449" spans="10:14" ht="13.5">
+    <row r="449" spans="10:14" ht="13.2">
       <c r="J449"/>
       <c r="K449"/>
       <c r="L449"/>
       <c r="M449"/>
       <c r="N449"/>
     </row>
-    <row r="450" spans="10:14" ht="13.5">
+    <row r="450" spans="10:14" ht="13.2">
       <c r="J450"/>
       <c r="K450"/>
       <c r="L450"/>
       <c r="M450"/>
       <c r="N450"/>
     </row>
-    <row r="451" spans="10:14" ht="13.5">
+    <row r="451" spans="10:14" ht="13.2">
       <c r="J451"/>
       <c r="K451"/>
       <c r="L451"/>
       <c r="M451"/>
       <c r="N451"/>
     </row>
-    <row r="452" spans="10:14" ht="13.5">
+    <row r="452" spans="10:14" ht="13.2">
       <c r="J452"/>
       <c r="K452"/>
       <c r="L452"/>
       <c r="M452"/>
       <c r="N452"/>
     </row>
-    <row r="453" spans="10:14" ht="13.5">
+    <row r="453" spans="10:14" ht="13.2">
       <c r="J453"/>
       <c r="K453"/>
       <c r="L453"/>
       <c r="M453"/>
       <c r="N453"/>
     </row>
-    <row r="454" spans="10:14" ht="13.5">
+    <row r="454" spans="10:14" ht="13.2">
       <c r="J454"/>
       <c r="K454"/>
       <c r="L454"/>
       <c r="M454"/>
       <c r="N454"/>
     </row>
-    <row r="455" spans="10:14" ht="13.5">
+    <row r="455" spans="10:14" ht="13.2">
       <c r="J455"/>
       <c r="K455"/>
       <c r="L455"/>
       <c r="M455"/>
       <c r="N455"/>
     </row>
-    <row r="456" spans="10:14" ht="13.5">
+    <row r="456" spans="10:14" ht="13.2">
       <c r="J456"/>
       <c r="K456"/>
       <c r="L456"/>
       <c r="M456"/>
       <c r="N456"/>
     </row>
-    <row r="457" spans="10:14" ht="13.5">
+    <row r="457" spans="10:14" ht="13.2">
       <c r="J457"/>
       <c r="K457"/>
       <c r="L457"/>
       <c r="M457"/>
       <c r="N457"/>
     </row>
-    <row r="458" spans="10:14" ht="13.5">
+    <row r="458" spans="10:14" ht="13.2">
       <c r="J458"/>
       <c r="K458"/>
       <c r="L458"/>
       <c r="M458"/>
       <c r="N458"/>
     </row>
-    <row r="459" spans="10:14" ht="13.5">
+    <row r="459" spans="10:14" ht="13.2">
       <c r="J459"/>
       <c r="K459"/>
       <c r="L459"/>
       <c r="M459"/>
       <c r="N459"/>
     </row>
-    <row r="460" spans="10:14" ht="13.5">
+    <row r="460" spans="10:14" ht="13.2">
       <c r="J460"/>
       <c r="K460"/>
       <c r="L460"/>
       <c r="M460"/>
       <c r="N460"/>
     </row>
-    <row r="461" spans="10:14" ht="13.5">
+    <row r="461" spans="10:14" ht="13.2">
       <c r="J461"/>
       <c r="K461"/>
       <c r="L461"/>
       <c r="M461"/>
       <c r="N461"/>
     </row>
-    <row r="462" spans="10:14" ht="13.5">
+    <row r="462" spans="10:14" ht="13.2">
       <c r="J462"/>
       <c r="K462"/>
       <c r="L462"/>
       <c r="M462"/>
       <c r="N462"/>
     </row>
-    <row r="463" spans="10:14" ht="13.5">
+    <row r="463" spans="10:14" ht="13.2">
       <c r="J463"/>
       <c r="K463"/>
       <c r="L463"/>
       <c r="M463"/>
       <c r="N463"/>
     </row>
-    <row r="464" spans="10:14" ht="13.5">
+    <row r="464" spans="10:14" ht="13.2">
       <c r="J464"/>
       <c r="K464"/>
       <c r="L464"/>
       <c r="M464"/>
       <c r="N464"/>
     </row>
-    <row r="465" spans="10:14" ht="13.5">
+    <row r="465" spans="10:14" ht="13.2">
       <c r="J465"/>
       <c r="K465"/>
       <c r="L465"/>
       <c r="M465"/>
       <c r="N465"/>
     </row>
-    <row r="466" spans="10:14" ht="13.5">
+    <row r="466" spans="10:14" ht="13.2">
       <c r="J466"/>
       <c r="K466"/>
       <c r="L466"/>
       <c r="M466"/>
       <c r="N466"/>
     </row>
-    <row r="467" spans="10:14" ht="13.5">
+    <row r="467" spans="10:14" ht="13.2">
       <c r="J467"/>
       <c r="K467"/>
       <c r="L467"/>
       <c r="M467"/>
       <c r="N467"/>
     </row>
-    <row r="468" spans="10:14" ht="13.5">
+    <row r="468" spans="10:14" ht="13.2">
       <c r="J468"/>
       <c r="K468"/>
       <c r="L468"/>
       <c r="M468"/>
       <c r="N468"/>
     </row>
-    <row r="469" spans="10:14" ht="13.5">
+    <row r="469" spans="10:14" ht="13.2">
       <c r="J469"/>
       <c r="K469"/>
       <c r="L469"/>
       <c r="M469"/>
       <c r="N469"/>
     </row>
-    <row r="470" spans="10:14" ht="13.5">
+    <row r="470" spans="10:14" ht="13.2">
       <c r="J470"/>
       <c r="K470"/>
       <c r="L470"/>
       <c r="M470"/>
       <c r="N470"/>
     </row>
-    <row r="471" spans="10:14" ht="13.5">
+    <row r="471" spans="10:14" ht="13.2">
       <c r="J471"/>
       <c r="K471"/>
       <c r="L471"/>
       <c r="M471"/>
       <c r="N471"/>
     </row>
-    <row r="472" spans="10:14" ht="13.5">
+    <row r="472" spans="10:14" ht="13.2">
       <c r="J472"/>
       <c r="K472"/>
       <c r="L472"/>
       <c r="M472"/>
       <c r="N472"/>
     </row>
-    <row r="473" spans="10:14" ht="13.5">
+    <row r="473" spans="10:14" ht="13.2">
       <c r="J473"/>
       <c r="K473"/>
       <c r="L473"/>
       <c r="M473"/>
       <c r="N473"/>
     </row>
-    <row r="474" spans="10:14" ht="13.5">
+    <row r="474" spans="10:14" ht="13.2">
       <c r="J474"/>
       <c r="K474"/>
       <c r="L474"/>
       <c r="M474"/>
       <c r="N474"/>
     </row>
-    <row r="475" spans="10:14" ht="13.5">
+    <row r="475" spans="10:14" ht="13.2">
       <c r="J475"/>
       <c r="K475"/>
       <c r="L475"/>
       <c r="M475"/>
       <c r="N475"/>
     </row>
-    <row r="476" spans="10:14" ht="13.5">
+    <row r="476" spans="10:14" ht="13.2">
       <c r="J476"/>
       <c r="K476"/>
       <c r="L476"/>
       <c r="M476"/>
       <c r="N476"/>
     </row>
-    <row r="477" spans="10:14" ht="13.5">
+    <row r="477" spans="10:14" ht="13.2">
       <c r="J477"/>
       <c r="K477"/>
       <c r="L477"/>
       <c r="M477"/>
       <c r="N477"/>
     </row>
-    <row r="478" spans="10:14" ht="13.5">
+    <row r="478" spans="10:14" ht="13.2">
       <c r="J478"/>
       <c r="K478"/>
       <c r="L478"/>
       <c r="M478"/>
       <c r="N478"/>
     </row>
-    <row r="479" spans="10:14" ht="13.5">
+    <row r="479" spans="10:14" ht="13.2">
       <c r="J479"/>
       <c r="K479"/>
       <c r="L479"/>
       <c r="M479"/>
       <c r="N479"/>
     </row>
-    <row r="480" spans="10:14" ht="13.5">
+    <row r="480" spans="10:14" ht="13.2">
       <c r="J480"/>
       <c r="K480"/>
       <c r="L480"/>
       <c r="M480"/>
       <c r="N480"/>
     </row>
-    <row r="481" spans="10:14" ht="13.5">
+    <row r="481" spans="10:14" ht="13.2">
       <c r="J481"/>
       <c r="K481"/>
       <c r="L481"/>
       <c r="M481"/>
       <c r="N481"/>
     </row>
-    <row r="482" spans="10:14" ht="13.5">
+    <row r="482" spans="10:14" ht="13.2">
       <c r="J482"/>
       <c r="K482"/>
       <c r="L482"/>
       <c r="M482"/>
       <c r="N482"/>
     </row>
-    <row r="483" spans="10:14" ht="13.5">
+    <row r="483" spans="10:14" ht="13.2">
       <c r="J483"/>
       <c r="K483"/>
       <c r="L483"/>
       <c r="M483"/>
       <c r="N483"/>
     </row>
-    <row r="484" spans="10:14" ht="13.5">
+    <row r="484" spans="10:14" ht="13.2">
       <c r="J484"/>
       <c r="K484"/>
       <c r="L484"/>
       <c r="M484"/>
       <c r="N484"/>
     </row>
-    <row r="485" spans="10:14" ht="13.5">
+    <row r="485" spans="10:14" ht="13.2">
       <c r="J485"/>
       <c r="K485"/>
       <c r="L485"/>
       <c r="M485"/>
       <c r="N485"/>
     </row>
-    <row r="486" spans="10:14" ht="13.5">
+    <row r="486" spans="10:14" ht="13.2">
       <c r="J486"/>
       <c r="K486"/>
       <c r="L486"/>
       <c r="M486"/>
       <c r="N486"/>
     </row>
-    <row r="487" spans="10:14" ht="13.5">
+    <row r="487" spans="10:14" ht="13.2">
       <c r="J487"/>
       <c r="K487"/>
       <c r="L487"/>
       <c r="M487"/>
       <c r="N487"/>
     </row>
-    <row r="488" spans="10:14" ht="13.5">
+    <row r="488" spans="10:14" ht="13.2">
       <c r="J488"/>
       <c r="K488"/>
       <c r="L488"/>
       <c r="M488"/>
       <c r="N488"/>
     </row>
-    <row r="489" spans="10:14" ht="13.5">
+    <row r="489" spans="10:14" ht="13.2">
       <c r="J489"/>
       <c r="K489"/>
       <c r="L489"/>
       <c r="M489"/>
       <c r="N489"/>
     </row>
-    <row r="490" spans="10:14" ht="13.5">
+    <row r="490" spans="10:14" ht="13.2">
       <c r="J490"/>
       <c r="K490"/>
       <c r="L490"/>
       <c r="M490"/>
       <c r="N490"/>
     </row>
-    <row r="491" spans="10:14" ht="13.5">
+    <row r="491" spans="10:14" ht="13.2">
       <c r="J491"/>
       <c r="K491"/>
       <c r="L491"/>
       <c r="M491"/>
       <c r="N491"/>
     </row>
-    <row r="492" spans="10:14" ht="13.5">
+    <row r="492" spans="10:14" ht="13.2">
       <c r="J492"/>
       <c r="K492"/>
       <c r="L492"/>
       <c r="M492"/>
       <c r="N492"/>
     </row>
-    <row r="493" spans="10:14" ht="13.5">
+    <row r="493" spans="10:14" ht="13.2">
       <c r="J493"/>
       <c r="K493"/>
       <c r="L493"/>
       <c r="M493"/>
       <c r="N493"/>
     </row>
-    <row r="494" spans="10:14" ht="13.5">
+    <row r="494" spans="10:14" ht="13.2">
       <c r="J494"/>
       <c r="K494"/>
       <c r="L494"/>
       <c r="M494"/>
       <c r="N494"/>
     </row>
-    <row r="495" spans="10:14" ht="13.5">
+    <row r="495" spans="10:14" ht="13.2">
       <c r="J495"/>
       <c r="K495"/>
       <c r="L495"/>
       <c r="M495"/>
       <c r="N495"/>
     </row>
-    <row r="496" spans="10:14" ht="13.5">
+    <row r="496" spans="10:14" ht="13.2">
       <c r="J496"/>
       <c r="K496"/>
       <c r="L496"/>
       <c r="M496"/>
       <c r="N496"/>
     </row>
-    <row r="497" spans="10:14" ht="13.5">
+    <row r="497" spans="10:14" ht="13.2">
       <c r="J497"/>
       <c r="K497"/>
       <c r="L497"/>
       <c r="M497"/>
       <c r="N497"/>
     </row>
-    <row r="498" spans="10:14" ht="13.5">
+    <row r="498" spans="10:14" ht="13.2">
       <c r="J498"/>
       <c r="K498"/>
       <c r="L498"/>
       <c r="M498"/>
       <c r="N498"/>
     </row>
-    <row r="499" spans="10:14" ht="13.5">
+    <row r="499" spans="10:14" ht="13.2">
       <c r="J499"/>
       <c r="K499"/>
       <c r="L499"/>
       <c r="M499"/>
       <c r="N499"/>
     </row>
-    <row r="500" spans="10:14" ht="13.5">
+    <row r="500" spans="10:14" ht="13.2">
       <c r="J500"/>
       <c r="K500"/>
       <c r="L500"/>
       <c r="M500"/>
       <c r="N500"/>
     </row>
-    <row r="501" spans="10:14" ht="13.5">
+    <row r="501" spans="10:14" ht="13.2">
       <c r="J501"/>
       <c r="K501"/>
       <c r="L501"/>
       <c r="M501"/>
       <c r="N501"/>
     </row>
-    <row r="502" spans="10:14" ht="13.5">
+    <row r="502" spans="10:14" ht="13.2">
       <c r="J502"/>
       <c r="K502"/>
       <c r="L502"/>
       <c r="M502"/>
       <c r="N502"/>
     </row>
-    <row r="503" spans="10:14" ht="13.5">
+    <row r="503" spans="10:14" ht="13.2">
       <c r="J503"/>
       <c r="K503"/>
       <c r="L503"/>
       <c r="M503"/>
       <c r="N503"/>
     </row>
-    <row r="504" spans="10:14" ht="13.5">
+    <row r="504" spans="10:14" ht="13.2">
       <c r="J504"/>
       <c r="K504"/>
       <c r="L504"/>
       <c r="M504"/>
       <c r="N504"/>
     </row>
-    <row r="505" spans="10:14" ht="13.5">
+    <row r="505" spans="10:14" ht="13.2">
       <c r="J505"/>
       <c r="K505"/>
       <c r="L505"/>
       <c r="M505"/>
       <c r="N505"/>
     </row>
-    <row r="506" spans="10:14" ht="13.5">
+    <row r="506" spans="10:14" ht="13.2">
       <c r="J506"/>
       <c r="K506"/>
       <c r="L506"/>
       <c r="M506"/>
       <c r="N506"/>
     </row>
-    <row r="507" spans="10:14" ht="13.5">
+    <row r="507" spans="10:14" ht="13.2">
       <c r="J507"/>
       <c r="K507"/>
       <c r="L507"/>
       <c r="M507"/>
       <c r="N507"/>
     </row>
-    <row r="508" spans="10:14" ht="13.5">
+    <row r="508" spans="10:14" ht="13.2">
       <c r="J508"/>
       <c r="K508"/>
       <c r="L508"/>
       <c r="M508"/>
       <c r="N508"/>
     </row>
-    <row r="509" spans="10:14" ht="13.5">
+    <row r="509" spans="10:14" ht="13.2">
       <c r="J509"/>
       <c r="K509"/>
       <c r="L509"/>
       <c r="M509"/>
       <c r="N509"/>
     </row>
-    <row r="510" spans="10:14" ht="13.5">
+    <row r="510" spans="10:14" ht="13.2">
       <c r="J510"/>
       <c r="K510"/>
       <c r="L510"/>
       <c r="M510"/>
       <c r="N510"/>
     </row>
-    <row r="511" spans="10:14" ht="13.5">
+    <row r="511" spans="10:14" ht="13.2">
       <c r="J511"/>
       <c r="K511"/>
       <c r="L511"/>
       <c r="M511"/>
       <c r="N511"/>
     </row>
-    <row r="512" spans="10:14" ht="13.5">
+    <row r="512" spans="10:14" ht="13.2">
       <c r="J512"/>
       <c r="K512"/>
       <c r="L512"/>
       <c r="M512"/>
       <c r="N512"/>
     </row>
-    <row r="513" spans="10:14" ht="13.5">
+    <row r="513" spans="10:14" ht="13.2">
       <c r="J513"/>
       <c r="K513"/>
       <c r="L513"/>
       <c r="M513"/>
       <c r="N513"/>
     </row>
-    <row r="514" spans="10:14" ht="13.5">
+    <row r="514" spans="10:14" ht="13.2">
       <c r="J514"/>
       <c r="K514"/>
       <c r="L514"/>
       <c r="M514"/>
       <c r="N514"/>
     </row>
-    <row r="515" spans="10:14" ht="13.5">
+    <row r="515" spans="10:14" ht="13.2">
       <c r="J515"/>
       <c r="K515"/>
       <c r="L515"/>
       <c r="M515"/>
       <c r="N515"/>
     </row>
-    <row r="516" spans="10:14" ht="13.5">
+    <row r="516" spans="10:14" ht="13.2">
       <c r="J516"/>
       <c r="K516"/>
       <c r="L516"/>
       <c r="M516"/>
       <c r="N516"/>
     </row>
-    <row r="517" spans="10:14" ht="13.5">
+    <row r="517" spans="10:14" ht="13.2">
       <c r="J517"/>
       <c r="K517"/>
       <c r="L517"/>
       <c r="M517"/>
       <c r="N517"/>
     </row>
-    <row r="518" spans="10:14" ht="13.5">
+    <row r="518" spans="10:14" ht="13.2">
       <c r="J518"/>
       <c r="K518"/>
       <c r="L518"/>
       <c r="M518"/>
       <c r="N518"/>
     </row>
-    <row r="519" spans="10:14" ht="13.5">
+    <row r="519" spans="10:14" ht="13.2">
       <c r="J519"/>
       <c r="K519"/>
       <c r="L519"/>
       <c r="M519"/>
       <c r="N519"/>
     </row>
-    <row r="520" spans="10:14" ht="13.5">
+    <row r="520" spans="10:14" ht="13.2">
       <c r="J520"/>
       <c r="K520"/>
       <c r="L520"/>
       <c r="M520"/>
       <c r="N520"/>
     </row>
-    <row r="521" spans="10:14" ht="13.5">
+    <row r="521" spans="10:14" ht="13.2">
       <c r="J521"/>
       <c r="K521"/>
       <c r="L521"/>
       <c r="M521"/>
       <c r="N521"/>
     </row>
-    <row r="522" spans="10:14" ht="13.5">
+    <row r="522" spans="10:14" ht="13.2">
       <c r="J522"/>
       <c r="K522"/>
       <c r="L522"/>
       <c r="M522"/>
       <c r="N522"/>
     </row>
-    <row r="523" spans="10:14" ht="13.5">
+    <row r="523" spans="10:14" ht="13.2">
       <c r="J523"/>
       <c r="K523"/>
       <c r="L523"/>
       <c r="M523"/>
       <c r="N523"/>
     </row>
-    <row r="524" spans="10:14" ht="13.5">
+    <row r="524" spans="10:14" ht="13.2">
       <c r="J524"/>
       <c r="K524"/>
       <c r="L524"/>
       <c r="M524"/>
       <c r="N524"/>
     </row>
-    <row r="525" spans="10:14" ht="13.5">
+    <row r="525" spans="10:14" ht="13.2">
       <c r="J525"/>
       <c r="K525"/>
       <c r="L525"/>
       <c r="M525"/>
       <c r="N525"/>
     </row>
-    <row r="526" spans="10:14" ht="13.5">
+    <row r="526" spans="10:14" ht="13.2">
       <c r="J526"/>
       <c r="K526"/>
       <c r="L526"/>
       <c r="M526"/>
       <c r="N526"/>
     </row>
-    <row r="527" spans="10:14" ht="13.5">
+    <row r="527" spans="10:14" ht="13.2">
       <c r="J527"/>
       <c r="K527"/>
       <c r="L527"/>
       <c r="M527"/>
       <c r="N527"/>
     </row>
-    <row r="528" spans="10:14" ht="13.5">
+    <row r="528" spans="10:14" ht="13.2">
       <c r="J528"/>
       <c r="K528"/>
       <c r="L528"/>
       <c r="M528"/>
       <c r="N528"/>
     </row>
-    <row r="529" spans="10:14" ht="13.5">
+    <row r="529" spans="10:14" ht="13.2">
       <c r="J529"/>
       <c r="K529"/>
       <c r="L529"/>
       <c r="M529"/>
       <c r="N529"/>
     </row>
-    <row r="530" spans="10:14" ht="13.5">
+    <row r="530" spans="10:14" ht="13.2">
       <c r="J530"/>
       <c r="K530"/>
       <c r="L530"/>
       <c r="M530"/>
       <c r="N530"/>
     </row>
-    <row r="531" spans="10:14" ht="13.5">
+    <row r="531" spans="10:14" ht="13.2">
       <c r="J531"/>
       <c r="K531"/>
       <c r="L531"/>
       <c r="M531"/>
       <c r="N531"/>
     </row>
-    <row r="532" spans="10:14" ht="13.5">
+    <row r="532" spans="10:14" ht="13.2">
       <c r="J532"/>
       <c r="K532"/>
       <c r="L532"/>
       <c r="M532"/>
       <c r="N532"/>
     </row>
-    <row r="533" spans="10:14" ht="13.5">
+    <row r="533" spans="10:14" ht="13.2">
       <c r="J533"/>
       <c r="K533"/>
       <c r="L533"/>
       <c r="M533"/>
       <c r="N533"/>
     </row>
-    <row r="534" spans="10:14" ht="13.5">
+    <row r="534" spans="10:14" ht="13.2">
       <c r="J534"/>
       <c r="K534"/>
       <c r="L534"/>
       <c r="M534"/>
       <c r="N534"/>
     </row>
-    <row r="535" spans="10:14" ht="13.5">
+    <row r="535" spans="10:14" ht="13.2">
       <c r="J535"/>
       <c r="K535"/>
       <c r="L535"/>
       <c r="M535"/>
       <c r="N535"/>
     </row>
-    <row r="536" spans="10:14" ht="13.5">
+    <row r="536" spans="10:14" ht="13.2">
       <c r="J536"/>
       <c r="K536"/>
       <c r="L536"/>
       <c r="M536"/>
       <c r="N536"/>
     </row>
-    <row r="537" spans="10:14" ht="13.5">
+    <row r="537" spans="10:14" ht="13.2">
       <c r="J537"/>
       <c r="K537"/>
       <c r="L537"/>
       <c r="M537"/>
       <c r="N537"/>
     </row>
-    <row r="538" spans="10:14" ht="13.5">
+    <row r="538" spans="10:14" ht="13.2">
       <c r="J538"/>
       <c r="K538"/>
       <c r="L538"/>
       <c r="M538"/>
       <c r="N538"/>
     </row>
-    <row r="539" spans="10:14" ht="13.5">
+    <row r="539" spans="10:14" ht="13.2">
       <c r="J539"/>
       <c r="K539"/>
       <c r="L539"/>
       <c r="M539"/>
       <c r="N539"/>
     </row>
-    <row r="540" spans="10:14" ht="13.5">
+    <row r="540" spans="10:14" ht="13.2">
       <c r="J540"/>
       <c r="K540"/>
       <c r="L540"/>
       <c r="M540"/>
       <c r="N540"/>
     </row>
-    <row r="541" spans="10:14" ht="13.5">
+    <row r="541" spans="10:14" ht="13.2">
       <c r="J541"/>
       <c r="K541"/>
       <c r="L541"/>
       <c r="M541"/>
       <c r="N541"/>
     </row>
-    <row r="542" spans="10:14" ht="13.5">
+    <row r="542" spans="10:14" ht="13.2">
       <c r="J542"/>
       <c r="K542"/>
       <c r="L542"/>
       <c r="M542"/>
       <c r="N542"/>
     </row>
-    <row r="543" spans="10:14" ht="13.5">
+    <row r="543" spans="10:14" ht="13.2">
       <c r="J543"/>
       <c r="K543"/>
       <c r="L543"/>
@@ -9332,21 +9332,44 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="A54:N54"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -9363,44 +9386,21 @@
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="A54:N54"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9415,7 +9415,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9429,7 +9429,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="213">
   <si>
     <t>Fail</t>
   </si>
@@ -838,6 +838,9 @@
 3: Type "Ivan Ivanov" in "Full Name" field
 4: Type any password longer than 50 symbols in "Password" field
 5: Type "0123456789012345678901234567891" in "Confirm Password"field 6: Click on "Register" button</t>
+  </si>
+  <si>
+    <t>Iliya Iliev</t>
   </si>
 </sst>
 </file>
@@ -1407,11 +1410,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1422,23 +1425,38 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1470,9 +1488,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1485,29 +1500,17 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4114,8 +4117,8 @@
   </sheetPr>
   <dimension ref="A1:R543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -4126,7 +4129,7 @@
     <col min="4" max="4" width="42.109375" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="39"/>
     <col min="11" max="13" width="13.109375" style="39" customWidth="1"/>
     <col min="14" max="14" width="18" style="37" customWidth="1"/>
@@ -4136,10 +4139,10 @@
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -4153,10 +4156,10 @@
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -4172,59 +4175,59 @@
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="26.4">
       <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" ht="26.4">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4246,12 +4249,12 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4273,20 +4276,20 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4299,76 +4302,76 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="75" t="s">
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="55" t="s">
         <v>16</v>
       </c>
       <c r="L9" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="71" t="s">
+      <c r="N9" s="57" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="51"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="49"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="71"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" s="26" customFormat="1" ht="15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="78"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="81"/>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="13.2">
       <c r="A12" s="52" t="s">
@@ -4399,11 +4402,11 @@
       <c r="D13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="28"/>
       <c r="I13" s="46">
         <v>42841</v>
@@ -4431,11 +4434,11 @@
       <c r="D14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="28"/>
       <c r="I14" s="46">
         <v>42841</v>
@@ -4463,14 +4466,14 @@
       <c r="D15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="28"/>
       <c r="I15" s="46">
-        <v>42841</v>
+        <v>42869</v>
       </c>
       <c r="J15" s="29" t="s">
         <v>0</v>
@@ -4482,7 +4485,7 @@
         <v>160</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="N15" s="27"/>
     </row>
@@ -4497,11 +4500,11 @@
       <c r="D16" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="28"/>
       <c r="I16" s="46">
         <v>42841</v>
@@ -4529,14 +4532,14 @@
       <c r="D17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="28"/>
       <c r="I17" s="46">
-        <v>42841</v>
+        <v>42869</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>0</v>
@@ -4548,7 +4551,7 @@
         <v>161</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="N17" s="27"/>
     </row>
@@ -4563,11 +4566,11 @@
       <c r="D18" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="28"/>
       <c r="I18" s="46">
         <v>42841</v>
@@ -4595,14 +4598,14 @@
       <c r="D19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="28"/>
       <c r="I19" s="46">
-        <v>42841</v>
+        <v>42869</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>0</v>
@@ -4614,7 +4617,7 @@
         <v>161</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="N19" s="27"/>
     </row>
@@ -4629,11 +4632,11 @@
       <c r="D20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="28"/>
       <c r="I20" s="46">
         <v>42841</v>
@@ -4661,11 +4664,11 @@
       <c r="D21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="28"/>
       <c r="I21" s="46">
         <v>42841</v>
@@ -4693,14 +4696,14 @@
       <c r="D22" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="28"/>
       <c r="I22" s="46">
-        <v>42841</v>
+        <v>42869</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>0</v>
@@ -4712,7 +4715,7 @@
         <v>161</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="N22" s="32"/>
     </row>
@@ -4727,11 +4730,11 @@
       <c r="D23" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="28"/>
       <c r="I23" s="46">
         <v>42841</v>
@@ -4765,11 +4768,11 @@
       <c r="D24" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="28"/>
       <c r="I24" s="46">
         <v>42841</v>
@@ -4797,11 +4800,11 @@
       <c r="D25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="28"/>
       <c r="I25" s="46">
         <v>42841</v>
@@ -4829,11 +4832,11 @@
       <c r="D26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="28"/>
       <c r="I26" s="46">
         <v>42841</v>
@@ -4861,11 +4864,11 @@
       <c r="D27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="28"/>
       <c r="I27" s="46">
         <v>42841</v>
@@ -4913,11 +4916,11 @@
       <c r="D29" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="28"/>
       <c r="I29" s="46">
         <v>42843</v>
@@ -4945,11 +4948,11 @@
       <c r="D30" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="28"/>
       <c r="I30" s="46">
         <v>42843</v>
@@ -4979,11 +4982,11 @@
       <c r="D31" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="28"/>
       <c r="I31" s="46">
         <v>42843</v>
@@ -5013,11 +5016,11 @@
       <c r="D32" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="28"/>
       <c r="I32" s="46">
         <v>42843</v>
@@ -5047,11 +5050,11 @@
       <c r="D33" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="28"/>
       <c r="I33" s="46">
         <v>42843</v>
@@ -5099,11 +5102,11 @@
       <c r="D35" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="28"/>
       <c r="I35" s="46">
         <v>42843</v>
@@ -5133,11 +5136,11 @@
       <c r="D36" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="28"/>
       <c r="I36" s="46">
         <v>42843</v>
@@ -5167,11 +5170,11 @@
       <c r="D37" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="28"/>
       <c r="I37" s="46">
         <v>42843</v>
@@ -5201,11 +5204,11 @@
       <c r="D38" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="28"/>
       <c r="I38" s="46">
         <v>42843</v>
@@ -5237,11 +5240,11 @@
       <c r="D39" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
       <c r="H39" s="28"/>
       <c r="I39" s="46">
         <v>42843</v>
@@ -5271,11 +5274,11 @@
       <c r="D40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="55" t="s">
+      <c r="E40" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
       <c r="H40" s="28"/>
       <c r="I40" s="46">
         <v>42843</v>
@@ -5307,11 +5310,11 @@
       <c r="D41" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="28"/>
       <c r="I41" s="46">
         <v>42843</v>
@@ -5361,11 +5364,11 @@
       <c r="D43" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
       <c r="H43" s="28"/>
       <c r="I43" s="46">
         <v>42843</v>
@@ -5395,11 +5398,11 @@
       <c r="D44" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="28"/>
       <c r="I44" s="46">
         <v>42843</v>
@@ -5431,11 +5434,11 @@
       <c r="D45" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
       <c r="H45" s="28"/>
       <c r="I45" s="46">
         <v>42843</v>
@@ -5465,11 +5468,11 @@
       <c r="D46" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
       <c r="H46" s="28"/>
       <c r="I46" s="46">
         <v>42843</v>
@@ -5501,11 +5504,11 @@
       <c r="D47" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
       <c r="H47" s="28"/>
       <c r="I47" s="46">
         <v>42843</v>
@@ -5537,11 +5540,11 @@
       <c r="D48" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="55" t="s">
+      <c r="E48" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
       <c r="H48" s="28"/>
       <c r="I48" s="46">
         <v>42843</v>
@@ -5571,11 +5574,11 @@
       <c r="D49" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
       <c r="H49" s="28"/>
       <c r="I49" s="46">
         <v>42843</v>
@@ -5607,11 +5610,11 @@
       <c r="D50" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="55" t="s">
+      <c r="E50" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
       <c r="H50" s="28"/>
       <c r="I50" s="46">
         <v>42843</v>
@@ -5643,11 +5646,11 @@
       <c r="D51" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E51" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
       <c r="H51" s="28"/>
       <c r="I51" s="46">
         <v>42843</v>
@@ -5677,11 +5680,11 @@
       <c r="D52" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="55" t="s">
+      <c r="E52" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="28"/>
       <c r="I52" s="46">
         <v>42843</v>
@@ -5711,11 +5714,11 @@
       <c r="D53" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="55" t="s">
+      <c r="E53" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
       <c r="H53" s="28"/>
       <c r="I53" s="46">
         <v>42843</v>
@@ -5763,11 +5766,11 @@
       <c r="D55" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="55" t="s">
+      <c r="E55" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
       <c r="H55" s="28"/>
       <c r="I55" s="46">
         <v>42847</v>
@@ -5797,11 +5800,11 @@
       <c r="D56" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="55" t="s">
+      <c r="E56" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
       <c r="H56" s="28"/>
       <c r="I56" s="46">
         <v>42847</v>
@@ -5831,11 +5834,11 @@
       <c r="D57" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
       <c r="H57" s="28"/>
       <c r="I57" s="46">
         <v>42847</v>
@@ -5865,11 +5868,11 @@
       <c r="D58" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
       <c r="H58" s="28"/>
       <c r="I58" s="46">
         <v>42847</v>
@@ -5901,11 +5904,11 @@
       <c r="D59" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
       <c r="H59" s="28"/>
       <c r="I59" s="46">
         <v>42847</v>
@@ -9332,44 +9335,21 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="A54:N54"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -9386,21 +9366,44 @@
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="A54:N54"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA-Automation-Team-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftUni\Team Papaya\QA-Automation-Team-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="All Test Cases" sheetId="122" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="217">
   <si>
     <t>Fail</t>
   </si>
@@ -840,7 +840,20 @@
 5: Type "0123456789012345678901234567891" in "Confirm Password"field 6: Click on "Register" button</t>
   </si>
   <si>
-    <t>Iliya Iliev</t>
+    <t>registered profile with credentials email: test@test.bg, password: 123456</t>
+  </si>
+  <si>
+    <t>LP_TC6</t>
+  </si>
+  <si>
+    <t>Log in without email and password</t>
+  </si>
+  <si>
+    <t>1: Open blog "Log in" page
+2: Click on "Log in" button</t>
+  </si>
+  <si>
+    <t>"The Email field is required." and "The Password field is required." error messages should be shown to user</t>
   </si>
 </sst>
 </file>
@@ -1410,11 +1423,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1425,38 +1438,23 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1488,6 +1486,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1500,17 +1501,29 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4115,23 +4128,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R543"/>
+  <dimension ref="A1:R544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:G25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="39"/>
-    <col min="11" max="13" width="13.109375" style="39" customWidth="1"/>
+    <col min="11" max="13" width="13.125" style="39" customWidth="1"/>
     <col min="14" max="14" width="18" style="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4139,10 +4152,10 @@
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -4156,10 +4169,10 @@
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -4175,59 +4188,59 @@
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="26.4">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="12.75">
       <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="26.4">
+    <row r="5" spans="1:15" s="23" customFormat="1" ht="25.5">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4235,26 +4248,26 @@
         <v>13</v>
       </c>
       <c r="B6" s="33">
-        <f>COUNTIF(J12:J127,"Pass")</f>
-        <v>29</v>
+        <f>COUNTIF(J12:J128,"Pass")</f>
+        <v>30</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="10">
-        <f>COUNTIF(J10:J750,"Pending")</f>
+        <f>COUNTIF(J10:J751,"Pending")</f>
         <v>0</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4262,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="34">
-        <f>COUNTIF(J12:J127,"Fail")</f>
+        <f>COUNTIF(J12:J128,"Fail")</f>
         <v>14</v>
       </c>
       <c r="C7" s="34"/>
@@ -4270,26 +4283,26 @@
         <v>6</v>
       </c>
       <c r="E7" s="15">
-        <f>COUNTIF(A12:A127,"TC*")</f>
+        <f>COUNTIF(A12:A128,"TC*")</f>
         <v>0</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4302,78 +4315,78 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="79" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="50" t="s">
         <v>16</v>
       </c>
       <c r="L9" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="57" t="s">
+      <c r="N9" s="71" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="56"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="49"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" s="26" customFormat="1" ht="15">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="81"/>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="13.2">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="78"/>
+    </row>
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="12.75">
       <c r="A12" s="52" t="s">
         <v>75</v>
       </c>
@@ -4391,7 +4404,7 @@
       <c r="M12" s="53"/>
       <c r="N12" s="54"/>
     </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="13" spans="1:15" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A13" s="30" t="s">
         <v>162</v>
       </c>
@@ -4402,11 +4415,11 @@
       <c r="D13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="28"/>
       <c r="I13" s="46">
         <v>42841</v>
@@ -4434,11 +4447,11 @@
       <c r="D14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="28"/>
       <c r="I14" s="46">
         <v>42841</v>
@@ -4455,7 +4468,7 @@
       </c>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="15" spans="1:15" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A15" s="30" t="s">
         <v>164</v>
       </c>
@@ -4466,14 +4479,14 @@
       <c r="D15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="28"/>
       <c r="I15" s="46">
-        <v>42869</v>
+        <v>42841</v>
       </c>
       <c r="J15" s="29" t="s">
         <v>0</v>
@@ -4485,11 +4498,11 @@
         <v>160</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" ht="79.2" outlineLevel="1">
+    <row r="16" spans="1:15" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A16" s="30" t="s">
         <v>165</v>
       </c>
@@ -4500,11 +4513,11 @@
       <c r="D16" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="28"/>
       <c r="I16" s="46">
         <v>42841</v>
@@ -4521,7 +4534,7 @@
       </c>
       <c r="N16" s="27"/>
     </row>
-    <row r="17" spans="1:18" s="3" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="17" spans="1:18" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A17" s="30" t="s">
         <v>166</v>
       </c>
@@ -4532,14 +4545,14 @@
       <c r="D17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="28"/>
       <c r="I17" s="46">
-        <v>42869</v>
+        <v>42841</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>0</v>
@@ -4551,7 +4564,7 @@
         <v>161</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="N17" s="27"/>
     </row>
@@ -4566,11 +4579,11 @@
       <c r="D18" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="28"/>
       <c r="I18" s="46">
         <v>42841</v>
@@ -4598,14 +4611,14 @@
       <c r="D19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="28"/>
       <c r="I19" s="46">
-        <v>42869</v>
+        <v>42841</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>0</v>
@@ -4617,7 +4630,7 @@
         <v>161</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="N19" s="27"/>
     </row>
@@ -4632,11 +4645,11 @@
       <c r="D20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="28"/>
       <c r="I20" s="46">
         <v>42841</v>
@@ -4653,7 +4666,7 @@
       </c>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:18" s="3" customFormat="1" ht="105.6" outlineLevel="1">
+    <row r="21" spans="1:18" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A21" s="30" t="s">
         <v>170</v>
       </c>
@@ -4664,11 +4677,11 @@
       <c r="D21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="28"/>
       <c r="I21" s="46">
         <v>42841</v>
@@ -4685,7 +4698,7 @@
       </c>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:18" s="31" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="22" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A22" s="30" t="s">
         <v>171</v>
       </c>
@@ -4696,14 +4709,14 @@
       <c r="D22" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="28"/>
       <c r="I22" s="46">
-        <v>42869</v>
+        <v>42841</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>0</v>
@@ -4715,11 +4728,11 @@
         <v>161</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="N22" s="32"/>
     </row>
-    <row r="23" spans="1:18" s="31" customFormat="1" ht="118.8" outlineLevel="1">
+    <row r="23" spans="1:18" s="31" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A23" s="30" t="s">
         <v>172</v>
       </c>
@@ -4730,11 +4743,11 @@
       <c r="D23" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="28"/>
       <c r="I23" s="46">
         <v>42841</v>
@@ -4757,7 +4770,7 @@
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
     </row>
-    <row r="24" spans="1:18" s="31" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="24" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A24" s="30" t="s">
         <v>173</v>
       </c>
@@ -4768,11 +4781,11 @@
       <c r="D24" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="28"/>
       <c r="I24" s="46">
         <v>42841</v>
@@ -4789,7 +4802,7 @@
       </c>
       <c r="N24" s="32"/>
     </row>
-    <row r="25" spans="1:18" s="31" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="25" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A25" s="30" t="s">
         <v>174</v>
       </c>
@@ -4800,11 +4813,11 @@
       <c r="D25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="28"/>
       <c r="I25" s="46">
         <v>42841</v>
@@ -4832,11 +4845,11 @@
       <c r="D26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="28"/>
       <c r="I26" s="46">
         <v>42841</v>
@@ -4864,11 +4877,11 @@
       <c r="D27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="28"/>
       <c r="I27" s="46">
         <v>42841</v>
@@ -4885,7 +4898,7 @@
       </c>
       <c r="N27" s="32"/>
     </row>
-    <row r="28" spans="1:18" s="3" customFormat="1" ht="13.2">
+    <row r="28" spans="1:18" s="3" customFormat="1" ht="12.75">
       <c r="A28" s="52" t="s">
         <v>74</v>
       </c>
@@ -4903,7 +4916,7 @@
       <c r="M28" s="53"/>
       <c r="N28" s="54"/>
     </row>
-    <row r="29" spans="1:18" s="31" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="29" spans="1:18" s="31" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A29" s="30" t="s">
         <v>177</v>
       </c>
@@ -4911,16 +4924,16 @@
         <v>60</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="28"/>
       <c r="I29" s="46">
         <v>42843</v>
@@ -4937,7 +4950,7 @@
       </c>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:18" s="31" customFormat="1" ht="52.8" outlineLevel="1">
+    <row r="30" spans="1:18" s="31" customFormat="1" ht="51" outlineLevel="1">
       <c r="A30" s="30" t="s">
         <v>178</v>
       </c>
@@ -4948,11 +4961,11 @@
       <c r="D30" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="28"/>
       <c r="I30" s="46">
         <v>42843</v>
@@ -4969,7 +4982,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:18" s="31" customFormat="1" ht="79.2" outlineLevel="1">
+    <row r="31" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A31" s="30" t="s">
         <v>179</v>
       </c>
@@ -4982,11 +4995,11 @@
       <c r="D31" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="28"/>
       <c r="I31" s="46">
         <v>42843</v>
@@ -5003,7 +5016,7 @@
       </c>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:18" s="31" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="32" spans="1:18" s="31" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A32" s="30" t="s">
         <v>180</v>
       </c>
@@ -5016,11 +5029,11 @@
       <c r="D32" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="28"/>
       <c r="I32" s="46">
         <v>42843</v>
@@ -5037,27 +5050,25 @@
       </c>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" spans="1:14" s="31" customFormat="1" ht="26.4" outlineLevel="1">
+    <row r="33" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A33" s="30" t="s">
         <v>181</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>109</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C33" s="32"/>
       <c r="D33" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
+        <v>215</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
       <c r="H33" s="28"/>
       <c r="I33" s="46">
-        <v>42843</v>
+        <v>42869</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>13</v>
@@ -5071,76 +5082,76 @@
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" ht="13.2">
-      <c r="A34" s="52" t="s">
+    <row r="34" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A34" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="46">
+        <v>42843</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="32"/>
+    </row>
+    <row r="35" spans="1:14" s="3" customFormat="1" ht="12.75">
+      <c r="A35" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="54"/>
-    </row>
-    <row r="35" spans="1:14" s="31" customFormat="1" ht="145.19999999999999" outlineLevel="1">
-      <c r="A35" s="30" t="s">
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="54"/>
+    </row>
+    <row r="36" spans="1:14" s="31" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="A36" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B36" s="40" t="s">
         <v>68</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="46">
-        <v>42843</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="M35" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" s="32"/>
-    </row>
-    <row r="36" spans="1:14" s="31" customFormat="1" ht="66" outlineLevel="1">
-      <c r="A36" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>76</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>109</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
+        <v>136</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="28"/>
       <c r="I36" s="46">
         <v>42843</v>
@@ -5150,31 +5161,31 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M36" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="1:14" s="31" customFormat="1" ht="118.8" outlineLevel="1">
+    <row r="37" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
       <c r="A37" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="28"/>
       <c r="I37" s="46">
         <v>42843</v>
@@ -5191,34 +5202,32 @@
       </c>
       <c r="N37" s="32"/>
     </row>
-    <row r="38" spans="1:14" s="31" customFormat="1" ht="105.6" outlineLevel="1">
+    <row r="38" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A38" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>109</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
+        <v>80</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
       <c r="H38" s="28"/>
       <c r="I38" s="46">
         <v>42843</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" s="47" t="s">
-        <v>151</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K38" s="38"/>
       <c r="L38" s="38" t="s">
         <v>161</v>
       </c>
@@ -5227,32 +5236,34 @@
       </c>
       <c r="N38" s="32"/>
     </row>
-    <row r="39" spans="1:14" s="31" customFormat="1" ht="118.8" outlineLevel="1">
+    <row r="39" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A39" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>109</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
+        <v>81</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
       <c r="H39" s="28"/>
       <c r="I39" s="46">
         <v>42843</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>151</v>
+      </c>
       <c r="L39" s="38" t="s">
         <v>161</v>
       </c>
@@ -5261,34 +5272,32 @@
       </c>
       <c r="N39" s="32"/>
     </row>
-    <row r="40" spans="1:14" s="31" customFormat="1" ht="66" outlineLevel="1">
+    <row r="40" spans="1:14" s="31" customFormat="1" ht="102" outlineLevel="1">
       <c r="A40" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>109</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
+        <v>137</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="28"/>
       <c r="I40" s="46">
         <v>42843</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K40" s="47" t="s">
-        <v>151</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K40" s="47"/>
       <c r="L40" s="38" t="s">
         <v>161</v>
       </c>
@@ -5297,24 +5306,24 @@
       </c>
       <c r="N40" s="32"/>
     </row>
-    <row r="41" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
+    <row r="41" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A41" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
+        <v>82</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
       <c r="H41" s="28"/>
       <c r="I41" s="46">
         <v>42843</v>
@@ -5323,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="47" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L41" s="38" t="s">
         <v>161</v>
@@ -5333,86 +5342,86 @@
       </c>
       <c r="N41" s="32"/>
     </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" ht="13.2">
-      <c r="A42" s="52" t="s">
+    <row r="42" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A42" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="46">
+        <v>42843</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="32"/>
+    </row>
+    <row r="43" spans="1:14" s="3" customFormat="1" ht="12.75">
+      <c r="A43" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="54"/>
-    </row>
-    <row r="43" spans="1:14" s="31" customFormat="1" ht="171.6" outlineLevel="1">
-      <c r="A43" s="30" t="s">
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="54"/>
+    </row>
+    <row r="44" spans="1:14" s="31" customFormat="1" ht="165.75" outlineLevel="1">
+      <c r="A44" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B44" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C44" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D44" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E44" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="46">
-        <v>42843</v>
-      </c>
-      <c r="J43" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="M43" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N43" s="32"/>
-    </row>
-    <row r="44" spans="1:14" s="31" customFormat="1" ht="158.4" outlineLevel="1">
-      <c r="A44" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
       <c r="H44" s="28"/>
       <c r="I44" s="46">
         <v>42843</v>
       </c>
       <c r="J44" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K44" s="47" t="s">
-        <v>150</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K44" s="38"/>
       <c r="L44" s="38" t="s">
         <v>161</v>
       </c>
@@ -5421,32 +5430,34 @@
       </c>
       <c r="N44" s="32"/>
     </row>
-    <row r="45" spans="1:14" s="31" customFormat="1" ht="158.4" outlineLevel="1">
+    <row r="45" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
       <c r="A45" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+        <v>102</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="H45" s="28"/>
       <c r="I45" s="46">
         <v>42843</v>
       </c>
       <c r="J45" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="47" t="s">
+        <v>150</v>
+      </c>
       <c r="L45" s="38" t="s">
         <v>161</v>
       </c>
@@ -5455,34 +5466,32 @@
       </c>
       <c r="N45" s="32"/>
     </row>
-    <row r="46" spans="1:14" s="31" customFormat="1" ht="132" outlineLevel="1">
+    <row r="46" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
       <c r="A46" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
+        <v>144</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="28"/>
       <c r="I46" s="46">
         <v>42843</v>
       </c>
       <c r="J46" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K46" s="47" t="s">
-        <v>150</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K46" s="38"/>
       <c r="L46" s="38" t="s">
         <v>161</v>
       </c>
@@ -5491,24 +5500,24 @@
       </c>
       <c r="N46" s="32"/>
     </row>
-    <row r="47" spans="1:14" s="31" customFormat="1" ht="118.8" outlineLevel="1">
+    <row r="47" spans="1:14" s="31" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A47" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>108</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
+        <v>139</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
       <c r="H47" s="28"/>
       <c r="I47" s="46">
         <v>42843</v>
@@ -5517,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L47" s="38" t="s">
         <v>161</v>
@@ -5527,33 +5536,35 @@
       </c>
       <c r="N47" s="32"/>
     </row>
-    <row r="48" spans="1:14" s="31" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="48" spans="1:14" s="31" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A48" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
+        <v>140</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="28"/>
       <c r="I48" s="46">
         <v>42843</v>
       </c>
       <c r="J48" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="L48" s="38" t="s">
         <v>161</v>
       </c>
       <c r="M48" s="29" t="s">
@@ -5561,60 +5572,58 @@
       </c>
       <c r="N48" s="32"/>
     </row>
-    <row r="49" spans="1:14" s="31" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="49" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A49" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
+        <v>153</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
       <c r="H49" s="28"/>
       <c r="I49" s="46">
         <v>42843</v>
       </c>
       <c r="J49" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="47" t="s">
-        <v>92</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K49" s="47"/>
       <c r="L49" s="47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M49" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N49" s="32"/>
     </row>
-    <row r="50" spans="1:14" s="31" customFormat="1" ht="92.4" outlineLevel="1">
+    <row r="50" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A50" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>106</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
+        <v>96</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
       <c r="H50" s="28"/>
       <c r="I50" s="46">
         <v>42843</v>
@@ -5623,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="47" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L50" s="47" t="s">
         <v>160</v>
@@ -5633,58 +5642,60 @@
       </c>
       <c r="N50" s="32"/>
     </row>
-    <row r="51" spans="1:14" s="31" customFormat="1" ht="52.8" outlineLevel="1">
+    <row r="51" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A51" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+        <v>95</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
       <c r="H51" s="28"/>
       <c r="I51" s="46">
         <v>42843</v>
       </c>
       <c r="J51" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="47" t="s">
+        <v>99</v>
+      </c>
       <c r="L51" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M51" s="29" t="s">
         <v>18</v>
       </c>
       <c r="N51" s="32"/>
     </row>
-    <row r="52" spans="1:14" s="31" customFormat="1" ht="158.4" outlineLevel="1">
+    <row r="52" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
       <c r="A52" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+        <v>101</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
       <c r="H52" s="28"/>
       <c r="I52" s="46">
         <v>42843</v>
@@ -5692,8 +5703,8 @@
       <c r="J52" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38" t="s">
+      <c r="K52" s="47"/>
+      <c r="L52" s="47" t="s">
         <v>161</v>
       </c>
       <c r="M52" s="29" t="s">
@@ -5701,24 +5712,24 @@
       </c>
       <c r="N52" s="32"/>
     </row>
-    <row r="53" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
+    <row r="53" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
       <c r="A53" s="30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
+        <v>141</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
       <c r="H53" s="28"/>
       <c r="I53" s="46">
         <v>42843</v>
@@ -5726,8 +5737,8 @@
       <c r="J53" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47" t="s">
+      <c r="K53" s="38"/>
+      <c r="L53" s="38" t="s">
         <v>161</v>
       </c>
       <c r="M53" s="29" t="s">
@@ -5735,76 +5746,76 @@
       </c>
       <c r="N53" s="32"/>
     </row>
-    <row r="54" spans="1:14" s="3" customFormat="1" ht="13.2">
-      <c r="A54" s="52" t="s">
+    <row r="54" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A54" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="46">
+        <v>42843</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="32"/>
+    </row>
+    <row r="55" spans="1:14" s="3" customFormat="1" ht="12.75">
+      <c r="A55" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="54"/>
-    </row>
-    <row r="55" spans="1:14" s="31" customFormat="1" ht="26.4" outlineLevel="1">
-      <c r="A55" s="30" t="s">
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="54"/>
+    </row>
+    <row r="56" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A56" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B56" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C56" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D56" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E56" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="46">
-        <v>42847</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="M55" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N55" s="32"/>
-    </row>
-    <row r="56" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
-      <c r="A56" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
       <c r="H56" s="28"/>
       <c r="I56" s="46">
         <v>42847</v>
@@ -5821,24 +5832,24 @@
       </c>
       <c r="N56" s="32"/>
     </row>
-    <row r="57" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
+    <row r="57" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A57" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
+        <v>120</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
       <c r="H57" s="28"/>
       <c r="I57" s="46">
         <v>42847</v>
@@ -5855,34 +5866,32 @@
       </c>
       <c r="N57" s="32"/>
     </row>
-    <row r="58" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
+    <row r="58" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A58" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
+        <v>157</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="28"/>
       <c r="I58" s="46">
         <v>42847</v>
       </c>
       <c r="J58" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K58" s="47" t="s">
-        <v>125</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K58" s="47"/>
       <c r="L58" s="47" t="s">
         <v>160</v>
       </c>
@@ -5891,9 +5900,9 @@
       </c>
       <c r="N58" s="32"/>
     </row>
-    <row r="59" spans="1:14" s="31" customFormat="1" ht="79.2" outlineLevel="1">
+    <row r="59" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A59" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" s="40" t="s">
         <v>121</v>
@@ -5904,19 +5913,21 @@
       <c r="D59" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
+      <c r="E59" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
       <c r="H59" s="28"/>
       <c r="I59" s="46">
         <v>42847</v>
       </c>
       <c r="J59" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K59" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="47" t="s">
+        <v>125</v>
+      </c>
       <c r="L59" s="47" t="s">
         <v>160</v>
       </c>
@@ -5925,14 +5936,39 @@
       </c>
       <c r="N59" s="32"/>
     </row>
-    <row r="60" spans="1:14" ht="12" customHeight="1">
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
+    <row r="60" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A60" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="46">
+        <v>42847</v>
+      </c>
+      <c r="J60" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="32"/>
     </row>
     <row r="61" spans="1:14" ht="12" customHeight="1">
       <c r="B61"/>
@@ -6015,3341 +6051,3374 @@
       <c r="M69"/>
       <c r="N69"/>
     </row>
-    <row r="70" spans="2:14" ht="13.2">
+    <row r="70" spans="2:14" ht="12" customHeight="1">
+      <c r="B70"/>
+      <c r="C70"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
     </row>
-    <row r="71" spans="2:14" ht="13.2">
+    <row r="71" spans="2:14" ht="13.5">
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
     </row>
-    <row r="72" spans="2:14" ht="13.2">
+    <row r="72" spans="2:14" ht="13.5">
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
     </row>
-    <row r="73" spans="2:14" ht="13.2">
+    <row r="73" spans="2:14" ht="13.5">
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
     </row>
-    <row r="74" spans="2:14" ht="13.2">
+    <row r="74" spans="2:14" ht="13.5">
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
     </row>
-    <row r="75" spans="2:14" ht="13.2">
+    <row r="75" spans="2:14" ht="13.5">
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
     </row>
-    <row r="76" spans="2:14" ht="13.2">
+    <row r="76" spans="2:14" ht="13.5">
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
     </row>
-    <row r="77" spans="2:14" ht="13.2">
+    <row r="77" spans="2:14" ht="13.5">
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
     </row>
-    <row r="78" spans="2:14" ht="13.2">
+    <row r="78" spans="2:14" ht="13.5">
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
     </row>
-    <row r="79" spans="2:14" ht="13.2">
+    <row r="79" spans="2:14" ht="13.5">
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79"/>
     </row>
-    <row r="80" spans="2:14" ht="13.2">
+    <row r="80" spans="2:14" ht="13.5">
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
     </row>
-    <row r="81" spans="10:14" ht="13.2">
+    <row r="81" spans="10:14" ht="13.5">
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
     </row>
-    <row r="82" spans="10:14" ht="13.2">
+    <row r="82" spans="10:14" ht="13.5">
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
       <c r="N82"/>
     </row>
-    <row r="83" spans="10:14" ht="13.2">
+    <row r="83" spans="10:14" ht="13.5">
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
     </row>
-    <row r="84" spans="10:14" ht="13.2">
+    <row r="84" spans="10:14" ht="13.5">
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
     </row>
-    <row r="85" spans="10:14" ht="13.2">
+    <row r="85" spans="10:14" ht="13.5">
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85"/>
     </row>
-    <row r="86" spans="10:14" ht="13.2">
+    <row r="86" spans="10:14" ht="13.5">
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86"/>
     </row>
-    <row r="87" spans="10:14" ht="13.2">
+    <row r="87" spans="10:14" ht="13.5">
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87"/>
     </row>
-    <row r="88" spans="10:14" ht="13.2">
+    <row r="88" spans="10:14" ht="13.5">
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88"/>
     </row>
-    <row r="89" spans="10:14" ht="13.2">
+    <row r="89" spans="10:14" ht="13.5">
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
     </row>
-    <row r="90" spans="10:14" ht="13.2">
+    <row r="90" spans="10:14" ht="13.5">
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
       <c r="N90"/>
     </row>
-    <row r="91" spans="10:14" ht="13.2">
+    <row r="91" spans="10:14" ht="13.5">
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91"/>
       <c r="N91"/>
     </row>
-    <row r="92" spans="10:14" ht="13.2">
+    <row r="92" spans="10:14" ht="13.5">
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92"/>
       <c r="M92"/>
       <c r="N92"/>
     </row>
-    <row r="93" spans="10:14" ht="13.2">
+    <row r="93" spans="10:14" ht="13.5">
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
       <c r="N93"/>
     </row>
-    <row r="94" spans="10:14" ht="13.2">
+    <row r="94" spans="10:14" ht="13.5">
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
       <c r="N94"/>
     </row>
-    <row r="95" spans="10:14" ht="13.2">
+    <row r="95" spans="10:14" ht="13.5">
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95"/>
     </row>
-    <row r="96" spans="10:14" ht="13.2">
+    <row r="96" spans="10:14" ht="13.5">
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
       <c r="M96"/>
       <c r="N96"/>
     </row>
-    <row r="97" spans="10:14" ht="13.2">
+    <row r="97" spans="10:14" ht="13.5">
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97"/>
     </row>
-    <row r="98" spans="10:14" ht="13.2">
+    <row r="98" spans="10:14" ht="13.5">
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
     </row>
-    <row r="99" spans="10:14" ht="13.2">
+    <row r="99" spans="10:14" ht="13.5">
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
     </row>
-    <row r="100" spans="10:14" ht="13.2">
+    <row r="100" spans="10:14" ht="13.5">
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100"/>
     </row>
-    <row r="101" spans="10:14" ht="13.2">
+    <row r="101" spans="10:14" ht="13.5">
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
     </row>
-    <row r="102" spans="10:14" ht="13.2">
+    <row r="102" spans="10:14" ht="13.5">
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
     </row>
-    <row r="103" spans="10:14" ht="13.2">
+    <row r="103" spans="10:14" ht="13.5">
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
     </row>
-    <row r="104" spans="10:14" ht="13.2">
+    <row r="104" spans="10:14" ht="13.5">
       <c r="J104"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
     </row>
-    <row r="105" spans="10:14" ht="13.2">
+    <row r="105" spans="10:14" ht="13.5">
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
     </row>
-    <row r="106" spans="10:14" ht="13.2">
+    <row r="106" spans="10:14" ht="13.5">
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
       <c r="N106"/>
     </row>
-    <row r="107" spans="10:14" ht="13.2">
+    <row r="107" spans="10:14" ht="13.5">
       <c r="J107"/>
       <c r="K107"/>
       <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
     </row>
-    <row r="108" spans="10:14" ht="13.2">
+    <row r="108" spans="10:14" ht="13.5">
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
     </row>
-    <row r="109" spans="10:14" ht="13.2">
+    <row r="109" spans="10:14" ht="13.5">
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
     </row>
-    <row r="110" spans="10:14" ht="13.2">
+    <row r="110" spans="10:14" ht="13.5">
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110"/>
       <c r="M110"/>
       <c r="N110"/>
     </row>
-    <row r="111" spans="10:14" ht="13.2">
+    <row r="111" spans="10:14" ht="13.5">
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
     </row>
-    <row r="112" spans="10:14" ht="13.2">
+    <row r="112" spans="10:14" ht="13.5">
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
     </row>
-    <row r="113" spans="10:14" ht="13.2">
+    <row r="113" spans="10:14" ht="13.5">
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
     </row>
-    <row r="114" spans="10:14" ht="13.2">
+    <row r="114" spans="10:14" ht="13.5">
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114"/>
     </row>
-    <row r="115" spans="10:14" ht="13.2">
+    <row r="115" spans="10:14" ht="13.5">
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115"/>
     </row>
-    <row r="116" spans="10:14" ht="13.2">
+    <row r="116" spans="10:14" ht="13.5">
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116"/>
       <c r="M116"/>
       <c r="N116"/>
     </row>
-    <row r="117" spans="10:14" ht="13.2">
+    <row r="117" spans="10:14" ht="13.5">
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
     </row>
-    <row r="118" spans="10:14" ht="13.2">
+    <row r="118" spans="10:14" ht="13.5">
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118"/>
       <c r="M118"/>
       <c r="N118"/>
     </row>
-    <row r="119" spans="10:14" ht="13.2">
+    <row r="119" spans="10:14" ht="13.5">
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
-    <row r="120" spans="10:14" ht="13.2">
+    <row r="120" spans="10:14" ht="13.5">
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120"/>
       <c r="M120"/>
       <c r="N120"/>
     </row>
-    <row r="121" spans="10:14" ht="13.2">
+    <row r="121" spans="10:14" ht="13.5">
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121"/>
       <c r="M121"/>
       <c r="N121"/>
     </row>
-    <row r="122" spans="10:14" ht="13.2">
+    <row r="122" spans="10:14" ht="13.5">
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122"/>
       <c r="M122"/>
       <c r="N122"/>
     </row>
-    <row r="123" spans="10:14" ht="13.2">
+    <row r="123" spans="10:14" ht="13.5">
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123"/>
       <c r="N123"/>
     </row>
-    <row r="124" spans="10:14" ht="13.2">
+    <row r="124" spans="10:14" ht="13.5">
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
     </row>
-    <row r="125" spans="10:14" ht="13.2">
+    <row r="125" spans="10:14" ht="13.5">
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
     </row>
-    <row r="126" spans="10:14" ht="13.2">
+    <row r="126" spans="10:14" ht="13.5">
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126"/>
       <c r="M126"/>
       <c r="N126"/>
     </row>
-    <row r="127" spans="10:14" ht="13.2">
+    <row r="127" spans="10:14" ht="13.5">
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127"/>
       <c r="M127"/>
       <c r="N127"/>
     </row>
-    <row r="128" spans="10:14" ht="13.2">
+    <row r="128" spans="10:14" ht="13.5">
       <c r="J128"/>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
     </row>
-    <row r="129" spans="10:14" ht="13.2">
+    <row r="129" spans="10:14" ht="13.5">
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
     </row>
-    <row r="130" spans="10:14" ht="13.2">
+    <row r="130" spans="10:14" ht="13.5">
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
     </row>
-    <row r="131" spans="10:14" ht="13.2">
+    <row r="131" spans="10:14" ht="13.5">
       <c r="J131"/>
       <c r="K131"/>
       <c r="L131"/>
       <c r="M131"/>
       <c r="N131"/>
     </row>
-    <row r="132" spans="10:14" ht="13.2">
+    <row r="132" spans="10:14" ht="13.5">
       <c r="J132"/>
       <c r="K132"/>
       <c r="L132"/>
       <c r="M132"/>
       <c r="N132"/>
     </row>
-    <row r="133" spans="10:14" ht="13.2">
+    <row r="133" spans="10:14" ht="13.5">
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
     </row>
-    <row r="134" spans="10:14" ht="13.2">
+    <row r="134" spans="10:14" ht="13.5">
       <c r="J134"/>
       <c r="K134"/>
       <c r="L134"/>
       <c r="M134"/>
       <c r="N134"/>
     </row>
-    <row r="135" spans="10:14" ht="13.2">
+    <row r="135" spans="10:14" ht="13.5">
       <c r="J135"/>
       <c r="K135"/>
       <c r="L135"/>
       <c r="M135"/>
       <c r="N135"/>
     </row>
-    <row r="136" spans="10:14" ht="13.2">
+    <row r="136" spans="10:14" ht="13.5">
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
       <c r="N136"/>
     </row>
-    <row r="137" spans="10:14" ht="13.2">
+    <row r="137" spans="10:14" ht="13.5">
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137"/>
       <c r="M137"/>
       <c r="N137"/>
     </row>
-    <row r="138" spans="10:14" ht="13.2">
+    <row r="138" spans="10:14" ht="13.5">
       <c r="J138"/>
       <c r="K138"/>
       <c r="L138"/>
       <c r="M138"/>
       <c r="N138"/>
     </row>
-    <row r="139" spans="10:14" ht="13.2">
+    <row r="139" spans="10:14" ht="13.5">
       <c r="J139"/>
       <c r="K139"/>
       <c r="L139"/>
       <c r="M139"/>
       <c r="N139"/>
     </row>
-    <row r="140" spans="10:14" ht="13.2">
+    <row r="140" spans="10:14" ht="13.5">
       <c r="J140"/>
       <c r="K140"/>
       <c r="L140"/>
       <c r="M140"/>
       <c r="N140"/>
     </row>
-    <row r="141" spans="10:14" ht="13.2">
+    <row r="141" spans="10:14" ht="13.5">
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141"/>
       <c r="M141"/>
       <c r="N141"/>
     </row>
-    <row r="142" spans="10:14" ht="13.2">
+    <row r="142" spans="10:14" ht="13.5">
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142"/>
       <c r="M142"/>
       <c r="N142"/>
     </row>
-    <row r="143" spans="10:14" ht="13.2">
+    <row r="143" spans="10:14" ht="13.5">
       <c r="J143"/>
       <c r="K143"/>
       <c r="L143"/>
       <c r="M143"/>
       <c r="N143"/>
     </row>
-    <row r="144" spans="10:14" ht="13.2">
+    <row r="144" spans="10:14" ht="13.5">
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144"/>
       <c r="M144"/>
       <c r="N144"/>
     </row>
-    <row r="145" spans="10:14" ht="13.2">
+    <row r="145" spans="10:14" ht="13.5">
       <c r="J145"/>
       <c r="K145"/>
       <c r="L145"/>
       <c r="M145"/>
       <c r="N145"/>
     </row>
-    <row r="146" spans="10:14" ht="13.2">
+    <row r="146" spans="10:14" ht="13.5">
       <c r="J146"/>
       <c r="K146"/>
       <c r="L146"/>
       <c r="M146"/>
       <c r="N146"/>
     </row>
-    <row r="147" spans="10:14" ht="13.2">
+    <row r="147" spans="10:14" ht="13.5">
       <c r="J147"/>
       <c r="K147"/>
       <c r="L147"/>
       <c r="M147"/>
       <c r="N147"/>
     </row>
-    <row r="148" spans="10:14" ht="13.2">
+    <row r="148" spans="10:14" ht="13.5">
       <c r="J148"/>
       <c r="K148"/>
       <c r="L148"/>
       <c r="M148"/>
       <c r="N148"/>
     </row>
-    <row r="149" spans="10:14" ht="13.2">
+    <row r="149" spans="10:14" ht="13.5">
       <c r="J149"/>
       <c r="K149"/>
       <c r="L149"/>
       <c r="M149"/>
       <c r="N149"/>
     </row>
-    <row r="150" spans="10:14" ht="13.2">
+    <row r="150" spans="10:14" ht="13.5">
       <c r="J150"/>
       <c r="K150"/>
       <c r="L150"/>
       <c r="M150"/>
       <c r="N150"/>
     </row>
-    <row r="151" spans="10:14" ht="13.2">
+    <row r="151" spans="10:14" ht="13.5">
       <c r="J151"/>
       <c r="K151"/>
       <c r="L151"/>
       <c r="M151"/>
       <c r="N151"/>
     </row>
-    <row r="152" spans="10:14" ht="13.2">
+    <row r="152" spans="10:14" ht="13.5">
       <c r="J152"/>
       <c r="K152"/>
       <c r="L152"/>
       <c r="M152"/>
       <c r="N152"/>
     </row>
-    <row r="153" spans="10:14" ht="13.2">
+    <row r="153" spans="10:14" ht="13.5">
       <c r="J153"/>
       <c r="K153"/>
       <c r="L153"/>
       <c r="M153"/>
       <c r="N153"/>
     </row>
-    <row r="154" spans="10:14" ht="13.2">
+    <row r="154" spans="10:14" ht="13.5">
       <c r="J154"/>
       <c r="K154"/>
       <c r="L154"/>
       <c r="M154"/>
       <c r="N154"/>
     </row>
-    <row r="155" spans="10:14" ht="13.2">
+    <row r="155" spans="10:14" ht="13.5">
       <c r="J155"/>
       <c r="K155"/>
       <c r="L155"/>
       <c r="M155"/>
       <c r="N155"/>
     </row>
-    <row r="156" spans="10:14" ht="13.2">
+    <row r="156" spans="10:14" ht="13.5">
       <c r="J156"/>
       <c r="K156"/>
       <c r="L156"/>
       <c r="M156"/>
       <c r="N156"/>
     </row>
-    <row r="157" spans="10:14" ht="13.2">
+    <row r="157" spans="10:14" ht="13.5">
       <c r="J157"/>
       <c r="K157"/>
       <c r="L157"/>
       <c r="M157"/>
       <c r="N157"/>
     </row>
-    <row r="158" spans="10:14" ht="13.2">
+    <row r="158" spans="10:14" ht="13.5">
       <c r="J158"/>
       <c r="K158"/>
       <c r="L158"/>
       <c r="M158"/>
       <c r="N158"/>
     </row>
-    <row r="159" spans="10:14" ht="13.2">
+    <row r="159" spans="10:14" ht="13.5">
       <c r="J159"/>
       <c r="K159"/>
       <c r="L159"/>
       <c r="M159"/>
       <c r="N159"/>
     </row>
-    <row r="160" spans="10:14" ht="13.2">
+    <row r="160" spans="10:14" ht="13.5">
       <c r="J160"/>
       <c r="K160"/>
       <c r="L160"/>
       <c r="M160"/>
       <c r="N160"/>
     </row>
-    <row r="161" spans="10:14" ht="13.2">
+    <row r="161" spans="10:14" ht="13.5">
       <c r="J161"/>
       <c r="K161"/>
       <c r="L161"/>
       <c r="M161"/>
       <c r="N161"/>
     </row>
-    <row r="162" spans="10:14" ht="13.2">
+    <row r="162" spans="10:14" ht="13.5">
       <c r="J162"/>
       <c r="K162"/>
       <c r="L162"/>
       <c r="M162"/>
       <c r="N162"/>
     </row>
-    <row r="163" spans="10:14" ht="13.2">
+    <row r="163" spans="10:14" ht="13.5">
       <c r="J163"/>
       <c r="K163"/>
       <c r="L163"/>
       <c r="M163"/>
       <c r="N163"/>
     </row>
-    <row r="164" spans="10:14" ht="13.2">
+    <row r="164" spans="10:14" ht="13.5">
       <c r="J164"/>
       <c r="K164"/>
       <c r="L164"/>
       <c r="M164"/>
       <c r="N164"/>
     </row>
-    <row r="165" spans="10:14" ht="13.2">
+    <row r="165" spans="10:14" ht="13.5">
       <c r="J165"/>
       <c r="K165"/>
       <c r="L165"/>
       <c r="M165"/>
       <c r="N165"/>
     </row>
-    <row r="166" spans="10:14" ht="13.2">
+    <row r="166" spans="10:14" ht="13.5">
       <c r="J166"/>
       <c r="K166"/>
       <c r="L166"/>
       <c r="M166"/>
       <c r="N166"/>
     </row>
-    <row r="167" spans="10:14" ht="13.2">
+    <row r="167" spans="10:14" ht="13.5">
       <c r="J167"/>
       <c r="K167"/>
       <c r="L167"/>
       <c r="M167"/>
       <c r="N167"/>
     </row>
-    <row r="168" spans="10:14" ht="13.2">
+    <row r="168" spans="10:14" ht="13.5">
       <c r="J168"/>
       <c r="K168"/>
       <c r="L168"/>
       <c r="M168"/>
       <c r="N168"/>
     </row>
-    <row r="169" spans="10:14" ht="13.2">
+    <row r="169" spans="10:14" ht="13.5">
       <c r="J169"/>
       <c r="K169"/>
       <c r="L169"/>
       <c r="M169"/>
       <c r="N169"/>
     </row>
-    <row r="170" spans="10:14" ht="13.2">
+    <row r="170" spans="10:14" ht="13.5">
       <c r="J170"/>
       <c r="K170"/>
       <c r="L170"/>
       <c r="M170"/>
       <c r="N170"/>
     </row>
-    <row r="171" spans="10:14" ht="13.2">
+    <row r="171" spans="10:14" ht="13.5">
       <c r="J171"/>
       <c r="K171"/>
       <c r="L171"/>
       <c r="M171"/>
       <c r="N171"/>
     </row>
-    <row r="172" spans="10:14" ht="13.2">
+    <row r="172" spans="10:14" ht="13.5">
       <c r="J172"/>
       <c r="K172"/>
       <c r="L172"/>
       <c r="M172"/>
       <c r="N172"/>
     </row>
-    <row r="173" spans="10:14" ht="13.2">
+    <row r="173" spans="10:14" ht="13.5">
       <c r="J173"/>
       <c r="K173"/>
       <c r="L173"/>
       <c r="M173"/>
       <c r="N173"/>
     </row>
-    <row r="174" spans="10:14" ht="13.2">
+    <row r="174" spans="10:14" ht="13.5">
       <c r="J174"/>
       <c r="K174"/>
       <c r="L174"/>
       <c r="M174"/>
       <c r="N174"/>
     </row>
-    <row r="175" spans="10:14" ht="13.2">
+    <row r="175" spans="10:14" ht="13.5">
       <c r="J175"/>
       <c r="K175"/>
       <c r="L175"/>
       <c r="M175"/>
       <c r="N175"/>
     </row>
-    <row r="176" spans="10:14" ht="13.2">
+    <row r="176" spans="10:14" ht="13.5">
       <c r="J176"/>
       <c r="K176"/>
       <c r="L176"/>
       <c r="M176"/>
       <c r="N176"/>
     </row>
-    <row r="177" spans="10:14" ht="13.2">
+    <row r="177" spans="10:14" ht="13.5">
       <c r="J177"/>
       <c r="K177"/>
       <c r="L177"/>
       <c r="M177"/>
       <c r="N177"/>
     </row>
-    <row r="178" spans="10:14" ht="13.2">
+    <row r="178" spans="10:14" ht="13.5">
       <c r="J178"/>
       <c r="K178"/>
       <c r="L178"/>
       <c r="M178"/>
       <c r="N178"/>
     </row>
-    <row r="179" spans="10:14" ht="13.2">
+    <row r="179" spans="10:14" ht="13.5">
       <c r="J179"/>
       <c r="K179"/>
       <c r="L179"/>
       <c r="M179"/>
       <c r="N179"/>
     </row>
-    <row r="180" spans="10:14" ht="13.2">
+    <row r="180" spans="10:14" ht="13.5">
       <c r="J180"/>
       <c r="K180"/>
       <c r="L180"/>
       <c r="M180"/>
       <c r="N180"/>
     </row>
-    <row r="181" spans="10:14" ht="13.2">
+    <row r="181" spans="10:14" ht="13.5">
       <c r="J181"/>
       <c r="K181"/>
       <c r="L181"/>
       <c r="M181"/>
       <c r="N181"/>
     </row>
-    <row r="182" spans="10:14" ht="13.2">
+    <row r="182" spans="10:14" ht="13.5">
       <c r="J182"/>
       <c r="K182"/>
       <c r="L182"/>
       <c r="M182"/>
       <c r="N182"/>
     </row>
-    <row r="183" spans="10:14" ht="13.2">
+    <row r="183" spans="10:14" ht="13.5">
       <c r="J183"/>
       <c r="K183"/>
       <c r="L183"/>
       <c r="M183"/>
       <c r="N183"/>
     </row>
-    <row r="184" spans="10:14" ht="13.2">
+    <row r="184" spans="10:14" ht="13.5">
       <c r="J184"/>
       <c r="K184"/>
       <c r="L184"/>
       <c r="M184"/>
       <c r="N184"/>
     </row>
-    <row r="185" spans="10:14" ht="13.2">
+    <row r="185" spans="10:14" ht="13.5">
       <c r="J185"/>
       <c r="K185"/>
       <c r="L185"/>
       <c r="M185"/>
       <c r="N185"/>
     </row>
-    <row r="186" spans="10:14" ht="13.2">
+    <row r="186" spans="10:14" ht="13.5">
       <c r="J186"/>
       <c r="K186"/>
       <c r="L186"/>
       <c r="M186"/>
       <c r="N186"/>
     </row>
-    <row r="187" spans="10:14" ht="13.2">
+    <row r="187" spans="10:14" ht="13.5">
       <c r="J187"/>
       <c r="K187"/>
       <c r="L187"/>
       <c r="M187"/>
       <c r="N187"/>
     </row>
-    <row r="188" spans="10:14" ht="13.2">
+    <row r="188" spans="10:14" ht="13.5">
       <c r="J188"/>
       <c r="K188"/>
       <c r="L188"/>
       <c r="M188"/>
       <c r="N188"/>
     </row>
-    <row r="189" spans="10:14" ht="13.2">
+    <row r="189" spans="10:14" ht="13.5">
       <c r="J189"/>
       <c r="K189"/>
       <c r="L189"/>
       <c r="M189"/>
       <c r="N189"/>
     </row>
-    <row r="190" spans="10:14" ht="13.2">
+    <row r="190" spans="10:14" ht="13.5">
       <c r="J190"/>
       <c r="K190"/>
       <c r="L190"/>
       <c r="M190"/>
       <c r="N190"/>
     </row>
-    <row r="191" spans="10:14" ht="13.2">
+    <row r="191" spans="10:14" ht="13.5">
       <c r="J191"/>
       <c r="K191"/>
       <c r="L191"/>
       <c r="M191"/>
       <c r="N191"/>
     </row>
-    <row r="192" spans="10:14" ht="13.2">
+    <row r="192" spans="10:14" ht="13.5">
       <c r="J192"/>
       <c r="K192"/>
       <c r="L192"/>
       <c r="M192"/>
       <c r="N192"/>
     </row>
-    <row r="193" spans="10:14" ht="13.2">
+    <row r="193" spans="10:14" ht="13.5">
       <c r="J193"/>
       <c r="K193"/>
       <c r="L193"/>
       <c r="M193"/>
       <c r="N193"/>
     </row>
-    <row r="194" spans="10:14" ht="13.2">
+    <row r="194" spans="10:14" ht="13.5">
       <c r="J194"/>
       <c r="K194"/>
       <c r="L194"/>
       <c r="M194"/>
       <c r="N194"/>
     </row>
-    <row r="195" spans="10:14" ht="13.2">
+    <row r="195" spans="10:14" ht="13.5">
       <c r="J195"/>
       <c r="K195"/>
       <c r="L195"/>
       <c r="M195"/>
       <c r="N195"/>
     </row>
-    <row r="196" spans="10:14" ht="13.2">
+    <row r="196" spans="10:14" ht="13.5">
       <c r="J196"/>
       <c r="K196"/>
       <c r="L196"/>
       <c r="M196"/>
       <c r="N196"/>
     </row>
-    <row r="197" spans="10:14" ht="13.2">
+    <row r="197" spans="10:14" ht="13.5">
       <c r="J197"/>
       <c r="K197"/>
       <c r="L197"/>
       <c r="M197"/>
       <c r="N197"/>
     </row>
-    <row r="198" spans="10:14" ht="13.2">
+    <row r="198" spans="10:14" ht="13.5">
       <c r="J198"/>
       <c r="K198"/>
       <c r="L198"/>
       <c r="M198"/>
       <c r="N198"/>
     </row>
-    <row r="199" spans="10:14" ht="13.2">
+    <row r="199" spans="10:14" ht="13.5">
       <c r="J199"/>
       <c r="K199"/>
       <c r="L199"/>
       <c r="M199"/>
       <c r="N199"/>
     </row>
-    <row r="200" spans="10:14" ht="13.2">
+    <row r="200" spans="10:14" ht="13.5">
       <c r="J200"/>
       <c r="K200"/>
       <c r="L200"/>
       <c r="M200"/>
       <c r="N200"/>
     </row>
-    <row r="201" spans="10:14" ht="13.2">
+    <row r="201" spans="10:14" ht="13.5">
       <c r="J201"/>
       <c r="K201"/>
       <c r="L201"/>
       <c r="M201"/>
       <c r="N201"/>
     </row>
-    <row r="202" spans="10:14" ht="13.2">
+    <row r="202" spans="10:14" ht="13.5">
       <c r="J202"/>
       <c r="K202"/>
       <c r="L202"/>
       <c r="M202"/>
       <c r="N202"/>
     </row>
-    <row r="203" spans="10:14" ht="13.2">
+    <row r="203" spans="10:14" ht="13.5">
       <c r="J203"/>
       <c r="K203"/>
       <c r="L203"/>
       <c r="M203"/>
       <c r="N203"/>
     </row>
-    <row r="204" spans="10:14" ht="13.2">
+    <row r="204" spans="10:14" ht="13.5">
       <c r="J204"/>
       <c r="K204"/>
       <c r="L204"/>
       <c r="M204"/>
       <c r="N204"/>
     </row>
-    <row r="205" spans="10:14" ht="13.2">
+    <row r="205" spans="10:14" ht="13.5">
       <c r="J205"/>
       <c r="K205"/>
       <c r="L205"/>
       <c r="M205"/>
       <c r="N205"/>
     </row>
-    <row r="206" spans="10:14" ht="13.2">
+    <row r="206" spans="10:14" ht="13.5">
       <c r="J206"/>
       <c r="K206"/>
       <c r="L206"/>
       <c r="M206"/>
       <c r="N206"/>
     </row>
-    <row r="207" spans="10:14" ht="13.2">
+    <row r="207" spans="10:14" ht="13.5">
       <c r="J207"/>
       <c r="K207"/>
       <c r="L207"/>
       <c r="M207"/>
       <c r="N207"/>
     </row>
-    <row r="208" spans="10:14" ht="13.2">
+    <row r="208" spans="10:14" ht="13.5">
       <c r="J208"/>
       <c r="K208"/>
       <c r="L208"/>
       <c r="M208"/>
       <c r="N208"/>
     </row>
-    <row r="209" spans="10:14" ht="13.2">
+    <row r="209" spans="10:14" ht="13.5">
       <c r="J209"/>
       <c r="K209"/>
       <c r="L209"/>
       <c r="M209"/>
       <c r="N209"/>
     </row>
-    <row r="210" spans="10:14" ht="13.2">
+    <row r="210" spans="10:14" ht="13.5">
       <c r="J210"/>
       <c r="K210"/>
       <c r="L210"/>
       <c r="M210"/>
       <c r="N210"/>
     </row>
-    <row r="211" spans="10:14" ht="13.2">
+    <row r="211" spans="10:14" ht="13.5">
       <c r="J211"/>
       <c r="K211"/>
       <c r="L211"/>
       <c r="M211"/>
       <c r="N211"/>
     </row>
-    <row r="212" spans="10:14" ht="13.2">
+    <row r="212" spans="10:14" ht="13.5">
       <c r="J212"/>
       <c r="K212"/>
       <c r="L212"/>
       <c r="M212"/>
       <c r="N212"/>
     </row>
-    <row r="213" spans="10:14" ht="13.2">
+    <row r="213" spans="10:14" ht="13.5">
       <c r="J213"/>
       <c r="K213"/>
       <c r="L213"/>
       <c r="M213"/>
       <c r="N213"/>
     </row>
-    <row r="214" spans="10:14" ht="13.2">
+    <row r="214" spans="10:14" ht="13.5">
       <c r="J214"/>
       <c r="K214"/>
       <c r="L214"/>
       <c r="M214"/>
       <c r="N214"/>
     </row>
-    <row r="215" spans="10:14" ht="13.2">
+    <row r="215" spans="10:14" ht="13.5">
       <c r="J215"/>
       <c r="K215"/>
       <c r="L215"/>
       <c r="M215"/>
       <c r="N215"/>
     </row>
-    <row r="216" spans="10:14" ht="13.2">
+    <row r="216" spans="10:14" ht="13.5">
       <c r="J216"/>
       <c r="K216"/>
       <c r="L216"/>
       <c r="M216"/>
       <c r="N216"/>
     </row>
-    <row r="217" spans="10:14" ht="13.2">
+    <row r="217" spans="10:14" ht="13.5">
       <c r="J217"/>
       <c r="K217"/>
       <c r="L217"/>
       <c r="M217"/>
       <c r="N217"/>
     </row>
-    <row r="218" spans="10:14" ht="13.2">
+    <row r="218" spans="10:14" ht="13.5">
       <c r="J218"/>
       <c r="K218"/>
       <c r="L218"/>
       <c r="M218"/>
       <c r="N218"/>
     </row>
-    <row r="219" spans="10:14" ht="13.2">
+    <row r="219" spans="10:14" ht="13.5">
       <c r="J219"/>
       <c r="K219"/>
       <c r="L219"/>
       <c r="M219"/>
       <c r="N219"/>
     </row>
-    <row r="220" spans="10:14" ht="13.2">
+    <row r="220" spans="10:14" ht="13.5">
       <c r="J220"/>
       <c r="K220"/>
       <c r="L220"/>
       <c r="M220"/>
       <c r="N220"/>
     </row>
-    <row r="221" spans="10:14" ht="13.2">
+    <row r="221" spans="10:14" ht="13.5">
       <c r="J221"/>
       <c r="K221"/>
       <c r="L221"/>
       <c r="M221"/>
       <c r="N221"/>
     </row>
-    <row r="222" spans="10:14" ht="13.2">
+    <row r="222" spans="10:14" ht="13.5">
       <c r="J222"/>
       <c r="K222"/>
       <c r="L222"/>
       <c r="M222"/>
       <c r="N222"/>
     </row>
-    <row r="223" spans="10:14" ht="13.2">
+    <row r="223" spans="10:14" ht="13.5">
       <c r="J223"/>
       <c r="K223"/>
       <c r="L223"/>
       <c r="M223"/>
       <c r="N223"/>
     </row>
-    <row r="224" spans="10:14" ht="13.2">
+    <row r="224" spans="10:14" ht="13.5">
       <c r="J224"/>
       <c r="K224"/>
       <c r="L224"/>
       <c r="M224"/>
       <c r="N224"/>
     </row>
-    <row r="225" spans="10:14" ht="13.2">
+    <row r="225" spans="10:14" ht="13.5">
       <c r="J225"/>
       <c r="K225"/>
       <c r="L225"/>
       <c r="M225"/>
       <c r="N225"/>
     </row>
-    <row r="226" spans="10:14" ht="13.2">
+    <row r="226" spans="10:14" ht="13.5">
       <c r="J226"/>
       <c r="K226"/>
       <c r="L226"/>
       <c r="M226"/>
       <c r="N226"/>
     </row>
-    <row r="227" spans="10:14" ht="13.2">
+    <row r="227" spans="10:14" ht="13.5">
       <c r="J227"/>
       <c r="K227"/>
       <c r="L227"/>
       <c r="M227"/>
       <c r="N227"/>
     </row>
-    <row r="228" spans="10:14" ht="13.2">
+    <row r="228" spans="10:14" ht="13.5">
       <c r="J228"/>
       <c r="K228"/>
       <c r="L228"/>
       <c r="M228"/>
       <c r="N228"/>
     </row>
-    <row r="229" spans="10:14" ht="13.2">
+    <row r="229" spans="10:14" ht="13.5">
       <c r="J229"/>
       <c r="K229"/>
       <c r="L229"/>
       <c r="M229"/>
       <c r="N229"/>
     </row>
-    <row r="230" spans="10:14" ht="13.2">
+    <row r="230" spans="10:14" ht="13.5">
       <c r="J230"/>
       <c r="K230"/>
       <c r="L230"/>
       <c r="M230"/>
       <c r="N230"/>
     </row>
-    <row r="231" spans="10:14" ht="13.2">
+    <row r="231" spans="10:14" ht="13.5">
       <c r="J231"/>
       <c r="K231"/>
       <c r="L231"/>
       <c r="M231"/>
       <c r="N231"/>
     </row>
-    <row r="232" spans="10:14" ht="13.2">
+    <row r="232" spans="10:14" ht="13.5">
       <c r="J232"/>
       <c r="K232"/>
       <c r="L232"/>
       <c r="M232"/>
       <c r="N232"/>
     </row>
-    <row r="233" spans="10:14" ht="13.2">
+    <row r="233" spans="10:14" ht="13.5">
       <c r="J233"/>
       <c r="K233"/>
       <c r="L233"/>
       <c r="M233"/>
       <c r="N233"/>
     </row>
-    <row r="234" spans="10:14" ht="13.2">
+    <row r="234" spans="10:14" ht="13.5">
       <c r="J234"/>
       <c r="K234"/>
       <c r="L234"/>
       <c r="M234"/>
       <c r="N234"/>
     </row>
-    <row r="235" spans="10:14" ht="13.2">
+    <row r="235" spans="10:14" ht="13.5">
       <c r="J235"/>
       <c r="K235"/>
       <c r="L235"/>
       <c r="M235"/>
       <c r="N235"/>
     </row>
-    <row r="236" spans="10:14" ht="13.2">
+    <row r="236" spans="10:14" ht="13.5">
       <c r="J236"/>
       <c r="K236"/>
       <c r="L236"/>
       <c r="M236"/>
       <c r="N236"/>
     </row>
-    <row r="237" spans="10:14" ht="13.2">
+    <row r="237" spans="10:14" ht="13.5">
       <c r="J237"/>
       <c r="K237"/>
       <c r="L237"/>
       <c r="M237"/>
       <c r="N237"/>
     </row>
-    <row r="238" spans="10:14" ht="13.2">
+    <row r="238" spans="10:14" ht="13.5">
       <c r="J238"/>
       <c r="K238"/>
       <c r="L238"/>
       <c r="M238"/>
       <c r="N238"/>
     </row>
-    <row r="239" spans="10:14" ht="13.2">
+    <row r="239" spans="10:14" ht="13.5">
       <c r="J239"/>
       <c r="K239"/>
       <c r="L239"/>
       <c r="M239"/>
       <c r="N239"/>
     </row>
-    <row r="240" spans="10:14" ht="13.2">
+    <row r="240" spans="10:14" ht="13.5">
       <c r="J240"/>
       <c r="K240"/>
       <c r="L240"/>
       <c r="M240"/>
       <c r="N240"/>
     </row>
-    <row r="241" spans="10:14" ht="13.2">
+    <row r="241" spans="10:14" ht="13.5">
       <c r="J241"/>
       <c r="K241"/>
       <c r="L241"/>
       <c r="M241"/>
       <c r="N241"/>
     </row>
-    <row r="242" spans="10:14" ht="13.2">
+    <row r="242" spans="10:14" ht="13.5">
       <c r="J242"/>
       <c r="K242"/>
       <c r="L242"/>
       <c r="M242"/>
       <c r="N242"/>
     </row>
-    <row r="243" spans="10:14" ht="13.2">
+    <row r="243" spans="10:14" ht="13.5">
       <c r="J243"/>
       <c r="K243"/>
       <c r="L243"/>
       <c r="M243"/>
       <c r="N243"/>
     </row>
-    <row r="244" spans="10:14" ht="13.2">
+    <row r="244" spans="10:14" ht="13.5">
       <c r="J244"/>
       <c r="K244"/>
       <c r="L244"/>
       <c r="M244"/>
       <c r="N244"/>
     </row>
-    <row r="245" spans="10:14" ht="13.2">
+    <row r="245" spans="10:14" ht="13.5">
       <c r="J245"/>
       <c r="K245"/>
       <c r="L245"/>
       <c r="M245"/>
       <c r="N245"/>
     </row>
-    <row r="246" spans="10:14" ht="13.2">
+    <row r="246" spans="10:14" ht="13.5">
       <c r="J246"/>
       <c r="K246"/>
       <c r="L246"/>
       <c r="M246"/>
       <c r="N246"/>
     </row>
-    <row r="247" spans="10:14" ht="13.2">
+    <row r="247" spans="10:14" ht="13.5">
       <c r="J247"/>
       <c r="K247"/>
       <c r="L247"/>
       <c r="M247"/>
       <c r="N247"/>
     </row>
-    <row r="248" spans="10:14" ht="13.2">
+    <row r="248" spans="10:14" ht="13.5">
       <c r="J248"/>
       <c r="K248"/>
       <c r="L248"/>
       <c r="M248"/>
       <c r="N248"/>
     </row>
-    <row r="249" spans="10:14" ht="13.2">
+    <row r="249" spans="10:14" ht="13.5">
       <c r="J249"/>
       <c r="K249"/>
       <c r="L249"/>
       <c r="M249"/>
       <c r="N249"/>
     </row>
-    <row r="250" spans="10:14" ht="13.2">
+    <row r="250" spans="10:14" ht="13.5">
       <c r="J250"/>
       <c r="K250"/>
       <c r="L250"/>
       <c r="M250"/>
       <c r="N250"/>
     </row>
-    <row r="251" spans="10:14" ht="13.2">
+    <row r="251" spans="10:14" ht="13.5">
       <c r="J251"/>
       <c r="K251"/>
       <c r="L251"/>
       <c r="M251"/>
       <c r="N251"/>
     </row>
-    <row r="252" spans="10:14" ht="13.2">
+    <row r="252" spans="10:14" ht="13.5">
       <c r="J252"/>
       <c r="K252"/>
       <c r="L252"/>
       <c r="M252"/>
       <c r="N252"/>
     </row>
-    <row r="253" spans="10:14" ht="13.2">
+    <row r="253" spans="10:14" ht="13.5">
       <c r="J253"/>
       <c r="K253"/>
       <c r="L253"/>
       <c r="M253"/>
       <c r="N253"/>
     </row>
-    <row r="254" spans="10:14" ht="13.2">
+    <row r="254" spans="10:14" ht="13.5">
       <c r="J254"/>
       <c r="K254"/>
       <c r="L254"/>
       <c r="M254"/>
       <c r="N254"/>
     </row>
-    <row r="255" spans="10:14" ht="13.2">
+    <row r="255" spans="10:14" ht="13.5">
       <c r="J255"/>
       <c r="K255"/>
       <c r="L255"/>
       <c r="M255"/>
       <c r="N255"/>
     </row>
-    <row r="256" spans="10:14" ht="13.2">
+    <row r="256" spans="10:14" ht="13.5">
       <c r="J256"/>
       <c r="K256"/>
       <c r="L256"/>
       <c r="M256"/>
       <c r="N256"/>
     </row>
-    <row r="257" spans="10:14" ht="13.2">
+    <row r="257" spans="10:14" ht="13.5">
       <c r="J257"/>
       <c r="K257"/>
       <c r="L257"/>
       <c r="M257"/>
       <c r="N257"/>
     </row>
-    <row r="258" spans="10:14" ht="13.2">
+    <row r="258" spans="10:14" ht="13.5">
       <c r="J258"/>
       <c r="K258"/>
       <c r="L258"/>
       <c r="M258"/>
       <c r="N258"/>
     </row>
-    <row r="259" spans="10:14" ht="13.2">
+    <row r="259" spans="10:14" ht="13.5">
       <c r="J259"/>
       <c r="K259"/>
       <c r="L259"/>
       <c r="M259"/>
       <c r="N259"/>
     </row>
-    <row r="260" spans="10:14" ht="13.2">
+    <row r="260" spans="10:14" ht="13.5">
       <c r="J260"/>
       <c r="K260"/>
       <c r="L260"/>
       <c r="M260"/>
       <c r="N260"/>
     </row>
-    <row r="261" spans="10:14" ht="13.2">
+    <row r="261" spans="10:14" ht="13.5">
       <c r="J261"/>
       <c r="K261"/>
       <c r="L261"/>
       <c r="M261"/>
       <c r="N261"/>
     </row>
-    <row r="262" spans="10:14" ht="13.2">
+    <row r="262" spans="10:14" ht="13.5">
       <c r="J262"/>
       <c r="K262"/>
       <c r="L262"/>
       <c r="M262"/>
       <c r="N262"/>
     </row>
-    <row r="263" spans="10:14" ht="13.2">
+    <row r="263" spans="10:14" ht="13.5">
       <c r="J263"/>
       <c r="K263"/>
       <c r="L263"/>
       <c r="M263"/>
       <c r="N263"/>
     </row>
-    <row r="264" spans="10:14" ht="13.2">
+    <row r="264" spans="10:14" ht="13.5">
       <c r="J264"/>
       <c r="K264"/>
       <c r="L264"/>
       <c r="M264"/>
       <c r="N264"/>
     </row>
-    <row r="265" spans="10:14" ht="13.2">
+    <row r="265" spans="10:14" ht="13.5">
       <c r="J265"/>
       <c r="K265"/>
       <c r="L265"/>
       <c r="M265"/>
       <c r="N265"/>
     </row>
-    <row r="266" spans="10:14" ht="13.2">
+    <row r="266" spans="10:14" ht="13.5">
       <c r="J266"/>
       <c r="K266"/>
       <c r="L266"/>
       <c r="M266"/>
       <c r="N266"/>
     </row>
-    <row r="267" spans="10:14" ht="13.2">
+    <row r="267" spans="10:14" ht="13.5">
       <c r="J267"/>
       <c r="K267"/>
       <c r="L267"/>
       <c r="M267"/>
       <c r="N267"/>
     </row>
-    <row r="268" spans="10:14" ht="13.2">
+    <row r="268" spans="10:14" ht="13.5">
       <c r="J268"/>
       <c r="K268"/>
       <c r="L268"/>
       <c r="M268"/>
       <c r="N268"/>
     </row>
-    <row r="269" spans="10:14" ht="13.2">
+    <row r="269" spans="10:14" ht="13.5">
       <c r="J269"/>
       <c r="K269"/>
       <c r="L269"/>
       <c r="M269"/>
       <c r="N269"/>
     </row>
-    <row r="270" spans="10:14" ht="13.2">
+    <row r="270" spans="10:14" ht="13.5">
       <c r="J270"/>
       <c r="K270"/>
       <c r="L270"/>
       <c r="M270"/>
       <c r="N270"/>
     </row>
-    <row r="271" spans="10:14" ht="13.2">
+    <row r="271" spans="10:14" ht="13.5">
       <c r="J271"/>
       <c r="K271"/>
       <c r="L271"/>
       <c r="M271"/>
       <c r="N271"/>
     </row>
-    <row r="272" spans="10:14" ht="13.2">
+    <row r="272" spans="10:14" ht="13.5">
       <c r="J272"/>
       <c r="K272"/>
       <c r="L272"/>
       <c r="M272"/>
       <c r="N272"/>
     </row>
-    <row r="273" spans="10:14" ht="13.2">
+    <row r="273" spans="10:14" ht="13.5">
       <c r="J273"/>
       <c r="K273"/>
       <c r="L273"/>
       <c r="M273"/>
       <c r="N273"/>
     </row>
-    <row r="274" spans="10:14" ht="13.2">
+    <row r="274" spans="10:14" ht="13.5">
       <c r="J274"/>
       <c r="K274"/>
       <c r="L274"/>
       <c r="M274"/>
       <c r="N274"/>
     </row>
-    <row r="275" spans="10:14" ht="13.2">
+    <row r="275" spans="10:14" ht="13.5">
       <c r="J275"/>
       <c r="K275"/>
       <c r="L275"/>
       <c r="M275"/>
       <c r="N275"/>
     </row>
-    <row r="276" spans="10:14" ht="13.2">
+    <row r="276" spans="10:14" ht="13.5">
       <c r="J276"/>
       <c r="K276"/>
       <c r="L276"/>
       <c r="M276"/>
       <c r="N276"/>
     </row>
-    <row r="277" spans="10:14" ht="13.2">
+    <row r="277" spans="10:14" ht="13.5">
       <c r="J277"/>
       <c r="K277"/>
       <c r="L277"/>
       <c r="M277"/>
       <c r="N277"/>
     </row>
-    <row r="278" spans="10:14" ht="13.2">
+    <row r="278" spans="10:14" ht="13.5">
       <c r="J278"/>
       <c r="K278"/>
       <c r="L278"/>
       <c r="M278"/>
       <c r="N278"/>
     </row>
-    <row r="279" spans="10:14" ht="13.2">
+    <row r="279" spans="10:14" ht="13.5">
       <c r="J279"/>
       <c r="K279"/>
       <c r="L279"/>
       <c r="M279"/>
       <c r="N279"/>
     </row>
-    <row r="280" spans="10:14" ht="13.2">
+    <row r="280" spans="10:14" ht="13.5">
       <c r="J280"/>
       <c r="K280"/>
       <c r="L280"/>
       <c r="M280"/>
       <c r="N280"/>
     </row>
-    <row r="281" spans="10:14" ht="13.2">
+    <row r="281" spans="10:14" ht="13.5">
       <c r="J281"/>
       <c r="K281"/>
       <c r="L281"/>
       <c r="M281"/>
       <c r="N281"/>
     </row>
-    <row r="282" spans="10:14" ht="13.2">
+    <row r="282" spans="10:14" ht="13.5">
       <c r="J282"/>
       <c r="K282"/>
       <c r="L282"/>
       <c r="M282"/>
       <c r="N282"/>
     </row>
-    <row r="283" spans="10:14" ht="13.2">
+    <row r="283" spans="10:14" ht="13.5">
       <c r="J283"/>
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
       <c r="N283"/>
     </row>
-    <row r="284" spans="10:14" ht="13.2">
+    <row r="284" spans="10:14" ht="13.5">
       <c r="J284"/>
       <c r="K284"/>
       <c r="L284"/>
       <c r="M284"/>
       <c r="N284"/>
     </row>
-    <row r="285" spans="10:14" ht="13.2">
+    <row r="285" spans="10:14" ht="13.5">
       <c r="J285"/>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
       <c r="N285"/>
     </row>
-    <row r="286" spans="10:14" ht="13.2">
+    <row r="286" spans="10:14" ht="13.5">
       <c r="J286"/>
       <c r="K286"/>
       <c r="L286"/>
       <c r="M286"/>
       <c r="N286"/>
     </row>
-    <row r="287" spans="10:14" ht="13.2">
+    <row r="287" spans="10:14" ht="13.5">
       <c r="J287"/>
       <c r="K287"/>
       <c r="L287"/>
       <c r="M287"/>
       <c r="N287"/>
     </row>
-    <row r="288" spans="10:14" ht="13.2">
+    <row r="288" spans="10:14" ht="13.5">
       <c r="J288"/>
       <c r="K288"/>
       <c r="L288"/>
       <c r="M288"/>
       <c r="N288"/>
     </row>
-    <row r="289" spans="10:14" ht="13.2">
+    <row r="289" spans="10:14" ht="13.5">
       <c r="J289"/>
       <c r="K289"/>
       <c r="L289"/>
       <c r="M289"/>
       <c r="N289"/>
     </row>
-    <row r="290" spans="10:14" ht="13.2">
+    <row r="290" spans="10:14" ht="13.5">
       <c r="J290"/>
       <c r="K290"/>
       <c r="L290"/>
       <c r="M290"/>
       <c r="N290"/>
     </row>
-    <row r="291" spans="10:14" ht="13.2">
+    <row r="291" spans="10:14" ht="13.5">
       <c r="J291"/>
       <c r="K291"/>
       <c r="L291"/>
       <c r="M291"/>
       <c r="N291"/>
     </row>
-    <row r="292" spans="10:14" ht="13.2">
+    <row r="292" spans="10:14" ht="13.5">
       <c r="J292"/>
       <c r="K292"/>
       <c r="L292"/>
       <c r="M292"/>
       <c r="N292"/>
     </row>
-    <row r="293" spans="10:14" ht="13.2">
+    <row r="293" spans="10:14" ht="13.5">
       <c r="J293"/>
       <c r="K293"/>
       <c r="L293"/>
       <c r="M293"/>
       <c r="N293"/>
     </row>
-    <row r="294" spans="10:14" ht="13.2">
+    <row r="294" spans="10:14" ht="13.5">
       <c r="J294"/>
       <c r="K294"/>
       <c r="L294"/>
       <c r="M294"/>
       <c r="N294"/>
     </row>
-    <row r="295" spans="10:14" ht="13.2">
+    <row r="295" spans="10:14" ht="13.5">
       <c r="J295"/>
       <c r="K295"/>
       <c r="L295"/>
       <c r="M295"/>
       <c r="N295"/>
     </row>
-    <row r="296" spans="10:14" ht="13.2">
+    <row r="296" spans="10:14" ht="13.5">
       <c r="J296"/>
       <c r="K296"/>
       <c r="L296"/>
       <c r="M296"/>
       <c r="N296"/>
     </row>
-    <row r="297" spans="10:14" ht="13.2">
+    <row r="297" spans="10:14" ht="13.5">
       <c r="J297"/>
       <c r="K297"/>
       <c r="L297"/>
       <c r="M297"/>
       <c r="N297"/>
     </row>
-    <row r="298" spans="10:14" ht="13.2">
+    <row r="298" spans="10:14" ht="13.5">
       <c r="J298"/>
       <c r="K298"/>
       <c r="L298"/>
       <c r="M298"/>
       <c r="N298"/>
     </row>
-    <row r="299" spans="10:14" ht="13.2">
+    <row r="299" spans="10:14" ht="13.5">
       <c r="J299"/>
       <c r="K299"/>
       <c r="L299"/>
       <c r="M299"/>
       <c r="N299"/>
     </row>
-    <row r="300" spans="10:14" ht="13.2">
+    <row r="300" spans="10:14" ht="13.5">
       <c r="J300"/>
       <c r="K300"/>
       <c r="L300"/>
       <c r="M300"/>
       <c r="N300"/>
     </row>
-    <row r="301" spans="10:14" ht="13.2">
+    <row r="301" spans="10:14" ht="13.5">
       <c r="J301"/>
       <c r="K301"/>
       <c r="L301"/>
       <c r="M301"/>
       <c r="N301"/>
     </row>
-    <row r="302" spans="10:14" ht="13.2">
+    <row r="302" spans="10:14" ht="13.5">
       <c r="J302"/>
       <c r="K302"/>
       <c r="L302"/>
       <c r="M302"/>
       <c r="N302"/>
     </row>
-    <row r="303" spans="10:14" ht="13.2">
+    <row r="303" spans="10:14" ht="13.5">
       <c r="J303"/>
       <c r="K303"/>
       <c r="L303"/>
       <c r="M303"/>
       <c r="N303"/>
     </row>
-    <row r="304" spans="10:14" ht="13.2">
+    <row r="304" spans="10:14" ht="13.5">
       <c r="J304"/>
       <c r="K304"/>
       <c r="L304"/>
       <c r="M304"/>
       <c r="N304"/>
     </row>
-    <row r="305" spans="10:14" ht="13.2">
+    <row r="305" spans="10:14" ht="13.5">
       <c r="J305"/>
       <c r="K305"/>
       <c r="L305"/>
       <c r="M305"/>
       <c r="N305"/>
     </row>
-    <row r="306" spans="10:14" ht="13.2">
+    <row r="306" spans="10:14" ht="13.5">
       <c r="J306"/>
       <c r="K306"/>
       <c r="L306"/>
       <c r="M306"/>
       <c r="N306"/>
     </row>
-    <row r="307" spans="10:14" ht="13.2">
+    <row r="307" spans="10:14" ht="13.5">
       <c r="J307"/>
       <c r="K307"/>
       <c r="L307"/>
       <c r="M307"/>
       <c r="N307"/>
     </row>
-    <row r="308" spans="10:14" ht="13.2">
+    <row r="308" spans="10:14" ht="13.5">
       <c r="J308"/>
       <c r="K308"/>
       <c r="L308"/>
       <c r="M308"/>
       <c r="N308"/>
     </row>
-    <row r="309" spans="10:14" ht="13.2">
+    <row r="309" spans="10:14" ht="13.5">
       <c r="J309"/>
       <c r="K309"/>
       <c r="L309"/>
       <c r="M309"/>
       <c r="N309"/>
     </row>
-    <row r="310" spans="10:14" ht="13.2">
+    <row r="310" spans="10:14" ht="13.5">
       <c r="J310"/>
       <c r="K310"/>
       <c r="L310"/>
       <c r="M310"/>
       <c r="N310"/>
     </row>
-    <row r="311" spans="10:14" ht="13.2">
+    <row r="311" spans="10:14" ht="13.5">
       <c r="J311"/>
       <c r="K311"/>
       <c r="L311"/>
       <c r="M311"/>
       <c r="N311"/>
     </row>
-    <row r="312" spans="10:14" ht="13.2">
+    <row r="312" spans="10:14" ht="13.5">
       <c r="J312"/>
       <c r="K312"/>
       <c r="L312"/>
       <c r="M312"/>
       <c r="N312"/>
     </row>
-    <row r="313" spans="10:14" ht="13.2">
+    <row r="313" spans="10:14" ht="13.5">
       <c r="J313"/>
       <c r="K313"/>
       <c r="L313"/>
       <c r="M313"/>
       <c r="N313"/>
     </row>
-    <row r="314" spans="10:14" ht="13.2">
+    <row r="314" spans="10:14" ht="13.5">
       <c r="J314"/>
       <c r="K314"/>
       <c r="L314"/>
       <c r="M314"/>
       <c r="N314"/>
     </row>
-    <row r="315" spans="10:14" ht="13.2">
+    <row r="315" spans="10:14" ht="13.5">
       <c r="J315"/>
       <c r="K315"/>
       <c r="L315"/>
       <c r="M315"/>
       <c r="N315"/>
     </row>
-    <row r="316" spans="10:14" ht="13.2">
+    <row r="316" spans="10:14" ht="13.5">
       <c r="J316"/>
       <c r="K316"/>
       <c r="L316"/>
       <c r="M316"/>
       <c r="N316"/>
     </row>
-    <row r="317" spans="10:14" ht="13.2">
+    <row r="317" spans="10:14" ht="13.5">
       <c r="J317"/>
       <c r="K317"/>
       <c r="L317"/>
       <c r="M317"/>
       <c r="N317"/>
     </row>
-    <row r="318" spans="10:14" ht="13.2">
+    <row r="318" spans="10:14" ht="13.5">
       <c r="J318"/>
       <c r="K318"/>
       <c r="L318"/>
       <c r="M318"/>
       <c r="N318"/>
     </row>
-    <row r="319" spans="10:14" ht="13.2">
+    <row r="319" spans="10:14" ht="13.5">
       <c r="J319"/>
       <c r="K319"/>
       <c r="L319"/>
       <c r="M319"/>
       <c r="N319"/>
     </row>
-    <row r="320" spans="10:14" ht="13.2">
+    <row r="320" spans="10:14" ht="13.5">
       <c r="J320"/>
       <c r="K320"/>
       <c r="L320"/>
       <c r="M320"/>
       <c r="N320"/>
     </row>
-    <row r="321" spans="10:14" ht="13.2">
+    <row r="321" spans="10:14" ht="13.5">
       <c r="J321"/>
       <c r="K321"/>
       <c r="L321"/>
       <c r="M321"/>
       <c r="N321"/>
     </row>
-    <row r="322" spans="10:14" ht="13.2">
+    <row r="322" spans="10:14" ht="13.5">
       <c r="J322"/>
       <c r="K322"/>
       <c r="L322"/>
       <c r="M322"/>
       <c r="N322"/>
     </row>
-    <row r="323" spans="10:14" ht="13.2">
+    <row r="323" spans="10:14" ht="13.5">
       <c r="J323"/>
       <c r="K323"/>
       <c r="L323"/>
       <c r="M323"/>
       <c r="N323"/>
     </row>
-    <row r="324" spans="10:14" ht="13.2">
+    <row r="324" spans="10:14" ht="13.5">
       <c r="J324"/>
       <c r="K324"/>
       <c r="L324"/>
       <c r="M324"/>
       <c r="N324"/>
     </row>
-    <row r="325" spans="10:14" ht="13.2">
+    <row r="325" spans="10:14" ht="13.5">
       <c r="J325"/>
       <c r="K325"/>
       <c r="L325"/>
       <c r="M325"/>
       <c r="N325"/>
     </row>
-    <row r="326" spans="10:14" ht="13.2">
+    <row r="326" spans="10:14" ht="13.5">
       <c r="J326"/>
       <c r="K326"/>
       <c r="L326"/>
       <c r="M326"/>
       <c r="N326"/>
     </row>
-    <row r="327" spans="10:14" ht="13.2">
+    <row r="327" spans="10:14" ht="13.5">
       <c r="J327"/>
       <c r="K327"/>
       <c r="L327"/>
       <c r="M327"/>
       <c r="N327"/>
     </row>
-    <row r="328" spans="10:14" ht="13.2">
+    <row r="328" spans="10:14" ht="13.5">
       <c r="J328"/>
       <c r="K328"/>
       <c r="L328"/>
       <c r="M328"/>
       <c r="N328"/>
     </row>
-    <row r="329" spans="10:14" ht="13.2">
+    <row r="329" spans="10:14" ht="13.5">
       <c r="J329"/>
       <c r="K329"/>
       <c r="L329"/>
       <c r="M329"/>
       <c r="N329"/>
     </row>
-    <row r="330" spans="10:14" ht="13.2">
+    <row r="330" spans="10:14" ht="13.5">
       <c r="J330"/>
       <c r="K330"/>
       <c r="L330"/>
       <c r="M330"/>
       <c r="N330"/>
     </row>
-    <row r="331" spans="10:14" ht="13.2">
+    <row r="331" spans="10:14" ht="13.5">
       <c r="J331"/>
       <c r="K331"/>
       <c r="L331"/>
       <c r="M331"/>
       <c r="N331"/>
     </row>
-    <row r="332" spans="10:14" ht="13.2">
+    <row r="332" spans="10:14" ht="13.5">
       <c r="J332"/>
       <c r="K332"/>
       <c r="L332"/>
       <c r="M332"/>
       <c r="N332"/>
     </row>
-    <row r="333" spans="10:14" ht="13.2">
+    <row r="333" spans="10:14" ht="13.5">
       <c r="J333"/>
       <c r="K333"/>
       <c r="L333"/>
       <c r="M333"/>
       <c r="N333"/>
     </row>
-    <row r="334" spans="10:14" ht="13.2">
+    <row r="334" spans="10:14" ht="13.5">
       <c r="J334"/>
       <c r="K334"/>
       <c r="L334"/>
       <c r="M334"/>
       <c r="N334"/>
     </row>
-    <row r="335" spans="10:14" ht="13.2">
+    <row r="335" spans="10:14" ht="13.5">
       <c r="J335"/>
       <c r="K335"/>
       <c r="L335"/>
       <c r="M335"/>
       <c r="N335"/>
     </row>
-    <row r="336" spans="10:14" ht="13.2">
+    <row r="336" spans="10:14" ht="13.5">
       <c r="J336"/>
       <c r="K336"/>
       <c r="L336"/>
       <c r="M336"/>
       <c r="N336"/>
     </row>
-    <row r="337" spans="10:14" ht="13.2">
+    <row r="337" spans="10:14" ht="13.5">
       <c r="J337"/>
       <c r="K337"/>
       <c r="L337"/>
       <c r="M337"/>
       <c r="N337"/>
     </row>
-    <row r="338" spans="10:14" ht="13.2">
+    <row r="338" spans="10:14" ht="13.5">
       <c r="J338"/>
       <c r="K338"/>
       <c r="L338"/>
       <c r="M338"/>
       <c r="N338"/>
     </row>
-    <row r="339" spans="10:14" ht="13.2">
+    <row r="339" spans="10:14" ht="13.5">
       <c r="J339"/>
       <c r="K339"/>
       <c r="L339"/>
       <c r="M339"/>
       <c r="N339"/>
     </row>
-    <row r="340" spans="10:14" ht="13.2">
+    <row r="340" spans="10:14" ht="13.5">
       <c r="J340"/>
       <c r="K340"/>
       <c r="L340"/>
       <c r="M340"/>
       <c r="N340"/>
     </row>
-    <row r="341" spans="10:14" ht="13.2">
+    <row r="341" spans="10:14" ht="13.5">
       <c r="J341"/>
       <c r="K341"/>
       <c r="L341"/>
       <c r="M341"/>
       <c r="N341"/>
     </row>
-    <row r="342" spans="10:14" ht="13.2">
+    <row r="342" spans="10:14" ht="13.5">
       <c r="J342"/>
       <c r="K342"/>
       <c r="L342"/>
       <c r="M342"/>
       <c r="N342"/>
     </row>
-    <row r="343" spans="10:14" ht="13.2">
+    <row r="343" spans="10:14" ht="13.5">
       <c r="J343"/>
       <c r="K343"/>
       <c r="L343"/>
       <c r="M343"/>
       <c r="N343"/>
     </row>
-    <row r="344" spans="10:14" ht="13.2">
+    <row r="344" spans="10:14" ht="13.5">
       <c r="J344"/>
       <c r="K344"/>
       <c r="L344"/>
       <c r="M344"/>
       <c r="N344"/>
     </row>
-    <row r="345" spans="10:14" ht="13.2">
+    <row r="345" spans="10:14" ht="13.5">
       <c r="J345"/>
       <c r="K345"/>
       <c r="L345"/>
       <c r="M345"/>
       <c r="N345"/>
     </row>
-    <row r="346" spans="10:14" ht="13.2">
+    <row r="346" spans="10:14" ht="13.5">
       <c r="J346"/>
       <c r="K346"/>
       <c r="L346"/>
       <c r="M346"/>
       <c r="N346"/>
     </row>
-    <row r="347" spans="10:14" ht="13.2">
+    <row r="347" spans="10:14" ht="13.5">
       <c r="J347"/>
       <c r="K347"/>
       <c r="L347"/>
       <c r="M347"/>
       <c r="N347"/>
     </row>
-    <row r="348" spans="10:14" ht="13.2">
+    <row r="348" spans="10:14" ht="13.5">
       <c r="J348"/>
       <c r="K348"/>
       <c r="L348"/>
       <c r="M348"/>
       <c r="N348"/>
     </row>
-    <row r="349" spans="10:14" ht="13.2">
+    <row r="349" spans="10:14" ht="13.5">
       <c r="J349"/>
       <c r="K349"/>
       <c r="L349"/>
       <c r="M349"/>
       <c r="N349"/>
     </row>
-    <row r="350" spans="10:14" ht="13.2">
+    <row r="350" spans="10:14" ht="13.5">
       <c r="J350"/>
       <c r="K350"/>
       <c r="L350"/>
       <c r="M350"/>
       <c r="N350"/>
     </row>
-    <row r="351" spans="10:14" ht="13.2">
+    <row r="351" spans="10:14" ht="13.5">
       <c r="J351"/>
       <c r="K351"/>
       <c r="L351"/>
       <c r="M351"/>
       <c r="N351"/>
     </row>
-    <row r="352" spans="10:14" ht="13.2">
+    <row r="352" spans="10:14" ht="13.5">
       <c r="J352"/>
       <c r="K352"/>
       <c r="L352"/>
       <c r="M352"/>
       <c r="N352"/>
     </row>
-    <row r="353" spans="10:14" ht="13.2">
+    <row r="353" spans="10:14" ht="13.5">
       <c r="J353"/>
       <c r="K353"/>
       <c r="L353"/>
       <c r="M353"/>
       <c r="N353"/>
     </row>
-    <row r="354" spans="10:14" ht="13.2">
+    <row r="354" spans="10:14" ht="13.5">
       <c r="J354"/>
       <c r="K354"/>
       <c r="L354"/>
       <c r="M354"/>
       <c r="N354"/>
     </row>
-    <row r="355" spans="10:14" ht="13.2">
+    <row r="355" spans="10:14" ht="13.5">
       <c r="J355"/>
       <c r="K355"/>
       <c r="L355"/>
       <c r="M355"/>
       <c r="N355"/>
     </row>
-    <row r="356" spans="10:14" ht="13.2">
+    <row r="356" spans="10:14" ht="13.5">
       <c r="J356"/>
       <c r="K356"/>
       <c r="L356"/>
       <c r="M356"/>
       <c r="N356"/>
     </row>
-    <row r="357" spans="10:14" ht="13.2">
+    <row r="357" spans="10:14" ht="13.5">
       <c r="J357"/>
       <c r="K357"/>
       <c r="L357"/>
       <c r="M357"/>
       <c r="N357"/>
     </row>
-    <row r="358" spans="10:14" ht="13.2">
+    <row r="358" spans="10:14" ht="13.5">
       <c r="J358"/>
       <c r="K358"/>
       <c r="L358"/>
       <c r="M358"/>
       <c r="N358"/>
     </row>
-    <row r="359" spans="10:14" ht="13.2">
+    <row r="359" spans="10:14" ht="13.5">
       <c r="J359"/>
       <c r="K359"/>
       <c r="L359"/>
       <c r="M359"/>
       <c r="N359"/>
     </row>
-    <row r="360" spans="10:14" ht="13.2">
+    <row r="360" spans="10:14" ht="13.5">
       <c r="J360"/>
       <c r="K360"/>
       <c r="L360"/>
       <c r="M360"/>
       <c r="N360"/>
     </row>
-    <row r="361" spans="10:14" ht="13.2">
+    <row r="361" spans="10:14" ht="13.5">
       <c r="J361"/>
       <c r="K361"/>
       <c r="L361"/>
       <c r="M361"/>
       <c r="N361"/>
     </row>
-    <row r="362" spans="10:14" ht="13.2">
+    <row r="362" spans="10:14" ht="13.5">
       <c r="J362"/>
       <c r="K362"/>
       <c r="L362"/>
       <c r="M362"/>
       <c r="N362"/>
     </row>
-    <row r="363" spans="10:14" ht="13.2">
+    <row r="363" spans="10:14" ht="13.5">
       <c r="J363"/>
       <c r="K363"/>
       <c r="L363"/>
       <c r="M363"/>
       <c r="N363"/>
     </row>
-    <row r="364" spans="10:14" ht="13.2">
+    <row r="364" spans="10:14" ht="13.5">
       <c r="J364"/>
       <c r="K364"/>
       <c r="L364"/>
       <c r="M364"/>
       <c r="N364"/>
     </row>
-    <row r="365" spans="10:14" ht="13.2">
+    <row r="365" spans="10:14" ht="13.5">
       <c r="J365"/>
       <c r="K365"/>
       <c r="L365"/>
       <c r="M365"/>
       <c r="N365"/>
     </row>
-    <row r="366" spans="10:14" ht="13.2">
+    <row r="366" spans="10:14" ht="13.5">
       <c r="J366"/>
       <c r="K366"/>
       <c r="L366"/>
       <c r="M366"/>
       <c r="N366"/>
     </row>
-    <row r="367" spans="10:14" ht="13.2">
+    <row r="367" spans="10:14" ht="13.5">
       <c r="J367"/>
       <c r="K367"/>
       <c r="L367"/>
       <c r="M367"/>
       <c r="N367"/>
     </row>
-    <row r="368" spans="10:14" ht="13.2">
+    <row r="368" spans="10:14" ht="13.5">
       <c r="J368"/>
       <c r="K368"/>
       <c r="L368"/>
       <c r="M368"/>
       <c r="N368"/>
     </row>
-    <row r="369" spans="10:14" ht="13.2">
+    <row r="369" spans="10:14" ht="13.5">
       <c r="J369"/>
       <c r="K369"/>
       <c r="L369"/>
       <c r="M369"/>
       <c r="N369"/>
     </row>
-    <row r="370" spans="10:14" ht="13.2">
+    <row r="370" spans="10:14" ht="13.5">
       <c r="J370"/>
       <c r="K370"/>
       <c r="L370"/>
       <c r="M370"/>
       <c r="N370"/>
     </row>
-    <row r="371" spans="10:14" ht="13.2">
+    <row r="371" spans="10:14" ht="13.5">
       <c r="J371"/>
       <c r="K371"/>
       <c r="L371"/>
       <c r="M371"/>
       <c r="N371"/>
     </row>
-    <row r="372" spans="10:14" ht="13.2">
+    <row r="372" spans="10:14" ht="13.5">
       <c r="J372"/>
       <c r="K372"/>
       <c r="L372"/>
       <c r="M372"/>
       <c r="N372"/>
     </row>
-    <row r="373" spans="10:14" ht="13.2">
+    <row r="373" spans="10:14" ht="13.5">
       <c r="J373"/>
       <c r="K373"/>
       <c r="L373"/>
       <c r="M373"/>
       <c r="N373"/>
     </row>
-    <row r="374" spans="10:14" ht="13.2">
+    <row r="374" spans="10:14" ht="13.5">
       <c r="J374"/>
       <c r="K374"/>
       <c r="L374"/>
       <c r="M374"/>
       <c r="N374"/>
     </row>
-    <row r="375" spans="10:14" ht="13.2">
+    <row r="375" spans="10:14" ht="13.5">
       <c r="J375"/>
       <c r="K375"/>
       <c r="L375"/>
       <c r="M375"/>
       <c r="N375"/>
     </row>
-    <row r="376" spans="10:14" ht="13.2">
+    <row r="376" spans="10:14" ht="13.5">
       <c r="J376"/>
       <c r="K376"/>
       <c r="L376"/>
       <c r="M376"/>
       <c r="N376"/>
     </row>
-    <row r="377" spans="10:14" ht="13.2">
+    <row r="377" spans="10:14" ht="13.5">
       <c r="J377"/>
       <c r="K377"/>
       <c r="L377"/>
       <c r="M377"/>
       <c r="N377"/>
     </row>
-    <row r="378" spans="10:14" ht="13.2">
+    <row r="378" spans="10:14" ht="13.5">
       <c r="J378"/>
       <c r="K378"/>
       <c r="L378"/>
       <c r="M378"/>
       <c r="N378"/>
     </row>
-    <row r="379" spans="10:14" ht="13.2">
+    <row r="379" spans="10:14" ht="13.5">
       <c r="J379"/>
       <c r="K379"/>
       <c r="L379"/>
       <c r="M379"/>
       <c r="N379"/>
     </row>
-    <row r="380" spans="10:14" ht="13.2">
+    <row r="380" spans="10:14" ht="13.5">
       <c r="J380"/>
       <c r="K380"/>
       <c r="L380"/>
       <c r="M380"/>
       <c r="N380"/>
     </row>
-    <row r="381" spans="10:14" ht="13.2">
+    <row r="381" spans="10:14" ht="13.5">
       <c r="J381"/>
       <c r="K381"/>
       <c r="L381"/>
       <c r="M381"/>
       <c r="N381"/>
     </row>
-    <row r="382" spans="10:14" ht="13.2">
+    <row r="382" spans="10:14" ht="13.5">
       <c r="J382"/>
       <c r="K382"/>
       <c r="L382"/>
       <c r="M382"/>
       <c r="N382"/>
     </row>
-    <row r="383" spans="10:14" ht="13.2">
+    <row r="383" spans="10:14" ht="13.5">
       <c r="J383"/>
       <c r="K383"/>
       <c r="L383"/>
       <c r="M383"/>
       <c r="N383"/>
     </row>
-    <row r="384" spans="10:14" ht="13.2">
+    <row r="384" spans="10:14" ht="13.5">
       <c r="J384"/>
       <c r="K384"/>
       <c r="L384"/>
       <c r="M384"/>
       <c r="N384"/>
     </row>
-    <row r="385" spans="10:14" ht="13.2">
+    <row r="385" spans="10:14" ht="13.5">
       <c r="J385"/>
       <c r="K385"/>
       <c r="L385"/>
       <c r="M385"/>
       <c r="N385"/>
     </row>
-    <row r="386" spans="10:14" ht="13.2">
+    <row r="386" spans="10:14" ht="13.5">
       <c r="J386"/>
       <c r="K386"/>
       <c r="L386"/>
       <c r="M386"/>
       <c r="N386"/>
     </row>
-    <row r="387" spans="10:14" ht="13.2">
+    <row r="387" spans="10:14" ht="13.5">
       <c r="J387"/>
       <c r="K387"/>
       <c r="L387"/>
       <c r="M387"/>
       <c r="N387"/>
     </row>
-    <row r="388" spans="10:14" ht="13.2">
+    <row r="388" spans="10:14" ht="13.5">
       <c r="J388"/>
       <c r="K388"/>
       <c r="L388"/>
       <c r="M388"/>
       <c r="N388"/>
     </row>
-    <row r="389" spans="10:14" ht="13.2">
+    <row r="389" spans="10:14" ht="13.5">
       <c r="J389"/>
       <c r="K389"/>
       <c r="L389"/>
       <c r="M389"/>
       <c r="N389"/>
     </row>
-    <row r="390" spans="10:14" ht="13.2">
+    <row r="390" spans="10:14" ht="13.5">
       <c r="J390"/>
       <c r="K390"/>
       <c r="L390"/>
       <c r="M390"/>
       <c r="N390"/>
     </row>
-    <row r="391" spans="10:14" ht="13.2">
+    <row r="391" spans="10:14" ht="13.5">
       <c r="J391"/>
       <c r="K391"/>
       <c r="L391"/>
       <c r="M391"/>
       <c r="N391"/>
     </row>
-    <row r="392" spans="10:14" ht="13.2">
+    <row r="392" spans="10:14" ht="13.5">
       <c r="J392"/>
       <c r="K392"/>
       <c r="L392"/>
       <c r="M392"/>
       <c r="N392"/>
     </row>
-    <row r="393" spans="10:14" ht="13.2">
+    <row r="393" spans="10:14" ht="13.5">
       <c r="J393"/>
       <c r="K393"/>
       <c r="L393"/>
       <c r="M393"/>
       <c r="N393"/>
     </row>
-    <row r="394" spans="10:14" ht="13.2">
+    <row r="394" spans="10:14" ht="13.5">
       <c r="J394"/>
       <c r="K394"/>
       <c r="L394"/>
       <c r="M394"/>
       <c r="N394"/>
     </row>
-    <row r="395" spans="10:14" ht="13.2">
+    <row r="395" spans="10:14" ht="13.5">
       <c r="J395"/>
       <c r="K395"/>
       <c r="L395"/>
       <c r="M395"/>
       <c r="N395"/>
     </row>
-    <row r="396" spans="10:14" ht="13.2">
+    <row r="396" spans="10:14" ht="13.5">
       <c r="J396"/>
       <c r="K396"/>
       <c r="L396"/>
       <c r="M396"/>
       <c r="N396"/>
     </row>
-    <row r="397" spans="10:14" ht="13.2">
+    <row r="397" spans="10:14" ht="13.5">
       <c r="J397"/>
       <c r="K397"/>
       <c r="L397"/>
       <c r="M397"/>
       <c r="N397"/>
     </row>
-    <row r="398" spans="10:14" ht="13.2">
+    <row r="398" spans="10:14" ht="13.5">
       <c r="J398"/>
       <c r="K398"/>
       <c r="L398"/>
       <c r="M398"/>
       <c r="N398"/>
     </row>
-    <row r="399" spans="10:14" ht="13.2">
+    <row r="399" spans="10:14" ht="13.5">
       <c r="J399"/>
       <c r="K399"/>
       <c r="L399"/>
       <c r="M399"/>
       <c r="N399"/>
     </row>
-    <row r="400" spans="10:14" ht="13.2">
+    <row r="400" spans="10:14" ht="13.5">
       <c r="J400"/>
       <c r="K400"/>
       <c r="L400"/>
       <c r="M400"/>
       <c r="N400"/>
     </row>
-    <row r="401" spans="10:14" ht="13.2">
+    <row r="401" spans="10:14" ht="13.5">
       <c r="J401"/>
       <c r="K401"/>
       <c r="L401"/>
       <c r="M401"/>
       <c r="N401"/>
     </row>
-    <row r="402" spans="10:14" ht="13.2">
+    <row r="402" spans="10:14" ht="13.5">
       <c r="J402"/>
       <c r="K402"/>
       <c r="L402"/>
       <c r="M402"/>
       <c r="N402"/>
     </row>
-    <row r="403" spans="10:14" ht="13.2">
+    <row r="403" spans="10:14" ht="13.5">
       <c r="J403"/>
       <c r="K403"/>
       <c r="L403"/>
       <c r="M403"/>
       <c r="N403"/>
     </row>
-    <row r="404" spans="10:14" ht="13.2">
+    <row r="404" spans="10:14" ht="13.5">
       <c r="J404"/>
       <c r="K404"/>
       <c r="L404"/>
       <c r="M404"/>
       <c r="N404"/>
     </row>
-    <row r="405" spans="10:14" ht="13.2">
+    <row r="405" spans="10:14" ht="13.5">
       <c r="J405"/>
       <c r="K405"/>
       <c r="L405"/>
       <c r="M405"/>
       <c r="N405"/>
     </row>
-    <row r="406" spans="10:14" ht="13.2">
+    <row r="406" spans="10:14" ht="13.5">
       <c r="J406"/>
       <c r="K406"/>
       <c r="L406"/>
       <c r="M406"/>
       <c r="N406"/>
     </row>
-    <row r="407" spans="10:14" ht="13.2">
+    <row r="407" spans="10:14" ht="13.5">
       <c r="J407"/>
       <c r="K407"/>
       <c r="L407"/>
       <c r="M407"/>
       <c r="N407"/>
     </row>
-    <row r="408" spans="10:14" ht="13.2">
+    <row r="408" spans="10:14" ht="13.5">
       <c r="J408"/>
       <c r="K408"/>
       <c r="L408"/>
       <c r="M408"/>
       <c r="N408"/>
     </row>
-    <row r="409" spans="10:14" ht="13.2">
+    <row r="409" spans="10:14" ht="13.5">
       <c r="J409"/>
       <c r="K409"/>
       <c r="L409"/>
       <c r="M409"/>
       <c r="N409"/>
     </row>
-    <row r="410" spans="10:14" ht="13.2">
+    <row r="410" spans="10:14" ht="13.5">
       <c r="J410"/>
       <c r="K410"/>
       <c r="L410"/>
       <c r="M410"/>
       <c r="N410"/>
     </row>
-    <row r="411" spans="10:14" ht="13.2">
+    <row r="411" spans="10:14" ht="13.5">
       <c r="J411"/>
       <c r="K411"/>
       <c r="L411"/>
       <c r="M411"/>
       <c r="N411"/>
     </row>
-    <row r="412" spans="10:14" ht="13.2">
+    <row r="412" spans="10:14" ht="13.5">
       <c r="J412"/>
       <c r="K412"/>
       <c r="L412"/>
       <c r="M412"/>
       <c r="N412"/>
     </row>
-    <row r="413" spans="10:14" ht="13.2">
+    <row r="413" spans="10:14" ht="13.5">
       <c r="J413"/>
       <c r="K413"/>
       <c r="L413"/>
       <c r="M413"/>
       <c r="N413"/>
     </row>
-    <row r="414" spans="10:14" ht="13.2">
+    <row r="414" spans="10:14" ht="13.5">
       <c r="J414"/>
       <c r="K414"/>
       <c r="L414"/>
       <c r="M414"/>
       <c r="N414"/>
     </row>
-    <row r="415" spans="10:14" ht="13.2">
+    <row r="415" spans="10:14" ht="13.5">
       <c r="J415"/>
       <c r="K415"/>
       <c r="L415"/>
       <c r="M415"/>
       <c r="N415"/>
     </row>
-    <row r="416" spans="10:14" ht="13.2">
+    <row r="416" spans="10:14" ht="13.5">
       <c r="J416"/>
       <c r="K416"/>
       <c r="L416"/>
       <c r="M416"/>
       <c r="N416"/>
     </row>
-    <row r="417" spans="10:14" ht="13.2">
+    <row r="417" spans="10:14" ht="13.5">
       <c r="J417"/>
       <c r="K417"/>
       <c r="L417"/>
       <c r="M417"/>
       <c r="N417"/>
     </row>
-    <row r="418" spans="10:14" ht="13.2">
+    <row r="418" spans="10:14" ht="13.5">
       <c r="J418"/>
       <c r="K418"/>
       <c r="L418"/>
       <c r="M418"/>
       <c r="N418"/>
     </row>
-    <row r="419" spans="10:14" ht="13.2">
+    <row r="419" spans="10:14" ht="13.5">
       <c r="J419"/>
       <c r="K419"/>
       <c r="L419"/>
       <c r="M419"/>
       <c r="N419"/>
     </row>
-    <row r="420" spans="10:14" ht="13.2">
+    <row r="420" spans="10:14" ht="13.5">
       <c r="J420"/>
       <c r="K420"/>
       <c r="L420"/>
       <c r="M420"/>
       <c r="N420"/>
     </row>
-    <row r="421" spans="10:14" ht="13.2">
+    <row r="421" spans="10:14" ht="13.5">
       <c r="J421"/>
       <c r="K421"/>
       <c r="L421"/>
       <c r="M421"/>
       <c r="N421"/>
     </row>
-    <row r="422" spans="10:14" ht="13.2">
+    <row r="422" spans="10:14" ht="13.5">
       <c r="J422"/>
       <c r="K422"/>
       <c r="L422"/>
       <c r="M422"/>
       <c r="N422"/>
     </row>
-    <row r="423" spans="10:14" ht="13.2">
+    <row r="423" spans="10:14" ht="13.5">
       <c r="J423"/>
       <c r="K423"/>
       <c r="L423"/>
       <c r="M423"/>
       <c r="N423"/>
     </row>
-    <row r="424" spans="10:14" ht="13.2">
+    <row r="424" spans="10:14" ht="13.5">
       <c r="J424"/>
       <c r="K424"/>
       <c r="L424"/>
       <c r="M424"/>
       <c r="N424"/>
     </row>
-    <row r="425" spans="10:14" ht="13.2">
+    <row r="425" spans="10:14" ht="13.5">
       <c r="J425"/>
       <c r="K425"/>
       <c r="L425"/>
       <c r="M425"/>
       <c r="N425"/>
     </row>
-    <row r="426" spans="10:14" ht="13.2">
+    <row r="426" spans="10:14" ht="13.5">
       <c r="J426"/>
       <c r="K426"/>
       <c r="L426"/>
       <c r="M426"/>
       <c r="N426"/>
     </row>
-    <row r="427" spans="10:14" ht="13.2">
+    <row r="427" spans="10:14" ht="13.5">
       <c r="J427"/>
       <c r="K427"/>
       <c r="L427"/>
       <c r="M427"/>
       <c r="N427"/>
     </row>
-    <row r="428" spans="10:14" ht="13.2">
+    <row r="428" spans="10:14" ht="13.5">
       <c r="J428"/>
       <c r="K428"/>
       <c r="L428"/>
       <c r="M428"/>
       <c r="N428"/>
     </row>
-    <row r="429" spans="10:14" ht="13.2">
+    <row r="429" spans="10:14" ht="13.5">
       <c r="J429"/>
       <c r="K429"/>
       <c r="L429"/>
       <c r="M429"/>
       <c r="N429"/>
     </row>
-    <row r="430" spans="10:14" ht="13.2">
+    <row r="430" spans="10:14" ht="13.5">
       <c r="J430"/>
       <c r="K430"/>
       <c r="L430"/>
       <c r="M430"/>
       <c r="N430"/>
     </row>
-    <row r="431" spans="10:14" ht="13.2">
+    <row r="431" spans="10:14" ht="13.5">
       <c r="J431"/>
       <c r="K431"/>
       <c r="L431"/>
       <c r="M431"/>
       <c r="N431"/>
     </row>
-    <row r="432" spans="10:14" ht="13.2">
+    <row r="432" spans="10:14" ht="13.5">
       <c r="J432"/>
       <c r="K432"/>
       <c r="L432"/>
       <c r="M432"/>
       <c r="N432"/>
     </row>
-    <row r="433" spans="10:14" ht="13.2">
+    <row r="433" spans="10:14" ht="13.5">
       <c r="J433"/>
       <c r="K433"/>
       <c r="L433"/>
       <c r="M433"/>
       <c r="N433"/>
     </row>
-    <row r="434" spans="10:14" ht="13.2">
+    <row r="434" spans="10:14" ht="13.5">
       <c r="J434"/>
       <c r="K434"/>
       <c r="L434"/>
       <c r="M434"/>
       <c r="N434"/>
     </row>
-    <row r="435" spans="10:14" ht="13.2">
+    <row r="435" spans="10:14" ht="13.5">
       <c r="J435"/>
       <c r="K435"/>
       <c r="L435"/>
       <c r="M435"/>
       <c r="N435"/>
     </row>
-    <row r="436" spans="10:14" ht="13.2">
+    <row r="436" spans="10:14" ht="13.5">
       <c r="J436"/>
       <c r="K436"/>
       <c r="L436"/>
       <c r="M436"/>
       <c r="N436"/>
     </row>
-    <row r="437" spans="10:14" ht="13.2">
+    <row r="437" spans="10:14" ht="13.5">
       <c r="J437"/>
       <c r="K437"/>
       <c r="L437"/>
       <c r="M437"/>
       <c r="N437"/>
     </row>
-    <row r="438" spans="10:14" ht="13.2">
+    <row r="438" spans="10:14" ht="13.5">
       <c r="J438"/>
       <c r="K438"/>
       <c r="L438"/>
       <c r="M438"/>
       <c r="N438"/>
     </row>
-    <row r="439" spans="10:14" ht="13.2">
+    <row r="439" spans="10:14" ht="13.5">
       <c r="J439"/>
       <c r="K439"/>
       <c r="L439"/>
       <c r="M439"/>
       <c r="N439"/>
     </row>
-    <row r="440" spans="10:14" ht="13.2">
+    <row r="440" spans="10:14" ht="13.5">
       <c r="J440"/>
       <c r="K440"/>
       <c r="L440"/>
       <c r="M440"/>
       <c r="N440"/>
     </row>
-    <row r="441" spans="10:14" ht="13.2">
+    <row r="441" spans="10:14" ht="13.5">
       <c r="J441"/>
       <c r="K441"/>
       <c r="L441"/>
       <c r="M441"/>
       <c r="N441"/>
     </row>
-    <row r="442" spans="10:14" ht="13.2">
+    <row r="442" spans="10:14" ht="13.5">
       <c r="J442"/>
       <c r="K442"/>
       <c r="L442"/>
       <c r="M442"/>
       <c r="N442"/>
     </row>
-    <row r="443" spans="10:14" ht="13.2">
+    <row r="443" spans="10:14" ht="13.5">
       <c r="J443"/>
       <c r="K443"/>
       <c r="L443"/>
       <c r="M443"/>
       <c r="N443"/>
     </row>
-    <row r="444" spans="10:14" ht="13.2">
+    <row r="444" spans="10:14" ht="13.5">
       <c r="J444"/>
       <c r="K444"/>
       <c r="L444"/>
       <c r="M444"/>
       <c r="N444"/>
     </row>
-    <row r="445" spans="10:14" ht="13.2">
+    <row r="445" spans="10:14" ht="13.5">
       <c r="J445"/>
       <c r="K445"/>
       <c r="L445"/>
       <c r="M445"/>
       <c r="N445"/>
     </row>
-    <row r="446" spans="10:14" ht="13.2">
+    <row r="446" spans="10:14" ht="13.5">
       <c r="J446"/>
       <c r="K446"/>
       <c r="L446"/>
       <c r="M446"/>
       <c r="N446"/>
     </row>
-    <row r="447" spans="10:14" ht="13.2">
+    <row r="447" spans="10:14" ht="13.5">
       <c r="J447"/>
       <c r="K447"/>
       <c r="L447"/>
       <c r="M447"/>
       <c r="N447"/>
     </row>
-    <row r="448" spans="10:14" ht="13.2">
+    <row r="448" spans="10:14" ht="13.5">
       <c r="J448"/>
       <c r="K448"/>
       <c r="L448"/>
       <c r="M448"/>
       <c r="N448"/>
     </row>
-    <row r="449" spans="10:14" ht="13.2">
+    <row r="449" spans="10:14" ht="13.5">
       <c r="J449"/>
       <c r="K449"/>
       <c r="L449"/>
       <c r="M449"/>
       <c r="N449"/>
     </row>
-    <row r="450" spans="10:14" ht="13.2">
+    <row r="450" spans="10:14" ht="13.5">
       <c r="J450"/>
       <c r="K450"/>
       <c r="L450"/>
       <c r="M450"/>
       <c r="N450"/>
     </row>
-    <row r="451" spans="10:14" ht="13.2">
+    <row r="451" spans="10:14" ht="13.5">
       <c r="J451"/>
       <c r="K451"/>
       <c r="L451"/>
       <c r="M451"/>
       <c r="N451"/>
     </row>
-    <row r="452" spans="10:14" ht="13.2">
+    <row r="452" spans="10:14" ht="13.5">
       <c r="J452"/>
       <c r="K452"/>
       <c r="L452"/>
       <c r="M452"/>
       <c r="N452"/>
     </row>
-    <row r="453" spans="10:14" ht="13.2">
+    <row r="453" spans="10:14" ht="13.5">
       <c r="J453"/>
       <c r="K453"/>
       <c r="L453"/>
       <c r="M453"/>
       <c r="N453"/>
     </row>
-    <row r="454" spans="10:14" ht="13.2">
+    <row r="454" spans="10:14" ht="13.5">
       <c r="J454"/>
       <c r="K454"/>
       <c r="L454"/>
       <c r="M454"/>
       <c r="N454"/>
     </row>
-    <row r="455" spans="10:14" ht="13.2">
+    <row r="455" spans="10:14" ht="13.5">
       <c r="J455"/>
       <c r="K455"/>
       <c r="L455"/>
       <c r="M455"/>
       <c r="N455"/>
     </row>
-    <row r="456" spans="10:14" ht="13.2">
+    <row r="456" spans="10:14" ht="13.5">
       <c r="J456"/>
       <c r="K456"/>
       <c r="L456"/>
       <c r="M456"/>
       <c r="N456"/>
     </row>
-    <row r="457" spans="10:14" ht="13.2">
+    <row r="457" spans="10:14" ht="13.5">
       <c r="J457"/>
       <c r="K457"/>
       <c r="L457"/>
       <c r="M457"/>
       <c r="N457"/>
     </row>
-    <row r="458" spans="10:14" ht="13.2">
+    <row r="458" spans="10:14" ht="13.5">
       <c r="J458"/>
       <c r="K458"/>
       <c r="L458"/>
       <c r="M458"/>
       <c r="N458"/>
     </row>
-    <row r="459" spans="10:14" ht="13.2">
+    <row r="459" spans="10:14" ht="13.5">
       <c r="J459"/>
       <c r="K459"/>
       <c r="L459"/>
       <c r="M459"/>
       <c r="N459"/>
     </row>
-    <row r="460" spans="10:14" ht="13.2">
+    <row r="460" spans="10:14" ht="13.5">
       <c r="J460"/>
       <c r="K460"/>
       <c r="L460"/>
       <c r="M460"/>
       <c r="N460"/>
     </row>
-    <row r="461" spans="10:14" ht="13.2">
+    <row r="461" spans="10:14" ht="13.5">
       <c r="J461"/>
       <c r="K461"/>
       <c r="L461"/>
       <c r="M461"/>
       <c r="N461"/>
     </row>
-    <row r="462" spans="10:14" ht="13.2">
+    <row r="462" spans="10:14" ht="13.5">
       <c r="J462"/>
       <c r="K462"/>
       <c r="L462"/>
       <c r="M462"/>
       <c r="N462"/>
     </row>
-    <row r="463" spans="10:14" ht="13.2">
+    <row r="463" spans="10:14" ht="13.5">
       <c r="J463"/>
       <c r="K463"/>
       <c r="L463"/>
       <c r="M463"/>
       <c r="N463"/>
     </row>
-    <row r="464" spans="10:14" ht="13.2">
+    <row r="464" spans="10:14" ht="13.5">
       <c r="J464"/>
       <c r="K464"/>
       <c r="L464"/>
       <c r="M464"/>
       <c r="N464"/>
     </row>
-    <row r="465" spans="10:14" ht="13.2">
+    <row r="465" spans="10:14" ht="13.5">
       <c r="J465"/>
       <c r="K465"/>
       <c r="L465"/>
       <c r="M465"/>
       <c r="N465"/>
     </row>
-    <row r="466" spans="10:14" ht="13.2">
+    <row r="466" spans="10:14" ht="13.5">
       <c r="J466"/>
       <c r="K466"/>
       <c r="L466"/>
       <c r="M466"/>
       <c r="N466"/>
     </row>
-    <row r="467" spans="10:14" ht="13.2">
+    <row r="467" spans="10:14" ht="13.5">
       <c r="J467"/>
       <c r="K467"/>
       <c r="L467"/>
       <c r="M467"/>
       <c r="N467"/>
     </row>
-    <row r="468" spans="10:14" ht="13.2">
+    <row r="468" spans="10:14" ht="13.5">
       <c r="J468"/>
       <c r="K468"/>
       <c r="L468"/>
       <c r="M468"/>
       <c r="N468"/>
     </row>
-    <row r="469" spans="10:14" ht="13.2">
+    <row r="469" spans="10:14" ht="13.5">
       <c r="J469"/>
       <c r="K469"/>
       <c r="L469"/>
       <c r="M469"/>
       <c r="N469"/>
     </row>
-    <row r="470" spans="10:14" ht="13.2">
+    <row r="470" spans="10:14" ht="13.5">
       <c r="J470"/>
       <c r="K470"/>
       <c r="L470"/>
       <c r="M470"/>
       <c r="N470"/>
     </row>
-    <row r="471" spans="10:14" ht="13.2">
+    <row r="471" spans="10:14" ht="13.5">
       <c r="J471"/>
       <c r="K471"/>
       <c r="L471"/>
       <c r="M471"/>
       <c r="N471"/>
     </row>
-    <row r="472" spans="10:14" ht="13.2">
+    <row r="472" spans="10:14" ht="13.5">
       <c r="J472"/>
       <c r="K472"/>
       <c r="L472"/>
       <c r="M472"/>
       <c r="N472"/>
     </row>
-    <row r="473" spans="10:14" ht="13.2">
+    <row r="473" spans="10:14" ht="13.5">
       <c r="J473"/>
       <c r="K473"/>
       <c r="L473"/>
       <c r="M473"/>
       <c r="N473"/>
     </row>
-    <row r="474" spans="10:14" ht="13.2">
+    <row r="474" spans="10:14" ht="13.5">
       <c r="J474"/>
       <c r="K474"/>
       <c r="L474"/>
       <c r="M474"/>
       <c r="N474"/>
     </row>
-    <row r="475" spans="10:14" ht="13.2">
+    <row r="475" spans="10:14" ht="13.5">
       <c r="J475"/>
       <c r="K475"/>
       <c r="L475"/>
       <c r="M475"/>
       <c r="N475"/>
     </row>
-    <row r="476" spans="10:14" ht="13.2">
+    <row r="476" spans="10:14" ht="13.5">
       <c r="J476"/>
       <c r="K476"/>
       <c r="L476"/>
       <c r="M476"/>
       <c r="N476"/>
     </row>
-    <row r="477" spans="10:14" ht="13.2">
+    <row r="477" spans="10:14" ht="13.5">
       <c r="J477"/>
       <c r="K477"/>
       <c r="L477"/>
       <c r="M477"/>
       <c r="N477"/>
     </row>
-    <row r="478" spans="10:14" ht="13.2">
+    <row r="478" spans="10:14" ht="13.5">
       <c r="J478"/>
       <c r="K478"/>
       <c r="L478"/>
       <c r="M478"/>
       <c r="N478"/>
     </row>
-    <row r="479" spans="10:14" ht="13.2">
+    <row r="479" spans="10:14" ht="13.5">
       <c r="J479"/>
       <c r="K479"/>
       <c r="L479"/>
       <c r="M479"/>
       <c r="N479"/>
     </row>
-    <row r="480" spans="10:14" ht="13.2">
+    <row r="480" spans="10:14" ht="13.5">
       <c r="J480"/>
       <c r="K480"/>
       <c r="L480"/>
       <c r="M480"/>
       <c r="N480"/>
     </row>
-    <row r="481" spans="10:14" ht="13.2">
+    <row r="481" spans="10:14" ht="13.5">
       <c r="J481"/>
       <c r="K481"/>
       <c r="L481"/>
       <c r="M481"/>
       <c r="N481"/>
     </row>
-    <row r="482" spans="10:14" ht="13.2">
+    <row r="482" spans="10:14" ht="13.5">
       <c r="J482"/>
       <c r="K482"/>
       <c r="L482"/>
       <c r="M482"/>
       <c r="N482"/>
     </row>
-    <row r="483" spans="10:14" ht="13.2">
+    <row r="483" spans="10:14" ht="13.5">
       <c r="J483"/>
       <c r="K483"/>
       <c r="L483"/>
       <c r="M483"/>
       <c r="N483"/>
     </row>
-    <row r="484" spans="10:14" ht="13.2">
+    <row r="484" spans="10:14" ht="13.5">
       <c r="J484"/>
       <c r="K484"/>
       <c r="L484"/>
       <c r="M484"/>
       <c r="N484"/>
     </row>
-    <row r="485" spans="10:14" ht="13.2">
+    <row r="485" spans="10:14" ht="13.5">
       <c r="J485"/>
       <c r="K485"/>
       <c r="L485"/>
       <c r="M485"/>
       <c r="N485"/>
     </row>
-    <row r="486" spans="10:14" ht="13.2">
+    <row r="486" spans="10:14" ht="13.5">
       <c r="J486"/>
       <c r="K486"/>
       <c r="L486"/>
       <c r="M486"/>
       <c r="N486"/>
     </row>
-    <row r="487" spans="10:14" ht="13.2">
+    <row r="487" spans="10:14" ht="13.5">
       <c r="J487"/>
       <c r="K487"/>
       <c r="L487"/>
       <c r="M487"/>
       <c r="N487"/>
     </row>
-    <row r="488" spans="10:14" ht="13.2">
+    <row r="488" spans="10:14" ht="13.5">
       <c r="J488"/>
       <c r="K488"/>
       <c r="L488"/>
       <c r="M488"/>
       <c r="N488"/>
     </row>
-    <row r="489" spans="10:14" ht="13.2">
+    <row r="489" spans="10:14" ht="13.5">
       <c r="J489"/>
       <c r="K489"/>
       <c r="L489"/>
       <c r="M489"/>
       <c r="N489"/>
     </row>
-    <row r="490" spans="10:14" ht="13.2">
+    <row r="490" spans="10:14" ht="13.5">
       <c r="J490"/>
       <c r="K490"/>
       <c r="L490"/>
       <c r="M490"/>
       <c r="N490"/>
     </row>
-    <row r="491" spans="10:14" ht="13.2">
+    <row r="491" spans="10:14" ht="13.5">
       <c r="J491"/>
       <c r="K491"/>
       <c r="L491"/>
       <c r="M491"/>
       <c r="N491"/>
     </row>
-    <row r="492" spans="10:14" ht="13.2">
+    <row r="492" spans="10:14" ht="13.5">
       <c r="J492"/>
       <c r="K492"/>
       <c r="L492"/>
       <c r="M492"/>
       <c r="N492"/>
     </row>
-    <row r="493" spans="10:14" ht="13.2">
+    <row r="493" spans="10:14" ht="13.5">
       <c r="J493"/>
       <c r="K493"/>
       <c r="L493"/>
       <c r="M493"/>
       <c r="N493"/>
     </row>
-    <row r="494" spans="10:14" ht="13.2">
+    <row r="494" spans="10:14" ht="13.5">
       <c r="J494"/>
       <c r="K494"/>
       <c r="L494"/>
       <c r="M494"/>
       <c r="N494"/>
     </row>
-    <row r="495" spans="10:14" ht="13.2">
+    <row r="495" spans="10:14" ht="13.5">
       <c r="J495"/>
       <c r="K495"/>
       <c r="L495"/>
       <c r="M495"/>
       <c r="N495"/>
     </row>
-    <row r="496" spans="10:14" ht="13.2">
+    <row r="496" spans="10:14" ht="13.5">
       <c r="J496"/>
       <c r="K496"/>
       <c r="L496"/>
       <c r="M496"/>
       <c r="N496"/>
     </row>
-    <row r="497" spans="10:14" ht="13.2">
+    <row r="497" spans="10:14" ht="13.5">
       <c r="J497"/>
       <c r="K497"/>
       <c r="L497"/>
       <c r="M497"/>
       <c r="N497"/>
     </row>
-    <row r="498" spans="10:14" ht="13.2">
+    <row r="498" spans="10:14" ht="13.5">
       <c r="J498"/>
       <c r="K498"/>
       <c r="L498"/>
       <c r="M498"/>
       <c r="N498"/>
     </row>
-    <row r="499" spans="10:14" ht="13.2">
+    <row r="499" spans="10:14" ht="13.5">
       <c r="J499"/>
       <c r="K499"/>
       <c r="L499"/>
       <c r="M499"/>
       <c r="N499"/>
     </row>
-    <row r="500" spans="10:14" ht="13.2">
+    <row r="500" spans="10:14" ht="13.5">
       <c r="J500"/>
       <c r="K500"/>
       <c r="L500"/>
       <c r="M500"/>
       <c r="N500"/>
     </row>
-    <row r="501" spans="10:14" ht="13.2">
+    <row r="501" spans="10:14" ht="13.5">
       <c r="J501"/>
       <c r="K501"/>
       <c r="L501"/>
       <c r="M501"/>
       <c r="N501"/>
     </row>
-    <row r="502" spans="10:14" ht="13.2">
+    <row r="502" spans="10:14" ht="13.5">
       <c r="J502"/>
       <c r="K502"/>
       <c r="L502"/>
       <c r="M502"/>
       <c r="N502"/>
     </row>
-    <row r="503" spans="10:14" ht="13.2">
+    <row r="503" spans="10:14" ht="13.5">
       <c r="J503"/>
       <c r="K503"/>
       <c r="L503"/>
       <c r="M503"/>
       <c r="N503"/>
     </row>
-    <row r="504" spans="10:14" ht="13.2">
+    <row r="504" spans="10:14" ht="13.5">
       <c r="J504"/>
       <c r="K504"/>
       <c r="L504"/>
       <c r="M504"/>
       <c r="N504"/>
     </row>
-    <row r="505" spans="10:14" ht="13.2">
+    <row r="505" spans="10:14" ht="13.5">
       <c r="J505"/>
       <c r="K505"/>
       <c r="L505"/>
       <c r="M505"/>
       <c r="N505"/>
     </row>
-    <row r="506" spans="10:14" ht="13.2">
+    <row r="506" spans="10:14" ht="13.5">
       <c r="J506"/>
       <c r="K506"/>
       <c r="L506"/>
       <c r="M506"/>
       <c r="N506"/>
     </row>
-    <row r="507" spans="10:14" ht="13.2">
+    <row r="507" spans="10:14" ht="13.5">
       <c r="J507"/>
       <c r="K507"/>
       <c r="L507"/>
       <c r="M507"/>
       <c r="N507"/>
     </row>
-    <row r="508" spans="10:14" ht="13.2">
+    <row r="508" spans="10:14" ht="13.5">
       <c r="J508"/>
       <c r="K508"/>
       <c r="L508"/>
       <c r="M508"/>
       <c r="N508"/>
     </row>
-    <row r="509" spans="10:14" ht="13.2">
+    <row r="509" spans="10:14" ht="13.5">
       <c r="J509"/>
       <c r="K509"/>
       <c r="L509"/>
       <c r="M509"/>
       <c r="N509"/>
     </row>
-    <row r="510" spans="10:14" ht="13.2">
+    <row r="510" spans="10:14" ht="13.5">
       <c r="J510"/>
       <c r="K510"/>
       <c r="L510"/>
       <c r="M510"/>
       <c r="N510"/>
     </row>
-    <row r="511" spans="10:14" ht="13.2">
+    <row r="511" spans="10:14" ht="13.5">
       <c r="J511"/>
       <c r="K511"/>
       <c r="L511"/>
       <c r="M511"/>
       <c r="N511"/>
     </row>
-    <row r="512" spans="10:14" ht="13.2">
+    <row r="512" spans="10:14" ht="13.5">
       <c r="J512"/>
       <c r="K512"/>
       <c r="L512"/>
       <c r="M512"/>
       <c r="N512"/>
     </row>
-    <row r="513" spans="10:14" ht="13.2">
+    <row r="513" spans="10:14" ht="13.5">
       <c r="J513"/>
       <c r="K513"/>
       <c r="L513"/>
       <c r="M513"/>
       <c r="N513"/>
     </row>
-    <row r="514" spans="10:14" ht="13.2">
+    <row r="514" spans="10:14" ht="13.5">
       <c r="J514"/>
       <c r="K514"/>
       <c r="L514"/>
       <c r="M514"/>
       <c r="N514"/>
     </row>
-    <row r="515" spans="10:14" ht="13.2">
+    <row r="515" spans="10:14" ht="13.5">
       <c r="J515"/>
       <c r="K515"/>
       <c r="L515"/>
       <c r="M515"/>
       <c r="N515"/>
     </row>
-    <row r="516" spans="10:14" ht="13.2">
+    <row r="516" spans="10:14" ht="13.5">
       <c r="J516"/>
       <c r="K516"/>
       <c r="L516"/>
       <c r="M516"/>
       <c r="N516"/>
     </row>
-    <row r="517" spans="10:14" ht="13.2">
+    <row r="517" spans="10:14" ht="13.5">
       <c r="J517"/>
       <c r="K517"/>
       <c r="L517"/>
       <c r="M517"/>
       <c r="N517"/>
     </row>
-    <row r="518" spans="10:14" ht="13.2">
+    <row r="518" spans="10:14" ht="13.5">
       <c r="J518"/>
       <c r="K518"/>
       <c r="L518"/>
       <c r="M518"/>
       <c r="N518"/>
     </row>
-    <row r="519" spans="10:14" ht="13.2">
+    <row r="519" spans="10:14" ht="13.5">
       <c r="J519"/>
       <c r="K519"/>
       <c r="L519"/>
       <c r="M519"/>
       <c r="N519"/>
     </row>
-    <row r="520" spans="10:14" ht="13.2">
+    <row r="520" spans="10:14" ht="13.5">
       <c r="J520"/>
       <c r="K520"/>
       <c r="L520"/>
       <c r="M520"/>
       <c r="N520"/>
     </row>
-    <row r="521" spans="10:14" ht="13.2">
+    <row r="521" spans="10:14" ht="13.5">
       <c r="J521"/>
       <c r="K521"/>
       <c r="L521"/>
       <c r="M521"/>
       <c r="N521"/>
     </row>
-    <row r="522" spans="10:14" ht="13.2">
+    <row r="522" spans="10:14" ht="13.5">
       <c r="J522"/>
       <c r="K522"/>
       <c r="L522"/>
       <c r="M522"/>
       <c r="N522"/>
     </row>
-    <row r="523" spans="10:14" ht="13.2">
+    <row r="523" spans="10:14" ht="13.5">
       <c r="J523"/>
       <c r="K523"/>
       <c r="L523"/>
       <c r="M523"/>
       <c r="N523"/>
     </row>
-    <row r="524" spans="10:14" ht="13.2">
+    <row r="524" spans="10:14" ht="13.5">
       <c r="J524"/>
       <c r="K524"/>
       <c r="L524"/>
       <c r="M524"/>
       <c r="N524"/>
     </row>
-    <row r="525" spans="10:14" ht="13.2">
+    <row r="525" spans="10:14" ht="13.5">
       <c r="J525"/>
       <c r="K525"/>
       <c r="L525"/>
       <c r="M525"/>
       <c r="N525"/>
     </row>
-    <row r="526" spans="10:14" ht="13.2">
+    <row r="526" spans="10:14" ht="13.5">
       <c r="J526"/>
       <c r="K526"/>
       <c r="L526"/>
       <c r="M526"/>
       <c r="N526"/>
     </row>
-    <row r="527" spans="10:14" ht="13.2">
+    <row r="527" spans="10:14" ht="13.5">
       <c r="J527"/>
       <c r="K527"/>
       <c r="L527"/>
       <c r="M527"/>
       <c r="N527"/>
     </row>
-    <row r="528" spans="10:14" ht="13.2">
+    <row r="528" spans="10:14" ht="13.5">
       <c r="J528"/>
       <c r="K528"/>
       <c r="L528"/>
       <c r="M528"/>
       <c r="N528"/>
     </row>
-    <row r="529" spans="10:14" ht="13.2">
+    <row r="529" spans="10:14" ht="13.5">
       <c r="J529"/>
       <c r="K529"/>
       <c r="L529"/>
       <c r="M529"/>
       <c r="N529"/>
     </row>
-    <row r="530" spans="10:14" ht="13.2">
+    <row r="530" spans="10:14" ht="13.5">
       <c r="J530"/>
       <c r="K530"/>
       <c r="L530"/>
       <c r="M530"/>
       <c r="N530"/>
     </row>
-    <row r="531" spans="10:14" ht="13.2">
+    <row r="531" spans="10:14" ht="13.5">
       <c r="J531"/>
       <c r="K531"/>
       <c r="L531"/>
       <c r="M531"/>
       <c r="N531"/>
     </row>
-    <row r="532" spans="10:14" ht="13.2">
+    <row r="532" spans="10:14" ht="13.5">
       <c r="J532"/>
       <c r="K532"/>
       <c r="L532"/>
       <c r="M532"/>
       <c r="N532"/>
     </row>
-    <row r="533" spans="10:14" ht="13.2">
+    <row r="533" spans="10:14" ht="13.5">
       <c r="J533"/>
       <c r="K533"/>
       <c r="L533"/>
       <c r="M533"/>
       <c r="N533"/>
     </row>
-    <row r="534" spans="10:14" ht="13.2">
+    <row r="534" spans="10:14" ht="13.5">
       <c r="J534"/>
       <c r="K534"/>
       <c r="L534"/>
       <c r="M534"/>
       <c r="N534"/>
     </row>
-    <row r="535" spans="10:14" ht="13.2">
+    <row r="535" spans="10:14" ht="13.5">
       <c r="J535"/>
       <c r="K535"/>
       <c r="L535"/>
       <c r="M535"/>
       <c r="N535"/>
     </row>
-    <row r="536" spans="10:14" ht="13.2">
+    <row r="536" spans="10:14" ht="13.5">
       <c r="J536"/>
       <c r="K536"/>
       <c r="L536"/>
       <c r="M536"/>
       <c r="N536"/>
     </row>
-    <row r="537" spans="10:14" ht="13.2">
+    <row r="537" spans="10:14" ht="13.5">
       <c r="J537"/>
       <c r="K537"/>
       <c r="L537"/>
       <c r="M537"/>
       <c r="N537"/>
     </row>
-    <row r="538" spans="10:14" ht="13.2">
+    <row r="538" spans="10:14" ht="13.5">
       <c r="J538"/>
       <c r="K538"/>
       <c r="L538"/>
       <c r="M538"/>
       <c r="N538"/>
     </row>
-    <row r="539" spans="10:14" ht="13.2">
+    <row r="539" spans="10:14" ht="13.5">
       <c r="J539"/>
       <c r="K539"/>
       <c r="L539"/>
       <c r="M539"/>
       <c r="N539"/>
     </row>
-    <row r="540" spans="10:14" ht="13.2">
+    <row r="540" spans="10:14" ht="13.5">
       <c r="J540"/>
       <c r="K540"/>
       <c r="L540"/>
       <c r="M540"/>
       <c r="N540"/>
     </row>
-    <row r="541" spans="10:14" ht="13.2">
+    <row r="541" spans="10:14" ht="13.5">
       <c r="J541"/>
       <c r="K541"/>
       <c r="L541"/>
       <c r="M541"/>
       <c r="N541"/>
     </row>
-    <row r="542" spans="10:14" ht="13.2">
+    <row r="542" spans="10:14" ht="13.5">
       <c r="J542"/>
       <c r="K542"/>
       <c r="L542"/>
       <c r="M542"/>
       <c r="N542"/>
     </row>
-    <row r="543" spans="10:14" ht="13.2">
+    <row r="543" spans="10:14" ht="13.5">
       <c r="J543"/>
       <c r="K543"/>
       <c r="L543"/>
       <c r="M543"/>
       <c r="N543"/>
     </row>
+    <row r="544" spans="10:14" ht="13.5">
+      <c r="J544"/>
+      <c r="K544"/>
+      <c r="L544"/>
+      <c r="M544"/>
+      <c r="N544"/>
+    </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B9:B10"/>
+  <mergeCells count="70">
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="A55:N55"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -9366,44 +9435,21 @@
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="A54:N54"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9418,7 +9464,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9432,7 +9478,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftUni\Team Papaya\QA-Automation-Team-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goychevl\Downloads\QA Automation SoftUni\TeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="7455" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="All Test Cases" sheetId="122" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="260">
   <si>
     <t>Fail</t>
   </si>
@@ -854,6 +854,161 @@
   </si>
   <si>
     <t>"The Email field is required." and "The Password field is required." error messages should be shown to user</t>
+  </si>
+  <si>
+    <t>1. Tests on "Home" page</t>
+  </si>
+  <si>
+    <t>HP_TC1</t>
+  </si>
+  <si>
+    <t>HomePageHeaderTest</t>
+  </si>
+  <si>
+    <t>1: Open blog "Home" page
+2: Verify if the name of the blog is dsiplayed</t>
+  </si>
+  <si>
+    <t>The name of the blog should be "SOFTUNI BLOG"</t>
+  </si>
+  <si>
+    <t>HomePageFooterTest</t>
+  </si>
+  <si>
+    <t>1: Open blog "Home" page
+2: Verify if the All rights reserved footer is displayed</t>
+  </si>
+  <si>
+    <t>On the footer of the home page is displayed "
+© 2017 - SoftUni Blog"</t>
+  </si>
+  <si>
+    <t>HomePageRegisterButtonTest</t>
+  </si>
+  <si>
+    <t>1: Open blog "Home" page
+2: Verify if the "Register" button is exist
+3. Press "Register" button</t>
+  </si>
+  <si>
+    <t>"Register" button is displayed
+"Register" button is open Register page</t>
+  </si>
+  <si>
+    <t>omePageLoginButtonTest</t>
+  </si>
+  <si>
+    <t>1: Open blog "Home" page
+2: Verify if the "Log in" button is exist
+3. Press it</t>
+  </si>
+  <si>
+    <t>"Log in" button is displayed
+"Log in" button is open "Login" page</t>
+  </si>
+  <si>
+    <t>HP_TC2</t>
+  </si>
+  <si>
+    <t>HP_TC3</t>
+  </si>
+  <si>
+    <t>HP_TC4</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>RP_TC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Open blog "Register" page
+</t>
+  </si>
+  <si>
+    <t>"Register" title is displayed on heade or the page</t>
+  </si>
+  <si>
+    <t>RP_TC16</t>
+  </si>
+  <si>
+    <t>RP_TC17</t>
+  </si>
+  <si>
+    <t>RP_TC18</t>
+  </si>
+  <si>
+    <t>Register with Missing Email and Password</t>
+  </si>
+  <si>
+    <t>1: Open blog "Register" page
+2: Leave "Email" field empty
+3: Leave"Full Name" field empty
+4: Enter "Password" field empty
+5: Enter "Confirm Password" field empty 6: Click on "Register" button</t>
+  </si>
+  <si>
+    <t>"The Email field is required."
+"The Full Name field is required."
+ messages should be shown to user</t>
+  </si>
+  <si>
+    <t>Register with empty E-mal and Password</t>
+  </si>
+  <si>
+    <t>1: Open blog "Register" page
+2: Leave "Email" field empty
+3: Enter some Full Name
+4: Leave "Password" field empty
+5: Leave "Confirm Password" field empty 6: Click on "Register" button</t>
+  </si>
+  <si>
+    <t>"The Email field is required."
+"The Password field is required." messages should be shown to user</t>
+  </si>
+  <si>
+    <t>Register with empty Full Name and Password</t>
+  </si>
+  <si>
+    <t>1: Open blog "Register" page
+2: Enter some valid "Email" field empty
+3: Leave"Full Name" field empty
+4: Leave "Password" field empty
+5: Leave "Confirm Password" field empty 6: Click on "Register" button</t>
+  </si>
+  <si>
+    <t>"The Full Name field is required."
+"The Password field is required." messages should be shown to user</t>
+  </si>
+  <si>
+    <t>RP_TC19</t>
+  </si>
+  <si>
+    <t>Register with empty e-mail three times</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Lyubomir Goychev</t>
+  </si>
+  <si>
+    <t>Ilian Iliev</t>
+  </si>
+  <si>
+    <t>Perar Uzunov</t>
+  </si>
+  <si>
+    <t>Hristo Bahnev</t>
+  </si>
+  <si>
+    <t>Todor Peshin</t>
+  </si>
+  <si>
+    <t>Not Atomated</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1271,27 +1426,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1304,7 +1439,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1367,9 +1502,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1408,7 +1540,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1423,11 +1555,35 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1438,11 +1594,26 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1450,11 +1621,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1486,9 +1657,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1501,37 +1669,38 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="1"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4128,5330 +4297,6966 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R544"/>
+  <dimension ref="A1:T554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A36" sqref="A36"/>
+      <selection pane="topRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="18.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="39"/>
-    <col min="11" max="13" width="13.125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="18" style="37" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="9" style="56" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="56" customWidth="1"/>
+    <col min="12" max="14" width="13.125" style="38" customWidth="1"/>
+    <col min="15" max="15" width="18" style="36" customWidth="1"/>
+    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="I1" s="49"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="I2" s="49"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="12.75">
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="25.5">
       <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="25.5">
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="7"/>
+      <c r="T4" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="23" customFormat="1" ht="25.5">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="22"/>
+      <c r="T5" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="33">
-        <f>COUNTIF(J12:J128,"Pass")</f>
-        <v>30</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="B6" s="32">
+        <f>COUNTIF(I17:I138,"Pass")</f>
+        <v>35</v>
+      </c>
+      <c r="C6" s="32"/>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="10">
-        <f>COUNTIF(J10:J751,"Pending")</f>
+        <f>COUNTIF(I10:I761,"Pending")</f>
         <v>0</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="34">
-        <f>COUNTIF(J12:J128,"Fail")</f>
+      <c r="B7" s="33">
+        <f>COUNTIF(I17:I138,"Fail")</f>
         <v>14</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="15">
-        <f>COUNTIF(A12:A128,"TC*")</f>
+        <f>COUNTIF(A17:A138,"TC*")</f>
         <v>0</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="I8" s="53"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="75" t="s">
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="I9" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="J9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="48" t="s">
+      <c r="K9" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="L9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="71" t="s">
+      <c r="M9" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="O9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="24"/>
-    </row>
-    <row r="10" spans="1:15" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="11" spans="1:15" s="26" customFormat="1" ht="15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="78"/>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A12" s="52" t="s">
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="1:20" s="19" customFormat="1" ht="12" customHeight="1">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" s="26" customFormat="1" ht="15">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="12.75">
+      <c r="A12" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
+    </row>
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="76.5" customHeight="1" outlineLevel="1">
+      <c r="A13" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="45">
+        <v>42841</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O13" s="27"/>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A14" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="45">
+        <v>42841</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A15" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="45">
+        <v>42841</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N15" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A16" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="45">
+        <v>42841</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N16" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O16" s="27"/>
+    </row>
+    <row r="17" spans="1:19" s="3" customFormat="1" ht="12.75">
+      <c r="A17" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="54"/>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A13" s="30" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+    </row>
+    <row r="18" spans="1:19" s="3" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A18" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="45">
+        <v>42841</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N18" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A19" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="29" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E19" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="46">
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="45">
         <v>42841</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="I19" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29" t="s">
+      <c r="J19" s="28"/>
+      <c r="K19" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="L19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="27"/>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A14" s="30" t="s">
+      <c r="M19" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N19" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A20" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="29" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E20" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="46">
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="45">
         <v>42841</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="I20" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29" t="s">
+      <c r="J20" s="28"/>
+      <c r="K20" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="L20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="27"/>
-    </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" ht="89.25" outlineLevel="1">
-      <c r="A15" s="30" t="s">
+      <c r="M20" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A21" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="29" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E21" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="46">
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="45">
         <v>42841</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="I21" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="J21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="K21" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="L21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="27"/>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A16" s="30" t="s">
+      <c r="M21" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N21" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:19" s="3" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A22" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="29" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E22" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="46">
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="45">
         <v>42841</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="I22" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29" t="s">
+      <c r="J22" s="28"/>
+      <c r="K22" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="L22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="27"/>
-    </row>
-    <row r="17" spans="1:18" s="3" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A17" s="30" t="s">
+      <c r="M22" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A23" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="29" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E23" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="46">
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="45">
         <v>42841</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="I23" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="J23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="K23" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="L23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="27"/>
-    </row>
-    <row r="18" spans="1:18" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A18" s="30" t="s">
+      <c r="M23" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A24" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="29" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E24" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="46">
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="45">
         <v>42841</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="I24" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29" t="s">
+      <c r="J24" s="28"/>
+      <c r="K24" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="L24" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="27"/>
-    </row>
-    <row r="19" spans="1:18" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A19" s="30" t="s">
+      <c r="M24" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N24" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A25" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="29" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E25" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="46">
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="45">
         <v>42841</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="I25" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="J25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="K25" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M19" s="29" t="s">
+      <c r="L25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="27"/>
-    </row>
-    <row r="20" spans="1:18" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A20" s="30" t="s">
+      <c r="M25" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N25" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A26" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="29" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E26" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="46">
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="45">
         <v>42841</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="I26" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29" t="s">
+      <c r="J26" s="28"/>
+      <c r="K26" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="L26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="27"/>
-    </row>
-    <row r="21" spans="1:18" s="3" customFormat="1" ht="89.25" outlineLevel="1">
-      <c r="A21" s="30" t="s">
+      <c r="M26" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N26" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A27" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="29" t="s">
+      <c r="C27" s="39"/>
+      <c r="D27" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E27" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="46">
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="45">
         <v>42841</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="I27" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29" t="s">
+      <c r="J27" s="28"/>
+      <c r="K27" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M21" s="29" t="s">
+      <c r="L27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="27"/>
-    </row>
-    <row r="22" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A22" s="30" t="s">
+      <c r="M27" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N27" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A28" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="29" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E28" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="46">
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="45">
         <v>42841</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="I28" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="J28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="K28" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="L28" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="32"/>
-    </row>
-    <row r="23" spans="1:18" s="31" customFormat="1" ht="89.25" outlineLevel="1">
-      <c r="A23" s="30" t="s">
+      <c r="M28" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N28" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="1:19" s="30" customFormat="1" ht="114.75" outlineLevel="1">
+      <c r="A29" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="29" t="s">
+      <c r="C29" s="39"/>
+      <c r="D29" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E29" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="46">
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="45">
         <v>42841</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="I29" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="J29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="K29" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="L29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-    </row>
-    <row r="24" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A24" s="30" t="s">
+      <c r="M29" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N29" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O29" s="41"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+    </row>
+    <row r="30" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A30" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="29" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E30" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="46">
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="45">
         <v>42841</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="I30" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38" t="s">
+      <c r="J30" s="37"/>
+      <c r="K30" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="L30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="32"/>
-    </row>
-    <row r="25" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A25" s="30" t="s">
+      <c r="M30" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N30" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A31" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B31" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="29" t="s">
+      <c r="C31" s="39"/>
+      <c r="D31" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E31" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="46">
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="45">
         <v>42841</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="I31" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38" t="s">
+      <c r="J31" s="37"/>
+      <c r="K31" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="L31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="32"/>
-    </row>
-    <row r="26" spans="1:18" s="31" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A26" s="30" t="s">
+      <c r="M31" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N31" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" s="31"/>
+    </row>
+    <row r="32" spans="1:19" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A32" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="29" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E32" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="46">
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="45">
         <v>42841</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="I32" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38" t="s">
+      <c r="J32" s="37"/>
+      <c r="K32" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M26" s="29" t="s">
+      <c r="L32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" spans="1:18" s="31" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A27" s="30" t="s">
+      <c r="M32" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N32" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" s="31"/>
+    </row>
+    <row r="33" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A33" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B33" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="29" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E33" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="46">
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="45">
         <v>42841</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="I33" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38" t="s">
+      <c r="J33" s="37"/>
+      <c r="K33" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="L33" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="32"/>
-    </row>
-    <row r="28" spans="1:18" s="3" customFormat="1" ht="12.75">
-      <c r="A28" s="52" t="s">
+      <c r="M33" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N33" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A34" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="45">
+        <v>42841</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N34" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A35" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="45">
+        <v>42841</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N35" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" s="31"/>
+    </row>
+    <row r="36" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A36" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="45">
+        <v>42841</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="37"/>
+      <c r="K36" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N36" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A37" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="45">
+        <v>42841</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N37" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A38" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="54"/>
-    </row>
-    <row r="29" spans="1:18" s="31" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A29" s="30" t="s">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="61"/>
+    </row>
+    <row r="39" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A39" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C39" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E39" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="46">
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="45">
         <v>42843</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="I39" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38" t="s">
+      <c r="J39" s="37"/>
+      <c r="K39" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="L39" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="32"/>
-    </row>
-    <row r="30" spans="1:18" s="31" customFormat="1" ht="51" outlineLevel="1">
-      <c r="A30" s="30" t="s">
+      <c r="M39" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N39" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" s="31"/>
+    </row>
+    <row r="40" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
+      <c r="A40" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B40" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="29" t="s">
+      <c r="C40" s="31"/>
+      <c r="D40" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E40" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="46">
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="45">
         <v>42843</v>
       </c>
-      <c r="J30" s="29" t="s">
+      <c r="I40" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38" t="s">
+      <c r="J40" s="37"/>
+      <c r="K40" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M30" s="29" t="s">
+      <c r="L40" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="32"/>
-    </row>
-    <row r="31" spans="1:18" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A31" s="30" t="s">
+      <c r="M40" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N40" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" s="31"/>
+    </row>
+    <row r="41" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A41" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C41" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D41" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E41" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="46">
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="45">
         <v>42843</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="I41" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38" t="s">
+      <c r="J41" s="37"/>
+      <c r="K41" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M31" s="29" t="s">
+      <c r="L41" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N31" s="32"/>
-    </row>
-    <row r="32" spans="1:18" s="31" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A32" s="30" t="s">
+      <c r="M41" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N41" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" s="31"/>
+    </row>
+    <row r="42" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A42" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B42" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C42" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D42" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E42" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="46">
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="45">
         <v>42843</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="I42" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38" t="s">
+      <c r="J42" s="37"/>
+      <c r="K42" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M32" s="29" t="s">
+      <c r="L42" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="32"/>
-    </row>
-    <row r="33" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A33" s="30" t="s">
+      <c r="M42" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N42" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O42" s="31"/>
+    </row>
+    <row r="43" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A43" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="29" t="s">
+      <c r="C43" s="31"/>
+      <c r="D43" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E43" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="46">
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="45">
         <v>42869</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="I43" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38" t="s">
+      <c r="J43" s="37"/>
+      <c r="K43" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M33" s="29" t="s">
+      <c r="L43" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N33" s="32"/>
-    </row>
-    <row r="34" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A34" s="30" t="s">
+      <c r="M43" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N43" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O43" s="31"/>
+    </row>
+    <row r="44" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A44" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B44" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C44" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D44" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E44" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="46">
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="45">
         <v>42843</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="I44" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38" t="s">
+      <c r="J44" s="37"/>
+      <c r="K44" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M34" s="29" t="s">
+      <c r="L44" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N34" s="32"/>
-    </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" ht="12.75">
-      <c r="A35" s="52" t="s">
+      <c r="M44" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="N44" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O44" s="31"/>
+    </row>
+    <row r="45" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A45" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="54"/>
-    </row>
-    <row r="36" spans="1:14" s="31" customFormat="1" ht="140.25" outlineLevel="1">
-      <c r="A36" s="30" t="s">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="61"/>
+    </row>
+    <row r="46" spans="1:15" s="30" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="A46" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C46" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E46" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="46">
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="45">
         <v>42843</v>
       </c>
-      <c r="J36" s="29" t="s">
+      <c r="I46" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38" t="s">
+      <c r="J46" s="37"/>
+      <c r="K46" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="M36" s="29" t="s">
+      <c r="L46" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N36" s="32"/>
-    </row>
-    <row r="37" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
-      <c r="A37" s="30" t="s">
+      <c r="M46" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N46" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O46" s="31"/>
+    </row>
+    <row r="47" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
+      <c r="A47" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C47" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D47" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E47" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="46">
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="45">
         <v>42843</v>
       </c>
-      <c r="J37" s="29" t="s">
+      <c r="I47" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38" t="s">
+      <c r="J47" s="37"/>
+      <c r="K47" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M37" s="29" t="s">
+      <c r="L47" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N37" s="32"/>
-    </row>
-    <row r="38" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
-      <c r="A38" s="30" t="s">
+      <c r="M47" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N47" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O47" s="31"/>
+    </row>
+    <row r="48" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A48" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C48" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D48" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E48" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="46">
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="45">
         <v>42843</v>
       </c>
-      <c r="J38" s="29" t="s">
+      <c r="I48" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38" t="s">
+      <c r="J48" s="37"/>
+      <c r="K48" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M38" s="29" t="s">
+      <c r="L48" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N38" s="32"/>
-    </row>
-    <row r="39" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
-      <c r="A39" s="30" t="s">
+      <c r="M48" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N48" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O48" s="31"/>
+    </row>
+    <row r="49" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A49" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C49" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D49" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E49" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="46">
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="45">
         <v>42843</v>
       </c>
-      <c r="J39" s="29" t="s">
+      <c r="I49" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="47" t="s">
+      <c r="J49" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="L39" s="38" t="s">
+      <c r="K49" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M39" s="29" t="s">
+      <c r="L49" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N39" s="32"/>
-    </row>
-    <row r="40" spans="1:14" s="31" customFormat="1" ht="102" outlineLevel="1">
-      <c r="A40" s="30" t="s">
+      <c r="M49" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N49" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O49" s="31"/>
+    </row>
+    <row r="50" spans="1:15" s="30" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A50" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C50" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D50" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="55" t="s">
+      <c r="E50" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="46">
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="45">
         <v>42843</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="I50" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="47"/>
-      <c r="L40" s="38" t="s">
+      <c r="J50" s="46"/>
+      <c r="K50" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="L50" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="32"/>
-    </row>
-    <row r="41" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A41" s="30" t="s">
+      <c r="M50" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N50" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O50" s="31"/>
+    </row>
+    <row r="51" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A51" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C51" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D51" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E51" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="46">
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="45">
         <v>42843</v>
       </c>
-      <c r="J41" s="29" t="s">
+      <c r="I51" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K41" s="47" t="s">
+      <c r="J51" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="L41" s="38" t="s">
+      <c r="K51" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="L51" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N41" s="32"/>
-    </row>
-    <row r="42" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A42" s="30" t="s">
+      <c r="M51" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N51" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O51" s="31"/>
+    </row>
+    <row r="52" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A52" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B52" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C52" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D52" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E52" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="46">
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="45">
         <v>42843</v>
       </c>
-      <c r="J42" s="29" t="s">
+      <c r="I52" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="47" t="s">
+      <c r="J52" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="L42" s="38" t="s">
+      <c r="K52" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M42" s="29" t="s">
+      <c r="L52" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="32"/>
-    </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" ht="12.75">
-      <c r="A43" s="52" t="s">
+      <c r="M52" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N52" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O52" s="31"/>
+    </row>
+    <row r="53" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A53" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="54"/>
-    </row>
-    <row r="44" spans="1:14" s="31" customFormat="1" ht="165.75" outlineLevel="1">
-      <c r="A44" s="30" t="s">
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="61"/>
+    </row>
+    <row r="54" spans="1:15" s="30" customFormat="1" ht="165.75" outlineLevel="1">
+      <c r="A54" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B54" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C54" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D54" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E54" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="46">
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="45">
         <v>42843</v>
       </c>
-      <c r="J44" s="29" t="s">
+      <c r="I54" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38" t="s">
+      <c r="J54" s="37"/>
+      <c r="K54" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M44" s="29" t="s">
+      <c r="L54" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N44" s="32"/>
-    </row>
-    <row r="45" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
-      <c r="A45" s="30" t="s">
+      <c r="M54" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N54" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O54" s="31"/>
+    </row>
+    <row r="55" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
+      <c r="A55" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B55" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C55" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D55" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E55" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="46">
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="45">
         <v>42843</v>
       </c>
-      <c r="J45" s="29" t="s">
+      <c r="I55" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K45" s="47" t="s">
+      <c r="J55" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="L45" s="38" t="s">
+      <c r="K55" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M45" s="29" t="s">
+      <c r="L55" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="32"/>
-    </row>
-    <row r="46" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
-      <c r="A46" s="30" t="s">
+      <c r="M55" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N55" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O55" s="31"/>
+    </row>
+    <row r="56" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
+      <c r="A56" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B56" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C56" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D56" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E56" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="46">
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="45">
         <v>42843</v>
       </c>
-      <c r="J46" s="29" t="s">
+      <c r="I56" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38" t="s">
+      <c r="J56" s="37"/>
+      <c r="K56" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="L56" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N46" s="32"/>
-    </row>
-    <row r="47" spans="1:14" s="31" customFormat="1" ht="114.75" outlineLevel="1">
-      <c r="A47" s="30" t="s">
+      <c r="M56" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N56" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O56" s="31"/>
+    </row>
+    <row r="57" spans="1:15" s="30" customFormat="1" ht="127.5" outlineLevel="1">
+      <c r="A57" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B57" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C57" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D57" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E57" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="46">
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="45">
         <v>42843</v>
       </c>
-      <c r="J47" s="29" t="s">
+      <c r="I57" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K47" s="47" t="s">
+      <c r="J57" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="L47" s="38" t="s">
+      <c r="K57" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M47" s="29" t="s">
+      <c r="L57" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="32"/>
-    </row>
-    <row r="48" spans="1:14" s="31" customFormat="1" ht="114.75" outlineLevel="1">
-      <c r="A48" s="30" t="s">
+      <c r="M57" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N57" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O57" s="31"/>
+    </row>
+    <row r="58" spans="1:15" s="30" customFormat="1" ht="114.75" outlineLevel="1">
+      <c r="A58" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B58" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C58" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D58" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="55" t="s">
+      <c r="E58" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="46">
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="45">
         <v>42843</v>
       </c>
-      <c r="J48" s="29" t="s">
+      <c r="I58" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K48" s="47" t="s">
+      <c r="J58" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="L48" s="38" t="s">
+      <c r="K58" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M48" s="29" t="s">
+      <c r="L58" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="32"/>
-    </row>
-    <row r="49" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A49" s="30" t="s">
+      <c r="M58" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N58" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O58" s="31"/>
+    </row>
+    <row r="59" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A59" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B59" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C59" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D59" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E59" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="46">
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="45">
         <v>42843</v>
       </c>
-      <c r="J49" s="29" t="s">
+      <c r="I59" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47" t="s">
+      <c r="J59" s="46"/>
+      <c r="K59" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M49" s="29" t="s">
+      <c r="L59" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="32"/>
-    </row>
-    <row r="50" spans="1:14" s="31" customFormat="1" ht="89.25" outlineLevel="1">
-      <c r="A50" s="30" t="s">
+      <c r="M59" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N59" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O59" s="31"/>
+    </row>
+    <row r="60" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A60" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B60" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C60" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D60" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="55" t="s">
+      <c r="E60" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="46">
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="45">
         <v>42843</v>
       </c>
-      <c r="J50" s="29" t="s">
+      <c r="I60" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K50" s="47" t="s">
+      <c r="J60" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="L50" s="47" t="s">
+      <c r="K60" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="L60" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N50" s="32"/>
-    </row>
-    <row r="51" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A51" s="30" t="s">
+      <c r="M60" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N60" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O60" s="31"/>
+    </row>
+    <row r="61" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A61" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B61" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C61" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D61" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E61" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="46">
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="45">
         <v>42843</v>
       </c>
-      <c r="J51" s="29" t="s">
+      <c r="I61" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K51" s="47" t="s">
+      <c r="J61" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="L51" s="47" t="s">
+      <c r="K61" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M51" s="29" t="s">
+      <c r="L61" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N51" s="32"/>
-    </row>
-    <row r="52" spans="1:14" s="31" customFormat="1" ht="51" outlineLevel="1">
-      <c r="A52" s="30" t="s">
+      <c r="M61" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N61" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O61" s="31"/>
+    </row>
+    <row r="62" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
+      <c r="A62" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B62" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C62" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D62" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="55" t="s">
+      <c r="E62" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="46">
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="45">
         <v>42843</v>
       </c>
-      <c r="J52" s="29" t="s">
+      <c r="I62" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47" t="s">
+      <c r="J62" s="46"/>
+      <c r="K62" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M52" s="29" t="s">
+      <c r="L62" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N52" s="32"/>
-    </row>
-    <row r="53" spans="1:14" s="31" customFormat="1" ht="153" outlineLevel="1">
-      <c r="A53" s="30" t="s">
+      <c r="M62" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N62" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O62" s="31"/>
+    </row>
+    <row r="63" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
+      <c r="A63" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B63" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C63" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D63" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="E53" s="55" t="s">
+      <c r="E63" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="46">
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="45">
         <v>42843</v>
       </c>
-      <c r="J53" s="29" t="s">
+      <c r="I63" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38" t="s">
+      <c r="J63" s="37"/>
+      <c r="K63" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M53" s="29" t="s">
+      <c r="L63" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N53" s="32"/>
-    </row>
-    <row r="54" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A54" s="30" t="s">
+      <c r="M63" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N63" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O63" s="31"/>
+    </row>
+    <row r="64" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A64" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B64" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C64" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E54" s="55" t="s">
+      <c r="E64" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="46">
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="45">
         <v>42843</v>
       </c>
-      <c r="J54" s="29" t="s">
+      <c r="I64" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47" t="s">
+      <c r="J64" s="46"/>
+      <c r="K64" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="M54" s="29" t="s">
+      <c r="L64" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N54" s="32"/>
-    </row>
-    <row r="55" spans="1:14" s="3" customFormat="1" ht="12.75">
-      <c r="A55" s="52" t="s">
+      <c r="M64" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N64" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O64" s="31"/>
+    </row>
+    <row r="65" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A65" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="54"/>
-    </row>
-    <row r="56" spans="1:14" s="31" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A56" s="30" t="s">
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="61"/>
+    </row>
+    <row r="66" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A66" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B66" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C66" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D66" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="E56" s="55" t="s">
+      <c r="E66" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="46">
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="45">
         <v>42847</v>
       </c>
-      <c r="J56" s="29" t="s">
+      <c r="I66" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47" t="s">
+      <c r="J66" s="46"/>
+      <c r="K66" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M56" s="29" t="s">
+      <c r="L66" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N56" s="32"/>
-    </row>
-    <row r="57" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A57" s="30" t="s">
+      <c r="M66" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N66" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O66" s="31"/>
+    </row>
+    <row r="67" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A67" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B67" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C67" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D67" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E67" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="46">
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="45">
         <v>42847</v>
       </c>
-      <c r="J57" s="29" t="s">
+      <c r="I67" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47" t="s">
+      <c r="J67" s="46"/>
+      <c r="K67" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M57" s="29" t="s">
+      <c r="L67" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N57" s="32"/>
-    </row>
-    <row r="58" spans="1:14" s="31" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A58" s="30" t="s">
+      <c r="M67" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N67" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O67" s="31"/>
+    </row>
+    <row r="68" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A68" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B68" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C68" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D68" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E68" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="46">
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="45">
         <v>42847</v>
       </c>
-      <c r="J58" s="29" t="s">
+      <c r="I68" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47" t="s">
+      <c r="J68" s="46"/>
+      <c r="K68" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M58" s="29" t="s">
+      <c r="L68" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N58" s="32"/>
-    </row>
-    <row r="59" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A59" s="30" t="s">
+      <c r="M68" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N68" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O68" s="31"/>
+    </row>
+    <row r="69" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A69" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B69" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C69" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D69" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E69" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="46">
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="45">
         <v>42847</v>
       </c>
-      <c r="J59" s="29" t="s">
+      <c r="I69" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K59" s="47" t="s">
+      <c r="J69" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="L59" s="47" t="s">
+      <c r="K69" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M59" s="29" t="s">
+      <c r="L69" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N59" s="32"/>
-    </row>
-    <row r="60" spans="1:14" s="31" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A60" s="30" t="s">
+      <c r="M69" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N69" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O69" s="31"/>
+    </row>
+    <row r="70" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A70" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B70" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C70" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D70" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E70" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="46">
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="45">
         <v>42847</v>
       </c>
-      <c r="J60" s="29" t="s">
+      <c r="I70" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47" t="s">
+      <c r="J70" s="46"/>
+      <c r="K70" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M60" s="29" t="s">
+      <c r="L70" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N60" s="32"/>
-    </row>
-    <row r="61" spans="1:14" ht="12" customHeight="1">
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-    </row>
-    <row r="62" spans="1:14" ht="12" customHeight="1">
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-    </row>
-    <row r="63" spans="1:14" ht="12" customHeight="1">
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-    </row>
-    <row r="64" spans="1:14" ht="12" customHeight="1">
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-    </row>
-    <row r="65" spans="2:14" ht="12" customHeight="1">
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-    </row>
-    <row r="66" spans="2:14" ht="12" customHeight="1">
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-    </row>
-    <row r="67" spans="2:14" ht="12" customHeight="1">
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="2:14" ht="12" customHeight="1">
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-    </row>
-    <row r="69" spans="2:14" ht="12" customHeight="1">
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-    </row>
-    <row r="70" spans="2:14" ht="12" customHeight="1">
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-    </row>
-    <row r="71" spans="2:14" ht="13.5">
+      <c r="M70" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="N70" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O70" s="31"/>
+    </row>
+    <row r="71" spans="1:15" ht="12" customHeight="1">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="I71" s="55"/>
       <c r="J71"/>
-      <c r="K71"/>
+      <c r="K71" s="55"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
-    </row>
-    <row r="72" spans="2:14" ht="13.5">
+      <c r="O71"/>
+    </row>
+    <row r="72" spans="1:15" ht="12" customHeight="1">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="I72" s="55"/>
       <c r="J72"/>
-      <c r="K72"/>
+      <c r="K72" s="55"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
-    </row>
-    <row r="73" spans="2:14" ht="13.5">
+      <c r="O72"/>
+    </row>
+    <row r="73" spans="1:15" ht="12" customHeight="1">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="I73" s="55"/>
       <c r="J73"/>
-      <c r="K73"/>
+      <c r="K73" s="55"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
-    </row>
-    <row r="74" spans="2:14" ht="13.5">
+      <c r="O73"/>
+    </row>
+    <row r="74" spans="1:15" ht="12" customHeight="1">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="I74" s="55"/>
       <c r="J74"/>
-      <c r="K74"/>
+      <c r="K74" s="55"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
-    </row>
-    <row r="75" spans="2:14" ht="13.5">
+      <c r="O74"/>
+    </row>
+    <row r="75" spans="1:15" ht="12" customHeight="1">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="I75" s="55"/>
       <c r="J75"/>
-      <c r="K75"/>
+      <c r="K75" s="55"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
-    </row>
-    <row r="76" spans="2:14" ht="13.5">
+      <c r="O75"/>
+    </row>
+    <row r="76" spans="1:15" ht="12" customHeight="1">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="I76" s="55"/>
       <c r="J76"/>
-      <c r="K76"/>
+      <c r="K76" s="55"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
-    </row>
-    <row r="77" spans="2:14" ht="13.5">
+      <c r="O76"/>
+    </row>
+    <row r="77" spans="1:15" ht="12" customHeight="1">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="I77" s="55"/>
       <c r="J77"/>
-      <c r="K77"/>
+      <c r="K77" s="55"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
-    </row>
-    <row r="78" spans="2:14" ht="13.5">
+      <c r="O77"/>
+    </row>
+    <row r="78" spans="1:15" ht="12" customHeight="1">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="I78" s="55"/>
       <c r="J78"/>
-      <c r="K78"/>
+      <c r="K78" s="55"/>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
-    </row>
-    <row r="79" spans="2:14" ht="13.5">
+      <c r="O78"/>
+    </row>
+    <row r="79" spans="1:15" ht="12" customHeight="1">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="I79" s="55"/>
       <c r="J79"/>
-      <c r="K79"/>
+      <c r="K79" s="55"/>
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79"/>
-    </row>
-    <row r="80" spans="2:14" ht="13.5">
+      <c r="O79"/>
+    </row>
+    <row r="80" spans="1:15" ht="12" customHeight="1">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="I80" s="55"/>
       <c r="J80"/>
-      <c r="K80"/>
+      <c r="K80" s="55"/>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
-    </row>
-    <row r="81" spans="10:14" ht="13.5">
+      <c r="O80"/>
+    </row>
+    <row r="81" spans="9:15" ht="13.5">
+      <c r="I81" s="55"/>
       <c r="J81"/>
-      <c r="K81"/>
+      <c r="K81" s="55"/>
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
-    </row>
-    <row r="82" spans="10:14" ht="13.5">
+      <c r="O81"/>
+    </row>
+    <row r="82" spans="9:15" ht="13.5">
+      <c r="I82" s="55"/>
       <c r="J82"/>
-      <c r="K82"/>
+      <c r="K82" s="55"/>
       <c r="L82"/>
       <c r="M82"/>
       <c r="N82"/>
-    </row>
-    <row r="83" spans="10:14" ht="13.5">
+      <c r="O82"/>
+    </row>
+    <row r="83" spans="9:15" ht="13.5">
+      <c r="I83" s="55"/>
       <c r="J83"/>
-      <c r="K83"/>
+      <c r="K83" s="55"/>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
-    </row>
-    <row r="84" spans="10:14" ht="13.5">
+      <c r="O83"/>
+    </row>
+    <row r="84" spans="9:15" ht="13.5">
+      <c r="I84" s="55"/>
       <c r="J84"/>
-      <c r="K84"/>
+      <c r="K84" s="55"/>
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
-    </row>
-    <row r="85" spans="10:14" ht="13.5">
+      <c r="O84"/>
+    </row>
+    <row r="85" spans="9:15" ht="13.5">
+      <c r="I85" s="55"/>
       <c r="J85"/>
-      <c r="K85"/>
+      <c r="K85" s="55"/>
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85"/>
-    </row>
-    <row r="86" spans="10:14" ht="13.5">
+      <c r="O85"/>
+    </row>
+    <row r="86" spans="9:15" ht="13.5">
+      <c r="I86" s="55"/>
       <c r="J86"/>
-      <c r="K86"/>
+      <c r="K86" s="55"/>
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86"/>
-    </row>
-    <row r="87" spans="10:14" ht="13.5">
+      <c r="O86"/>
+    </row>
+    <row r="87" spans="9:15" ht="13.5">
+      <c r="I87" s="55"/>
       <c r="J87"/>
-      <c r="K87"/>
+      <c r="K87" s="55"/>
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87"/>
-    </row>
-    <row r="88" spans="10:14" ht="13.5">
+      <c r="O87"/>
+    </row>
+    <row r="88" spans="9:15" ht="13.5">
+      <c r="I88" s="55"/>
       <c r="J88"/>
-      <c r="K88"/>
+      <c r="K88" s="55"/>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88"/>
-    </row>
-    <row r="89" spans="10:14" ht="13.5">
+      <c r="O88"/>
+    </row>
+    <row r="89" spans="9:15" ht="13.5">
+      <c r="I89" s="55"/>
       <c r="J89"/>
-      <c r="K89"/>
+      <c r="K89" s="55"/>
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
-    </row>
-    <row r="90" spans="10:14" ht="13.5">
+      <c r="O89"/>
+    </row>
+    <row r="90" spans="9:15" ht="13.5">
+      <c r="I90" s="55"/>
       <c r="J90"/>
-      <c r="K90"/>
+      <c r="K90" s="55"/>
       <c r="L90"/>
       <c r="M90"/>
       <c r="N90"/>
-    </row>
-    <row r="91" spans="10:14" ht="13.5">
+      <c r="O90"/>
+    </row>
+    <row r="91" spans="9:15" ht="13.5">
+      <c r="I91" s="55"/>
       <c r="J91"/>
-      <c r="K91"/>
+      <c r="K91" s="55"/>
       <c r="L91"/>
       <c r="M91"/>
       <c r="N91"/>
-    </row>
-    <row r="92" spans="10:14" ht="13.5">
+      <c r="O91"/>
+    </row>
+    <row r="92" spans="9:15" ht="13.5">
+      <c r="I92" s="55"/>
       <c r="J92"/>
-      <c r="K92"/>
+      <c r="K92" s="55"/>
       <c r="L92"/>
       <c r="M92"/>
       <c r="N92"/>
-    </row>
-    <row r="93" spans="10:14" ht="13.5">
+      <c r="O92"/>
+    </row>
+    <row r="93" spans="9:15" ht="13.5">
+      <c r="I93" s="55"/>
       <c r="J93"/>
-      <c r="K93"/>
+      <c r="K93" s="55"/>
       <c r="L93"/>
       <c r="M93"/>
       <c r="N93"/>
-    </row>
-    <row r="94" spans="10:14" ht="13.5">
+      <c r="O93"/>
+    </row>
+    <row r="94" spans="9:15" ht="13.5">
+      <c r="I94" s="55"/>
       <c r="J94"/>
-      <c r="K94"/>
+      <c r="K94" s="55"/>
       <c r="L94"/>
       <c r="M94"/>
       <c r="N94"/>
-    </row>
-    <row r="95" spans="10:14" ht="13.5">
+      <c r="O94"/>
+    </row>
+    <row r="95" spans="9:15" ht="13.5">
+      <c r="I95" s="55"/>
       <c r="J95"/>
-      <c r="K95"/>
+      <c r="K95" s="55"/>
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95"/>
-    </row>
-    <row r="96" spans="10:14" ht="13.5">
+      <c r="O95"/>
+    </row>
+    <row r="96" spans="9:15" ht="13.5">
+      <c r="I96" s="55"/>
       <c r="J96"/>
-      <c r="K96"/>
+      <c r="K96" s="55"/>
       <c r="L96"/>
       <c r="M96"/>
       <c r="N96"/>
-    </row>
-    <row r="97" spans="10:14" ht="13.5">
+      <c r="O96"/>
+    </row>
+    <row r="97" spans="9:15" ht="13.5">
+      <c r="I97" s="55"/>
       <c r="J97"/>
-      <c r="K97"/>
+      <c r="K97" s="55"/>
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97"/>
-    </row>
-    <row r="98" spans="10:14" ht="13.5">
+      <c r="O97"/>
+    </row>
+    <row r="98" spans="9:15" ht="13.5">
+      <c r="I98" s="55"/>
       <c r="J98"/>
-      <c r="K98"/>
+      <c r="K98" s="55"/>
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
-    </row>
-    <row r="99" spans="10:14" ht="13.5">
+      <c r="O98"/>
+    </row>
+    <row r="99" spans="9:15" ht="13.5">
+      <c r="I99" s="55"/>
       <c r="J99"/>
-      <c r="K99"/>
+      <c r="K99" s="55"/>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
-    </row>
-    <row r="100" spans="10:14" ht="13.5">
+      <c r="O99"/>
+    </row>
+    <row r="100" spans="9:15" ht="13.5">
+      <c r="I100" s="55"/>
       <c r="J100"/>
-      <c r="K100"/>
+      <c r="K100" s="55"/>
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100"/>
-    </row>
-    <row r="101" spans="10:14" ht="13.5">
+      <c r="O100"/>
+    </row>
+    <row r="101" spans="9:15" ht="13.5">
+      <c r="I101" s="55"/>
       <c r="J101"/>
-      <c r="K101"/>
+      <c r="K101" s="55"/>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
-    </row>
-    <row r="102" spans="10:14" ht="13.5">
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="9:15" ht="13.5">
+      <c r="I102" s="55"/>
       <c r="J102"/>
-      <c r="K102"/>
+      <c r="K102" s="55"/>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
-    </row>
-    <row r="103" spans="10:14" ht="13.5">
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="9:15" ht="13.5">
+      <c r="I103" s="55"/>
       <c r="J103"/>
-      <c r="K103"/>
+      <c r="K103" s="55"/>
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
-    </row>
-    <row r="104" spans="10:14" ht="13.5">
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="9:15" ht="13.5">
+      <c r="I104" s="55"/>
       <c r="J104"/>
-      <c r="K104"/>
+      <c r="K104" s="55"/>
       <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
-    </row>
-    <row r="105" spans="10:14" ht="13.5">
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="9:15" ht="13.5">
+      <c r="I105" s="55"/>
       <c r="J105"/>
-      <c r="K105"/>
+      <c r="K105" s="55"/>
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
-    </row>
-    <row r="106" spans="10:14" ht="13.5">
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="9:15" ht="13.5">
+      <c r="I106" s="55"/>
       <c r="J106"/>
-      <c r="K106"/>
+      <c r="K106" s="55"/>
       <c r="L106"/>
       <c r="M106"/>
       <c r="N106"/>
-    </row>
-    <row r="107" spans="10:14" ht="13.5">
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="9:15" ht="13.5">
+      <c r="I107" s="55"/>
       <c r="J107"/>
-      <c r="K107"/>
+      <c r="K107" s="55"/>
       <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
-    </row>
-    <row r="108" spans="10:14" ht="13.5">
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="9:15" ht="13.5">
+      <c r="I108" s="55"/>
       <c r="J108"/>
-      <c r="K108"/>
+      <c r="K108" s="55"/>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
-    </row>
-    <row r="109" spans="10:14" ht="13.5">
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="9:15" ht="13.5">
+      <c r="I109" s="55"/>
       <c r="J109"/>
-      <c r="K109"/>
+      <c r="K109" s="55"/>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
-    </row>
-    <row r="110" spans="10:14" ht="13.5">
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="9:15" ht="13.5">
+      <c r="I110" s="55"/>
       <c r="J110"/>
-      <c r="K110"/>
+      <c r="K110" s="55"/>
       <c r="L110"/>
       <c r="M110"/>
       <c r="N110"/>
-    </row>
-    <row r="111" spans="10:14" ht="13.5">
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="9:15" ht="13.5">
+      <c r="I111" s="55"/>
       <c r="J111"/>
-      <c r="K111"/>
+      <c r="K111" s="55"/>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
-    </row>
-    <row r="112" spans="10:14" ht="13.5">
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="9:15" ht="13.5">
+      <c r="I112" s="55"/>
       <c r="J112"/>
-      <c r="K112"/>
+      <c r="K112" s="55"/>
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
-    </row>
-    <row r="113" spans="10:14" ht="13.5">
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="9:15" ht="13.5">
+      <c r="I113" s="55"/>
       <c r="J113"/>
-      <c r="K113"/>
+      <c r="K113" s="55"/>
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
-    </row>
-    <row r="114" spans="10:14" ht="13.5">
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="9:15" ht="13.5">
+      <c r="I114" s="55"/>
       <c r="J114"/>
-      <c r="K114"/>
+      <c r="K114" s="55"/>
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114"/>
-    </row>
-    <row r="115" spans="10:14" ht="13.5">
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="9:15" ht="13.5">
+      <c r="I115" s="55"/>
       <c r="J115"/>
-      <c r="K115"/>
+      <c r="K115" s="55"/>
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115"/>
-    </row>
-    <row r="116" spans="10:14" ht="13.5">
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="9:15" ht="13.5">
+      <c r="I116" s="55"/>
       <c r="J116"/>
-      <c r="K116"/>
+      <c r="K116" s="55"/>
       <c r="L116"/>
       <c r="M116"/>
       <c r="N116"/>
-    </row>
-    <row r="117" spans="10:14" ht="13.5">
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="9:15" ht="13.5">
+      <c r="I117" s="55"/>
       <c r="J117"/>
-      <c r="K117"/>
+      <c r="K117" s="55"/>
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
-    </row>
-    <row r="118" spans="10:14" ht="13.5">
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="9:15" ht="13.5">
+      <c r="I118" s="55"/>
       <c r="J118"/>
-      <c r="K118"/>
+      <c r="K118" s="55"/>
       <c r="L118"/>
       <c r="M118"/>
       <c r="N118"/>
-    </row>
-    <row r="119" spans="10:14" ht="13.5">
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="9:15" ht="13.5">
+      <c r="I119" s="55"/>
       <c r="J119"/>
-      <c r="K119"/>
+      <c r="K119" s="55"/>
       <c r="L119"/>
       <c r="M119"/>
       <c r="N119"/>
-    </row>
-    <row r="120" spans="10:14" ht="13.5">
+      <c r="O119"/>
+    </row>
+    <row r="120" spans="9:15" ht="13.5">
+      <c r="I120" s="55"/>
       <c r="J120"/>
-      <c r="K120"/>
+      <c r="K120" s="55"/>
       <c r="L120"/>
       <c r="M120"/>
       <c r="N120"/>
-    </row>
-    <row r="121" spans="10:14" ht="13.5">
+      <c r="O120"/>
+    </row>
+    <row r="121" spans="9:15" ht="13.5">
+      <c r="I121" s="55"/>
       <c r="J121"/>
-      <c r="K121"/>
+      <c r="K121" s="55"/>
       <c r="L121"/>
       <c r="M121"/>
       <c r="N121"/>
-    </row>
-    <row r="122" spans="10:14" ht="13.5">
+      <c r="O121"/>
+    </row>
+    <row r="122" spans="9:15" ht="13.5">
+      <c r="I122" s="55"/>
       <c r="J122"/>
-      <c r="K122"/>
+      <c r="K122" s="55"/>
       <c r="L122"/>
       <c r="M122"/>
       <c r="N122"/>
-    </row>
-    <row r="123" spans="10:14" ht="13.5">
+      <c r="O122"/>
+    </row>
+    <row r="123" spans="9:15" ht="13.5">
+      <c r="I123" s="55"/>
       <c r="J123"/>
-      <c r="K123"/>
+      <c r="K123" s="55"/>
       <c r="L123"/>
       <c r="M123"/>
       <c r="N123"/>
-    </row>
-    <row r="124" spans="10:14" ht="13.5">
+      <c r="O123"/>
+    </row>
+    <row r="124" spans="9:15" ht="13.5">
+      <c r="I124" s="55"/>
       <c r="J124"/>
-      <c r="K124"/>
+      <c r="K124" s="55"/>
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
-    </row>
-    <row r="125" spans="10:14" ht="13.5">
+      <c r="O124"/>
+    </row>
+    <row r="125" spans="9:15" ht="13.5">
+      <c r="I125" s="55"/>
       <c r="J125"/>
-      <c r="K125"/>
+      <c r="K125" s="55"/>
       <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
-    </row>
-    <row r="126" spans="10:14" ht="13.5">
+      <c r="O125"/>
+    </row>
+    <row r="126" spans="9:15" ht="13.5">
+      <c r="I126" s="55"/>
       <c r="J126"/>
-      <c r="K126"/>
+      <c r="K126" s="55"/>
       <c r="L126"/>
       <c r="M126"/>
       <c r="N126"/>
-    </row>
-    <row r="127" spans="10:14" ht="13.5">
+      <c r="O126"/>
+    </row>
+    <row r="127" spans="9:15" ht="13.5">
+      <c r="I127" s="55"/>
       <c r="J127"/>
-      <c r="K127"/>
+      <c r="K127" s="55"/>
       <c r="L127"/>
       <c r="M127"/>
       <c r="N127"/>
-    </row>
-    <row r="128" spans="10:14" ht="13.5">
+      <c r="O127"/>
+    </row>
+    <row r="128" spans="9:15" ht="13.5">
+      <c r="I128" s="55"/>
       <c r="J128"/>
-      <c r="K128"/>
+      <c r="K128" s="55"/>
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
-    </row>
-    <row r="129" spans="10:14" ht="13.5">
+      <c r="O128"/>
+    </row>
+    <row r="129" spans="9:15" ht="13.5">
+      <c r="I129" s="55"/>
       <c r="J129"/>
-      <c r="K129"/>
+      <c r="K129" s="55"/>
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
-    </row>
-    <row r="130" spans="10:14" ht="13.5">
+      <c r="O129"/>
+    </row>
+    <row r="130" spans="9:15" ht="13.5">
+      <c r="I130" s="55"/>
       <c r="J130"/>
-      <c r="K130"/>
+      <c r="K130" s="55"/>
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
-    </row>
-    <row r="131" spans="10:14" ht="13.5">
+      <c r="O130"/>
+    </row>
+    <row r="131" spans="9:15" ht="13.5">
+      <c r="I131" s="55"/>
       <c r="J131"/>
-      <c r="K131"/>
+      <c r="K131" s="55"/>
       <c r="L131"/>
       <c r="M131"/>
       <c r="N131"/>
-    </row>
-    <row r="132" spans="10:14" ht="13.5">
+      <c r="O131"/>
+    </row>
+    <row r="132" spans="9:15" ht="13.5">
+      <c r="I132" s="55"/>
       <c r="J132"/>
-      <c r="K132"/>
+      <c r="K132" s="55"/>
       <c r="L132"/>
       <c r="M132"/>
       <c r="N132"/>
-    </row>
-    <row r="133" spans="10:14" ht="13.5">
+      <c r="O132"/>
+    </row>
+    <row r="133" spans="9:15" ht="13.5">
+      <c r="I133" s="55"/>
       <c r="J133"/>
-      <c r="K133"/>
+      <c r="K133" s="55"/>
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
-    </row>
-    <row r="134" spans="10:14" ht="13.5">
+      <c r="O133"/>
+    </row>
+    <row r="134" spans="9:15" ht="13.5">
+      <c r="I134" s="55"/>
       <c r="J134"/>
-      <c r="K134"/>
+      <c r="K134" s="55"/>
       <c r="L134"/>
       <c r="M134"/>
       <c r="N134"/>
-    </row>
-    <row r="135" spans="10:14" ht="13.5">
+      <c r="O134"/>
+    </row>
+    <row r="135" spans="9:15" ht="13.5">
+      <c r="I135" s="55"/>
       <c r="J135"/>
-      <c r="K135"/>
+      <c r="K135" s="55"/>
       <c r="L135"/>
       <c r="M135"/>
       <c r="N135"/>
-    </row>
-    <row r="136" spans="10:14" ht="13.5">
+      <c r="O135"/>
+    </row>
+    <row r="136" spans="9:15" ht="13.5">
+      <c r="I136" s="55"/>
       <c r="J136"/>
-      <c r="K136"/>
+      <c r="K136" s="55"/>
       <c r="L136"/>
       <c r="M136"/>
       <c r="N136"/>
-    </row>
-    <row r="137" spans="10:14" ht="13.5">
+      <c r="O136"/>
+    </row>
+    <row r="137" spans="9:15" ht="13.5">
+      <c r="I137" s="55"/>
       <c r="J137"/>
-      <c r="K137"/>
+      <c r="K137" s="55"/>
       <c r="L137"/>
       <c r="M137"/>
       <c r="N137"/>
-    </row>
-    <row r="138" spans="10:14" ht="13.5">
+      <c r="O137"/>
+    </row>
+    <row r="138" spans="9:15" ht="13.5">
+      <c r="I138" s="55"/>
       <c r="J138"/>
-      <c r="K138"/>
+      <c r="K138" s="55"/>
       <c r="L138"/>
       <c r="M138"/>
       <c r="N138"/>
-    </row>
-    <row r="139" spans="10:14" ht="13.5">
+      <c r="O138"/>
+    </row>
+    <row r="139" spans="9:15" ht="13.5">
+      <c r="I139" s="55"/>
       <c r="J139"/>
-      <c r="K139"/>
+      <c r="K139" s="55"/>
       <c r="L139"/>
       <c r="M139"/>
       <c r="N139"/>
-    </row>
-    <row r="140" spans="10:14" ht="13.5">
+      <c r="O139"/>
+    </row>
+    <row r="140" spans="9:15" ht="13.5">
+      <c r="I140" s="55"/>
       <c r="J140"/>
-      <c r="K140"/>
+      <c r="K140" s="55"/>
       <c r="L140"/>
       <c r="M140"/>
       <c r="N140"/>
-    </row>
-    <row r="141" spans="10:14" ht="13.5">
+      <c r="O140"/>
+    </row>
+    <row r="141" spans="9:15" ht="13.5">
+      <c r="I141" s="55"/>
       <c r="J141"/>
-      <c r="K141"/>
+      <c r="K141" s="55"/>
       <c r="L141"/>
       <c r="M141"/>
       <c r="N141"/>
-    </row>
-    <row r="142" spans="10:14" ht="13.5">
+      <c r="O141"/>
+    </row>
+    <row r="142" spans="9:15" ht="13.5">
+      <c r="I142" s="55"/>
       <c r="J142"/>
-      <c r="K142"/>
+      <c r="K142" s="55"/>
       <c r="L142"/>
       <c r="M142"/>
       <c r="N142"/>
-    </row>
-    <row r="143" spans="10:14" ht="13.5">
+      <c r="O142"/>
+    </row>
+    <row r="143" spans="9:15" ht="13.5">
+      <c r="I143" s="55"/>
       <c r="J143"/>
-      <c r="K143"/>
+      <c r="K143" s="55"/>
       <c r="L143"/>
       <c r="M143"/>
       <c r="N143"/>
-    </row>
-    <row r="144" spans="10:14" ht="13.5">
+      <c r="O143"/>
+    </row>
+    <row r="144" spans="9:15" ht="13.5">
+      <c r="I144" s="55"/>
       <c r="J144"/>
-      <c r="K144"/>
+      <c r="K144" s="55"/>
       <c r="L144"/>
       <c r="M144"/>
       <c r="N144"/>
-    </row>
-    <row r="145" spans="10:14" ht="13.5">
+      <c r="O144"/>
+    </row>
+    <row r="145" spans="9:15" ht="13.5">
+      <c r="I145" s="55"/>
       <c r="J145"/>
-      <c r="K145"/>
+      <c r="K145" s="55"/>
       <c r="L145"/>
       <c r="M145"/>
       <c r="N145"/>
-    </row>
-    <row r="146" spans="10:14" ht="13.5">
+      <c r="O145"/>
+    </row>
+    <row r="146" spans="9:15" ht="13.5">
+      <c r="I146" s="55"/>
       <c r="J146"/>
-      <c r="K146"/>
+      <c r="K146" s="55"/>
       <c r="L146"/>
       <c r="M146"/>
       <c r="N146"/>
-    </row>
-    <row r="147" spans="10:14" ht="13.5">
+      <c r="O146"/>
+    </row>
+    <row r="147" spans="9:15" ht="13.5">
+      <c r="I147" s="55"/>
       <c r="J147"/>
-      <c r="K147"/>
+      <c r="K147" s="55"/>
       <c r="L147"/>
       <c r="M147"/>
       <c r="N147"/>
-    </row>
-    <row r="148" spans="10:14" ht="13.5">
+      <c r="O147"/>
+    </row>
+    <row r="148" spans="9:15" ht="13.5">
+      <c r="I148" s="55"/>
       <c r="J148"/>
-      <c r="K148"/>
+      <c r="K148" s="55"/>
       <c r="L148"/>
       <c r="M148"/>
       <c r="N148"/>
-    </row>
-    <row r="149" spans="10:14" ht="13.5">
+      <c r="O148"/>
+    </row>
+    <row r="149" spans="9:15" ht="13.5">
+      <c r="I149" s="55"/>
       <c r="J149"/>
-      <c r="K149"/>
+      <c r="K149" s="55"/>
       <c r="L149"/>
       <c r="M149"/>
       <c r="N149"/>
-    </row>
-    <row r="150" spans="10:14" ht="13.5">
+      <c r="O149"/>
+    </row>
+    <row r="150" spans="9:15" ht="13.5">
+      <c r="I150" s="55"/>
       <c r="J150"/>
-      <c r="K150"/>
+      <c r="K150" s="55"/>
       <c r="L150"/>
       <c r="M150"/>
       <c r="N150"/>
-    </row>
-    <row r="151" spans="10:14" ht="13.5">
+      <c r="O150"/>
+    </row>
+    <row r="151" spans="9:15" ht="13.5">
+      <c r="I151" s="55"/>
       <c r="J151"/>
-      <c r="K151"/>
+      <c r="K151" s="55"/>
       <c r="L151"/>
       <c r="M151"/>
       <c r="N151"/>
-    </row>
-    <row r="152" spans="10:14" ht="13.5">
+      <c r="O151"/>
+    </row>
+    <row r="152" spans="9:15" ht="13.5">
+      <c r="I152" s="55"/>
       <c r="J152"/>
-      <c r="K152"/>
+      <c r="K152" s="55"/>
       <c r="L152"/>
       <c r="M152"/>
       <c r="N152"/>
-    </row>
-    <row r="153" spans="10:14" ht="13.5">
+      <c r="O152"/>
+    </row>
+    <row r="153" spans="9:15" ht="13.5">
+      <c r="I153" s="55"/>
       <c r="J153"/>
-      <c r="K153"/>
+      <c r="K153" s="55"/>
       <c r="L153"/>
       <c r="M153"/>
       <c r="N153"/>
-    </row>
-    <row r="154" spans="10:14" ht="13.5">
+      <c r="O153"/>
+    </row>
+    <row r="154" spans="9:15" ht="13.5">
+      <c r="I154" s="55"/>
       <c r="J154"/>
-      <c r="K154"/>
+      <c r="K154" s="55"/>
       <c r="L154"/>
       <c r="M154"/>
       <c r="N154"/>
-    </row>
-    <row r="155" spans="10:14" ht="13.5">
+      <c r="O154"/>
+    </row>
+    <row r="155" spans="9:15" ht="13.5">
+      <c r="I155" s="55"/>
       <c r="J155"/>
-      <c r="K155"/>
+      <c r="K155" s="55"/>
       <c r="L155"/>
       <c r="M155"/>
       <c r="N155"/>
-    </row>
-    <row r="156" spans="10:14" ht="13.5">
+      <c r="O155"/>
+    </row>
+    <row r="156" spans="9:15" ht="13.5">
+      <c r="I156" s="55"/>
       <c r="J156"/>
-      <c r="K156"/>
+      <c r="K156" s="55"/>
       <c r="L156"/>
       <c r="M156"/>
       <c r="N156"/>
-    </row>
-    <row r="157" spans="10:14" ht="13.5">
+      <c r="O156"/>
+    </row>
+    <row r="157" spans="9:15" ht="13.5">
+      <c r="I157" s="55"/>
       <c r="J157"/>
-      <c r="K157"/>
+      <c r="K157" s="55"/>
       <c r="L157"/>
       <c r="M157"/>
       <c r="N157"/>
-    </row>
-    <row r="158" spans="10:14" ht="13.5">
+      <c r="O157"/>
+    </row>
+    <row r="158" spans="9:15" ht="13.5">
+      <c r="I158" s="55"/>
       <c r="J158"/>
-      <c r="K158"/>
+      <c r="K158" s="55"/>
       <c r="L158"/>
       <c r="M158"/>
       <c r="N158"/>
-    </row>
-    <row r="159" spans="10:14" ht="13.5">
+      <c r="O158"/>
+    </row>
+    <row r="159" spans="9:15" ht="13.5">
+      <c r="I159" s="55"/>
       <c r="J159"/>
-      <c r="K159"/>
+      <c r="K159" s="55"/>
       <c r="L159"/>
       <c r="M159"/>
       <c r="N159"/>
-    </row>
-    <row r="160" spans="10:14" ht="13.5">
+      <c r="O159"/>
+    </row>
+    <row r="160" spans="9:15" ht="13.5">
+      <c r="I160" s="55"/>
       <c r="J160"/>
-      <c r="K160"/>
+      <c r="K160" s="55"/>
       <c r="L160"/>
       <c r="M160"/>
       <c r="N160"/>
-    </row>
-    <row r="161" spans="10:14" ht="13.5">
+      <c r="O160"/>
+    </row>
+    <row r="161" spans="9:15" ht="13.5">
+      <c r="I161" s="55"/>
       <c r="J161"/>
-      <c r="K161"/>
+      <c r="K161" s="55"/>
       <c r="L161"/>
       <c r="M161"/>
       <c r="N161"/>
-    </row>
-    <row r="162" spans="10:14" ht="13.5">
+      <c r="O161"/>
+    </row>
+    <row r="162" spans="9:15" ht="13.5">
+      <c r="I162" s="55"/>
       <c r="J162"/>
-      <c r="K162"/>
+      <c r="K162" s="55"/>
       <c r="L162"/>
       <c r="M162"/>
       <c r="N162"/>
-    </row>
-    <row r="163" spans="10:14" ht="13.5">
+      <c r="O162"/>
+    </row>
+    <row r="163" spans="9:15" ht="13.5">
+      <c r="I163" s="55"/>
       <c r="J163"/>
-      <c r="K163"/>
+      <c r="K163" s="55"/>
       <c r="L163"/>
       <c r="M163"/>
       <c r="N163"/>
-    </row>
-    <row r="164" spans="10:14" ht="13.5">
+      <c r="O163"/>
+    </row>
+    <row r="164" spans="9:15" ht="13.5">
+      <c r="I164" s="55"/>
       <c r="J164"/>
-      <c r="K164"/>
+      <c r="K164" s="55"/>
       <c r="L164"/>
       <c r="M164"/>
       <c r="N164"/>
-    </row>
-    <row r="165" spans="10:14" ht="13.5">
+      <c r="O164"/>
+    </row>
+    <row r="165" spans="9:15" ht="13.5">
+      <c r="I165" s="55"/>
       <c r="J165"/>
-      <c r="K165"/>
+      <c r="K165" s="55"/>
       <c r="L165"/>
       <c r="M165"/>
       <c r="N165"/>
-    </row>
-    <row r="166" spans="10:14" ht="13.5">
+      <c r="O165"/>
+    </row>
+    <row r="166" spans="9:15" ht="13.5">
+      <c r="I166" s="55"/>
       <c r="J166"/>
-      <c r="K166"/>
+      <c r="K166" s="55"/>
       <c r="L166"/>
       <c r="M166"/>
       <c r="N166"/>
-    </row>
-    <row r="167" spans="10:14" ht="13.5">
+      <c r="O166"/>
+    </row>
+    <row r="167" spans="9:15" ht="13.5">
+      <c r="I167" s="55"/>
       <c r="J167"/>
-      <c r="K167"/>
+      <c r="K167" s="55"/>
       <c r="L167"/>
       <c r="M167"/>
       <c r="N167"/>
-    </row>
-    <row r="168" spans="10:14" ht="13.5">
+      <c r="O167"/>
+    </row>
+    <row r="168" spans="9:15" ht="13.5">
+      <c r="I168" s="55"/>
       <c r="J168"/>
-      <c r="K168"/>
+      <c r="K168" s="55"/>
       <c r="L168"/>
       <c r="M168"/>
       <c r="N168"/>
-    </row>
-    <row r="169" spans="10:14" ht="13.5">
+      <c r="O168"/>
+    </row>
+    <row r="169" spans="9:15" ht="13.5">
+      <c r="I169" s="55"/>
       <c r="J169"/>
-      <c r="K169"/>
+      <c r="K169" s="55"/>
       <c r="L169"/>
       <c r="M169"/>
       <c r="N169"/>
-    </row>
-    <row r="170" spans="10:14" ht="13.5">
+      <c r="O169"/>
+    </row>
+    <row r="170" spans="9:15" ht="13.5">
+      <c r="I170" s="55"/>
       <c r="J170"/>
-      <c r="K170"/>
+      <c r="K170" s="55"/>
       <c r="L170"/>
       <c r="M170"/>
       <c r="N170"/>
-    </row>
-    <row r="171" spans="10:14" ht="13.5">
+      <c r="O170"/>
+    </row>
+    <row r="171" spans="9:15" ht="13.5">
+      <c r="I171" s="55"/>
       <c r="J171"/>
-      <c r="K171"/>
+      <c r="K171" s="55"/>
       <c r="L171"/>
       <c r="M171"/>
       <c r="N171"/>
-    </row>
-    <row r="172" spans="10:14" ht="13.5">
+      <c r="O171"/>
+    </row>
+    <row r="172" spans="9:15" ht="13.5">
+      <c r="I172" s="55"/>
       <c r="J172"/>
-      <c r="K172"/>
+      <c r="K172" s="55"/>
       <c r="L172"/>
       <c r="M172"/>
       <c r="N172"/>
-    </row>
-    <row r="173" spans="10:14" ht="13.5">
+      <c r="O172"/>
+    </row>
+    <row r="173" spans="9:15" ht="13.5">
+      <c r="I173" s="55"/>
       <c r="J173"/>
-      <c r="K173"/>
+      <c r="K173" s="55"/>
       <c r="L173"/>
       <c r="M173"/>
       <c r="N173"/>
-    </row>
-    <row r="174" spans="10:14" ht="13.5">
+      <c r="O173"/>
+    </row>
+    <row r="174" spans="9:15" ht="13.5">
+      <c r="I174" s="55"/>
       <c r="J174"/>
-      <c r="K174"/>
+      <c r="K174" s="55"/>
       <c r="L174"/>
       <c r="M174"/>
       <c r="N174"/>
-    </row>
-    <row r="175" spans="10:14" ht="13.5">
+      <c r="O174"/>
+    </row>
+    <row r="175" spans="9:15" ht="13.5">
+      <c r="I175" s="55"/>
       <c r="J175"/>
-      <c r="K175"/>
+      <c r="K175" s="55"/>
       <c r="L175"/>
       <c r="M175"/>
       <c r="N175"/>
-    </row>
-    <row r="176" spans="10:14" ht="13.5">
+      <c r="O175"/>
+    </row>
+    <row r="176" spans="9:15" ht="13.5">
+      <c r="I176" s="55"/>
       <c r="J176"/>
-      <c r="K176"/>
+      <c r="K176" s="55"/>
       <c r="L176"/>
       <c r="M176"/>
       <c r="N176"/>
-    </row>
-    <row r="177" spans="10:14" ht="13.5">
+      <c r="O176"/>
+    </row>
+    <row r="177" spans="9:15" ht="13.5">
+      <c r="I177" s="55"/>
       <c r="J177"/>
-      <c r="K177"/>
+      <c r="K177" s="55"/>
       <c r="L177"/>
       <c r="M177"/>
       <c r="N177"/>
-    </row>
-    <row r="178" spans="10:14" ht="13.5">
+      <c r="O177"/>
+    </row>
+    <row r="178" spans="9:15" ht="13.5">
+      <c r="I178" s="55"/>
       <c r="J178"/>
-      <c r="K178"/>
+      <c r="K178" s="55"/>
       <c r="L178"/>
       <c r="M178"/>
       <c r="N178"/>
-    </row>
-    <row r="179" spans="10:14" ht="13.5">
+      <c r="O178"/>
+    </row>
+    <row r="179" spans="9:15" ht="13.5">
+      <c r="I179" s="55"/>
       <c r="J179"/>
-      <c r="K179"/>
+      <c r="K179" s="55"/>
       <c r="L179"/>
       <c r="M179"/>
       <c r="N179"/>
-    </row>
-    <row r="180" spans="10:14" ht="13.5">
+      <c r="O179"/>
+    </row>
+    <row r="180" spans="9:15" ht="13.5">
+      <c r="I180" s="55"/>
       <c r="J180"/>
-      <c r="K180"/>
+      <c r="K180" s="55"/>
       <c r="L180"/>
       <c r="M180"/>
       <c r="N180"/>
-    </row>
-    <row r="181" spans="10:14" ht="13.5">
+      <c r="O180"/>
+    </row>
+    <row r="181" spans="9:15" ht="13.5">
+      <c r="I181" s="55"/>
       <c r="J181"/>
-      <c r="K181"/>
+      <c r="K181" s="55"/>
       <c r="L181"/>
       <c r="M181"/>
       <c r="N181"/>
-    </row>
-    <row r="182" spans="10:14" ht="13.5">
+      <c r="O181"/>
+    </row>
+    <row r="182" spans="9:15" ht="13.5">
+      <c r="I182" s="55"/>
       <c r="J182"/>
-      <c r="K182"/>
+      <c r="K182" s="55"/>
       <c r="L182"/>
       <c r="M182"/>
       <c r="N182"/>
-    </row>
-    <row r="183" spans="10:14" ht="13.5">
+      <c r="O182"/>
+    </row>
+    <row r="183" spans="9:15" ht="13.5">
+      <c r="I183" s="55"/>
       <c r="J183"/>
-      <c r="K183"/>
+      <c r="K183" s="55"/>
       <c r="L183"/>
       <c r="M183"/>
       <c r="N183"/>
-    </row>
-    <row r="184" spans="10:14" ht="13.5">
+      <c r="O183"/>
+    </row>
+    <row r="184" spans="9:15" ht="13.5">
+      <c r="I184" s="55"/>
       <c r="J184"/>
-      <c r="K184"/>
+      <c r="K184" s="55"/>
       <c r="L184"/>
       <c r="M184"/>
       <c r="N184"/>
-    </row>
-    <row r="185" spans="10:14" ht="13.5">
+      <c r="O184"/>
+    </row>
+    <row r="185" spans="9:15" ht="13.5">
+      <c r="I185" s="55"/>
       <c r="J185"/>
-      <c r="K185"/>
+      <c r="K185" s="55"/>
       <c r="L185"/>
       <c r="M185"/>
       <c r="N185"/>
-    </row>
-    <row r="186" spans="10:14" ht="13.5">
+      <c r="O185"/>
+    </row>
+    <row r="186" spans="9:15" ht="13.5">
+      <c r="I186" s="55"/>
       <c r="J186"/>
-      <c r="K186"/>
+      <c r="K186" s="55"/>
       <c r="L186"/>
       <c r="M186"/>
       <c r="N186"/>
-    </row>
-    <row r="187" spans="10:14" ht="13.5">
+      <c r="O186"/>
+    </row>
+    <row r="187" spans="9:15" ht="13.5">
+      <c r="I187" s="55"/>
       <c r="J187"/>
-      <c r="K187"/>
+      <c r="K187" s="55"/>
       <c r="L187"/>
       <c r="M187"/>
       <c r="N187"/>
-    </row>
-    <row r="188" spans="10:14" ht="13.5">
+      <c r="O187"/>
+    </row>
+    <row r="188" spans="9:15" ht="13.5">
+      <c r="I188" s="55"/>
       <c r="J188"/>
-      <c r="K188"/>
+      <c r="K188" s="55"/>
       <c r="L188"/>
       <c r="M188"/>
       <c r="N188"/>
-    </row>
-    <row r="189" spans="10:14" ht="13.5">
+      <c r="O188"/>
+    </row>
+    <row r="189" spans="9:15" ht="13.5">
+      <c r="I189" s="55"/>
       <c r="J189"/>
-      <c r="K189"/>
+      <c r="K189" s="55"/>
       <c r="L189"/>
       <c r="M189"/>
       <c r="N189"/>
-    </row>
-    <row r="190" spans="10:14" ht="13.5">
+      <c r="O189"/>
+    </row>
+    <row r="190" spans="9:15" ht="13.5">
+      <c r="I190" s="55"/>
       <c r="J190"/>
-      <c r="K190"/>
+      <c r="K190" s="55"/>
       <c r="L190"/>
       <c r="M190"/>
       <c r="N190"/>
-    </row>
-    <row r="191" spans="10:14" ht="13.5">
+      <c r="O190"/>
+    </row>
+    <row r="191" spans="9:15" ht="13.5">
+      <c r="I191" s="55"/>
       <c r="J191"/>
-      <c r="K191"/>
+      <c r="K191" s="55"/>
       <c r="L191"/>
       <c r="M191"/>
       <c r="N191"/>
-    </row>
-    <row r="192" spans="10:14" ht="13.5">
+      <c r="O191"/>
+    </row>
+    <row r="192" spans="9:15" ht="13.5">
+      <c r="I192" s="55"/>
       <c r="J192"/>
-      <c r="K192"/>
+      <c r="K192" s="55"/>
       <c r="L192"/>
       <c r="M192"/>
       <c r="N192"/>
-    </row>
-    <row r="193" spans="10:14" ht="13.5">
+      <c r="O192"/>
+    </row>
+    <row r="193" spans="9:15" ht="13.5">
+      <c r="I193" s="55"/>
       <c r="J193"/>
-      <c r="K193"/>
+      <c r="K193" s="55"/>
       <c r="L193"/>
       <c r="M193"/>
       <c r="N193"/>
-    </row>
-    <row r="194" spans="10:14" ht="13.5">
+      <c r="O193"/>
+    </row>
+    <row r="194" spans="9:15" ht="13.5">
+      <c r="I194" s="55"/>
       <c r="J194"/>
-      <c r="K194"/>
+      <c r="K194" s="55"/>
       <c r="L194"/>
       <c r="M194"/>
       <c r="N194"/>
-    </row>
-    <row r="195" spans="10:14" ht="13.5">
+      <c r="O194"/>
+    </row>
+    <row r="195" spans="9:15" ht="13.5">
+      <c r="I195" s="55"/>
       <c r="J195"/>
-      <c r="K195"/>
+      <c r="K195" s="55"/>
       <c r="L195"/>
       <c r="M195"/>
       <c r="N195"/>
-    </row>
-    <row r="196" spans="10:14" ht="13.5">
+      <c r="O195"/>
+    </row>
+    <row r="196" spans="9:15" ht="13.5">
+      <c r="I196" s="55"/>
       <c r="J196"/>
-      <c r="K196"/>
+      <c r="K196" s="55"/>
       <c r="L196"/>
       <c r="M196"/>
       <c r="N196"/>
-    </row>
-    <row r="197" spans="10:14" ht="13.5">
+      <c r="O196"/>
+    </row>
+    <row r="197" spans="9:15" ht="13.5">
+      <c r="I197" s="55"/>
       <c r="J197"/>
-      <c r="K197"/>
+      <c r="K197" s="55"/>
       <c r="L197"/>
       <c r="M197"/>
       <c r="N197"/>
-    </row>
-    <row r="198" spans="10:14" ht="13.5">
+      <c r="O197"/>
+    </row>
+    <row r="198" spans="9:15" ht="13.5">
+      <c r="I198" s="55"/>
       <c r="J198"/>
-      <c r="K198"/>
+      <c r="K198" s="55"/>
       <c r="L198"/>
       <c r="M198"/>
       <c r="N198"/>
-    </row>
-    <row r="199" spans="10:14" ht="13.5">
+      <c r="O198"/>
+    </row>
+    <row r="199" spans="9:15" ht="13.5">
+      <c r="I199" s="55"/>
       <c r="J199"/>
-      <c r="K199"/>
+      <c r="K199" s="55"/>
       <c r="L199"/>
       <c r="M199"/>
       <c r="N199"/>
-    </row>
-    <row r="200" spans="10:14" ht="13.5">
+      <c r="O199"/>
+    </row>
+    <row r="200" spans="9:15" ht="13.5">
+      <c r="I200" s="55"/>
       <c r="J200"/>
-      <c r="K200"/>
+      <c r="K200" s="55"/>
       <c r="L200"/>
       <c r="M200"/>
       <c r="N200"/>
-    </row>
-    <row r="201" spans="10:14" ht="13.5">
+      <c r="O200"/>
+    </row>
+    <row r="201" spans="9:15" ht="13.5">
+      <c r="I201" s="55"/>
       <c r="J201"/>
-      <c r="K201"/>
+      <c r="K201" s="55"/>
       <c r="L201"/>
       <c r="M201"/>
       <c r="N201"/>
-    </row>
-    <row r="202" spans="10:14" ht="13.5">
+      <c r="O201"/>
+    </row>
+    <row r="202" spans="9:15" ht="13.5">
+      <c r="I202" s="55"/>
       <c r="J202"/>
-      <c r="K202"/>
+      <c r="K202" s="55"/>
       <c r="L202"/>
       <c r="M202"/>
       <c r="N202"/>
-    </row>
-    <row r="203" spans="10:14" ht="13.5">
+      <c r="O202"/>
+    </row>
+    <row r="203" spans="9:15" ht="13.5">
+      <c r="I203" s="55"/>
       <c r="J203"/>
-      <c r="K203"/>
+      <c r="K203" s="55"/>
       <c r="L203"/>
       <c r="M203"/>
       <c r="N203"/>
-    </row>
-    <row r="204" spans="10:14" ht="13.5">
+      <c r="O203"/>
+    </row>
+    <row r="204" spans="9:15" ht="13.5">
+      <c r="I204" s="55"/>
       <c r="J204"/>
-      <c r="K204"/>
+      <c r="K204" s="55"/>
       <c r="L204"/>
       <c r="M204"/>
       <c r="N204"/>
-    </row>
-    <row r="205" spans="10:14" ht="13.5">
+      <c r="O204"/>
+    </row>
+    <row r="205" spans="9:15" ht="13.5">
+      <c r="I205" s="55"/>
       <c r="J205"/>
-      <c r="K205"/>
+      <c r="K205" s="55"/>
       <c r="L205"/>
       <c r="M205"/>
       <c r="N205"/>
-    </row>
-    <row r="206" spans="10:14" ht="13.5">
+      <c r="O205"/>
+    </row>
+    <row r="206" spans="9:15" ht="13.5">
+      <c r="I206" s="55"/>
       <c r="J206"/>
-      <c r="K206"/>
+      <c r="K206" s="55"/>
       <c r="L206"/>
       <c r="M206"/>
       <c r="N206"/>
-    </row>
-    <row r="207" spans="10:14" ht="13.5">
+      <c r="O206"/>
+    </row>
+    <row r="207" spans="9:15" ht="13.5">
+      <c r="I207" s="55"/>
       <c r="J207"/>
-      <c r="K207"/>
+      <c r="K207" s="55"/>
       <c r="L207"/>
       <c r="M207"/>
       <c r="N207"/>
-    </row>
-    <row r="208" spans="10:14" ht="13.5">
+      <c r="O207"/>
+    </row>
+    <row r="208" spans="9:15" ht="13.5">
+      <c r="I208" s="55"/>
       <c r="J208"/>
-      <c r="K208"/>
+      <c r="K208" s="55"/>
       <c r="L208"/>
       <c r="M208"/>
       <c r="N208"/>
-    </row>
-    <row r="209" spans="10:14" ht="13.5">
+      <c r="O208"/>
+    </row>
+    <row r="209" spans="9:15" ht="13.5">
+      <c r="I209" s="55"/>
       <c r="J209"/>
-      <c r="K209"/>
+      <c r="K209" s="55"/>
       <c r="L209"/>
       <c r="M209"/>
       <c r="N209"/>
-    </row>
-    <row r="210" spans="10:14" ht="13.5">
+      <c r="O209"/>
+    </row>
+    <row r="210" spans="9:15" ht="13.5">
+      <c r="I210" s="55"/>
       <c r="J210"/>
-      <c r="K210"/>
+      <c r="K210" s="55"/>
       <c r="L210"/>
       <c r="M210"/>
       <c r="N210"/>
-    </row>
-    <row r="211" spans="10:14" ht="13.5">
+      <c r="O210"/>
+    </row>
+    <row r="211" spans="9:15" ht="13.5">
+      <c r="I211" s="55"/>
       <c r="J211"/>
-      <c r="K211"/>
+      <c r="K211" s="55"/>
       <c r="L211"/>
       <c r="M211"/>
       <c r="N211"/>
-    </row>
-    <row r="212" spans="10:14" ht="13.5">
+      <c r="O211"/>
+    </row>
+    <row r="212" spans="9:15" ht="13.5">
+      <c r="I212" s="55"/>
       <c r="J212"/>
-      <c r="K212"/>
+      <c r="K212" s="55"/>
       <c r="L212"/>
       <c r="M212"/>
       <c r="N212"/>
-    </row>
-    <row r="213" spans="10:14" ht="13.5">
+      <c r="O212"/>
+    </row>
+    <row r="213" spans="9:15" ht="13.5">
+      <c r="I213" s="55"/>
       <c r="J213"/>
-      <c r="K213"/>
+      <c r="K213" s="55"/>
       <c r="L213"/>
       <c r="M213"/>
       <c r="N213"/>
-    </row>
-    <row r="214" spans="10:14" ht="13.5">
+      <c r="O213"/>
+    </row>
+    <row r="214" spans="9:15" ht="13.5">
+      <c r="I214" s="55"/>
       <c r="J214"/>
-      <c r="K214"/>
+      <c r="K214" s="55"/>
       <c r="L214"/>
       <c r="M214"/>
       <c r="N214"/>
-    </row>
-    <row r="215" spans="10:14" ht="13.5">
+      <c r="O214"/>
+    </row>
+    <row r="215" spans="9:15" ht="13.5">
+      <c r="I215" s="55"/>
       <c r="J215"/>
-      <c r="K215"/>
+      <c r="K215" s="55"/>
       <c r="L215"/>
       <c r="M215"/>
       <c r="N215"/>
-    </row>
-    <row r="216" spans="10:14" ht="13.5">
+      <c r="O215"/>
+    </row>
+    <row r="216" spans="9:15" ht="13.5">
+      <c r="I216" s="55"/>
       <c r="J216"/>
-      <c r="K216"/>
+      <c r="K216" s="55"/>
       <c r="L216"/>
       <c r="M216"/>
       <c r="N216"/>
-    </row>
-    <row r="217" spans="10:14" ht="13.5">
+      <c r="O216"/>
+    </row>
+    <row r="217" spans="9:15" ht="13.5">
+      <c r="I217" s="55"/>
       <c r="J217"/>
-      <c r="K217"/>
+      <c r="K217" s="55"/>
       <c r="L217"/>
       <c r="M217"/>
       <c r="N217"/>
-    </row>
-    <row r="218" spans="10:14" ht="13.5">
+      <c r="O217"/>
+    </row>
+    <row r="218" spans="9:15" ht="13.5">
+      <c r="I218" s="55"/>
       <c r="J218"/>
-      <c r="K218"/>
+      <c r="K218" s="55"/>
       <c r="L218"/>
       <c r="M218"/>
       <c r="N218"/>
-    </row>
-    <row r="219" spans="10:14" ht="13.5">
+      <c r="O218"/>
+    </row>
+    <row r="219" spans="9:15" ht="13.5">
+      <c r="I219" s="55"/>
       <c r="J219"/>
-      <c r="K219"/>
+      <c r="K219" s="55"/>
       <c r="L219"/>
       <c r="M219"/>
       <c r="N219"/>
-    </row>
-    <row r="220" spans="10:14" ht="13.5">
+      <c r="O219"/>
+    </row>
+    <row r="220" spans="9:15" ht="13.5">
+      <c r="I220" s="55"/>
       <c r="J220"/>
-      <c r="K220"/>
+      <c r="K220" s="55"/>
       <c r="L220"/>
       <c r="M220"/>
       <c r="N220"/>
-    </row>
-    <row r="221" spans="10:14" ht="13.5">
+      <c r="O220"/>
+    </row>
+    <row r="221" spans="9:15" ht="13.5">
+      <c r="I221" s="55"/>
       <c r="J221"/>
-      <c r="K221"/>
+      <c r="K221" s="55"/>
       <c r="L221"/>
       <c r="M221"/>
       <c r="N221"/>
-    </row>
-    <row r="222" spans="10:14" ht="13.5">
+      <c r="O221"/>
+    </row>
+    <row r="222" spans="9:15" ht="13.5">
+      <c r="I222" s="55"/>
       <c r="J222"/>
-      <c r="K222"/>
+      <c r="K222" s="55"/>
       <c r="L222"/>
       <c r="M222"/>
       <c r="N222"/>
-    </row>
-    <row r="223" spans="10:14" ht="13.5">
+      <c r="O222"/>
+    </row>
+    <row r="223" spans="9:15" ht="13.5">
+      <c r="I223" s="55"/>
       <c r="J223"/>
-      <c r="K223"/>
+      <c r="K223" s="55"/>
       <c r="L223"/>
       <c r="M223"/>
       <c r="N223"/>
-    </row>
-    <row r="224" spans="10:14" ht="13.5">
+      <c r="O223"/>
+    </row>
+    <row r="224" spans="9:15" ht="13.5">
+      <c r="I224" s="55"/>
       <c r="J224"/>
-      <c r="K224"/>
+      <c r="K224" s="55"/>
       <c r="L224"/>
       <c r="M224"/>
       <c r="N224"/>
-    </row>
-    <row r="225" spans="10:14" ht="13.5">
+      <c r="O224"/>
+    </row>
+    <row r="225" spans="9:15" ht="13.5">
+      <c r="I225" s="55"/>
       <c r="J225"/>
-      <c r="K225"/>
+      <c r="K225" s="55"/>
       <c r="L225"/>
       <c r="M225"/>
       <c r="N225"/>
-    </row>
-    <row r="226" spans="10:14" ht="13.5">
+      <c r="O225"/>
+    </row>
+    <row r="226" spans="9:15" ht="13.5">
+      <c r="I226" s="55"/>
       <c r="J226"/>
-      <c r="K226"/>
+      <c r="K226" s="55"/>
       <c r="L226"/>
       <c r="M226"/>
       <c r="N226"/>
-    </row>
-    <row r="227" spans="10:14" ht="13.5">
+      <c r="O226"/>
+    </row>
+    <row r="227" spans="9:15" ht="13.5">
+      <c r="I227" s="55"/>
       <c r="J227"/>
-      <c r="K227"/>
+      <c r="K227" s="55"/>
       <c r="L227"/>
       <c r="M227"/>
       <c r="N227"/>
-    </row>
-    <row r="228" spans="10:14" ht="13.5">
+      <c r="O227"/>
+    </row>
+    <row r="228" spans="9:15" ht="13.5">
+      <c r="I228" s="55"/>
       <c r="J228"/>
-      <c r="K228"/>
+      <c r="K228" s="55"/>
       <c r="L228"/>
       <c r="M228"/>
       <c r="N228"/>
-    </row>
-    <row r="229" spans="10:14" ht="13.5">
+      <c r="O228"/>
+    </row>
+    <row r="229" spans="9:15" ht="13.5">
+      <c r="I229" s="55"/>
       <c r="J229"/>
-      <c r="K229"/>
+      <c r="K229" s="55"/>
       <c r="L229"/>
       <c r="M229"/>
       <c r="N229"/>
-    </row>
-    <row r="230" spans="10:14" ht="13.5">
+      <c r="O229"/>
+    </row>
+    <row r="230" spans="9:15" ht="13.5">
+      <c r="I230" s="55"/>
       <c r="J230"/>
-      <c r="K230"/>
+      <c r="K230" s="55"/>
       <c r="L230"/>
       <c r="M230"/>
       <c r="N230"/>
-    </row>
-    <row r="231" spans="10:14" ht="13.5">
+      <c r="O230"/>
+    </row>
+    <row r="231" spans="9:15" ht="13.5">
+      <c r="I231" s="55"/>
       <c r="J231"/>
-      <c r="K231"/>
+      <c r="K231" s="55"/>
       <c r="L231"/>
       <c r="M231"/>
       <c r="N231"/>
-    </row>
-    <row r="232" spans="10:14" ht="13.5">
+      <c r="O231"/>
+    </row>
+    <row r="232" spans="9:15" ht="13.5">
+      <c r="I232" s="55"/>
       <c r="J232"/>
-      <c r="K232"/>
+      <c r="K232" s="55"/>
       <c r="L232"/>
       <c r="M232"/>
       <c r="N232"/>
-    </row>
-    <row r="233" spans="10:14" ht="13.5">
+      <c r="O232"/>
+    </row>
+    <row r="233" spans="9:15" ht="13.5">
+      <c r="I233" s="55"/>
       <c r="J233"/>
-      <c r="K233"/>
+      <c r="K233" s="55"/>
       <c r="L233"/>
       <c r="M233"/>
       <c r="N233"/>
-    </row>
-    <row r="234" spans="10:14" ht="13.5">
+      <c r="O233"/>
+    </row>
+    <row r="234" spans="9:15" ht="13.5">
+      <c r="I234" s="55"/>
       <c r="J234"/>
-      <c r="K234"/>
+      <c r="K234" s="55"/>
       <c r="L234"/>
       <c r="M234"/>
       <c r="N234"/>
-    </row>
-    <row r="235" spans="10:14" ht="13.5">
+      <c r="O234"/>
+    </row>
+    <row r="235" spans="9:15" ht="13.5">
+      <c r="I235" s="55"/>
       <c r="J235"/>
-      <c r="K235"/>
+      <c r="K235" s="55"/>
       <c r="L235"/>
       <c r="M235"/>
       <c r="N235"/>
-    </row>
-    <row r="236" spans="10:14" ht="13.5">
+      <c r="O235"/>
+    </row>
+    <row r="236" spans="9:15" ht="13.5">
+      <c r="I236" s="55"/>
       <c r="J236"/>
-      <c r="K236"/>
+      <c r="K236" s="55"/>
       <c r="L236"/>
       <c r="M236"/>
       <c r="N236"/>
-    </row>
-    <row r="237" spans="10:14" ht="13.5">
+      <c r="O236"/>
+    </row>
+    <row r="237" spans="9:15" ht="13.5">
+      <c r="I237" s="55"/>
       <c r="J237"/>
-      <c r="K237"/>
+      <c r="K237" s="55"/>
       <c r="L237"/>
       <c r="M237"/>
       <c r="N237"/>
-    </row>
-    <row r="238" spans="10:14" ht="13.5">
+      <c r="O237"/>
+    </row>
+    <row r="238" spans="9:15" ht="13.5">
+      <c r="I238" s="55"/>
       <c r="J238"/>
-      <c r="K238"/>
+      <c r="K238" s="55"/>
       <c r="L238"/>
       <c r="M238"/>
       <c r="N238"/>
-    </row>
-    <row r="239" spans="10:14" ht="13.5">
+      <c r="O238"/>
+    </row>
+    <row r="239" spans="9:15" ht="13.5">
+      <c r="I239" s="55"/>
       <c r="J239"/>
-      <c r="K239"/>
+      <c r="K239" s="55"/>
       <c r="L239"/>
       <c r="M239"/>
       <c r="N239"/>
-    </row>
-    <row r="240" spans="10:14" ht="13.5">
+      <c r="O239"/>
+    </row>
+    <row r="240" spans="9:15" ht="13.5">
+      <c r="I240" s="55"/>
       <c r="J240"/>
-      <c r="K240"/>
+      <c r="K240" s="55"/>
       <c r="L240"/>
       <c r="M240"/>
       <c r="N240"/>
-    </row>
-    <row r="241" spans="10:14" ht="13.5">
+      <c r="O240"/>
+    </row>
+    <row r="241" spans="9:15" ht="13.5">
+      <c r="I241" s="55"/>
       <c r="J241"/>
-      <c r="K241"/>
+      <c r="K241" s="55"/>
       <c r="L241"/>
       <c r="M241"/>
       <c r="N241"/>
-    </row>
-    <row r="242" spans="10:14" ht="13.5">
+      <c r="O241"/>
+    </row>
+    <row r="242" spans="9:15" ht="13.5">
+      <c r="I242" s="55"/>
       <c r="J242"/>
-      <c r="K242"/>
+      <c r="K242" s="55"/>
       <c r="L242"/>
       <c r="M242"/>
       <c r="N242"/>
-    </row>
-    <row r="243" spans="10:14" ht="13.5">
+      <c r="O242"/>
+    </row>
+    <row r="243" spans="9:15" ht="13.5">
+      <c r="I243" s="55"/>
       <c r="J243"/>
-      <c r="K243"/>
+      <c r="K243" s="55"/>
       <c r="L243"/>
       <c r="M243"/>
       <c r="N243"/>
-    </row>
-    <row r="244" spans="10:14" ht="13.5">
+      <c r="O243"/>
+    </row>
+    <row r="244" spans="9:15" ht="13.5">
+      <c r="I244" s="55"/>
       <c r="J244"/>
-      <c r="K244"/>
+      <c r="K244" s="55"/>
       <c r="L244"/>
       <c r="M244"/>
       <c r="N244"/>
-    </row>
-    <row r="245" spans="10:14" ht="13.5">
+      <c r="O244"/>
+    </row>
+    <row r="245" spans="9:15" ht="13.5">
+      <c r="I245" s="55"/>
       <c r="J245"/>
-      <c r="K245"/>
+      <c r="K245" s="55"/>
       <c r="L245"/>
       <c r="M245"/>
       <c r="N245"/>
-    </row>
-    <row r="246" spans="10:14" ht="13.5">
+      <c r="O245"/>
+    </row>
+    <row r="246" spans="9:15" ht="13.5">
+      <c r="I246" s="55"/>
       <c r="J246"/>
-      <c r="K246"/>
+      <c r="K246" s="55"/>
       <c r="L246"/>
       <c r="M246"/>
       <c r="N246"/>
-    </row>
-    <row r="247" spans="10:14" ht="13.5">
+      <c r="O246"/>
+    </row>
+    <row r="247" spans="9:15" ht="13.5">
+      <c r="I247" s="55"/>
       <c r="J247"/>
-      <c r="K247"/>
+      <c r="K247" s="55"/>
       <c r="L247"/>
       <c r="M247"/>
       <c r="N247"/>
-    </row>
-    <row r="248" spans="10:14" ht="13.5">
+      <c r="O247"/>
+    </row>
+    <row r="248" spans="9:15" ht="13.5">
+      <c r="I248" s="55"/>
       <c r="J248"/>
-      <c r="K248"/>
+      <c r="K248" s="55"/>
       <c r="L248"/>
       <c r="M248"/>
       <c r="N248"/>
-    </row>
-    <row r="249" spans="10:14" ht="13.5">
+      <c r="O248"/>
+    </row>
+    <row r="249" spans="9:15" ht="13.5">
+      <c r="I249" s="55"/>
       <c r="J249"/>
-      <c r="K249"/>
+      <c r="K249" s="55"/>
       <c r="L249"/>
       <c r="M249"/>
       <c r="N249"/>
-    </row>
-    <row r="250" spans="10:14" ht="13.5">
+      <c r="O249"/>
+    </row>
+    <row r="250" spans="9:15" ht="13.5">
+      <c r="I250" s="55"/>
       <c r="J250"/>
-      <c r="K250"/>
+      <c r="K250" s="55"/>
       <c r="L250"/>
       <c r="M250"/>
       <c r="N250"/>
-    </row>
-    <row r="251" spans="10:14" ht="13.5">
+      <c r="O250"/>
+    </row>
+    <row r="251" spans="9:15" ht="13.5">
+      <c r="I251" s="55"/>
       <c r="J251"/>
-      <c r="K251"/>
+      <c r="K251" s="55"/>
       <c r="L251"/>
       <c r="M251"/>
       <c r="N251"/>
-    </row>
-    <row r="252" spans="10:14" ht="13.5">
+      <c r="O251"/>
+    </row>
+    <row r="252" spans="9:15" ht="13.5">
+      <c r="I252" s="55"/>
       <c r="J252"/>
-      <c r="K252"/>
+      <c r="K252" s="55"/>
       <c r="L252"/>
       <c r="M252"/>
       <c r="N252"/>
-    </row>
-    <row r="253" spans="10:14" ht="13.5">
+      <c r="O252"/>
+    </row>
+    <row r="253" spans="9:15" ht="13.5">
+      <c r="I253" s="55"/>
       <c r="J253"/>
-      <c r="K253"/>
+      <c r="K253" s="55"/>
       <c r="L253"/>
       <c r="M253"/>
       <c r="N253"/>
-    </row>
-    <row r="254" spans="10:14" ht="13.5">
+      <c r="O253"/>
+    </row>
+    <row r="254" spans="9:15" ht="13.5">
+      <c r="I254" s="55"/>
       <c r="J254"/>
-      <c r="K254"/>
+      <c r="K254" s="55"/>
       <c r="L254"/>
       <c r="M254"/>
       <c r="N254"/>
-    </row>
-    <row r="255" spans="10:14" ht="13.5">
+      <c r="O254"/>
+    </row>
+    <row r="255" spans="9:15" ht="13.5">
+      <c r="I255" s="55"/>
       <c r="J255"/>
-      <c r="K255"/>
+      <c r="K255" s="55"/>
       <c r="L255"/>
       <c r="M255"/>
       <c r="N255"/>
-    </row>
-    <row r="256" spans="10:14" ht="13.5">
+      <c r="O255"/>
+    </row>
+    <row r="256" spans="9:15" ht="13.5">
+      <c r="I256" s="55"/>
       <c r="J256"/>
-      <c r="K256"/>
+      <c r="K256" s="55"/>
       <c r="L256"/>
       <c r="M256"/>
       <c r="N256"/>
-    </row>
-    <row r="257" spans="10:14" ht="13.5">
+      <c r="O256"/>
+    </row>
+    <row r="257" spans="9:15" ht="13.5">
+      <c r="I257" s="55"/>
       <c r="J257"/>
-      <c r="K257"/>
+      <c r="K257" s="55"/>
       <c r="L257"/>
       <c r="M257"/>
       <c r="N257"/>
-    </row>
-    <row r="258" spans="10:14" ht="13.5">
+      <c r="O257"/>
+    </row>
+    <row r="258" spans="9:15" ht="13.5">
+      <c r="I258" s="55"/>
       <c r="J258"/>
-      <c r="K258"/>
+      <c r="K258" s="55"/>
       <c r="L258"/>
       <c r="M258"/>
       <c r="N258"/>
-    </row>
-    <row r="259" spans="10:14" ht="13.5">
+      <c r="O258"/>
+    </row>
+    <row r="259" spans="9:15" ht="13.5">
+      <c r="I259" s="55"/>
       <c r="J259"/>
-      <c r="K259"/>
+      <c r="K259" s="55"/>
       <c r="L259"/>
       <c r="M259"/>
       <c r="N259"/>
-    </row>
-    <row r="260" spans="10:14" ht="13.5">
+      <c r="O259"/>
+    </row>
+    <row r="260" spans="9:15" ht="13.5">
+      <c r="I260" s="55"/>
       <c r="J260"/>
-      <c r="K260"/>
+      <c r="K260" s="55"/>
       <c r="L260"/>
       <c r="M260"/>
       <c r="N260"/>
-    </row>
-    <row r="261" spans="10:14" ht="13.5">
+      <c r="O260"/>
+    </row>
+    <row r="261" spans="9:15" ht="13.5">
+      <c r="I261" s="55"/>
       <c r="J261"/>
-      <c r="K261"/>
+      <c r="K261" s="55"/>
       <c r="L261"/>
       <c r="M261"/>
       <c r="N261"/>
-    </row>
-    <row r="262" spans="10:14" ht="13.5">
+      <c r="O261"/>
+    </row>
+    <row r="262" spans="9:15" ht="13.5">
+      <c r="I262" s="55"/>
       <c r="J262"/>
-      <c r="K262"/>
+      <c r="K262" s="55"/>
       <c r="L262"/>
       <c r="M262"/>
       <c r="N262"/>
-    </row>
-    <row r="263" spans="10:14" ht="13.5">
+      <c r="O262"/>
+    </row>
+    <row r="263" spans="9:15" ht="13.5">
+      <c r="I263" s="55"/>
       <c r="J263"/>
-      <c r="K263"/>
+      <c r="K263" s="55"/>
       <c r="L263"/>
       <c r="M263"/>
       <c r="N263"/>
-    </row>
-    <row r="264" spans="10:14" ht="13.5">
+      <c r="O263"/>
+    </row>
+    <row r="264" spans="9:15" ht="13.5">
+      <c r="I264" s="55"/>
       <c r="J264"/>
-      <c r="K264"/>
+      <c r="K264" s="55"/>
       <c r="L264"/>
       <c r="M264"/>
       <c r="N264"/>
-    </row>
-    <row r="265" spans="10:14" ht="13.5">
+      <c r="O264"/>
+    </row>
+    <row r="265" spans="9:15" ht="13.5">
+      <c r="I265" s="55"/>
       <c r="J265"/>
-      <c r="K265"/>
+      <c r="K265" s="55"/>
       <c r="L265"/>
       <c r="M265"/>
       <c r="N265"/>
-    </row>
-    <row r="266" spans="10:14" ht="13.5">
+      <c r="O265"/>
+    </row>
+    <row r="266" spans="9:15" ht="13.5">
+      <c r="I266" s="55"/>
       <c r="J266"/>
-      <c r="K266"/>
+      <c r="K266" s="55"/>
       <c r="L266"/>
       <c r="M266"/>
       <c r="N266"/>
-    </row>
-    <row r="267" spans="10:14" ht="13.5">
+      <c r="O266"/>
+    </row>
+    <row r="267" spans="9:15" ht="13.5">
+      <c r="I267" s="55"/>
       <c r="J267"/>
-      <c r="K267"/>
+      <c r="K267" s="55"/>
       <c r="L267"/>
       <c r="M267"/>
       <c r="N267"/>
-    </row>
-    <row r="268" spans="10:14" ht="13.5">
+      <c r="O267"/>
+    </row>
+    <row r="268" spans="9:15" ht="13.5">
+      <c r="I268" s="55"/>
       <c r="J268"/>
-      <c r="K268"/>
+      <c r="K268" s="55"/>
       <c r="L268"/>
       <c r="M268"/>
       <c r="N268"/>
-    </row>
-    <row r="269" spans="10:14" ht="13.5">
+      <c r="O268"/>
+    </row>
+    <row r="269" spans="9:15" ht="13.5">
+      <c r="I269" s="55"/>
       <c r="J269"/>
-      <c r="K269"/>
+      <c r="K269" s="55"/>
       <c r="L269"/>
       <c r="M269"/>
       <c r="N269"/>
-    </row>
-    <row r="270" spans="10:14" ht="13.5">
+      <c r="O269"/>
+    </row>
+    <row r="270" spans="9:15" ht="13.5">
+      <c r="I270" s="55"/>
       <c r="J270"/>
-      <c r="K270"/>
+      <c r="K270" s="55"/>
       <c r="L270"/>
       <c r="M270"/>
       <c r="N270"/>
-    </row>
-    <row r="271" spans="10:14" ht="13.5">
+      <c r="O270"/>
+    </row>
+    <row r="271" spans="9:15" ht="13.5">
+      <c r="I271" s="55"/>
       <c r="J271"/>
-      <c r="K271"/>
+      <c r="K271" s="55"/>
       <c r="L271"/>
       <c r="M271"/>
       <c r="N271"/>
-    </row>
-    <row r="272" spans="10:14" ht="13.5">
+      <c r="O271"/>
+    </row>
+    <row r="272" spans="9:15" ht="13.5">
+      <c r="I272" s="55"/>
       <c r="J272"/>
-      <c r="K272"/>
+      <c r="K272" s="55"/>
       <c r="L272"/>
       <c r="M272"/>
       <c r="N272"/>
-    </row>
-    <row r="273" spans="10:14" ht="13.5">
+      <c r="O272"/>
+    </row>
+    <row r="273" spans="9:15" ht="13.5">
+      <c r="I273" s="55"/>
       <c r="J273"/>
-      <c r="K273"/>
+      <c r="K273" s="55"/>
       <c r="L273"/>
       <c r="M273"/>
       <c r="N273"/>
-    </row>
-    <row r="274" spans="10:14" ht="13.5">
+      <c r="O273"/>
+    </row>
+    <row r="274" spans="9:15" ht="13.5">
+      <c r="I274" s="55"/>
       <c r="J274"/>
-      <c r="K274"/>
+      <c r="K274" s="55"/>
       <c r="L274"/>
       <c r="M274"/>
       <c r="N274"/>
-    </row>
-    <row r="275" spans="10:14" ht="13.5">
+      <c r="O274"/>
+    </row>
+    <row r="275" spans="9:15" ht="13.5">
+      <c r="I275" s="55"/>
       <c r="J275"/>
-      <c r="K275"/>
+      <c r="K275" s="55"/>
       <c r="L275"/>
       <c r="M275"/>
       <c r="N275"/>
-    </row>
-    <row r="276" spans="10:14" ht="13.5">
+      <c r="O275"/>
+    </row>
+    <row r="276" spans="9:15" ht="13.5">
+      <c r="I276" s="55"/>
       <c r="J276"/>
-      <c r="K276"/>
+      <c r="K276" s="55"/>
       <c r="L276"/>
       <c r="M276"/>
       <c r="N276"/>
-    </row>
-    <row r="277" spans="10:14" ht="13.5">
+      <c r="O276"/>
+    </row>
+    <row r="277" spans="9:15" ht="13.5">
+      <c r="I277" s="55"/>
       <c r="J277"/>
-      <c r="K277"/>
+      <c r="K277" s="55"/>
       <c r="L277"/>
       <c r="M277"/>
       <c r="N277"/>
-    </row>
-    <row r="278" spans="10:14" ht="13.5">
+      <c r="O277"/>
+    </row>
+    <row r="278" spans="9:15" ht="13.5">
+      <c r="I278" s="55"/>
       <c r="J278"/>
-      <c r="K278"/>
+      <c r="K278" s="55"/>
       <c r="L278"/>
       <c r="M278"/>
       <c r="N278"/>
-    </row>
-    <row r="279" spans="10:14" ht="13.5">
+      <c r="O278"/>
+    </row>
+    <row r="279" spans="9:15" ht="13.5">
+      <c r="I279" s="55"/>
       <c r="J279"/>
-      <c r="K279"/>
+      <c r="K279" s="55"/>
       <c r="L279"/>
       <c r="M279"/>
       <c r="N279"/>
-    </row>
-    <row r="280" spans="10:14" ht="13.5">
+      <c r="O279"/>
+    </row>
+    <row r="280" spans="9:15" ht="13.5">
+      <c r="I280" s="55"/>
       <c r="J280"/>
-      <c r="K280"/>
+      <c r="K280" s="55"/>
       <c r="L280"/>
       <c r="M280"/>
       <c r="N280"/>
-    </row>
-    <row r="281" spans="10:14" ht="13.5">
+      <c r="O280"/>
+    </row>
+    <row r="281" spans="9:15" ht="13.5">
+      <c r="I281" s="55"/>
       <c r="J281"/>
-      <c r="K281"/>
+      <c r="K281" s="55"/>
       <c r="L281"/>
       <c r="M281"/>
       <c r="N281"/>
-    </row>
-    <row r="282" spans="10:14" ht="13.5">
+      <c r="O281"/>
+    </row>
+    <row r="282" spans="9:15" ht="13.5">
+      <c r="I282" s="55"/>
       <c r="J282"/>
-      <c r="K282"/>
+      <c r="K282" s="55"/>
       <c r="L282"/>
       <c r="M282"/>
       <c r="N282"/>
-    </row>
-    <row r="283" spans="10:14" ht="13.5">
+      <c r="O282"/>
+    </row>
+    <row r="283" spans="9:15" ht="13.5">
+      <c r="I283" s="55"/>
       <c r="J283"/>
-      <c r="K283"/>
+      <c r="K283" s="55"/>
       <c r="L283"/>
       <c r="M283"/>
       <c r="N283"/>
-    </row>
-    <row r="284" spans="10:14" ht="13.5">
+      <c r="O283"/>
+    </row>
+    <row r="284" spans="9:15" ht="13.5">
+      <c r="I284" s="55"/>
       <c r="J284"/>
-      <c r="K284"/>
+      <c r="K284" s="55"/>
       <c r="L284"/>
       <c r="M284"/>
       <c r="N284"/>
-    </row>
-    <row r="285" spans="10:14" ht="13.5">
+      <c r="O284"/>
+    </row>
+    <row r="285" spans="9:15" ht="13.5">
+      <c r="I285" s="55"/>
       <c r="J285"/>
-      <c r="K285"/>
+      <c r="K285" s="55"/>
       <c r="L285"/>
       <c r="M285"/>
       <c r="N285"/>
-    </row>
-    <row r="286" spans="10:14" ht="13.5">
+      <c r="O285"/>
+    </row>
+    <row r="286" spans="9:15" ht="13.5">
+      <c r="I286" s="55"/>
       <c r="J286"/>
-      <c r="K286"/>
+      <c r="K286" s="55"/>
       <c r="L286"/>
       <c r="M286"/>
       <c r="N286"/>
-    </row>
-    <row r="287" spans="10:14" ht="13.5">
+      <c r="O286"/>
+    </row>
+    <row r="287" spans="9:15" ht="13.5">
+      <c r="I287" s="55"/>
       <c r="J287"/>
-      <c r="K287"/>
+      <c r="K287" s="55"/>
       <c r="L287"/>
       <c r="M287"/>
       <c r="N287"/>
-    </row>
-    <row r="288" spans="10:14" ht="13.5">
+      <c r="O287"/>
+    </row>
+    <row r="288" spans="9:15" ht="13.5">
+      <c r="I288" s="55"/>
       <c r="J288"/>
-      <c r="K288"/>
+      <c r="K288" s="55"/>
       <c r="L288"/>
       <c r="M288"/>
       <c r="N288"/>
-    </row>
-    <row r="289" spans="10:14" ht="13.5">
+      <c r="O288"/>
+    </row>
+    <row r="289" spans="9:15" ht="13.5">
+      <c r="I289" s="55"/>
       <c r="J289"/>
-      <c r="K289"/>
+      <c r="K289" s="55"/>
       <c r="L289"/>
       <c r="M289"/>
       <c r="N289"/>
-    </row>
-    <row r="290" spans="10:14" ht="13.5">
+      <c r="O289"/>
+    </row>
+    <row r="290" spans="9:15" ht="13.5">
+      <c r="I290" s="55"/>
       <c r="J290"/>
-      <c r="K290"/>
+      <c r="K290" s="55"/>
       <c r="L290"/>
       <c r="M290"/>
       <c r="N290"/>
-    </row>
-    <row r="291" spans="10:14" ht="13.5">
+      <c r="O290"/>
+    </row>
+    <row r="291" spans="9:15" ht="13.5">
+      <c r="I291" s="55"/>
       <c r="J291"/>
-      <c r="K291"/>
+      <c r="K291" s="55"/>
       <c r="L291"/>
       <c r="M291"/>
       <c r="N291"/>
-    </row>
-    <row r="292" spans="10:14" ht="13.5">
+      <c r="O291"/>
+    </row>
+    <row r="292" spans="9:15" ht="13.5">
+      <c r="I292" s="55"/>
       <c r="J292"/>
-      <c r="K292"/>
+      <c r="K292" s="55"/>
       <c r="L292"/>
       <c r="M292"/>
       <c r="N292"/>
-    </row>
-    <row r="293" spans="10:14" ht="13.5">
+      <c r="O292"/>
+    </row>
+    <row r="293" spans="9:15" ht="13.5">
+      <c r="I293" s="55"/>
       <c r="J293"/>
-      <c r="K293"/>
+      <c r="K293" s="55"/>
       <c r="L293"/>
       <c r="M293"/>
       <c r="N293"/>
-    </row>
-    <row r="294" spans="10:14" ht="13.5">
+      <c r="O293"/>
+    </row>
+    <row r="294" spans="9:15" ht="13.5">
+      <c r="I294" s="55"/>
       <c r="J294"/>
-      <c r="K294"/>
+      <c r="K294" s="55"/>
       <c r="L294"/>
       <c r="M294"/>
       <c r="N294"/>
-    </row>
-    <row r="295" spans="10:14" ht="13.5">
+      <c r="O294"/>
+    </row>
+    <row r="295" spans="9:15" ht="13.5">
+      <c r="I295" s="55"/>
       <c r="J295"/>
-      <c r="K295"/>
+      <c r="K295" s="55"/>
       <c r="L295"/>
       <c r="M295"/>
       <c r="N295"/>
-    </row>
-    <row r="296" spans="10:14" ht="13.5">
+      <c r="O295"/>
+    </row>
+    <row r="296" spans="9:15" ht="13.5">
+      <c r="I296" s="55"/>
       <c r="J296"/>
-      <c r="K296"/>
+      <c r="K296" s="55"/>
       <c r="L296"/>
       <c r="M296"/>
       <c r="N296"/>
-    </row>
-    <row r="297" spans="10:14" ht="13.5">
+      <c r="O296"/>
+    </row>
+    <row r="297" spans="9:15" ht="13.5">
+      <c r="I297" s="55"/>
       <c r="J297"/>
-      <c r="K297"/>
+      <c r="K297" s="55"/>
       <c r="L297"/>
       <c r="M297"/>
       <c r="N297"/>
-    </row>
-    <row r="298" spans="10:14" ht="13.5">
+      <c r="O297"/>
+    </row>
+    <row r="298" spans="9:15" ht="13.5">
+      <c r="I298" s="55"/>
       <c r="J298"/>
-      <c r="K298"/>
+      <c r="K298" s="55"/>
       <c r="L298"/>
       <c r="M298"/>
       <c r="N298"/>
-    </row>
-    <row r="299" spans="10:14" ht="13.5">
+      <c r="O298"/>
+    </row>
+    <row r="299" spans="9:15" ht="13.5">
+      <c r="I299" s="55"/>
       <c r="J299"/>
-      <c r="K299"/>
+      <c r="K299" s="55"/>
       <c r="L299"/>
       <c r="M299"/>
       <c r="N299"/>
-    </row>
-    <row r="300" spans="10:14" ht="13.5">
+      <c r="O299"/>
+    </row>
+    <row r="300" spans="9:15" ht="13.5">
+      <c r="I300" s="55"/>
       <c r="J300"/>
-      <c r="K300"/>
+      <c r="K300" s="55"/>
       <c r="L300"/>
       <c r="M300"/>
       <c r="N300"/>
-    </row>
-    <row r="301" spans="10:14" ht="13.5">
+      <c r="O300"/>
+    </row>
+    <row r="301" spans="9:15" ht="13.5">
+      <c r="I301" s="55"/>
       <c r="J301"/>
-      <c r="K301"/>
+      <c r="K301" s="55"/>
       <c r="L301"/>
       <c r="M301"/>
       <c r="N301"/>
-    </row>
-    <row r="302" spans="10:14" ht="13.5">
+      <c r="O301"/>
+    </row>
+    <row r="302" spans="9:15" ht="13.5">
+      <c r="I302" s="55"/>
       <c r="J302"/>
-      <c r="K302"/>
+      <c r="K302" s="55"/>
       <c r="L302"/>
       <c r="M302"/>
       <c r="N302"/>
-    </row>
-    <row r="303" spans="10:14" ht="13.5">
+      <c r="O302"/>
+    </row>
+    <row r="303" spans="9:15" ht="13.5">
+      <c r="I303" s="55"/>
       <c r="J303"/>
-      <c r="K303"/>
+      <c r="K303" s="55"/>
       <c r="L303"/>
       <c r="M303"/>
       <c r="N303"/>
-    </row>
-    <row r="304" spans="10:14" ht="13.5">
+      <c r="O303"/>
+    </row>
+    <row r="304" spans="9:15" ht="13.5">
+      <c r="I304" s="55"/>
       <c r="J304"/>
-      <c r="K304"/>
+      <c r="K304" s="55"/>
       <c r="L304"/>
       <c r="M304"/>
       <c r="N304"/>
-    </row>
-    <row r="305" spans="10:14" ht="13.5">
+      <c r="O304"/>
+    </row>
+    <row r="305" spans="9:15" ht="13.5">
+      <c r="I305" s="55"/>
       <c r="J305"/>
-      <c r="K305"/>
+      <c r="K305" s="55"/>
       <c r="L305"/>
       <c r="M305"/>
       <c r="N305"/>
-    </row>
-    <row r="306" spans="10:14" ht="13.5">
+      <c r="O305"/>
+    </row>
+    <row r="306" spans="9:15" ht="13.5">
+      <c r="I306" s="55"/>
       <c r="J306"/>
-      <c r="K306"/>
+      <c r="K306" s="55"/>
       <c r="L306"/>
       <c r="M306"/>
       <c r="N306"/>
-    </row>
-    <row r="307" spans="10:14" ht="13.5">
+      <c r="O306"/>
+    </row>
+    <row r="307" spans="9:15" ht="13.5">
+      <c r="I307" s="55"/>
       <c r="J307"/>
-      <c r="K307"/>
+      <c r="K307" s="55"/>
       <c r="L307"/>
       <c r="M307"/>
       <c r="N307"/>
-    </row>
-    <row r="308" spans="10:14" ht="13.5">
+      <c r="O307"/>
+    </row>
+    <row r="308" spans="9:15" ht="13.5">
+      <c r="I308" s="55"/>
       <c r="J308"/>
-      <c r="K308"/>
+      <c r="K308" s="55"/>
       <c r="L308"/>
       <c r="M308"/>
       <c r="N308"/>
-    </row>
-    <row r="309" spans="10:14" ht="13.5">
+      <c r="O308"/>
+    </row>
+    <row r="309" spans="9:15" ht="13.5">
+      <c r="I309" s="55"/>
       <c r="J309"/>
-      <c r="K309"/>
+      <c r="K309" s="55"/>
       <c r="L309"/>
       <c r="M309"/>
       <c r="N309"/>
-    </row>
-    <row r="310" spans="10:14" ht="13.5">
+      <c r="O309"/>
+    </row>
+    <row r="310" spans="9:15" ht="13.5">
+      <c r="I310" s="55"/>
       <c r="J310"/>
-      <c r="K310"/>
+      <c r="K310" s="55"/>
       <c r="L310"/>
       <c r="M310"/>
       <c r="N310"/>
-    </row>
-    <row r="311" spans="10:14" ht="13.5">
+      <c r="O310"/>
+    </row>
+    <row r="311" spans="9:15" ht="13.5">
+      <c r="I311" s="55"/>
       <c r="J311"/>
-      <c r="K311"/>
+      <c r="K311" s="55"/>
       <c r="L311"/>
       <c r="M311"/>
       <c r="N311"/>
-    </row>
-    <row r="312" spans="10:14" ht="13.5">
+      <c r="O311"/>
+    </row>
+    <row r="312" spans="9:15" ht="13.5">
+      <c r="I312" s="55"/>
       <c r="J312"/>
-      <c r="K312"/>
+      <c r="K312" s="55"/>
       <c r="L312"/>
       <c r="M312"/>
       <c r="N312"/>
-    </row>
-    <row r="313" spans="10:14" ht="13.5">
+      <c r="O312"/>
+    </row>
+    <row r="313" spans="9:15" ht="13.5">
+      <c r="I313" s="55"/>
       <c r="J313"/>
-      <c r="K313"/>
+      <c r="K313" s="55"/>
       <c r="L313"/>
       <c r="M313"/>
       <c r="N313"/>
-    </row>
-    <row r="314" spans="10:14" ht="13.5">
+      <c r="O313"/>
+    </row>
+    <row r="314" spans="9:15" ht="13.5">
+      <c r="I314" s="55"/>
       <c r="J314"/>
-      <c r="K314"/>
+      <c r="K314" s="55"/>
       <c r="L314"/>
       <c r="M314"/>
       <c r="N314"/>
-    </row>
-    <row r="315" spans="10:14" ht="13.5">
+      <c r="O314"/>
+    </row>
+    <row r="315" spans="9:15" ht="13.5">
+      <c r="I315" s="55"/>
       <c r="J315"/>
-      <c r="K315"/>
+      <c r="K315" s="55"/>
       <c r="L315"/>
       <c r="M315"/>
       <c r="N315"/>
-    </row>
-    <row r="316" spans="10:14" ht="13.5">
+      <c r="O315"/>
+    </row>
+    <row r="316" spans="9:15" ht="13.5">
+      <c r="I316" s="55"/>
       <c r="J316"/>
-      <c r="K316"/>
+      <c r="K316" s="55"/>
       <c r="L316"/>
       <c r="M316"/>
       <c r="N316"/>
-    </row>
-    <row r="317" spans="10:14" ht="13.5">
+      <c r="O316"/>
+    </row>
+    <row r="317" spans="9:15" ht="13.5">
+      <c r="I317" s="55"/>
       <c r="J317"/>
-      <c r="K317"/>
+      <c r="K317" s="55"/>
       <c r="L317"/>
       <c r="M317"/>
       <c r="N317"/>
-    </row>
-    <row r="318" spans="10:14" ht="13.5">
+      <c r="O317"/>
+    </row>
+    <row r="318" spans="9:15" ht="13.5">
+      <c r="I318" s="55"/>
       <c r="J318"/>
-      <c r="K318"/>
+      <c r="K318" s="55"/>
       <c r="L318"/>
       <c r="M318"/>
       <c r="N318"/>
-    </row>
-    <row r="319" spans="10:14" ht="13.5">
+      <c r="O318"/>
+    </row>
+    <row r="319" spans="9:15" ht="13.5">
+      <c r="I319" s="55"/>
       <c r="J319"/>
-      <c r="K319"/>
+      <c r="K319" s="55"/>
       <c r="L319"/>
       <c r="M319"/>
       <c r="N319"/>
-    </row>
-    <row r="320" spans="10:14" ht="13.5">
+      <c r="O319"/>
+    </row>
+    <row r="320" spans="9:15" ht="13.5">
+      <c r="I320" s="55"/>
       <c r="J320"/>
-      <c r="K320"/>
+      <c r="K320" s="55"/>
       <c r="L320"/>
       <c r="M320"/>
       <c r="N320"/>
-    </row>
-    <row r="321" spans="10:14" ht="13.5">
+      <c r="O320"/>
+    </row>
+    <row r="321" spans="9:15" ht="13.5">
+      <c r="I321" s="55"/>
       <c r="J321"/>
-      <c r="K321"/>
+      <c r="K321" s="55"/>
       <c r="L321"/>
       <c r="M321"/>
       <c r="N321"/>
-    </row>
-    <row r="322" spans="10:14" ht="13.5">
+      <c r="O321"/>
+    </row>
+    <row r="322" spans="9:15" ht="13.5">
+      <c r="I322" s="55"/>
       <c r="J322"/>
-      <c r="K322"/>
+      <c r="K322" s="55"/>
       <c r="L322"/>
       <c r="M322"/>
       <c r="N322"/>
-    </row>
-    <row r="323" spans="10:14" ht="13.5">
+      <c r="O322"/>
+    </row>
+    <row r="323" spans="9:15" ht="13.5">
+      <c r="I323" s="55"/>
       <c r="J323"/>
-      <c r="K323"/>
+      <c r="K323" s="55"/>
       <c r="L323"/>
       <c r="M323"/>
       <c r="N323"/>
-    </row>
-    <row r="324" spans="10:14" ht="13.5">
+      <c r="O323"/>
+    </row>
+    <row r="324" spans="9:15" ht="13.5">
+      <c r="I324" s="55"/>
       <c r="J324"/>
-      <c r="K324"/>
+      <c r="K324" s="55"/>
       <c r="L324"/>
       <c r="M324"/>
       <c r="N324"/>
-    </row>
-    <row r="325" spans="10:14" ht="13.5">
+      <c r="O324"/>
+    </row>
+    <row r="325" spans="9:15" ht="13.5">
+      <c r="I325" s="55"/>
       <c r="J325"/>
-      <c r="K325"/>
+      <c r="K325" s="55"/>
       <c r="L325"/>
       <c r="M325"/>
       <c r="N325"/>
-    </row>
-    <row r="326" spans="10:14" ht="13.5">
+      <c r="O325"/>
+    </row>
+    <row r="326" spans="9:15" ht="13.5">
+      <c r="I326" s="55"/>
       <c r="J326"/>
-      <c r="K326"/>
+      <c r="K326" s="55"/>
       <c r="L326"/>
       <c r="M326"/>
       <c r="N326"/>
-    </row>
-    <row r="327" spans="10:14" ht="13.5">
+      <c r="O326"/>
+    </row>
+    <row r="327" spans="9:15" ht="13.5">
+      <c r="I327" s="55"/>
       <c r="J327"/>
-      <c r="K327"/>
+      <c r="K327" s="55"/>
       <c r="L327"/>
       <c r="M327"/>
       <c r="N327"/>
-    </row>
-    <row r="328" spans="10:14" ht="13.5">
+      <c r="O327"/>
+    </row>
+    <row r="328" spans="9:15" ht="13.5">
+      <c r="I328" s="55"/>
       <c r="J328"/>
-      <c r="K328"/>
+      <c r="K328" s="55"/>
       <c r="L328"/>
       <c r="M328"/>
       <c r="N328"/>
-    </row>
-    <row r="329" spans="10:14" ht="13.5">
+      <c r="O328"/>
+    </row>
+    <row r="329" spans="9:15" ht="13.5">
+      <c r="I329" s="55"/>
       <c r="J329"/>
-      <c r="K329"/>
+      <c r="K329" s="55"/>
       <c r="L329"/>
       <c r="M329"/>
       <c r="N329"/>
-    </row>
-    <row r="330" spans="10:14" ht="13.5">
+      <c r="O329"/>
+    </row>
+    <row r="330" spans="9:15" ht="13.5">
+      <c r="I330" s="55"/>
       <c r="J330"/>
-      <c r="K330"/>
+      <c r="K330" s="55"/>
       <c r="L330"/>
       <c r="M330"/>
       <c r="N330"/>
-    </row>
-    <row r="331" spans="10:14" ht="13.5">
+      <c r="O330"/>
+    </row>
+    <row r="331" spans="9:15" ht="13.5">
+      <c r="I331" s="55"/>
       <c r="J331"/>
-      <c r="K331"/>
+      <c r="K331" s="55"/>
       <c r="L331"/>
       <c r="M331"/>
       <c r="N331"/>
-    </row>
-    <row r="332" spans="10:14" ht="13.5">
+      <c r="O331"/>
+    </row>
+    <row r="332" spans="9:15" ht="13.5">
+      <c r="I332" s="55"/>
       <c r="J332"/>
-      <c r="K332"/>
+      <c r="K332" s="55"/>
       <c r="L332"/>
       <c r="M332"/>
       <c r="N332"/>
-    </row>
-    <row r="333" spans="10:14" ht="13.5">
+      <c r="O332"/>
+    </row>
+    <row r="333" spans="9:15" ht="13.5">
+      <c r="I333" s="55"/>
       <c r="J333"/>
-      <c r="K333"/>
+      <c r="K333" s="55"/>
       <c r="L333"/>
       <c r="M333"/>
       <c r="N333"/>
-    </row>
-    <row r="334" spans="10:14" ht="13.5">
+      <c r="O333"/>
+    </row>
+    <row r="334" spans="9:15" ht="13.5">
+      <c r="I334" s="55"/>
       <c r="J334"/>
-      <c r="K334"/>
+      <c r="K334" s="55"/>
       <c r="L334"/>
       <c r="M334"/>
       <c r="N334"/>
-    </row>
-    <row r="335" spans="10:14" ht="13.5">
+      <c r="O334"/>
+    </row>
+    <row r="335" spans="9:15" ht="13.5">
+      <c r="I335" s="55"/>
       <c r="J335"/>
-      <c r="K335"/>
+      <c r="K335" s="55"/>
       <c r="L335"/>
       <c r="M335"/>
       <c r="N335"/>
-    </row>
-    <row r="336" spans="10:14" ht="13.5">
+      <c r="O335"/>
+    </row>
+    <row r="336" spans="9:15" ht="13.5">
+      <c r="I336" s="55"/>
       <c r="J336"/>
-      <c r="K336"/>
+      <c r="K336" s="55"/>
       <c r="L336"/>
       <c r="M336"/>
       <c r="N336"/>
-    </row>
-    <row r="337" spans="10:14" ht="13.5">
+      <c r="O336"/>
+    </row>
+    <row r="337" spans="9:15" ht="13.5">
+      <c r="I337" s="55"/>
       <c r="J337"/>
-      <c r="K337"/>
+      <c r="K337" s="55"/>
       <c r="L337"/>
       <c r="M337"/>
       <c r="N337"/>
-    </row>
-    <row r="338" spans="10:14" ht="13.5">
+      <c r="O337"/>
+    </row>
+    <row r="338" spans="9:15" ht="13.5">
+      <c r="I338" s="55"/>
       <c r="J338"/>
-      <c r="K338"/>
+      <c r="K338" s="55"/>
       <c r="L338"/>
       <c r="M338"/>
       <c r="N338"/>
-    </row>
-    <row r="339" spans="10:14" ht="13.5">
+      <c r="O338"/>
+    </row>
+    <row r="339" spans="9:15" ht="13.5">
+      <c r="I339" s="55"/>
       <c r="J339"/>
-      <c r="K339"/>
+      <c r="K339" s="55"/>
       <c r="L339"/>
       <c r="M339"/>
       <c r="N339"/>
-    </row>
-    <row r="340" spans="10:14" ht="13.5">
+      <c r="O339"/>
+    </row>
+    <row r="340" spans="9:15" ht="13.5">
+      <c r="I340" s="55"/>
       <c r="J340"/>
-      <c r="K340"/>
+      <c r="K340" s="55"/>
       <c r="L340"/>
       <c r="M340"/>
       <c r="N340"/>
-    </row>
-    <row r="341" spans="10:14" ht="13.5">
+      <c r="O340"/>
+    </row>
+    <row r="341" spans="9:15" ht="13.5">
+      <c r="I341" s="55"/>
       <c r="J341"/>
-      <c r="K341"/>
+      <c r="K341" s="55"/>
       <c r="L341"/>
       <c r="M341"/>
       <c r="N341"/>
-    </row>
-    <row r="342" spans="10:14" ht="13.5">
+      <c r="O341"/>
+    </row>
+    <row r="342" spans="9:15" ht="13.5">
+      <c r="I342" s="55"/>
       <c r="J342"/>
-      <c r="K342"/>
+      <c r="K342" s="55"/>
       <c r="L342"/>
       <c r="M342"/>
       <c r="N342"/>
-    </row>
-    <row r="343" spans="10:14" ht="13.5">
+      <c r="O342"/>
+    </row>
+    <row r="343" spans="9:15" ht="13.5">
+      <c r="I343" s="55"/>
       <c r="J343"/>
-      <c r="K343"/>
+      <c r="K343" s="55"/>
       <c r="L343"/>
       <c r="M343"/>
       <c r="N343"/>
-    </row>
-    <row r="344" spans="10:14" ht="13.5">
+      <c r="O343"/>
+    </row>
+    <row r="344" spans="9:15" ht="13.5">
+      <c r="I344" s="55"/>
       <c r="J344"/>
-      <c r="K344"/>
+      <c r="K344" s="55"/>
       <c r="L344"/>
       <c r="M344"/>
       <c r="N344"/>
-    </row>
-    <row r="345" spans="10:14" ht="13.5">
+      <c r="O344"/>
+    </row>
+    <row r="345" spans="9:15" ht="13.5">
+      <c r="I345" s="55"/>
       <c r="J345"/>
-      <c r="K345"/>
+      <c r="K345" s="55"/>
       <c r="L345"/>
       <c r="M345"/>
       <c r="N345"/>
-    </row>
-    <row r="346" spans="10:14" ht="13.5">
+      <c r="O345"/>
+    </row>
+    <row r="346" spans="9:15" ht="13.5">
+      <c r="I346" s="55"/>
       <c r="J346"/>
-      <c r="K346"/>
+      <c r="K346" s="55"/>
       <c r="L346"/>
       <c r="M346"/>
       <c r="N346"/>
-    </row>
-    <row r="347" spans="10:14" ht="13.5">
+      <c r="O346"/>
+    </row>
+    <row r="347" spans="9:15" ht="13.5">
+      <c r="I347" s="55"/>
       <c r="J347"/>
-      <c r="K347"/>
+      <c r="K347" s="55"/>
       <c r="L347"/>
       <c r="M347"/>
       <c r="N347"/>
-    </row>
-    <row r="348" spans="10:14" ht="13.5">
+      <c r="O347"/>
+    </row>
+    <row r="348" spans="9:15" ht="13.5">
+      <c r="I348" s="55"/>
       <c r="J348"/>
-      <c r="K348"/>
+      <c r="K348" s="55"/>
       <c r="L348"/>
       <c r="M348"/>
       <c r="N348"/>
-    </row>
-    <row r="349" spans="10:14" ht="13.5">
+      <c r="O348"/>
+    </row>
+    <row r="349" spans="9:15" ht="13.5">
+      <c r="I349" s="55"/>
       <c r="J349"/>
-      <c r="K349"/>
+      <c r="K349" s="55"/>
       <c r="L349"/>
       <c r="M349"/>
       <c r="N349"/>
-    </row>
-    <row r="350" spans="10:14" ht="13.5">
+      <c r="O349"/>
+    </row>
+    <row r="350" spans="9:15" ht="13.5">
+      <c r="I350" s="55"/>
       <c r="J350"/>
-      <c r="K350"/>
+      <c r="K350" s="55"/>
       <c r="L350"/>
       <c r="M350"/>
       <c r="N350"/>
-    </row>
-    <row r="351" spans="10:14" ht="13.5">
+      <c r="O350"/>
+    </row>
+    <row r="351" spans="9:15" ht="13.5">
+      <c r="I351" s="55"/>
       <c r="J351"/>
-      <c r="K351"/>
+      <c r="K351" s="55"/>
       <c r="L351"/>
       <c r="M351"/>
       <c r="N351"/>
-    </row>
-    <row r="352" spans="10:14" ht="13.5">
+      <c r="O351"/>
+    </row>
+    <row r="352" spans="9:15" ht="13.5">
+      <c r="I352" s="55"/>
       <c r="J352"/>
-      <c r="K352"/>
+      <c r="K352" s="55"/>
       <c r="L352"/>
       <c r="M352"/>
       <c r="N352"/>
-    </row>
-    <row r="353" spans="10:14" ht="13.5">
+      <c r="O352"/>
+    </row>
+    <row r="353" spans="9:15" ht="13.5">
+      <c r="I353" s="55"/>
       <c r="J353"/>
-      <c r="K353"/>
+      <c r="K353" s="55"/>
       <c r="L353"/>
       <c r="M353"/>
       <c r="N353"/>
-    </row>
-    <row r="354" spans="10:14" ht="13.5">
+      <c r="O353"/>
+    </row>
+    <row r="354" spans="9:15" ht="13.5">
+      <c r="I354" s="55"/>
       <c r="J354"/>
-      <c r="K354"/>
+      <c r="K354" s="55"/>
       <c r="L354"/>
       <c r="M354"/>
       <c r="N354"/>
-    </row>
-    <row r="355" spans="10:14" ht="13.5">
+      <c r="O354"/>
+    </row>
+    <row r="355" spans="9:15" ht="13.5">
+      <c r="I355" s="55"/>
       <c r="J355"/>
-      <c r="K355"/>
+      <c r="K355" s="55"/>
       <c r="L355"/>
       <c r="M355"/>
       <c r="N355"/>
-    </row>
-    <row r="356" spans="10:14" ht="13.5">
+      <c r="O355"/>
+    </row>
+    <row r="356" spans="9:15" ht="13.5">
+      <c r="I356" s="55"/>
       <c r="J356"/>
-      <c r="K356"/>
+      <c r="K356" s="55"/>
       <c r="L356"/>
       <c r="M356"/>
       <c r="N356"/>
-    </row>
-    <row r="357" spans="10:14" ht="13.5">
+      <c r="O356"/>
+    </row>
+    <row r="357" spans="9:15" ht="13.5">
+      <c r="I357" s="55"/>
       <c r="J357"/>
-      <c r="K357"/>
+      <c r="K357" s="55"/>
       <c r="L357"/>
       <c r="M357"/>
       <c r="N357"/>
-    </row>
-    <row r="358" spans="10:14" ht="13.5">
+      <c r="O357"/>
+    </row>
+    <row r="358" spans="9:15" ht="13.5">
+      <c r="I358" s="55"/>
       <c r="J358"/>
-      <c r="K358"/>
+      <c r="K358" s="55"/>
       <c r="L358"/>
       <c r="M358"/>
       <c r="N358"/>
-    </row>
-    <row r="359" spans="10:14" ht="13.5">
+      <c r="O358"/>
+    </row>
+    <row r="359" spans="9:15" ht="13.5">
+      <c r="I359" s="55"/>
       <c r="J359"/>
-      <c r="K359"/>
+      <c r="K359" s="55"/>
       <c r="L359"/>
       <c r="M359"/>
       <c r="N359"/>
-    </row>
-    <row r="360" spans="10:14" ht="13.5">
+      <c r="O359"/>
+    </row>
+    <row r="360" spans="9:15" ht="13.5">
+      <c r="I360" s="55"/>
       <c r="J360"/>
-      <c r="K360"/>
+      <c r="K360" s="55"/>
       <c r="L360"/>
       <c r="M360"/>
       <c r="N360"/>
-    </row>
-    <row r="361" spans="10:14" ht="13.5">
+      <c r="O360"/>
+    </row>
+    <row r="361" spans="9:15" ht="13.5">
+      <c r="I361" s="55"/>
       <c r="J361"/>
-      <c r="K361"/>
+      <c r="K361" s="55"/>
       <c r="L361"/>
       <c r="M361"/>
       <c r="N361"/>
-    </row>
-    <row r="362" spans="10:14" ht="13.5">
+      <c r="O361"/>
+    </row>
+    <row r="362" spans="9:15" ht="13.5">
+      <c r="I362" s="55"/>
       <c r="J362"/>
-      <c r="K362"/>
+      <c r="K362" s="55"/>
       <c r="L362"/>
       <c r="M362"/>
       <c r="N362"/>
-    </row>
-    <row r="363" spans="10:14" ht="13.5">
+      <c r="O362"/>
+    </row>
+    <row r="363" spans="9:15" ht="13.5">
+      <c r="I363" s="55"/>
       <c r="J363"/>
-      <c r="K363"/>
+      <c r="K363" s="55"/>
       <c r="L363"/>
       <c r="M363"/>
       <c r="N363"/>
-    </row>
-    <row r="364" spans="10:14" ht="13.5">
+      <c r="O363"/>
+    </row>
+    <row r="364" spans="9:15" ht="13.5">
+      <c r="I364" s="55"/>
       <c r="J364"/>
-      <c r="K364"/>
+      <c r="K364" s="55"/>
       <c r="L364"/>
       <c r="M364"/>
       <c r="N364"/>
-    </row>
-    <row r="365" spans="10:14" ht="13.5">
+      <c r="O364"/>
+    </row>
+    <row r="365" spans="9:15" ht="13.5">
+      <c r="I365" s="55"/>
       <c r="J365"/>
-      <c r="K365"/>
+      <c r="K365" s="55"/>
       <c r="L365"/>
       <c r="M365"/>
       <c r="N365"/>
-    </row>
-    <row r="366" spans="10:14" ht="13.5">
+      <c r="O365"/>
+    </row>
+    <row r="366" spans="9:15" ht="13.5">
+      <c r="I366" s="55"/>
       <c r="J366"/>
-      <c r="K366"/>
+      <c r="K366" s="55"/>
       <c r="L366"/>
       <c r="M366"/>
       <c r="N366"/>
-    </row>
-    <row r="367" spans="10:14" ht="13.5">
+      <c r="O366"/>
+    </row>
+    <row r="367" spans="9:15" ht="13.5">
+      <c r="I367" s="55"/>
       <c r="J367"/>
-      <c r="K367"/>
+      <c r="K367" s="55"/>
       <c r="L367"/>
       <c r="M367"/>
       <c r="N367"/>
-    </row>
-    <row r="368" spans="10:14" ht="13.5">
+      <c r="O367"/>
+    </row>
+    <row r="368" spans="9:15" ht="13.5">
+      <c r="I368" s="55"/>
       <c r="J368"/>
-      <c r="K368"/>
+      <c r="K368" s="55"/>
       <c r="L368"/>
       <c r="M368"/>
       <c r="N368"/>
-    </row>
-    <row r="369" spans="10:14" ht="13.5">
+      <c r="O368"/>
+    </row>
+    <row r="369" spans="9:15" ht="13.5">
+      <c r="I369" s="55"/>
       <c r="J369"/>
-      <c r="K369"/>
+      <c r="K369" s="55"/>
       <c r="L369"/>
       <c r="M369"/>
       <c r="N369"/>
-    </row>
-    <row r="370" spans="10:14" ht="13.5">
+      <c r="O369"/>
+    </row>
+    <row r="370" spans="9:15" ht="13.5">
+      <c r="I370" s="55"/>
       <c r="J370"/>
-      <c r="K370"/>
+      <c r="K370" s="55"/>
       <c r="L370"/>
       <c r="M370"/>
       <c r="N370"/>
-    </row>
-    <row r="371" spans="10:14" ht="13.5">
+      <c r="O370"/>
+    </row>
+    <row r="371" spans="9:15" ht="13.5">
+      <c r="I371" s="55"/>
       <c r="J371"/>
-      <c r="K371"/>
+      <c r="K371" s="55"/>
       <c r="L371"/>
       <c r="M371"/>
       <c r="N371"/>
-    </row>
-    <row r="372" spans="10:14" ht="13.5">
+      <c r="O371"/>
+    </row>
+    <row r="372" spans="9:15" ht="13.5">
+      <c r="I372" s="55"/>
       <c r="J372"/>
-      <c r="K372"/>
+      <c r="K372" s="55"/>
       <c r="L372"/>
       <c r="M372"/>
       <c r="N372"/>
-    </row>
-    <row r="373" spans="10:14" ht="13.5">
+      <c r="O372"/>
+    </row>
+    <row r="373" spans="9:15" ht="13.5">
+      <c r="I373" s="55"/>
       <c r="J373"/>
-      <c r="K373"/>
+      <c r="K373" s="55"/>
       <c r="L373"/>
       <c r="M373"/>
       <c r="N373"/>
-    </row>
-    <row r="374" spans="10:14" ht="13.5">
+      <c r="O373"/>
+    </row>
+    <row r="374" spans="9:15" ht="13.5">
+      <c r="I374" s="55"/>
       <c r="J374"/>
-      <c r="K374"/>
+      <c r="K374" s="55"/>
       <c r="L374"/>
       <c r="M374"/>
       <c r="N374"/>
-    </row>
-    <row r="375" spans="10:14" ht="13.5">
+      <c r="O374"/>
+    </row>
+    <row r="375" spans="9:15" ht="13.5">
+      <c r="I375" s="55"/>
       <c r="J375"/>
-      <c r="K375"/>
+      <c r="K375" s="55"/>
       <c r="L375"/>
       <c r="M375"/>
       <c r="N375"/>
-    </row>
-    <row r="376" spans="10:14" ht="13.5">
+      <c r="O375"/>
+    </row>
+    <row r="376" spans="9:15" ht="13.5">
+      <c r="I376" s="55"/>
       <c r="J376"/>
-      <c r="K376"/>
+      <c r="K376" s="55"/>
       <c r="L376"/>
       <c r="M376"/>
       <c r="N376"/>
-    </row>
-    <row r="377" spans="10:14" ht="13.5">
+      <c r="O376"/>
+    </row>
+    <row r="377" spans="9:15" ht="13.5">
+      <c r="I377" s="55"/>
       <c r="J377"/>
-      <c r="K377"/>
+      <c r="K377" s="55"/>
       <c r="L377"/>
       <c r="M377"/>
       <c r="N377"/>
-    </row>
-    <row r="378" spans="10:14" ht="13.5">
+      <c r="O377"/>
+    </row>
+    <row r="378" spans="9:15" ht="13.5">
+      <c r="I378" s="55"/>
       <c r="J378"/>
-      <c r="K378"/>
+      <c r="K378" s="55"/>
       <c r="L378"/>
       <c r="M378"/>
       <c r="N378"/>
-    </row>
-    <row r="379" spans="10:14" ht="13.5">
+      <c r="O378"/>
+    </row>
+    <row r="379" spans="9:15" ht="13.5">
+      <c r="I379" s="55"/>
       <c r="J379"/>
-      <c r="K379"/>
+      <c r="K379" s="55"/>
       <c r="L379"/>
       <c r="M379"/>
       <c r="N379"/>
-    </row>
-    <row r="380" spans="10:14" ht="13.5">
+      <c r="O379"/>
+    </row>
+    <row r="380" spans="9:15" ht="13.5">
+      <c r="I380" s="55"/>
       <c r="J380"/>
-      <c r="K380"/>
+      <c r="K380" s="55"/>
       <c r="L380"/>
       <c r="M380"/>
       <c r="N380"/>
-    </row>
-    <row r="381" spans="10:14" ht="13.5">
+      <c r="O380"/>
+    </row>
+    <row r="381" spans="9:15" ht="13.5">
+      <c r="I381" s="55"/>
       <c r="J381"/>
-      <c r="K381"/>
+      <c r="K381" s="55"/>
       <c r="L381"/>
       <c r="M381"/>
       <c r="N381"/>
-    </row>
-    <row r="382" spans="10:14" ht="13.5">
+      <c r="O381"/>
+    </row>
+    <row r="382" spans="9:15" ht="13.5">
+      <c r="I382" s="55"/>
       <c r="J382"/>
-      <c r="K382"/>
+      <c r="K382" s="55"/>
       <c r="L382"/>
       <c r="M382"/>
       <c r="N382"/>
-    </row>
-    <row r="383" spans="10:14" ht="13.5">
+      <c r="O382"/>
+    </row>
+    <row r="383" spans="9:15" ht="13.5">
+      <c r="I383" s="55"/>
       <c r="J383"/>
-      <c r="K383"/>
+      <c r="K383" s="55"/>
       <c r="L383"/>
       <c r="M383"/>
       <c r="N383"/>
-    </row>
-    <row r="384" spans="10:14" ht="13.5">
+      <c r="O383"/>
+    </row>
+    <row r="384" spans="9:15" ht="13.5">
+      <c r="I384" s="55"/>
       <c r="J384"/>
-      <c r="K384"/>
+      <c r="K384" s="55"/>
       <c r="L384"/>
       <c r="M384"/>
       <c r="N384"/>
-    </row>
-    <row r="385" spans="10:14" ht="13.5">
+      <c r="O384"/>
+    </row>
+    <row r="385" spans="9:15" ht="13.5">
+      <c r="I385" s="55"/>
       <c r="J385"/>
-      <c r="K385"/>
+      <c r="K385" s="55"/>
       <c r="L385"/>
       <c r="M385"/>
       <c r="N385"/>
-    </row>
-    <row r="386" spans="10:14" ht="13.5">
+      <c r="O385"/>
+    </row>
+    <row r="386" spans="9:15" ht="13.5">
+      <c r="I386" s="55"/>
       <c r="J386"/>
-      <c r="K386"/>
+      <c r="K386" s="55"/>
       <c r="L386"/>
       <c r="M386"/>
       <c r="N386"/>
-    </row>
-    <row r="387" spans="10:14" ht="13.5">
+      <c r="O386"/>
+    </row>
+    <row r="387" spans="9:15" ht="13.5">
+      <c r="I387" s="55"/>
       <c r="J387"/>
-      <c r="K387"/>
+      <c r="K387" s="55"/>
       <c r="L387"/>
       <c r="M387"/>
       <c r="N387"/>
-    </row>
-    <row r="388" spans="10:14" ht="13.5">
+      <c r="O387"/>
+    </row>
+    <row r="388" spans="9:15" ht="13.5">
+      <c r="I388" s="55"/>
       <c r="J388"/>
-      <c r="K388"/>
+      <c r="K388" s="55"/>
       <c r="L388"/>
       <c r="M388"/>
       <c r="N388"/>
-    </row>
-    <row r="389" spans="10:14" ht="13.5">
+      <c r="O388"/>
+    </row>
+    <row r="389" spans="9:15" ht="13.5">
+      <c r="I389" s="55"/>
       <c r="J389"/>
-      <c r="K389"/>
+      <c r="K389" s="55"/>
       <c r="L389"/>
       <c r="M389"/>
       <c r="N389"/>
-    </row>
-    <row r="390" spans="10:14" ht="13.5">
+      <c r="O389"/>
+    </row>
+    <row r="390" spans="9:15" ht="13.5">
+      <c r="I390" s="55"/>
       <c r="J390"/>
-      <c r="K390"/>
+      <c r="K390" s="55"/>
       <c r="L390"/>
       <c r="M390"/>
       <c r="N390"/>
-    </row>
-    <row r="391" spans="10:14" ht="13.5">
+      <c r="O390"/>
+    </row>
+    <row r="391" spans="9:15" ht="13.5">
+      <c r="I391" s="55"/>
       <c r="J391"/>
-      <c r="K391"/>
+      <c r="K391" s="55"/>
       <c r="L391"/>
       <c r="M391"/>
       <c r="N391"/>
-    </row>
-    <row r="392" spans="10:14" ht="13.5">
+      <c r="O391"/>
+    </row>
+    <row r="392" spans="9:15" ht="13.5">
+      <c r="I392" s="55"/>
       <c r="J392"/>
-      <c r="K392"/>
+      <c r="K392" s="55"/>
       <c r="L392"/>
       <c r="M392"/>
       <c r="N392"/>
-    </row>
-    <row r="393" spans="10:14" ht="13.5">
+      <c r="O392"/>
+    </row>
+    <row r="393" spans="9:15" ht="13.5">
+      <c r="I393" s="55"/>
       <c r="J393"/>
-      <c r="K393"/>
+      <c r="K393" s="55"/>
       <c r="L393"/>
       <c r="M393"/>
       <c r="N393"/>
-    </row>
-    <row r="394" spans="10:14" ht="13.5">
+      <c r="O393"/>
+    </row>
+    <row r="394" spans="9:15" ht="13.5">
+      <c r="I394" s="55"/>
       <c r="J394"/>
-      <c r="K394"/>
+      <c r="K394" s="55"/>
       <c r="L394"/>
       <c r="M394"/>
       <c r="N394"/>
-    </row>
-    <row r="395" spans="10:14" ht="13.5">
+      <c r="O394"/>
+    </row>
+    <row r="395" spans="9:15" ht="13.5">
+      <c r="I395" s="55"/>
       <c r="J395"/>
-      <c r="K395"/>
+      <c r="K395" s="55"/>
       <c r="L395"/>
       <c r="M395"/>
       <c r="N395"/>
-    </row>
-    <row r="396" spans="10:14" ht="13.5">
+      <c r="O395"/>
+    </row>
+    <row r="396" spans="9:15" ht="13.5">
+      <c r="I396" s="55"/>
       <c r="J396"/>
-      <c r="K396"/>
+      <c r="K396" s="55"/>
       <c r="L396"/>
       <c r="M396"/>
       <c r="N396"/>
-    </row>
-    <row r="397" spans="10:14" ht="13.5">
+      <c r="O396"/>
+    </row>
+    <row r="397" spans="9:15" ht="13.5">
+      <c r="I397" s="55"/>
       <c r="J397"/>
-      <c r="K397"/>
+      <c r="K397" s="55"/>
       <c r="L397"/>
       <c r="M397"/>
       <c r="N397"/>
-    </row>
-    <row r="398" spans="10:14" ht="13.5">
+      <c r="O397"/>
+    </row>
+    <row r="398" spans="9:15" ht="13.5">
+      <c r="I398" s="55"/>
       <c r="J398"/>
-      <c r="K398"/>
+      <c r="K398" s="55"/>
       <c r="L398"/>
       <c r="M398"/>
       <c r="N398"/>
-    </row>
-    <row r="399" spans="10:14" ht="13.5">
+      <c r="O398"/>
+    </row>
+    <row r="399" spans="9:15" ht="13.5">
+      <c r="I399" s="55"/>
       <c r="J399"/>
-      <c r="K399"/>
+      <c r="K399" s="55"/>
       <c r="L399"/>
       <c r="M399"/>
       <c r="N399"/>
-    </row>
-    <row r="400" spans="10:14" ht="13.5">
+      <c r="O399"/>
+    </row>
+    <row r="400" spans="9:15" ht="13.5">
+      <c r="I400" s="55"/>
       <c r="J400"/>
-      <c r="K400"/>
+      <c r="K400" s="55"/>
       <c r="L400"/>
       <c r="M400"/>
       <c r="N400"/>
-    </row>
-    <row r="401" spans="10:14" ht="13.5">
+      <c r="O400"/>
+    </row>
+    <row r="401" spans="9:15" ht="13.5">
+      <c r="I401" s="55"/>
       <c r="J401"/>
-      <c r="K401"/>
+      <c r="K401" s="55"/>
       <c r="L401"/>
       <c r="M401"/>
       <c r="N401"/>
-    </row>
-    <row r="402" spans="10:14" ht="13.5">
+      <c r="O401"/>
+    </row>
+    <row r="402" spans="9:15" ht="13.5">
+      <c r="I402" s="55"/>
       <c r="J402"/>
-      <c r="K402"/>
+      <c r="K402" s="55"/>
       <c r="L402"/>
       <c r="M402"/>
       <c r="N402"/>
-    </row>
-    <row r="403" spans="10:14" ht="13.5">
+      <c r="O402"/>
+    </row>
+    <row r="403" spans="9:15" ht="13.5">
+      <c r="I403" s="55"/>
       <c r="J403"/>
-      <c r="K403"/>
+      <c r="K403" s="55"/>
       <c r="L403"/>
       <c r="M403"/>
       <c r="N403"/>
-    </row>
-    <row r="404" spans="10:14" ht="13.5">
+      <c r="O403"/>
+    </row>
+    <row r="404" spans="9:15" ht="13.5">
+      <c r="I404" s="55"/>
       <c r="J404"/>
-      <c r="K404"/>
+      <c r="K404" s="55"/>
       <c r="L404"/>
       <c r="M404"/>
       <c r="N404"/>
-    </row>
-    <row r="405" spans="10:14" ht="13.5">
+      <c r="O404"/>
+    </row>
+    <row r="405" spans="9:15" ht="13.5">
+      <c r="I405" s="55"/>
       <c r="J405"/>
-      <c r="K405"/>
+      <c r="K405" s="55"/>
       <c r="L405"/>
       <c r="M405"/>
       <c r="N405"/>
-    </row>
-    <row r="406" spans="10:14" ht="13.5">
+      <c r="O405"/>
+    </row>
+    <row r="406" spans="9:15" ht="13.5">
+      <c r="I406" s="55"/>
       <c r="J406"/>
-      <c r="K406"/>
+      <c r="K406" s="55"/>
       <c r="L406"/>
       <c r="M406"/>
       <c r="N406"/>
-    </row>
-    <row r="407" spans="10:14" ht="13.5">
+      <c r="O406"/>
+    </row>
+    <row r="407" spans="9:15" ht="13.5">
+      <c r="I407" s="55"/>
       <c r="J407"/>
-      <c r="K407"/>
+      <c r="K407" s="55"/>
       <c r="L407"/>
       <c r="M407"/>
       <c r="N407"/>
-    </row>
-    <row r="408" spans="10:14" ht="13.5">
+      <c r="O407"/>
+    </row>
+    <row r="408" spans="9:15" ht="13.5">
+      <c r="I408" s="55"/>
       <c r="J408"/>
-      <c r="K408"/>
+      <c r="K408" s="55"/>
       <c r="L408"/>
       <c r="M408"/>
       <c r="N408"/>
-    </row>
-    <row r="409" spans="10:14" ht="13.5">
+      <c r="O408"/>
+    </row>
+    <row r="409" spans="9:15" ht="13.5">
+      <c r="I409" s="55"/>
       <c r="J409"/>
-      <c r="K409"/>
+      <c r="K409" s="55"/>
       <c r="L409"/>
       <c r="M409"/>
       <c r="N409"/>
-    </row>
-    <row r="410" spans="10:14" ht="13.5">
+      <c r="O409"/>
+    </row>
+    <row r="410" spans="9:15" ht="13.5">
+      <c r="I410" s="55"/>
       <c r="J410"/>
-      <c r="K410"/>
+      <c r="K410" s="55"/>
       <c r="L410"/>
       <c r="M410"/>
       <c r="N410"/>
-    </row>
-    <row r="411" spans="10:14" ht="13.5">
+      <c r="O410"/>
+    </row>
+    <row r="411" spans="9:15" ht="13.5">
+      <c r="I411" s="55"/>
       <c r="J411"/>
-      <c r="K411"/>
+      <c r="K411" s="55"/>
       <c r="L411"/>
       <c r="M411"/>
       <c r="N411"/>
-    </row>
-    <row r="412" spans="10:14" ht="13.5">
+      <c r="O411"/>
+    </row>
+    <row r="412" spans="9:15" ht="13.5">
+      <c r="I412" s="55"/>
       <c r="J412"/>
-      <c r="K412"/>
+      <c r="K412" s="55"/>
       <c r="L412"/>
       <c r="M412"/>
       <c r="N412"/>
-    </row>
-    <row r="413" spans="10:14" ht="13.5">
+      <c r="O412"/>
+    </row>
+    <row r="413" spans="9:15" ht="13.5">
+      <c r="I413" s="55"/>
       <c r="J413"/>
-      <c r="K413"/>
+      <c r="K413" s="55"/>
       <c r="L413"/>
       <c r="M413"/>
       <c r="N413"/>
-    </row>
-    <row r="414" spans="10:14" ht="13.5">
+      <c r="O413"/>
+    </row>
+    <row r="414" spans="9:15" ht="13.5">
+      <c r="I414" s="55"/>
       <c r="J414"/>
-      <c r="K414"/>
+      <c r="K414" s="55"/>
       <c r="L414"/>
       <c r="M414"/>
       <c r="N414"/>
-    </row>
-    <row r="415" spans="10:14" ht="13.5">
+      <c r="O414"/>
+    </row>
+    <row r="415" spans="9:15" ht="13.5">
+      <c r="I415" s="55"/>
       <c r="J415"/>
-      <c r="K415"/>
+      <c r="K415" s="55"/>
       <c r="L415"/>
       <c r="M415"/>
       <c r="N415"/>
-    </row>
-    <row r="416" spans="10:14" ht="13.5">
+      <c r="O415"/>
+    </row>
+    <row r="416" spans="9:15" ht="13.5">
+      <c r="I416" s="55"/>
       <c r="J416"/>
-      <c r="K416"/>
+      <c r="K416" s="55"/>
       <c r="L416"/>
       <c r="M416"/>
       <c r="N416"/>
-    </row>
-    <row r="417" spans="10:14" ht="13.5">
+      <c r="O416"/>
+    </row>
+    <row r="417" spans="9:15" ht="13.5">
+      <c r="I417" s="55"/>
       <c r="J417"/>
-      <c r="K417"/>
+      <c r="K417" s="55"/>
       <c r="L417"/>
       <c r="M417"/>
       <c r="N417"/>
-    </row>
-    <row r="418" spans="10:14" ht="13.5">
+      <c r="O417"/>
+    </row>
+    <row r="418" spans="9:15" ht="13.5">
+      <c r="I418" s="55"/>
       <c r="J418"/>
-      <c r="K418"/>
+      <c r="K418" s="55"/>
       <c r="L418"/>
       <c r="M418"/>
       <c r="N418"/>
-    </row>
-    <row r="419" spans="10:14" ht="13.5">
+      <c r="O418"/>
+    </row>
+    <row r="419" spans="9:15" ht="13.5">
+      <c r="I419" s="55"/>
       <c r="J419"/>
-      <c r="K419"/>
+      <c r="K419" s="55"/>
       <c r="L419"/>
       <c r="M419"/>
       <c r="N419"/>
-    </row>
-    <row r="420" spans="10:14" ht="13.5">
+      <c r="O419"/>
+    </row>
+    <row r="420" spans="9:15" ht="13.5">
+      <c r="I420" s="55"/>
       <c r="J420"/>
-      <c r="K420"/>
+      <c r="K420" s="55"/>
       <c r="L420"/>
       <c r="M420"/>
       <c r="N420"/>
-    </row>
-    <row r="421" spans="10:14" ht="13.5">
+      <c r="O420"/>
+    </row>
+    <row r="421" spans="9:15" ht="13.5">
+      <c r="I421" s="55"/>
       <c r="J421"/>
-      <c r="K421"/>
+      <c r="K421" s="55"/>
       <c r="L421"/>
       <c r="M421"/>
       <c r="N421"/>
-    </row>
-    <row r="422" spans="10:14" ht="13.5">
+      <c r="O421"/>
+    </row>
+    <row r="422" spans="9:15" ht="13.5">
+      <c r="I422" s="55"/>
       <c r="J422"/>
-      <c r="K422"/>
+      <c r="K422" s="55"/>
       <c r="L422"/>
       <c r="M422"/>
       <c r="N422"/>
-    </row>
-    <row r="423" spans="10:14" ht="13.5">
+      <c r="O422"/>
+    </row>
+    <row r="423" spans="9:15" ht="13.5">
+      <c r="I423" s="55"/>
       <c r="J423"/>
-      <c r="K423"/>
+      <c r="K423" s="55"/>
       <c r="L423"/>
       <c r="M423"/>
       <c r="N423"/>
-    </row>
-    <row r="424" spans="10:14" ht="13.5">
+      <c r="O423"/>
+    </row>
+    <row r="424" spans="9:15" ht="13.5">
+      <c r="I424" s="55"/>
       <c r="J424"/>
-      <c r="K424"/>
+      <c r="K424" s="55"/>
       <c r="L424"/>
       <c r="M424"/>
       <c r="N424"/>
-    </row>
-    <row r="425" spans="10:14" ht="13.5">
+      <c r="O424"/>
+    </row>
+    <row r="425" spans="9:15" ht="13.5">
+      <c r="I425" s="55"/>
       <c r="J425"/>
-      <c r="K425"/>
+      <c r="K425" s="55"/>
       <c r="L425"/>
       <c r="M425"/>
       <c r="N425"/>
-    </row>
-    <row r="426" spans="10:14" ht="13.5">
+      <c r="O425"/>
+    </row>
+    <row r="426" spans="9:15" ht="13.5">
+      <c r="I426" s="55"/>
       <c r="J426"/>
-      <c r="K426"/>
+      <c r="K426" s="55"/>
       <c r="L426"/>
       <c r="M426"/>
       <c r="N426"/>
-    </row>
-    <row r="427" spans="10:14" ht="13.5">
+      <c r="O426"/>
+    </row>
+    <row r="427" spans="9:15" ht="13.5">
+      <c r="I427" s="55"/>
       <c r="J427"/>
-      <c r="K427"/>
+      <c r="K427" s="55"/>
       <c r="L427"/>
       <c r="M427"/>
       <c r="N427"/>
-    </row>
-    <row r="428" spans="10:14" ht="13.5">
+      <c r="O427"/>
+    </row>
+    <row r="428" spans="9:15" ht="13.5">
+      <c r="I428" s="55"/>
       <c r="J428"/>
-      <c r="K428"/>
+      <c r="K428" s="55"/>
       <c r="L428"/>
       <c r="M428"/>
       <c r="N428"/>
-    </row>
-    <row r="429" spans="10:14" ht="13.5">
+      <c r="O428"/>
+    </row>
+    <row r="429" spans="9:15" ht="13.5">
+      <c r="I429" s="55"/>
       <c r="J429"/>
-      <c r="K429"/>
+      <c r="K429" s="55"/>
       <c r="L429"/>
       <c r="M429"/>
       <c r="N429"/>
-    </row>
-    <row r="430" spans="10:14" ht="13.5">
+      <c r="O429"/>
+    </row>
+    <row r="430" spans="9:15" ht="13.5">
+      <c r="I430" s="55"/>
       <c r="J430"/>
-      <c r="K430"/>
+      <c r="K430" s="55"/>
       <c r="L430"/>
       <c r="M430"/>
       <c r="N430"/>
-    </row>
-    <row r="431" spans="10:14" ht="13.5">
+      <c r="O430"/>
+    </row>
+    <row r="431" spans="9:15" ht="13.5">
+      <c r="I431" s="55"/>
       <c r="J431"/>
-      <c r="K431"/>
+      <c r="K431" s="55"/>
       <c r="L431"/>
       <c r="M431"/>
       <c r="N431"/>
-    </row>
-    <row r="432" spans="10:14" ht="13.5">
+      <c r="O431"/>
+    </row>
+    <row r="432" spans="9:15" ht="13.5">
+      <c r="I432" s="55"/>
       <c r="J432"/>
-      <c r="K432"/>
+      <c r="K432" s="55"/>
       <c r="L432"/>
       <c r="M432"/>
       <c r="N432"/>
-    </row>
-    <row r="433" spans="10:14" ht="13.5">
+      <c r="O432"/>
+    </row>
+    <row r="433" spans="9:15" ht="13.5">
+      <c r="I433" s="55"/>
       <c r="J433"/>
-      <c r="K433"/>
+      <c r="K433" s="55"/>
       <c r="L433"/>
       <c r="M433"/>
       <c r="N433"/>
-    </row>
-    <row r="434" spans="10:14" ht="13.5">
+      <c r="O433"/>
+    </row>
+    <row r="434" spans="9:15" ht="13.5">
+      <c r="I434" s="55"/>
       <c r="J434"/>
-      <c r="K434"/>
+      <c r="K434" s="55"/>
       <c r="L434"/>
       <c r="M434"/>
       <c r="N434"/>
-    </row>
-    <row r="435" spans="10:14" ht="13.5">
+      <c r="O434"/>
+    </row>
+    <row r="435" spans="9:15" ht="13.5">
+      <c r="I435" s="55"/>
       <c r="J435"/>
-      <c r="K435"/>
+      <c r="K435" s="55"/>
       <c r="L435"/>
       <c r="M435"/>
       <c r="N435"/>
-    </row>
-    <row r="436" spans="10:14" ht="13.5">
+      <c r="O435"/>
+    </row>
+    <row r="436" spans="9:15" ht="13.5">
+      <c r="I436" s="55"/>
       <c r="J436"/>
-      <c r="K436"/>
+      <c r="K436" s="55"/>
       <c r="L436"/>
       <c r="M436"/>
       <c r="N436"/>
-    </row>
-    <row r="437" spans="10:14" ht="13.5">
+      <c r="O436"/>
+    </row>
+    <row r="437" spans="9:15" ht="13.5">
+      <c r="I437" s="55"/>
       <c r="J437"/>
-      <c r="K437"/>
+      <c r="K437" s="55"/>
       <c r="L437"/>
       <c r="M437"/>
       <c r="N437"/>
-    </row>
-    <row r="438" spans="10:14" ht="13.5">
+      <c r="O437"/>
+    </row>
+    <row r="438" spans="9:15" ht="13.5">
+      <c r="I438" s="55"/>
       <c r="J438"/>
-      <c r="K438"/>
+      <c r="K438" s="55"/>
       <c r="L438"/>
       <c r="M438"/>
       <c r="N438"/>
-    </row>
-    <row r="439" spans="10:14" ht="13.5">
+      <c r="O438"/>
+    </row>
+    <row r="439" spans="9:15" ht="13.5">
+      <c r="I439" s="55"/>
       <c r="J439"/>
-      <c r="K439"/>
+      <c r="K439" s="55"/>
       <c r="L439"/>
       <c r="M439"/>
       <c r="N439"/>
-    </row>
-    <row r="440" spans="10:14" ht="13.5">
+      <c r="O439"/>
+    </row>
+    <row r="440" spans="9:15" ht="13.5">
+      <c r="I440" s="55"/>
       <c r="J440"/>
-      <c r="K440"/>
+      <c r="K440" s="55"/>
       <c r="L440"/>
       <c r="M440"/>
       <c r="N440"/>
-    </row>
-    <row r="441" spans="10:14" ht="13.5">
+      <c r="O440"/>
+    </row>
+    <row r="441" spans="9:15" ht="13.5">
+      <c r="I441" s="55"/>
       <c r="J441"/>
-      <c r="K441"/>
+      <c r="K441" s="55"/>
       <c r="L441"/>
       <c r="M441"/>
       <c r="N441"/>
-    </row>
-    <row r="442" spans="10:14" ht="13.5">
+      <c r="O441"/>
+    </row>
+    <row r="442" spans="9:15" ht="13.5">
+      <c r="I442" s="55"/>
       <c r="J442"/>
-      <c r="K442"/>
+      <c r="K442" s="55"/>
       <c r="L442"/>
       <c r="M442"/>
       <c r="N442"/>
-    </row>
-    <row r="443" spans="10:14" ht="13.5">
+      <c r="O442"/>
+    </row>
+    <row r="443" spans="9:15" ht="13.5">
+      <c r="I443" s="55"/>
       <c r="J443"/>
-      <c r="K443"/>
+      <c r="K443" s="55"/>
       <c r="L443"/>
       <c r="M443"/>
       <c r="N443"/>
-    </row>
-    <row r="444" spans="10:14" ht="13.5">
+      <c r="O443"/>
+    </row>
+    <row r="444" spans="9:15" ht="13.5">
+      <c r="I444" s="55"/>
       <c r="J444"/>
-      <c r="K444"/>
+      <c r="K444" s="55"/>
       <c r="L444"/>
       <c r="M444"/>
       <c r="N444"/>
-    </row>
-    <row r="445" spans="10:14" ht="13.5">
+      <c r="O444"/>
+    </row>
+    <row r="445" spans="9:15" ht="13.5">
+      <c r="I445" s="55"/>
       <c r="J445"/>
-      <c r="K445"/>
+      <c r="K445" s="55"/>
       <c r="L445"/>
       <c r="M445"/>
       <c r="N445"/>
-    </row>
-    <row r="446" spans="10:14" ht="13.5">
+      <c r="O445"/>
+    </row>
+    <row r="446" spans="9:15" ht="13.5">
+      <c r="I446" s="55"/>
       <c r="J446"/>
-      <c r="K446"/>
+      <c r="K446" s="55"/>
       <c r="L446"/>
       <c r="M446"/>
       <c r="N446"/>
-    </row>
-    <row r="447" spans="10:14" ht="13.5">
+      <c r="O446"/>
+    </row>
+    <row r="447" spans="9:15" ht="13.5">
+      <c r="I447" s="55"/>
       <c r="J447"/>
-      <c r="K447"/>
+      <c r="K447" s="55"/>
       <c r="L447"/>
       <c r="M447"/>
       <c r="N447"/>
-    </row>
-    <row r="448" spans="10:14" ht="13.5">
+      <c r="O447"/>
+    </row>
+    <row r="448" spans="9:15" ht="13.5">
+      <c r="I448" s="55"/>
       <c r="J448"/>
-      <c r="K448"/>
+      <c r="K448" s="55"/>
       <c r="L448"/>
       <c r="M448"/>
       <c r="N448"/>
-    </row>
-    <row r="449" spans="10:14" ht="13.5">
+      <c r="O448"/>
+    </row>
+    <row r="449" spans="9:15" ht="13.5">
+      <c r="I449" s="55"/>
       <c r="J449"/>
-      <c r="K449"/>
+      <c r="K449" s="55"/>
       <c r="L449"/>
       <c r="M449"/>
       <c r="N449"/>
-    </row>
-    <row r="450" spans="10:14" ht="13.5">
+      <c r="O449"/>
+    </row>
+    <row r="450" spans="9:15" ht="13.5">
+      <c r="I450" s="55"/>
       <c r="J450"/>
-      <c r="K450"/>
+      <c r="K450" s="55"/>
       <c r="L450"/>
       <c r="M450"/>
       <c r="N450"/>
-    </row>
-    <row r="451" spans="10:14" ht="13.5">
+      <c r="O450"/>
+    </row>
+    <row r="451" spans="9:15" ht="13.5">
+      <c r="I451" s="55"/>
       <c r="J451"/>
-      <c r="K451"/>
+      <c r="K451" s="55"/>
       <c r="L451"/>
       <c r="M451"/>
       <c r="N451"/>
-    </row>
-    <row r="452" spans="10:14" ht="13.5">
+      <c r="O451"/>
+    </row>
+    <row r="452" spans="9:15" ht="13.5">
+      <c r="I452" s="55"/>
       <c r="J452"/>
-      <c r="K452"/>
+      <c r="K452" s="55"/>
       <c r="L452"/>
       <c r="M452"/>
       <c r="N452"/>
-    </row>
-    <row r="453" spans="10:14" ht="13.5">
+      <c r="O452"/>
+    </row>
+    <row r="453" spans="9:15" ht="13.5">
+      <c r="I453" s="55"/>
       <c r="J453"/>
-      <c r="K453"/>
+      <c r="K453" s="55"/>
       <c r="L453"/>
       <c r="M453"/>
       <c r="N453"/>
-    </row>
-    <row r="454" spans="10:14" ht="13.5">
+      <c r="O453"/>
+    </row>
+    <row r="454" spans="9:15" ht="13.5">
+      <c r="I454" s="55"/>
       <c r="J454"/>
-      <c r="K454"/>
+      <c r="K454" s="55"/>
       <c r="L454"/>
       <c r="M454"/>
       <c r="N454"/>
-    </row>
-    <row r="455" spans="10:14" ht="13.5">
+      <c r="O454"/>
+    </row>
+    <row r="455" spans="9:15" ht="13.5">
+      <c r="I455" s="55"/>
       <c r="J455"/>
-      <c r="K455"/>
+      <c r="K455" s="55"/>
       <c r="L455"/>
       <c r="M455"/>
       <c r="N455"/>
-    </row>
-    <row r="456" spans="10:14" ht="13.5">
+      <c r="O455"/>
+    </row>
+    <row r="456" spans="9:15" ht="13.5">
+      <c r="I456" s="55"/>
       <c r="J456"/>
-      <c r="K456"/>
+      <c r="K456" s="55"/>
       <c r="L456"/>
       <c r="M456"/>
       <c r="N456"/>
-    </row>
-    <row r="457" spans="10:14" ht="13.5">
+      <c r="O456"/>
+    </row>
+    <row r="457" spans="9:15" ht="13.5">
+      <c r="I457" s="55"/>
       <c r="J457"/>
-      <c r="K457"/>
+      <c r="K457" s="55"/>
       <c r="L457"/>
       <c r="M457"/>
       <c r="N457"/>
-    </row>
-    <row r="458" spans="10:14" ht="13.5">
+      <c r="O457"/>
+    </row>
+    <row r="458" spans="9:15" ht="13.5">
+      <c r="I458" s="55"/>
       <c r="J458"/>
-      <c r="K458"/>
+      <c r="K458" s="55"/>
       <c r="L458"/>
       <c r="M458"/>
       <c r="N458"/>
-    </row>
-    <row r="459" spans="10:14" ht="13.5">
+      <c r="O458"/>
+    </row>
+    <row r="459" spans="9:15" ht="13.5">
+      <c r="I459" s="55"/>
       <c r="J459"/>
-      <c r="K459"/>
+      <c r="K459" s="55"/>
       <c r="L459"/>
       <c r="M459"/>
       <c r="N459"/>
-    </row>
-    <row r="460" spans="10:14" ht="13.5">
+      <c r="O459"/>
+    </row>
+    <row r="460" spans="9:15" ht="13.5">
+      <c r="I460" s="55"/>
       <c r="J460"/>
-      <c r="K460"/>
+      <c r="K460" s="55"/>
       <c r="L460"/>
       <c r="M460"/>
       <c r="N460"/>
-    </row>
-    <row r="461" spans="10:14" ht="13.5">
+      <c r="O460"/>
+    </row>
+    <row r="461" spans="9:15" ht="13.5">
+      <c r="I461" s="55"/>
       <c r="J461"/>
-      <c r="K461"/>
+      <c r="K461" s="55"/>
       <c r="L461"/>
       <c r="M461"/>
       <c r="N461"/>
-    </row>
-    <row r="462" spans="10:14" ht="13.5">
+      <c r="O461"/>
+    </row>
+    <row r="462" spans="9:15" ht="13.5">
+      <c r="I462" s="55"/>
       <c r="J462"/>
-      <c r="K462"/>
+      <c r="K462" s="55"/>
       <c r="L462"/>
       <c r="M462"/>
       <c r="N462"/>
-    </row>
-    <row r="463" spans="10:14" ht="13.5">
+      <c r="O462"/>
+    </row>
+    <row r="463" spans="9:15" ht="13.5">
+      <c r="I463" s="55"/>
       <c r="J463"/>
-      <c r="K463"/>
+      <c r="K463" s="55"/>
       <c r="L463"/>
       <c r="M463"/>
       <c r="N463"/>
-    </row>
-    <row r="464" spans="10:14" ht="13.5">
+      <c r="O463"/>
+    </row>
+    <row r="464" spans="9:15" ht="13.5">
+      <c r="I464" s="55"/>
       <c r="J464"/>
-      <c r="K464"/>
+      <c r="K464" s="55"/>
       <c r="L464"/>
       <c r="M464"/>
       <c r="N464"/>
-    </row>
-    <row r="465" spans="10:14" ht="13.5">
+      <c r="O464"/>
+    </row>
+    <row r="465" spans="9:15" ht="13.5">
+      <c r="I465" s="55"/>
       <c r="J465"/>
-      <c r="K465"/>
+      <c r="K465" s="55"/>
       <c r="L465"/>
       <c r="M465"/>
       <c r="N465"/>
-    </row>
-    <row r="466" spans="10:14" ht="13.5">
+      <c r="O465"/>
+    </row>
+    <row r="466" spans="9:15" ht="13.5">
+      <c r="I466" s="55"/>
       <c r="J466"/>
-      <c r="K466"/>
+      <c r="K466" s="55"/>
       <c r="L466"/>
       <c r="M466"/>
       <c r="N466"/>
-    </row>
-    <row r="467" spans="10:14" ht="13.5">
+      <c r="O466"/>
+    </row>
+    <row r="467" spans="9:15" ht="13.5">
+      <c r="I467" s="55"/>
       <c r="J467"/>
-      <c r="K467"/>
+      <c r="K467" s="55"/>
       <c r="L467"/>
       <c r="M467"/>
       <c r="N467"/>
-    </row>
-    <row r="468" spans="10:14" ht="13.5">
+      <c r="O467"/>
+    </row>
+    <row r="468" spans="9:15" ht="13.5">
+      <c r="I468" s="55"/>
       <c r="J468"/>
-      <c r="K468"/>
+      <c r="K468" s="55"/>
       <c r="L468"/>
       <c r="M468"/>
       <c r="N468"/>
-    </row>
-    <row r="469" spans="10:14" ht="13.5">
+      <c r="O468"/>
+    </row>
+    <row r="469" spans="9:15" ht="13.5">
+      <c r="I469" s="55"/>
       <c r="J469"/>
-      <c r="K469"/>
+      <c r="K469" s="55"/>
       <c r="L469"/>
       <c r="M469"/>
       <c r="N469"/>
-    </row>
-    <row r="470" spans="10:14" ht="13.5">
+      <c r="O469"/>
+    </row>
+    <row r="470" spans="9:15" ht="13.5">
+      <c r="I470" s="55"/>
       <c r="J470"/>
-      <c r="K470"/>
+      <c r="K470" s="55"/>
       <c r="L470"/>
       <c r="M470"/>
       <c r="N470"/>
-    </row>
-    <row r="471" spans="10:14" ht="13.5">
+      <c r="O470"/>
+    </row>
+    <row r="471" spans="9:15" ht="13.5">
+      <c r="I471" s="55"/>
       <c r="J471"/>
-      <c r="K471"/>
+      <c r="K471" s="55"/>
       <c r="L471"/>
       <c r="M471"/>
       <c r="N471"/>
-    </row>
-    <row r="472" spans="10:14" ht="13.5">
+      <c r="O471"/>
+    </row>
+    <row r="472" spans="9:15" ht="13.5">
+      <c r="I472" s="55"/>
       <c r="J472"/>
-      <c r="K472"/>
+      <c r="K472" s="55"/>
       <c r="L472"/>
       <c r="M472"/>
       <c r="N472"/>
-    </row>
-    <row r="473" spans="10:14" ht="13.5">
+      <c r="O472"/>
+    </row>
+    <row r="473" spans="9:15" ht="13.5">
+      <c r="I473" s="55"/>
       <c r="J473"/>
-      <c r="K473"/>
+      <c r="K473" s="55"/>
       <c r="L473"/>
       <c r="M473"/>
       <c r="N473"/>
-    </row>
-    <row r="474" spans="10:14" ht="13.5">
+      <c r="O473"/>
+    </row>
+    <row r="474" spans="9:15" ht="13.5">
+      <c r="I474" s="55"/>
       <c r="J474"/>
-      <c r="K474"/>
+      <c r="K474" s="55"/>
       <c r="L474"/>
       <c r="M474"/>
       <c r="N474"/>
-    </row>
-    <row r="475" spans="10:14" ht="13.5">
+      <c r="O474"/>
+    </row>
+    <row r="475" spans="9:15" ht="13.5">
+      <c r="I475" s="55"/>
       <c r="J475"/>
-      <c r="K475"/>
+      <c r="K475" s="55"/>
       <c r="L475"/>
       <c r="M475"/>
       <c r="N475"/>
-    </row>
-    <row r="476" spans="10:14" ht="13.5">
+      <c r="O475"/>
+    </row>
+    <row r="476" spans="9:15" ht="13.5">
+      <c r="I476" s="55"/>
       <c r="J476"/>
-      <c r="K476"/>
+      <c r="K476" s="55"/>
       <c r="L476"/>
       <c r="M476"/>
       <c r="N476"/>
-    </row>
-    <row r="477" spans="10:14" ht="13.5">
+      <c r="O476"/>
+    </row>
+    <row r="477" spans="9:15" ht="13.5">
+      <c r="I477" s="55"/>
       <c r="J477"/>
-      <c r="K477"/>
+      <c r="K477" s="55"/>
       <c r="L477"/>
       <c r="M477"/>
       <c r="N477"/>
-    </row>
-    <row r="478" spans="10:14" ht="13.5">
+      <c r="O477"/>
+    </row>
+    <row r="478" spans="9:15" ht="13.5">
+      <c r="I478" s="55"/>
       <c r="J478"/>
-      <c r="K478"/>
+      <c r="K478" s="55"/>
       <c r="L478"/>
       <c r="M478"/>
       <c r="N478"/>
-    </row>
-    <row r="479" spans="10:14" ht="13.5">
+      <c r="O478"/>
+    </row>
+    <row r="479" spans="9:15" ht="13.5">
+      <c r="I479" s="55"/>
       <c r="J479"/>
-      <c r="K479"/>
+      <c r="K479" s="55"/>
       <c r="L479"/>
       <c r="M479"/>
       <c r="N479"/>
-    </row>
-    <row r="480" spans="10:14" ht="13.5">
+      <c r="O479"/>
+    </row>
+    <row r="480" spans="9:15" ht="13.5">
+      <c r="I480" s="55"/>
       <c r="J480"/>
-      <c r="K480"/>
+      <c r="K480" s="55"/>
       <c r="L480"/>
       <c r="M480"/>
       <c r="N480"/>
-    </row>
-    <row r="481" spans="10:14" ht="13.5">
+      <c r="O480"/>
+    </row>
+    <row r="481" spans="9:15" ht="13.5">
+      <c r="I481" s="55"/>
       <c r="J481"/>
-      <c r="K481"/>
+      <c r="K481" s="55"/>
       <c r="L481"/>
       <c r="M481"/>
       <c r="N481"/>
-    </row>
-    <row r="482" spans="10:14" ht="13.5">
+      <c r="O481"/>
+    </row>
+    <row r="482" spans="9:15" ht="13.5">
+      <c r="I482" s="55"/>
       <c r="J482"/>
-      <c r="K482"/>
+      <c r="K482" s="55"/>
       <c r="L482"/>
       <c r="M482"/>
       <c r="N482"/>
-    </row>
-    <row r="483" spans="10:14" ht="13.5">
+      <c r="O482"/>
+    </row>
+    <row r="483" spans="9:15" ht="13.5">
+      <c r="I483" s="55"/>
       <c r="J483"/>
-      <c r="K483"/>
+      <c r="K483" s="55"/>
       <c r="L483"/>
       <c r="M483"/>
       <c r="N483"/>
-    </row>
-    <row r="484" spans="10:14" ht="13.5">
+      <c r="O483"/>
+    </row>
+    <row r="484" spans="9:15" ht="13.5">
+      <c r="I484" s="55"/>
       <c r="J484"/>
-      <c r="K484"/>
+      <c r="K484" s="55"/>
       <c r="L484"/>
       <c r="M484"/>
       <c r="N484"/>
-    </row>
-    <row r="485" spans="10:14" ht="13.5">
+      <c r="O484"/>
+    </row>
+    <row r="485" spans="9:15" ht="13.5">
+      <c r="I485" s="55"/>
       <c r="J485"/>
-      <c r="K485"/>
+      <c r="K485" s="55"/>
       <c r="L485"/>
       <c r="M485"/>
       <c r="N485"/>
-    </row>
-    <row r="486" spans="10:14" ht="13.5">
+      <c r="O485"/>
+    </row>
+    <row r="486" spans="9:15" ht="13.5">
+      <c r="I486" s="55"/>
       <c r="J486"/>
-      <c r="K486"/>
+      <c r="K486" s="55"/>
       <c r="L486"/>
       <c r="M486"/>
       <c r="N486"/>
-    </row>
-    <row r="487" spans="10:14" ht="13.5">
+      <c r="O486"/>
+    </row>
+    <row r="487" spans="9:15" ht="13.5">
+      <c r="I487" s="55"/>
       <c r="J487"/>
-      <c r="K487"/>
+      <c r="K487" s="55"/>
       <c r="L487"/>
       <c r="M487"/>
       <c r="N487"/>
-    </row>
-    <row r="488" spans="10:14" ht="13.5">
+      <c r="O487"/>
+    </row>
+    <row r="488" spans="9:15" ht="13.5">
+      <c r="I488" s="55"/>
       <c r="J488"/>
-      <c r="K488"/>
+      <c r="K488" s="55"/>
       <c r="L488"/>
       <c r="M488"/>
       <c r="N488"/>
-    </row>
-    <row r="489" spans="10:14" ht="13.5">
+      <c r="O488"/>
+    </row>
+    <row r="489" spans="9:15" ht="13.5">
+      <c r="I489" s="55"/>
       <c r="J489"/>
-      <c r="K489"/>
+      <c r="K489" s="55"/>
       <c r="L489"/>
       <c r="M489"/>
       <c r="N489"/>
-    </row>
-    <row r="490" spans="10:14" ht="13.5">
+      <c r="O489"/>
+    </row>
+    <row r="490" spans="9:15" ht="13.5">
+      <c r="I490" s="55"/>
       <c r="J490"/>
-      <c r="K490"/>
+      <c r="K490" s="55"/>
       <c r="L490"/>
       <c r="M490"/>
       <c r="N490"/>
-    </row>
-    <row r="491" spans="10:14" ht="13.5">
+      <c r="O490"/>
+    </row>
+    <row r="491" spans="9:15" ht="13.5">
+      <c r="I491" s="55"/>
       <c r="J491"/>
-      <c r="K491"/>
+      <c r="K491" s="55"/>
       <c r="L491"/>
       <c r="M491"/>
       <c r="N491"/>
-    </row>
-    <row r="492" spans="10:14" ht="13.5">
+      <c r="O491"/>
+    </row>
+    <row r="492" spans="9:15" ht="13.5">
+      <c r="I492" s="55"/>
       <c r="J492"/>
-      <c r="K492"/>
+      <c r="K492" s="55"/>
       <c r="L492"/>
       <c r="M492"/>
       <c r="N492"/>
-    </row>
-    <row r="493" spans="10:14" ht="13.5">
+      <c r="O492"/>
+    </row>
+    <row r="493" spans="9:15" ht="13.5">
+      <c r="I493" s="55"/>
       <c r="J493"/>
-      <c r="K493"/>
+      <c r="K493" s="55"/>
       <c r="L493"/>
       <c r="M493"/>
       <c r="N493"/>
-    </row>
-    <row r="494" spans="10:14" ht="13.5">
+      <c r="O493"/>
+    </row>
+    <row r="494" spans="9:15" ht="13.5">
+      <c r="I494" s="55"/>
       <c r="J494"/>
-      <c r="K494"/>
+      <c r="K494" s="55"/>
       <c r="L494"/>
       <c r="M494"/>
       <c r="N494"/>
-    </row>
-    <row r="495" spans="10:14" ht="13.5">
+      <c r="O494"/>
+    </row>
+    <row r="495" spans="9:15" ht="13.5">
+      <c r="I495" s="55"/>
       <c r="J495"/>
-      <c r="K495"/>
+      <c r="K495" s="55"/>
       <c r="L495"/>
       <c r="M495"/>
       <c r="N495"/>
-    </row>
-    <row r="496" spans="10:14" ht="13.5">
+      <c r="O495"/>
+    </row>
+    <row r="496" spans="9:15" ht="13.5">
+      <c r="I496" s="55"/>
       <c r="J496"/>
-      <c r="K496"/>
+      <c r="K496" s="55"/>
       <c r="L496"/>
       <c r="M496"/>
       <c r="N496"/>
-    </row>
-    <row r="497" spans="10:14" ht="13.5">
+      <c r="O496"/>
+    </row>
+    <row r="497" spans="9:15" ht="13.5">
+      <c r="I497" s="55"/>
       <c r="J497"/>
-      <c r="K497"/>
+      <c r="K497" s="55"/>
       <c r="L497"/>
       <c r="M497"/>
       <c r="N497"/>
-    </row>
-    <row r="498" spans="10:14" ht="13.5">
+      <c r="O497"/>
+    </row>
+    <row r="498" spans="9:15" ht="13.5">
+      <c r="I498" s="55"/>
       <c r="J498"/>
-      <c r="K498"/>
+      <c r="K498" s="55"/>
       <c r="L498"/>
       <c r="M498"/>
       <c r="N498"/>
-    </row>
-    <row r="499" spans="10:14" ht="13.5">
+      <c r="O498"/>
+    </row>
+    <row r="499" spans="9:15" ht="13.5">
+      <c r="I499" s="55"/>
       <c r="J499"/>
-      <c r="K499"/>
+      <c r="K499" s="55"/>
       <c r="L499"/>
       <c r="M499"/>
       <c r="N499"/>
-    </row>
-    <row r="500" spans="10:14" ht="13.5">
+      <c r="O499"/>
+    </row>
+    <row r="500" spans="9:15" ht="13.5">
+      <c r="I500" s="55"/>
       <c r="J500"/>
-      <c r="K500"/>
+      <c r="K500" s="55"/>
       <c r="L500"/>
       <c r="M500"/>
       <c r="N500"/>
-    </row>
-    <row r="501" spans="10:14" ht="13.5">
+      <c r="O500"/>
+    </row>
+    <row r="501" spans="9:15" ht="13.5">
+      <c r="I501" s="55"/>
       <c r="J501"/>
-      <c r="K501"/>
+      <c r="K501" s="55"/>
       <c r="L501"/>
       <c r="M501"/>
       <c r="N501"/>
-    </row>
-    <row r="502" spans="10:14" ht="13.5">
+      <c r="O501"/>
+    </row>
+    <row r="502" spans="9:15" ht="13.5">
+      <c r="I502" s="55"/>
       <c r="J502"/>
-      <c r="K502"/>
+      <c r="K502" s="55"/>
       <c r="L502"/>
       <c r="M502"/>
       <c r="N502"/>
-    </row>
-    <row r="503" spans="10:14" ht="13.5">
+      <c r="O502"/>
+    </row>
+    <row r="503" spans="9:15" ht="13.5">
+      <c r="I503" s="55"/>
       <c r="J503"/>
-      <c r="K503"/>
+      <c r="K503" s="55"/>
       <c r="L503"/>
       <c r="M503"/>
       <c r="N503"/>
-    </row>
-    <row r="504" spans="10:14" ht="13.5">
+      <c r="O503"/>
+    </row>
+    <row r="504" spans="9:15" ht="13.5">
+      <c r="I504" s="55"/>
       <c r="J504"/>
-      <c r="K504"/>
+      <c r="K504" s="55"/>
       <c r="L504"/>
       <c r="M504"/>
       <c r="N504"/>
-    </row>
-    <row r="505" spans="10:14" ht="13.5">
+      <c r="O504"/>
+    </row>
+    <row r="505" spans="9:15" ht="13.5">
+      <c r="I505" s="55"/>
       <c r="J505"/>
-      <c r="K505"/>
+      <c r="K505" s="55"/>
       <c r="L505"/>
       <c r="M505"/>
       <c r="N505"/>
-    </row>
-    <row r="506" spans="10:14" ht="13.5">
+      <c r="O505"/>
+    </row>
+    <row r="506" spans="9:15" ht="13.5">
+      <c r="I506" s="55"/>
       <c r="J506"/>
-      <c r="K506"/>
+      <c r="K506" s="55"/>
       <c r="L506"/>
       <c r="M506"/>
       <c r="N506"/>
-    </row>
-    <row r="507" spans="10:14" ht="13.5">
+      <c r="O506"/>
+    </row>
+    <row r="507" spans="9:15" ht="13.5">
+      <c r="I507" s="55"/>
       <c r="J507"/>
-      <c r="K507"/>
+      <c r="K507" s="55"/>
       <c r="L507"/>
       <c r="M507"/>
       <c r="N507"/>
-    </row>
-    <row r="508" spans="10:14" ht="13.5">
+      <c r="O507"/>
+    </row>
+    <row r="508" spans="9:15" ht="13.5">
+      <c r="I508" s="55"/>
       <c r="J508"/>
-      <c r="K508"/>
+      <c r="K508" s="55"/>
       <c r="L508"/>
       <c r="M508"/>
       <c r="N508"/>
-    </row>
-    <row r="509" spans="10:14" ht="13.5">
+      <c r="O508"/>
+    </row>
+    <row r="509" spans="9:15" ht="13.5">
+      <c r="I509" s="55"/>
       <c r="J509"/>
-      <c r="K509"/>
+      <c r="K509" s="55"/>
       <c r="L509"/>
       <c r="M509"/>
       <c r="N509"/>
-    </row>
-    <row r="510" spans="10:14" ht="13.5">
+      <c r="O509"/>
+    </row>
+    <row r="510" spans="9:15" ht="13.5">
+      <c r="I510" s="55"/>
       <c r="J510"/>
-      <c r="K510"/>
+      <c r="K510" s="55"/>
       <c r="L510"/>
       <c r="M510"/>
       <c r="N510"/>
-    </row>
-    <row r="511" spans="10:14" ht="13.5">
+      <c r="O510"/>
+    </row>
+    <row r="511" spans="9:15" ht="13.5">
+      <c r="I511" s="55"/>
       <c r="J511"/>
-      <c r="K511"/>
+      <c r="K511" s="55"/>
       <c r="L511"/>
       <c r="M511"/>
       <c r="N511"/>
-    </row>
-    <row r="512" spans="10:14" ht="13.5">
+      <c r="O511"/>
+    </row>
+    <row r="512" spans="9:15" ht="13.5">
+      <c r="I512" s="55"/>
       <c r="J512"/>
-      <c r="K512"/>
+      <c r="K512" s="55"/>
       <c r="L512"/>
       <c r="M512"/>
       <c r="N512"/>
-    </row>
-    <row r="513" spans="10:14" ht="13.5">
+      <c r="O512"/>
+    </row>
+    <row r="513" spans="9:15" ht="13.5">
+      <c r="I513" s="55"/>
       <c r="J513"/>
-      <c r="K513"/>
+      <c r="K513" s="55"/>
       <c r="L513"/>
       <c r="M513"/>
       <c r="N513"/>
-    </row>
-    <row r="514" spans="10:14" ht="13.5">
+      <c r="O513"/>
+    </row>
+    <row r="514" spans="9:15" ht="13.5">
+      <c r="I514" s="55"/>
       <c r="J514"/>
-      <c r="K514"/>
+      <c r="K514" s="55"/>
       <c r="L514"/>
       <c r="M514"/>
       <c r="N514"/>
-    </row>
-    <row r="515" spans="10:14" ht="13.5">
+      <c r="O514"/>
+    </row>
+    <row r="515" spans="9:15" ht="13.5">
+      <c r="I515" s="55"/>
       <c r="J515"/>
-      <c r="K515"/>
+      <c r="K515" s="55"/>
       <c r="L515"/>
       <c r="M515"/>
       <c r="N515"/>
-    </row>
-    <row r="516" spans="10:14" ht="13.5">
+      <c r="O515"/>
+    </row>
+    <row r="516" spans="9:15" ht="13.5">
+      <c r="I516" s="55"/>
       <c r="J516"/>
-      <c r="K516"/>
+      <c r="K516" s="55"/>
       <c r="L516"/>
       <c r="M516"/>
       <c r="N516"/>
-    </row>
-    <row r="517" spans="10:14" ht="13.5">
+      <c r="O516"/>
+    </row>
+    <row r="517" spans="9:15" ht="13.5">
+      <c r="I517" s="55"/>
       <c r="J517"/>
-      <c r="K517"/>
+      <c r="K517" s="55"/>
       <c r="L517"/>
       <c r="M517"/>
       <c r="N517"/>
-    </row>
-    <row r="518" spans="10:14" ht="13.5">
+      <c r="O517"/>
+    </row>
+    <row r="518" spans="9:15" ht="13.5">
+      <c r="I518" s="55"/>
       <c r="J518"/>
-      <c r="K518"/>
+      <c r="K518" s="55"/>
       <c r="L518"/>
       <c r="M518"/>
       <c r="N518"/>
-    </row>
-    <row r="519" spans="10:14" ht="13.5">
+      <c r="O518"/>
+    </row>
+    <row r="519" spans="9:15" ht="13.5">
+      <c r="I519" s="55"/>
       <c r="J519"/>
-      <c r="K519"/>
+      <c r="K519" s="55"/>
       <c r="L519"/>
       <c r="M519"/>
       <c r="N519"/>
-    </row>
-    <row r="520" spans="10:14" ht="13.5">
+      <c r="O519"/>
+    </row>
+    <row r="520" spans="9:15" ht="13.5">
+      <c r="I520" s="55"/>
       <c r="J520"/>
-      <c r="K520"/>
+      <c r="K520" s="55"/>
       <c r="L520"/>
       <c r="M520"/>
       <c r="N520"/>
-    </row>
-    <row r="521" spans="10:14" ht="13.5">
+      <c r="O520"/>
+    </row>
+    <row r="521" spans="9:15" ht="13.5">
+      <c r="I521" s="55"/>
       <c r="J521"/>
-      <c r="K521"/>
+      <c r="K521" s="55"/>
       <c r="L521"/>
       <c r="M521"/>
       <c r="N521"/>
-    </row>
-    <row r="522" spans="10:14" ht="13.5">
+      <c r="O521"/>
+    </row>
+    <row r="522" spans="9:15" ht="13.5">
+      <c r="I522" s="55"/>
       <c r="J522"/>
-      <c r="K522"/>
+      <c r="K522" s="55"/>
       <c r="L522"/>
       <c r="M522"/>
       <c r="N522"/>
-    </row>
-    <row r="523" spans="10:14" ht="13.5">
+      <c r="O522"/>
+    </row>
+    <row r="523" spans="9:15" ht="13.5">
+      <c r="I523" s="55"/>
       <c r="J523"/>
-      <c r="K523"/>
+      <c r="K523" s="55"/>
       <c r="L523"/>
       <c r="M523"/>
       <c r="N523"/>
-    </row>
-    <row r="524" spans="10:14" ht="13.5">
+      <c r="O523"/>
+    </row>
+    <row r="524" spans="9:15" ht="13.5">
+      <c r="I524" s="55"/>
       <c r="J524"/>
-      <c r="K524"/>
+      <c r="K524" s="55"/>
       <c r="L524"/>
       <c r="M524"/>
       <c r="N524"/>
-    </row>
-    <row r="525" spans="10:14" ht="13.5">
+      <c r="O524"/>
+    </row>
+    <row r="525" spans="9:15" ht="13.5">
+      <c r="I525" s="55"/>
       <c r="J525"/>
-      <c r="K525"/>
+      <c r="K525" s="55"/>
       <c r="L525"/>
       <c r="M525"/>
       <c r="N525"/>
-    </row>
-    <row r="526" spans="10:14" ht="13.5">
+      <c r="O525"/>
+    </row>
+    <row r="526" spans="9:15" ht="13.5">
+      <c r="I526" s="55"/>
       <c r="J526"/>
-      <c r="K526"/>
+      <c r="K526" s="55"/>
       <c r="L526"/>
       <c r="M526"/>
       <c r="N526"/>
-    </row>
-    <row r="527" spans="10:14" ht="13.5">
+      <c r="O526"/>
+    </row>
+    <row r="527" spans="9:15" ht="13.5">
+      <c r="I527" s="55"/>
       <c r="J527"/>
-      <c r="K527"/>
+      <c r="K527" s="55"/>
       <c r="L527"/>
       <c r="M527"/>
       <c r="N527"/>
-    </row>
-    <row r="528" spans="10:14" ht="13.5">
+      <c r="O527"/>
+    </row>
+    <row r="528" spans="9:15" ht="13.5">
+      <c r="I528" s="55"/>
       <c r="J528"/>
-      <c r="K528"/>
+      <c r="K528" s="55"/>
       <c r="L528"/>
       <c r="M528"/>
       <c r="N528"/>
-    </row>
-    <row r="529" spans="10:14" ht="13.5">
+      <c r="O528"/>
+    </row>
+    <row r="529" spans="9:15" ht="13.5">
+      <c r="I529" s="55"/>
       <c r="J529"/>
-      <c r="K529"/>
+      <c r="K529" s="55"/>
       <c r="L529"/>
       <c r="M529"/>
       <c r="N529"/>
-    </row>
-    <row r="530" spans="10:14" ht="13.5">
+      <c r="O529"/>
+    </row>
+    <row r="530" spans="9:15" ht="13.5">
+      <c r="I530" s="55"/>
       <c r="J530"/>
-      <c r="K530"/>
+      <c r="K530" s="55"/>
       <c r="L530"/>
       <c r="M530"/>
       <c r="N530"/>
-    </row>
-    <row r="531" spans="10:14" ht="13.5">
+      <c r="O530"/>
+    </row>
+    <row r="531" spans="9:15" ht="13.5">
+      <c r="I531" s="55"/>
       <c r="J531"/>
-      <c r="K531"/>
+      <c r="K531" s="55"/>
       <c r="L531"/>
       <c r="M531"/>
       <c r="N531"/>
-    </row>
-    <row r="532" spans="10:14" ht="13.5">
+      <c r="O531"/>
+    </row>
+    <row r="532" spans="9:15" ht="13.5">
+      <c r="I532" s="55"/>
       <c r="J532"/>
-      <c r="K532"/>
+      <c r="K532" s="55"/>
       <c r="L532"/>
       <c r="M532"/>
       <c r="N532"/>
-    </row>
-    <row r="533" spans="10:14" ht="13.5">
+      <c r="O532"/>
+    </row>
+    <row r="533" spans="9:15" ht="13.5">
+      <c r="I533" s="55"/>
       <c r="J533"/>
-      <c r="K533"/>
+      <c r="K533" s="55"/>
       <c r="L533"/>
       <c r="M533"/>
       <c r="N533"/>
-    </row>
-    <row r="534" spans="10:14" ht="13.5">
+      <c r="O533"/>
+    </row>
+    <row r="534" spans="9:15" ht="13.5">
+      <c r="I534" s="55"/>
       <c r="J534"/>
-      <c r="K534"/>
+      <c r="K534" s="55"/>
       <c r="L534"/>
       <c r="M534"/>
       <c r="N534"/>
-    </row>
-    <row r="535" spans="10:14" ht="13.5">
+      <c r="O534"/>
+    </row>
+    <row r="535" spans="9:15" ht="13.5">
+      <c r="I535" s="55"/>
       <c r="J535"/>
-      <c r="K535"/>
+      <c r="K535" s="55"/>
       <c r="L535"/>
       <c r="M535"/>
       <c r="N535"/>
-    </row>
-    <row r="536" spans="10:14" ht="13.5">
+      <c r="O535"/>
+    </row>
+    <row r="536" spans="9:15" ht="13.5">
+      <c r="I536" s="55"/>
       <c r="J536"/>
-      <c r="K536"/>
+      <c r="K536" s="55"/>
       <c r="L536"/>
       <c r="M536"/>
       <c r="N536"/>
-    </row>
-    <row r="537" spans="10:14" ht="13.5">
+      <c r="O536"/>
+    </row>
+    <row r="537" spans="9:15" ht="13.5">
+      <c r="I537" s="55"/>
       <c r="J537"/>
-      <c r="K537"/>
+      <c r="K537" s="55"/>
       <c r="L537"/>
       <c r="M537"/>
       <c r="N537"/>
-    </row>
-    <row r="538" spans="10:14" ht="13.5">
+      <c r="O537"/>
+    </row>
+    <row r="538" spans="9:15" ht="13.5">
+      <c r="I538" s="55"/>
       <c r="J538"/>
-      <c r="K538"/>
+      <c r="K538" s="55"/>
       <c r="L538"/>
       <c r="M538"/>
       <c r="N538"/>
-    </row>
-    <row r="539" spans="10:14" ht="13.5">
+      <c r="O538"/>
+    </row>
+    <row r="539" spans="9:15" ht="13.5">
+      <c r="I539" s="55"/>
       <c r="J539"/>
-      <c r="K539"/>
+      <c r="K539" s="55"/>
       <c r="L539"/>
       <c r="M539"/>
       <c r="N539"/>
-    </row>
-    <row r="540" spans="10:14" ht="13.5">
+      <c r="O539"/>
+    </row>
+    <row r="540" spans="9:15" ht="13.5">
+      <c r="I540" s="55"/>
       <c r="J540"/>
-      <c r="K540"/>
+      <c r="K540" s="55"/>
       <c r="L540"/>
       <c r="M540"/>
       <c r="N540"/>
-    </row>
-    <row r="541" spans="10:14" ht="13.5">
+      <c r="O540"/>
+    </row>
+    <row r="541" spans="9:15" ht="13.5">
+      <c r="I541" s="55"/>
       <c r="J541"/>
-      <c r="K541"/>
+      <c r="K541" s="55"/>
       <c r="L541"/>
       <c r="M541"/>
       <c r="N541"/>
-    </row>
-    <row r="542" spans="10:14" ht="13.5">
+      <c r="O541"/>
+    </row>
+    <row r="542" spans="9:15" ht="13.5">
+      <c r="I542" s="55"/>
       <c r="J542"/>
-      <c r="K542"/>
+      <c r="K542" s="55"/>
       <c r="L542"/>
       <c r="M542"/>
       <c r="N542"/>
-    </row>
-    <row r="543" spans="10:14" ht="13.5">
+      <c r="O542"/>
+    </row>
+    <row r="543" spans="9:15" ht="13.5">
+      <c r="I543" s="55"/>
       <c r="J543"/>
-      <c r="K543"/>
+      <c r="K543" s="55"/>
       <c r="L543"/>
       <c r="M543"/>
       <c r="N543"/>
-    </row>
-    <row r="544" spans="10:14" ht="13.5">
+      <c r="O543"/>
+    </row>
+    <row r="544" spans="9:15" ht="13.5">
+      <c r="I544" s="55"/>
       <c r="J544"/>
-      <c r="K544"/>
+      <c r="K544" s="55"/>
       <c r="L544"/>
       <c r="M544"/>
       <c r="N544"/>
+      <c r="O544"/>
+    </row>
+    <row r="545" spans="9:15" ht="13.5">
+      <c r="I545" s="55"/>
+      <c r="J545"/>
+      <c r="K545" s="55"/>
+      <c r="L545"/>
+      <c r="M545"/>
+      <c r="N545"/>
+      <c r="O545"/>
+    </row>
+    <row r="546" spans="9:15" ht="13.5">
+      <c r="I546" s="55"/>
+      <c r="J546"/>
+      <c r="K546" s="55"/>
+      <c r="L546"/>
+      <c r="M546"/>
+      <c r="N546"/>
+      <c r="O546"/>
+    </row>
+    <row r="547" spans="9:15" ht="13.5">
+      <c r="I547" s="55"/>
+      <c r="J547"/>
+      <c r="K547" s="55"/>
+      <c r="L547"/>
+      <c r="M547"/>
+      <c r="N547"/>
+      <c r="O547"/>
+    </row>
+    <row r="548" spans="9:15" ht="13.5">
+      <c r="I548" s="55"/>
+      <c r="J548"/>
+      <c r="K548" s="55"/>
+      <c r="L548"/>
+      <c r="M548"/>
+      <c r="N548"/>
+      <c r="O548"/>
+    </row>
+    <row r="549" spans="9:15" ht="13.5">
+      <c r="I549" s="55"/>
+      <c r="J549"/>
+      <c r="K549" s="55"/>
+      <c r="L549"/>
+      <c r="M549"/>
+      <c r="N549"/>
+      <c r="O549"/>
+    </row>
+    <row r="550" spans="9:15" ht="13.5">
+      <c r="I550" s="55"/>
+      <c r="J550"/>
+      <c r="K550" s="55"/>
+      <c r="L550"/>
+      <c r="M550"/>
+      <c r="N550"/>
+      <c r="O550"/>
+    </row>
+    <row r="551" spans="9:15" ht="13.5">
+      <c r="I551" s="55"/>
+      <c r="J551"/>
+      <c r="K551" s="55"/>
+      <c r="L551"/>
+      <c r="M551"/>
+      <c r="N551"/>
+      <c r="O551"/>
+    </row>
+    <row r="552" spans="9:15" ht="13.5">
+      <c r="I552" s="55"/>
+      <c r="J552"/>
+      <c r="K552" s="55"/>
+      <c r="L552"/>
+      <c r="M552"/>
+      <c r="N552"/>
+      <c r="O552"/>
+    </row>
+    <row r="553" spans="9:15" ht="13.5">
+      <c r="I553" s="55"/>
+      <c r="J553"/>
+      <c r="K553" s="55"/>
+      <c r="L553"/>
+      <c r="M553"/>
+      <c r="N553"/>
+      <c r="O553"/>
+    </row>
+    <row r="554" spans="9:15" ht="13.5">
+      <c r="I554" s="55"/>
+      <c r="J554"/>
+      <c r="K554" s="55"/>
+      <c r="L554"/>
+      <c r="M554"/>
+      <c r="N554"/>
+      <c r="O554"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="82">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="A53:O53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="A65:O65"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
     <mergeCell ref="E56:G56"/>
     <mergeCell ref="E57:G57"/>
     <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="A55:N55"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Automated">
+      <formula>NOT(ISERROR(SEARCH("Automated",M1)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="Not">
+      <formula>LEFT(M1,LEN("Not"))="Not"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M54:M64 M39:M44 M13:M16 M18:M37 M46:M52 M66:M70">
+      <formula1>$S$1:$S$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13 N13:N16 N18:N37 N39:N44 N46:N52 N54:N64 N66:N70">
+      <formula1>$T$1:$T$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16 I18:I37 I39:I44 I46:I52 I55:I64 I66:I70">
+      <formula1>$R$1:$R$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K16 K18:K37 K39:K44 K46:K52 K54:K64 K66:K70">
+      <formula1>$Q$1:$Q$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goychevl\Downloads\QA Automation SoftUni\TeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftUni\Team Papaya\QA-Automation-Team-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="258">
   <si>
     <t>Fail</t>
   </si>
@@ -982,12 +982,6 @@
   <si>
     <t>"The Full Name field is required."
 "The Password field is required." messages should be shown to user</t>
-  </si>
-  <si>
-    <t>RP_TC19</t>
-  </si>
-  <si>
-    <t>Register with empty e-mail three times</t>
   </si>
   <si>
     <t>Author</t>
@@ -1579,53 +1573,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1645,6 +1609,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1656,6 +1629,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1669,6 +1645,24 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1678,25 +1672,25 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4297,12 +4291,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T554"/>
+  <dimension ref="A1:T553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A36" sqref="A36"/>
-      <selection pane="topRight" activeCell="K16" sqref="K16"/>
+      <selection pane="topRight" activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -4325,10 +4319,10 @@
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -4350,15 +4344,15 @@
         <v>234</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -4377,84 +4371,84 @@
         <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="2" t="s">
         <v>161</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="25.5">
       <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
       <c r="P4" s="7"/>
       <c r="T4" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="23" customFormat="1" ht="25.5">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
       <c r="P5" s="22"/>
       <c r="T5" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4462,27 +4456,27 @@
         <v>13</v>
       </c>
       <c r="B6" s="32">
-        <f>COUNTIF(I17:I138,"Pass")</f>
-        <v>35</v>
+        <f>COUNTIF(I17:I137,"Pass")</f>
+        <v>34</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="10">
-        <f>COUNTIF(I10:I761,"Pending")</f>
+        <f>COUNTIF(I10:I760,"Pending")</f>
         <v>0</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4490,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="33">
-        <f>COUNTIF(I17:I138,"Fail")</f>
+        <f>COUNTIF(I17:I137,"Fail")</f>
         <v>14</v>
       </c>
       <c r="C7" s="33"/>
@@ -4498,27 +4492,27 @@
         <v>6</v>
       </c>
       <c r="E7" s="15">
-        <f>COUNTIF(A17:A138,"TC*")</f>
+        <f>COUNTIF(A17:A137,"TC*")</f>
         <v>0</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4532,102 +4526,102 @@
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="86" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="57" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="N9" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="O9" s="64" t="s">
+      <c r="N9" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="O9" s="76" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:20" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="63"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="64"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="76"/>
       <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:20" s="26" customFormat="1" ht="15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="86"/>
     </row>
     <row r="12" spans="1:20" s="3" customFormat="1" ht="12.75">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="71"/>
     </row>
     <row r="13" spans="1:20" s="3" customFormat="1" ht="76.5" customHeight="1" outlineLevel="1">
       <c r="A13" s="29" t="s">
@@ -4640,11 +4634,11 @@
       <c r="D13" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="45">
         <v>42841</v>
       </c>
@@ -4656,13 +4650,13 @@
         <v>159</v>
       </c>
       <c r="L13" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M13" s="50" t="s">
         <v>234</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O13" s="27"/>
     </row>
@@ -4677,11 +4671,11 @@
       <c r="D14" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="45">
         <v>42841</v>
       </c>
@@ -4697,7 +4691,7 @@
         <v>234</v>
       </c>
       <c r="N14" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O14" s="27"/>
     </row>
@@ -4712,11 +4706,11 @@
       <c r="D15" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="45">
         <v>42841</v>
       </c>
@@ -4732,7 +4726,7 @@
         <v>234</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O15" s="27"/>
     </row>
@@ -4747,11 +4741,11 @@
       <c r="D16" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="45">
         <v>42841</v>
       </c>
@@ -4767,28 +4761,28 @@
         <v>234</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O16" s="27"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="12.75">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="71"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A18" s="29" t="s">
@@ -4801,11 +4795,11 @@
       <c r="D18" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="45">
         <v>42841</v>
       </c>
@@ -4823,7 +4817,7 @@
         <v>234</v>
       </c>
       <c r="N18" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O18" s="27"/>
     </row>
@@ -4838,11 +4832,11 @@
       <c r="D19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="45">
         <v>42841</v>
       </c>
@@ -4860,7 +4854,7 @@
         <v>234</v>
       </c>
       <c r="N19" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O19" s="27"/>
     </row>
@@ -4875,11 +4869,11 @@
       <c r="D20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="45">
         <v>42841</v>
       </c>
@@ -4897,7 +4891,7 @@
         <v>234</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O20" s="27"/>
     </row>
@@ -4912,11 +4906,11 @@
       <c r="D21" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="45">
         <v>42841</v>
       </c>
@@ -4936,7 +4930,7 @@
         <v>234</v>
       </c>
       <c r="N21" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O21" s="27"/>
     </row>
@@ -4951,11 +4945,11 @@
       <c r="D22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="45">
         <v>42841</v>
       </c>
@@ -4973,7 +4967,7 @@
         <v>234</v>
       </c>
       <c r="N22" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O22" s="27"/>
     </row>
@@ -4988,11 +4982,11 @@
       <c r="D23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="45">
         <v>42841</v>
       </c>
@@ -5012,7 +5006,7 @@
         <v>234</v>
       </c>
       <c r="N23" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O23" s="27"/>
     </row>
@@ -5027,11 +5021,11 @@
       <c r="D24" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="45">
         <v>42841</v>
       </c>
@@ -5049,7 +5043,7 @@
         <v>234</v>
       </c>
       <c r="N24" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O24" s="27"/>
     </row>
@@ -5064,11 +5058,11 @@
       <c r="D25" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="45">
         <v>42841</v>
       </c>
@@ -5088,7 +5082,7 @@
         <v>234</v>
       </c>
       <c r="N25" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O25" s="27"/>
     </row>
@@ -5103,11 +5097,11 @@
       <c r="D26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="45">
         <v>42841</v>
       </c>
@@ -5125,7 +5119,7 @@
         <v>234</v>
       </c>
       <c r="N26" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O26" s="27"/>
     </row>
@@ -5140,11 +5134,11 @@
       <c r="D27" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="45">
         <v>42841</v>
       </c>
@@ -5162,7 +5156,7 @@
         <v>234</v>
       </c>
       <c r="N27" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O27" s="27"/>
     </row>
@@ -5177,11 +5171,11 @@
       <c r="D28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="45">
         <v>42841</v>
       </c>
@@ -5201,7 +5195,7 @@
         <v>234</v>
       </c>
       <c r="N28" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O28" s="31"/>
     </row>
@@ -5216,11 +5210,11 @@
       <c r="D29" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="45">
         <v>42841</v>
       </c>
@@ -5240,7 +5234,7 @@
         <v>234</v>
       </c>
       <c r="N29" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O29" s="41"/>
       <c r="P29" s="40"/>
@@ -5259,11 +5253,11 @@
       <c r="D30" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="45">
         <v>42841</v>
       </c>
@@ -5281,7 +5275,7 @@
         <v>234</v>
       </c>
       <c r="N30" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O30" s="31"/>
     </row>
@@ -5296,11 +5290,11 @@
       <c r="D31" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="45">
         <v>42841</v>
       </c>
@@ -5318,7 +5312,7 @@
         <v>234</v>
       </c>
       <c r="N31" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O31" s="31"/>
     </row>
@@ -5333,11 +5327,11 @@
       <c r="D32" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="45">
         <v>42841</v>
       </c>
@@ -5355,7 +5349,7 @@
         <v>234</v>
       </c>
       <c r="N32" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O32" s="31"/>
     </row>
@@ -5370,11 +5364,11 @@
       <c r="D33" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="45">
         <v>42841</v>
       </c>
@@ -5392,7 +5386,7 @@
         <v>234</v>
       </c>
       <c r="N33" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O33" s="31"/>
     </row>
@@ -5407,11 +5401,11 @@
       <c r="D34" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="E34" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="45">
         <v>42841</v>
       </c>
@@ -5429,7 +5423,7 @@
         <v>234</v>
       </c>
       <c r="N34" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O34" s="31"/>
     </row>
@@ -5444,11 +5438,11 @@
       <c r="D35" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="45">
         <v>42841</v>
       </c>
@@ -5466,7 +5460,7 @@
         <v>234</v>
       </c>
       <c r="N35" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O35" s="31"/>
     </row>
@@ -5481,11 +5475,11 @@
       <c r="D36" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
       <c r="H36" s="45">
         <v>42841</v>
       </c>
@@ -5503,84 +5497,84 @@
         <v>234</v>
       </c>
       <c r="N36" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A37" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="45">
-        <v>42841</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L37" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="N37" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="O37" s="31"/>
-    </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A38" s="59" t="s">
+    <row r="37" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A37" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="71"/>
+    </row>
+    <row r="38" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A38" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>61</v>
+      </c>
       <c r="F38" s="60"/>
       <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="61"/>
-    </row>
-    <row r="39" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="H38" s="45">
+        <v>42843</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N38" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="O38" s="31"/>
+    </row>
+    <row r="39" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
       <c r="A39" s="29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>212</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C39" s="31"/>
       <c r="D39" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
       <c r="H39" s="45">
         <v>42843</v>
       </c>
@@ -5589,7 +5583,7 @@
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L39" s="28" t="s">
         <v>18</v>
@@ -5598,26 +5592,28 @@
         <v>234</v>
       </c>
       <c r="N39" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O39" s="31"/>
     </row>
-    <row r="40" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
+    <row r="40" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A40" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="31"/>
+        <v>63</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>67</v>
+      </c>
       <c r="D40" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
+        <v>71</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="45">
         <v>42843</v>
       </c>
@@ -5635,28 +5631,28 @@
         <v>234</v>
       </c>
       <c r="N40" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O40" s="31"/>
     </row>
-    <row r="41" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="41" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A41" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="45">
         <v>42843</v>
       </c>
@@ -5674,30 +5670,28 @@
         <v>234</v>
       </c>
       <c r="N41" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O41" s="31"/>
     </row>
-    <row r="42" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="42" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A42" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>66</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C42" s="31"/>
       <c r="D42" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
+        <v>215</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="45">
-        <v>42843</v>
+        <v>42869</v>
       </c>
       <c r="I42" s="54" t="s">
         <v>13</v>
@@ -5713,28 +5707,30 @@
         <v>234</v>
       </c>
       <c r="N42" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O42" s="31"/>
     </row>
     <row r="43" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A43" s="29" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="C43" s="31"/>
+        <v>127</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>109</v>
+      </c>
       <c r="D43" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
+        <v>128</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
       <c r="H43" s="45">
-        <v>42869</v>
+        <v>42843</v>
       </c>
       <c r="I43" s="54" t="s">
         <v>13</v>
@@ -5746,90 +5742,90 @@
       <c r="L43" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M43" s="50" t="s">
+      <c r="M43" s="52" t="s">
         <v>234</v>
       </c>
       <c r="N43" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O43" s="31"/>
     </row>
-    <row r="44" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A44" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="31" t="s">
+    <row r="44" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A44" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="71"/>
+    </row>
+    <row r="45" spans="1:15" s="30" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="A45" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="45">
-        <v>42843</v>
-      </c>
-      <c r="I44" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L44" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="N44" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="O44" s="31"/>
-    </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A45" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
+      <c r="D45" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>132</v>
+      </c>
       <c r="F45" s="60"/>
       <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="61"/>
-    </row>
-    <row r="46" spans="1:15" s="30" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="H45" s="45">
+        <v>42843</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="37"/>
+      <c r="K45" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N45" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="O45" s="31"/>
+    </row>
+    <row r="46" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
       <c r="A46" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
+        <v>77</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
       <c r="H46" s="45">
         <v>42843</v>
       </c>
@@ -5838,7 +5834,7 @@
       </c>
       <c r="J46" s="37"/>
       <c r="K46" s="54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L46" s="28" t="s">
         <v>18</v>
@@ -5847,28 +5843,28 @@
         <v>234</v>
       </c>
       <c r="N46" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O46" s="31"/>
     </row>
-    <row r="47" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
+    <row r="47" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A47" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="45">
         <v>42843</v>
       </c>
@@ -5886,35 +5882,37 @@
         <v>234</v>
       </c>
       <c r="N47" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A48" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C48" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
+        <v>81</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
       <c r="H48" s="45">
         <v>42843</v>
       </c>
       <c r="I48" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="37"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="46" t="s">
+        <v>151</v>
+      </c>
       <c r="K48" s="54" t="s">
         <v>161</v>
       </c>
@@ -5925,37 +5923,35 @@
         <v>234</v>
       </c>
       <c r="N48" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O48" s="31"/>
     </row>
-    <row r="49" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="49" spans="1:15" s="30" customFormat="1" ht="102" outlineLevel="1">
       <c r="A49" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
+        <v>137</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
       <c r="H49" s="45">
         <v>42843</v>
       </c>
       <c r="I49" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="46" t="s">
-        <v>151</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J49" s="46"/>
       <c r="K49" s="54" t="s">
         <v>161</v>
       </c>
@@ -5966,35 +5962,37 @@
         <v>234</v>
       </c>
       <c r="N49" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O49" s="31"/>
     </row>
-    <row r="50" spans="1:15" s="30" customFormat="1" ht="102" outlineLevel="1">
+    <row r="50" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A50" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="C50" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
+        <v>82</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
       <c r="H50" s="45">
         <v>42843</v>
       </c>
       <c r="I50" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="46" t="s">
+        <v>151</v>
+      </c>
       <c r="K50" s="54" t="s">
         <v>161</v>
       </c>
@@ -6005,28 +6003,28 @@
         <v>234</v>
       </c>
       <c r="N50" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O50" s="31"/>
     </row>
     <row r="51" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A51" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
+        <v>86</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
       <c r="H51" s="45">
         <v>42843</v>
       </c>
@@ -6034,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="46" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K51" s="54" t="s">
         <v>161</v>
@@ -6043,98 +6041,98 @@
         <v>18</v>
       </c>
       <c r="M51" s="50" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="N51" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O51" s="31"/>
     </row>
-    <row r="52" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A52" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="45">
-        <v>42843</v>
-      </c>
-      <c r="I52" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="K52" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="L52" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M52" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="N52" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="O52" s="31"/>
-    </row>
-    <row r="53" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A53" s="59" t="s">
+    <row r="52" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A52" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="71"/>
+    </row>
+    <row r="53" spans="1:15" s="30" customFormat="1" ht="165.75" outlineLevel="1">
+      <c r="A53" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="59" t="s">
+        <v>149</v>
+      </c>
       <c r="F53" s="60"/>
       <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="61"/>
-    </row>
-    <row r="54" spans="1:15" s="30" customFormat="1" ht="165.75" outlineLevel="1">
+      <c r="H53" s="45">
+        <v>42843</v>
+      </c>
+      <c r="I53" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="L53" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="N53" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="O53" s="31"/>
+    </row>
+    <row r="54" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
       <c r="A54" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
+        <v>102</v>
+      </c>
+      <c r="E54" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
       <c r="H54" s="45">
         <v>42843</v>
       </c>
       <c r="I54" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="37"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="46" t="s">
+        <v>150</v>
+      </c>
       <c r="K54" s="54" t="s">
         <v>161</v>
       </c>
@@ -6142,40 +6140,38 @@
         <v>18</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N54" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O54" s="31"/>
     </row>
     <row r="55" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
       <c r="A55" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
+        <v>144</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
       <c r="H55" s="45">
         <v>42843</v>
       </c>
       <c r="I55" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J55" s="46" t="s">
-        <v>150</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J55" s="37"/>
       <c r="K55" s="54" t="s">
         <v>161</v>
       </c>
@@ -6183,38 +6179,40 @@
         <v>18</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N55" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O55" s="31"/>
     </row>
-    <row r="56" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
+    <row r="56" spans="1:15" s="30" customFormat="1" ht="127.5" outlineLevel="1">
       <c r="A56" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>108</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
+        <v>139</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
       <c r="H56" s="45">
         <v>42843</v>
       </c>
       <c r="I56" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="37"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="46" t="s">
+        <v>150</v>
+      </c>
       <c r="K56" s="54" t="s">
         <v>161</v>
       </c>
@@ -6222,31 +6220,31 @@
         <v>18</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N56" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O56" s="31"/>
     </row>
-    <row r="57" spans="1:15" s="30" customFormat="1" ht="127.5" outlineLevel="1">
+    <row r="57" spans="1:15" s="30" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A57" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
+        <v>140</v>
+      </c>
+      <c r="E57" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
       <c r="H57" s="45">
         <v>42843</v>
       </c>
@@ -6254,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K57" s="54" t="s">
         <v>161</v>
@@ -6263,40 +6261,38 @@
         <v>18</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N57" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O57" s="31"/>
     </row>
-    <row r="58" spans="1:15" s="30" customFormat="1" ht="114.75" outlineLevel="1">
+    <row r="58" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A58" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
+        <v>153</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
       <c r="H58" s="45">
         <v>42843</v>
       </c>
       <c r="I58" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="46" t="s">
-        <v>148</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J58" s="46"/>
       <c r="K58" s="54" t="s">
         <v>161</v>
       </c>
@@ -6304,70 +6300,72 @@
         <v>18</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N58" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O58" s="31"/>
     </row>
-    <row r="59" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="59" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A59" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
+        <v>96</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="45">
         <v>42843</v>
       </c>
       <c r="I59" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="46" t="s">
+        <v>92</v>
+      </c>
       <c r="K59" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L59" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N59" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O59" s="31"/>
     </row>
-    <row r="60" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="60" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A60" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C60" s="31" t="s">
         <v>106</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
+        <v>95</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
       <c r="H60" s="45">
         <v>42843</v>
       </c>
@@ -6375,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="46" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K60" s="54" t="s">
         <v>160</v>
@@ -6384,79 +6382,77 @@
         <v>18</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N60" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O60" s="31"/>
     </row>
-    <row r="61" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="61" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
       <c r="A61" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
+        <v>101</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
       <c r="H61" s="45">
         <v>42843</v>
       </c>
       <c r="I61" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="46" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J61" s="46"/>
       <c r="K61" s="54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L61" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N61" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O61" s="31"/>
     </row>
-    <row r="62" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
+    <row r="62" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
       <c r="A62" s="29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
+        <v>141</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
       <c r="H62" s="45">
         <v>42843</v>
       </c>
       <c r="I62" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="46"/>
+      <c r="J62" s="37"/>
       <c r="K62" s="54" t="s">
         <v>161</v>
       </c>
@@ -6464,38 +6460,38 @@
         <v>18</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N62" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O62" s="31"/>
     </row>
-    <row r="63" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
+    <row r="63" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A63" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>110</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
+        <v>155</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
       <c r="H63" s="45">
         <v>42843</v>
       </c>
       <c r="I63" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="37"/>
+      <c r="J63" s="46"/>
       <c r="K63" s="54" t="s">
         <v>161</v>
       </c>
@@ -6503,89 +6499,89 @@
         <v>18</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N63" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O63" s="31"/>
     </row>
-    <row r="64" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A64" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="45">
-        <v>42843</v>
-      </c>
-      <c r="I64" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="46"/>
-      <c r="K64" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="L64" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M64" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="N64" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="O64" s="31"/>
-    </row>
-    <row r="65" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A65" s="59" t="s">
+    <row r="64" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A64" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="71"/>
+    </row>
+    <row r="65" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A65" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>116</v>
+      </c>
       <c r="F65" s="60"/>
       <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="61"/>
-    </row>
-    <row r="66" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="H65" s="45">
+        <v>42847</v>
+      </c>
+      <c r="I65" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="46"/>
+      <c r="K65" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L65" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="N65" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="O65" s="31"/>
+    </row>
+    <row r="66" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A66" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
+        <v>120</v>
+      </c>
+      <c r="E66" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
       <c r="H66" s="45">
         <v>42847</v>
       </c>
@@ -6600,31 +6596,31 @@
         <v>18</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N66" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O66" s="31"/>
     </row>
-    <row r="67" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="67" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A67" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C67" s="31" t="s">
         <v>118</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E67" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
+        <v>157</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
       <c r="H67" s="45">
         <v>42847</v>
       </c>
@@ -6639,38 +6635,40 @@
         <v>18</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N67" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O67" s="31"/>
     </row>
     <row r="68" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A68" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="E68" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
       <c r="H68" s="45">
         <v>42847</v>
       </c>
       <c r="I68" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J68" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="46" t="s">
+        <v>125</v>
+      </c>
       <c r="K68" s="54" t="s">
         <v>160</v>
       </c>
@@ -6678,16 +6676,16 @@
         <v>18</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N68" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O68" s="31"/>
     </row>
     <row r="69" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A69" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B69" s="39" t="s">
         <v>121</v>
@@ -6698,20 +6696,18 @@
       <c r="D69" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
+      <c r="E69" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
       <c r="H69" s="45">
         <v>42847</v>
       </c>
       <c r="I69" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J69" s="46" t="s">
-        <v>125</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J69" s="46"/>
       <c r="K69" s="54" t="s">
         <v>160</v>
       </c>
@@ -6719,51 +6715,23 @@
         <v>18</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N69" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O69" s="31"/>
     </row>
-    <row r="70" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A70" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="45">
-        <v>42847</v>
-      </c>
-      <c r="I70" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J70" s="46"/>
-      <c r="K70" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L70" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M70" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="N70" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="O70" s="31"/>
+    <row r="70" spans="1:15" ht="12" customHeight="1">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="I70" s="55"/>
+      <c r="J70"/>
+      <c r="K70" s="55"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
     </row>
     <row r="71" spans="1:15" ht="12" customHeight="1">
       <c r="B71"/>
@@ -6864,9 +6832,7 @@
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="1:15" ht="12" customHeight="1">
-      <c r="B80"/>
-      <c r="C80"/>
+    <row r="80" spans="1:15" ht="13.5">
       <c r="I80" s="55"/>
       <c r="J80"/>
       <c r="K80" s="55"/>
@@ -11132,25 +11098,65 @@
       <c r="N553"/>
       <c r="O553"/>
     </row>
-    <row r="554" spans="9:15" ht="13.5">
-      <c r="I554" s="55"/>
-      <c r="J554"/>
-      <c r="K554" s="55"/>
-      <c r="L554"/>
-      <c r="M554"/>
-      <c r="N554"/>
-      <c r="O554"/>
-    </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
+  <mergeCells count="81">
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="A64:O64"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="A52:O52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="A37:O37"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -11167,93 +11173,43 @@
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="A53:O53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="A65:O65"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Automated">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Not">
+      <formula>LEFT(M1,LEN("Not"))="Not"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",M1)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="Not">
-      <formula>LEFT(M1,LEN("Not"))="Not"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M54:M64 M39:M44 M13:M16 M18:M37 M46:M52 M66:M70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M53:M63 M38:M43 M13:M16 M18:M36 M45:M51 M65:M69">
       <formula1>$S$1:$S$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13 N13:N16 N18:N37 N39:N44 N46:N52 N54:N64 N66:N70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13 N13:N16 N18:N36 N38:N43 N45:N51 N53:N63 N65:N69">
       <formula1>$T$1:$T$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16 I18:I37 I39:I44 I46:I52 I55:I64 I66:I70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16 I18:I36 I38:I43 I45:I51 I54:I63 I65:I69">
       <formula1>$R$1:$R$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K16 K18:K37 K39:K44 K46:K52 K54:K64 K66:K70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K16 K18:K36 K38:K43 K45:K51 K53:K63 K65:K69">
       <formula1>$Q$1:$Q$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="259">
   <si>
     <t>Fail</t>
   </si>
@@ -401,9 +401,6 @@
 4: Click on "Create" button</t>
   </si>
   <si>
-    <t>4. Tests on "Edit and Delete Article" page</t>
-  </si>
-  <si>
     <t>Edit Article with valid data</t>
   </si>
   <si>
@@ -763,39 +760,6 @@
     <t>CAP_TC7</t>
   </si>
   <si>
-    <t>EDAP_TC1</t>
-  </si>
-  <si>
-    <t>EDAP_TC2</t>
-  </si>
-  <si>
-    <t>EDAP_TC3</t>
-  </si>
-  <si>
-    <t>EDAP_TC4</t>
-  </si>
-  <si>
-    <t>EDAP_TC5</t>
-  </si>
-  <si>
-    <t>EDAP_TC6</t>
-  </si>
-  <si>
-    <t>EDAP_TC7</t>
-  </si>
-  <si>
-    <t>EDAP_TC8</t>
-  </si>
-  <si>
-    <t>EDAP_TC9</t>
-  </si>
-  <si>
-    <t>EDAP_TC11</t>
-  </si>
-  <si>
-    <t>EDAP_TC10</t>
-  </si>
-  <si>
     <t>EDUP_TC1</t>
   </si>
   <si>
@@ -809,9 +773,6 @@
   </si>
   <si>
     <t>EDUP_TC5</t>
-  </si>
-  <si>
-    <t>5. Tests on  "Edit Users" page</t>
   </si>
   <si>
     <t>Register with name longer than 50 characters</t>
@@ -1003,6 +964,48 @@
   </si>
   <si>
     <t>Not Atomated</t>
+  </si>
+  <si>
+    <t>EAP_TC1</t>
+  </si>
+  <si>
+    <t>4. Tests on "Edit Article" page</t>
+  </si>
+  <si>
+    <t>5. Tests on "Delete Article" page</t>
+  </si>
+  <si>
+    <t>6. Tests on  "Edit Users" page</t>
+  </si>
+  <si>
+    <t>EAP_TC2</t>
+  </si>
+  <si>
+    <t>EAP_TC3</t>
+  </si>
+  <si>
+    <t>EAP_TC4</t>
+  </si>
+  <si>
+    <t>EAP_TC5</t>
+  </si>
+  <si>
+    <t>DAP_TC3</t>
+  </si>
+  <si>
+    <t>DAP_TC2</t>
+  </si>
+  <si>
+    <t>DAP_TC1</t>
+  </si>
+  <si>
+    <t>EAP_TC6</t>
+  </si>
+  <si>
+    <t>EAP_TC7</t>
+  </si>
+  <si>
+    <t>EAP_TC8</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1672,55 @@
     <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="1"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -4291,12 +4342,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T553"/>
+  <dimension ref="A1:T554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A36" sqref="A36"/>
-      <selection pane="topRight" activeCell="A37" sqref="A37:XFD37"/>
+      <selection pane="topRight" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -4335,16 +4386,16 @@
       <c r="O1" s="43"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
@@ -4365,16 +4416,16 @@
       <c r="O2" s="43"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4399,10 +4450,10 @@
       <c r="O3" s="73"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="25.5">
@@ -4425,7 +4476,7 @@
       <c r="O4" s="73"/>
       <c r="P4" s="7"/>
       <c r="T4" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="23" customFormat="1" ht="25.5">
@@ -4448,7 +4499,7 @@
       <c r="O5" s="72"/>
       <c r="P5" s="22"/>
       <c r="T5" s="23" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4456,7 +4507,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="32">
-        <f>COUNTIF(I17:I137,"Pass")</f>
+        <f>COUNTIF(I17:I138,"Pass")</f>
         <v>34</v>
       </c>
       <c r="C6" s="32"/>
@@ -4464,7 +4515,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="10">
-        <f>COUNTIF(I10:I760,"Pending")</f>
+        <f>COUNTIF(I10:I761,"Pending")</f>
         <v>0</v>
       </c>
       <c r="F6" s="6"/>
@@ -4484,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="33">
-        <f>COUNTIF(I17:I137,"Fail")</f>
+        <f>COUNTIF(I17:I138,"Fail")</f>
         <v>14</v>
       </c>
       <c r="C7" s="33"/>
@@ -4492,7 +4543,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="15">
-        <f>COUNTIF(A17:A137,"TC*")</f>
+        <f>COUNTIF(A17:A138,"TC*")</f>
         <v>0</v>
       </c>
       <c r="F7" s="17"/>
@@ -4553,16 +4604,16 @@
         <v>16</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L9" s="57" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="N9" s="57" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="O9" s="76" t="s">
         <v>10</v>
@@ -4606,7 +4657,7 @@
     </row>
     <row r="12" spans="1:20" s="3" customFormat="1" ht="12.75">
       <c r="A12" s="69" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -4625,17 +4676,17 @@
     </row>
     <row r="13" spans="1:20" s="3" customFormat="1" ht="76.5" customHeight="1" outlineLevel="1">
       <c r="A13" s="29" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="28" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
@@ -4647,32 +4698,32 @@
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L13" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O13" s="27"/>
     </row>
     <row r="14" spans="1:20" s="3" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A14" s="29" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="28" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
@@ -4684,30 +4735,30 @@
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N14" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O14" s="27"/>
     </row>
     <row r="15" spans="1:20" s="3" customFormat="1" ht="38.25" outlineLevel="1">
       <c r="A15" s="29" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="28" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="62"/>
@@ -4719,30 +4770,30 @@
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O15" s="27"/>
     </row>
     <row r="16" spans="1:20" s="3" customFormat="1" ht="38.25" outlineLevel="1">
       <c r="A16" s="29" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="28" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F16" s="62"/>
       <c r="G16" s="62"/>
@@ -4754,14 +4805,14 @@
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O16" s="27"/>
     </row>
@@ -4786,17 +4837,17 @@
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A18" s="29" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="28" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="62"/>
@@ -4808,22 +4859,22 @@
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N18" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A19" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>15</v>
@@ -4833,7 +4884,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="62"/>
       <c r="G19" s="62"/>
@@ -4845,22 +4896,22 @@
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L19" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N19" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O19" s="27"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A20" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>19</v>
@@ -4882,22 +4933,22 @@
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L20" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O20" s="27"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A21" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>21</v>
@@ -4921,22 +4972,22 @@
         <v>24</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L21" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N21" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A22" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>25</v>
@@ -4958,22 +5009,22 @@
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L22" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M22" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N22" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A23" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>27</v>
@@ -4997,32 +5048,32 @@
         <v>30</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L23" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N23" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O23" s="27"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A24" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="28" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -5034,22 +5085,22 @@
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L24" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N24" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O24" s="27"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A25" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="39" t="s">
         <v>34</v>
@@ -5073,22 +5124,22 @@
         <v>32</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L25" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N25" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O25" s="27"/>
     </row>
     <row r="26" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A26" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>33</v>
@@ -5110,22 +5161,22 @@
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L26" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M26" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N26" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O26" s="27"/>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A27" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>37</v>
@@ -5147,22 +5198,22 @@
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L27" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N27" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A28" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>40</v>
@@ -5186,32 +5237,32 @@
         <v>30</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L28" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N28" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O28" s="31"/>
     </row>
     <row r="29" spans="1:19" s="30" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A29" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="28" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
@@ -5225,16 +5276,16 @@
         <v>32</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L29" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N29" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O29" s="41"/>
       <c r="P29" s="40"/>
@@ -5244,7 +5295,7 @@
     </row>
     <row r="30" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A30" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>43</v>
@@ -5266,22 +5317,22 @@
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L30" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M30" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N30" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O30" s="31"/>
     </row>
     <row r="31" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A31" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>47</v>
@@ -5303,22 +5354,22 @@
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L31" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N31" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O31" s="31"/>
     </row>
     <row r="32" spans="1:19" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A32" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>51</v>
@@ -5340,22 +5391,22 @@
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L32" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M32" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N32" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O32" s="31"/>
     </row>
     <row r="33" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A33" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B33" s="39" t="s">
         <v>54</v>
@@ -5377,32 +5428,32 @@
       </c>
       <c r="J33" s="37"/>
       <c r="K33" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L33" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N33" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O33" s="31"/>
     </row>
     <row r="34" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A34" s="51" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="28" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
@@ -5414,32 +5465,32 @@
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L34" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N34" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O34" s="31"/>
     </row>
     <row r="35" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A35" s="51" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="28" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F35" s="60"/>
       <c r="G35" s="60"/>
@@ -5451,32 +5502,32 @@
       </c>
       <c r="J35" s="37"/>
       <c r="K35" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L35" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N35" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O35" s="31"/>
     </row>
     <row r="36" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A36" s="51" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="28" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="60"/>
@@ -5488,16 +5539,16 @@
       </c>
       <c r="J36" s="37"/>
       <c r="K36" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L36" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M36" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N36" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O36" s="31"/>
     </row>
@@ -5522,13 +5573,13 @@
     </row>
     <row r="38" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A38" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>69</v>
@@ -5546,22 +5597,22 @@
       </c>
       <c r="J38" s="37"/>
       <c r="K38" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L38" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M38" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N38" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O38" s="31"/>
     </row>
     <row r="39" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
       <c r="A39" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" s="39" t="s">
         <v>62</v>
@@ -5583,22 +5634,22 @@
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L39" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M39" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N39" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O39" s="31"/>
     </row>
     <row r="40" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A40" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>63</v>
@@ -5610,7 +5661,7 @@
         <v>71</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
@@ -5622,22 +5673,22 @@
       </c>
       <c r="J40" s="37"/>
       <c r="K40" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L40" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M40" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N40" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O40" s="31"/>
     </row>
     <row r="41" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A41" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="39" t="s">
         <v>64</v>
@@ -5649,7 +5700,7 @@
         <v>72</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
@@ -5661,32 +5712,32 @@
       </c>
       <c r="J41" s="37"/>
       <c r="K41" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L41" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M41" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N41" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O41" s="31"/>
     </row>
     <row r="42" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A42" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="28" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F42" s="60"/>
       <c r="G42" s="60"/>
@@ -5698,34 +5749,34 @@
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L42" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M42" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N42" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O42" s="31"/>
     </row>
     <row r="43" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A43" s="29" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B43" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="28" t="s">
+      <c r="E43" s="59" t="s">
         <v>128</v>
-      </c>
-      <c r="E43" s="59" t="s">
-        <v>129</v>
       </c>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
@@ -5737,16 +5788,16 @@
       </c>
       <c r="J43" s="37"/>
       <c r="K43" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L43" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N43" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O43" s="31"/>
     </row>
@@ -5771,19 +5822,19 @@
     </row>
     <row r="45" spans="1:15" s="30" customFormat="1" ht="140.25" outlineLevel="1">
       <c r="A45" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B45" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F45" s="60"/>
       <c r="G45" s="60"/>
@@ -5795,34 +5846,34 @@
       </c>
       <c r="J45" s="37"/>
       <c r="K45" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L45" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M45" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N45" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
       <c r="A46" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B46" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F46" s="60"/>
       <c r="G46" s="60"/>
@@ -5834,34 +5885,34 @@
       </c>
       <c r="J46" s="37"/>
       <c r="K46" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L46" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M46" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N46" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O46" s="31"/>
     </row>
     <row r="47" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A47" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B47" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F47" s="60"/>
       <c r="G47" s="60"/>
@@ -5873,34 +5924,34 @@
       </c>
       <c r="J47" s="37"/>
       <c r="K47" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L47" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M47" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N47" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A48" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>81</v>
       </c>
       <c r="E48" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="60"/>
@@ -5911,37 +5962,37 @@
         <v>0</v>
       </c>
       <c r="J48" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L48" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M48" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N48" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O48" s="31"/>
     </row>
     <row r="49" spans="1:15" s="30" customFormat="1" ht="102" outlineLevel="1">
       <c r="A49" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E49" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F49" s="60"/>
       <c r="G49" s="60"/>
@@ -5953,34 +6004,34 @@
       </c>
       <c r="J49" s="46"/>
       <c r="K49" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L49" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M49" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N49" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O49" s="31"/>
     </row>
     <row r="50" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A50" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B50" s="39" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F50" s="60"/>
       <c r="G50" s="60"/>
@@ -5991,37 +6042,37 @@
         <v>0</v>
       </c>
       <c r="J50" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L50" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M50" s="50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N50" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O50" s="31"/>
     </row>
     <row r="51" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A51" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>86</v>
       </c>
       <c r="E51" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F51" s="60"/>
       <c r="G51" s="60"/>
@@ -6032,25 +6083,25 @@
         <v>0</v>
       </c>
       <c r="J51" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L51" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M51" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N51" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O51" s="31"/>
     </row>
     <row r="52" spans="1:15" s="3" customFormat="1" ht="12.75">
       <c r="A52" s="69" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="B52" s="70"/>
       <c r="C52" s="70"/>
@@ -6069,19 +6120,19 @@
     </row>
     <row r="53" spans="1:15" s="30" customFormat="1" ht="165.75" outlineLevel="1">
       <c r="A53" s="29" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F53" s="60"/>
       <c r="G53" s="60"/>
@@ -6093,34 +6144,34 @@
       </c>
       <c r="J53" s="37"/>
       <c r="K53" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L53" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N53" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O53" s="31"/>
     </row>
     <row r="54" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
       <c r="A54" s="29" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F54" s="60"/>
       <c r="G54" s="60"/>
@@ -6131,37 +6182,37 @@
         <v>0</v>
       </c>
       <c r="J54" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L54" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N54" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O54" s="31"/>
     </row>
     <row r="55" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
       <c r="A55" s="29" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="B55" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>144</v>
-      </c>
       <c r="E55" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F55" s="60"/>
       <c r="G55" s="60"/>
@@ -6173,34 +6224,34 @@
       </c>
       <c r="J55" s="37"/>
       <c r="K55" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L55" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N55" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O55" s="31"/>
     </row>
     <row r="56" spans="1:15" s="30" customFormat="1" ht="127.5" outlineLevel="1">
       <c r="A56" s="29" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F56" s="60"/>
       <c r="G56" s="60"/>
@@ -6211,37 +6262,37 @@
         <v>0</v>
       </c>
       <c r="J56" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L56" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N56" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O56" s="31"/>
     </row>
     <row r="57" spans="1:15" s="30" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A57" s="29" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
@@ -6252,37 +6303,37 @@
         <v>0</v>
       </c>
       <c r="J57" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L57" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N57" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O57" s="31"/>
     </row>
-    <row r="58" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="58" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
       <c r="A58" s="29" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="F58" s="60"/>
       <c r="G58" s="60"/>
@@ -6294,34 +6345,34 @@
       </c>
       <c r="J58" s="46"/>
       <c r="K58" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L58" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N58" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O58" s="31"/>
     </row>
     <row r="59" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A59" s="29" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F59" s="60"/>
       <c r="G59" s="60"/>
@@ -6332,37 +6383,37 @@
         <v>0</v>
       </c>
       <c r="J59" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L59" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N59" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O59" s="31"/>
     </row>
-    <row r="60" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="60" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
       <c r="A60" s="29" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="E60" s="59" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="F60" s="60"/>
       <c r="G60" s="60"/>
@@ -6370,11 +6421,9 @@
         <v>42843</v>
       </c>
       <c r="I60" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="46" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J60" s="37"/>
       <c r="K60" s="54" t="s">
         <v>160</v>
       </c>
@@ -6382,67 +6431,47 @@
         <v>18</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N60" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O60" s="31"/>
     </row>
-    <row r="61" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
-      <c r="A61" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="45">
-        <v>42843</v>
-      </c>
-      <c r="I61" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="L61" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="N61" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="O61" s="31"/>
-    </row>
-    <row r="62" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
+    <row r="61" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A61" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="71"/>
+    </row>
+    <row r="62" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A62" s="29" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E62" s="59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F62" s="60"/>
       <c r="G62" s="60"/>
@@ -6452,36 +6481,36 @@
       <c r="I62" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="37"/>
+      <c r="J62" s="46"/>
       <c r="K62" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L62" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N62" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O62" s="31"/>
     </row>
     <row r="63" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A63" s="29" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="E63" s="59" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="F63" s="60"/>
       <c r="G63" s="60"/>
@@ -6489,96 +6518,98 @@
         <v>42843</v>
       </c>
       <c r="I63" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="46" t="s">
+        <v>98</v>
+      </c>
       <c r="K63" s="54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L63" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N63" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O63" s="31"/>
     </row>
-    <row r="64" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A64" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="71"/>
-    </row>
-    <row r="65" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A65" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" s="39" t="s">
+    <row r="64" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A64" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="45">
+        <v>42843</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="46"/>
+      <c r="K64" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="N64" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="O64" s="31"/>
+    </row>
+    <row r="65" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A65" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="70"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="71"/>
+    </row>
+    <row r="66" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A66" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="D66" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="E66" s="59" t="s">
         <v>115</v>
-      </c>
-      <c r="E65" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="45">
-        <v>42847</v>
-      </c>
-      <c r="I65" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="46"/>
-      <c r="K65" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L65" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="N65" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="O65" s="31"/>
-    </row>
-    <row r="66" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A66" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="59" t="s">
-        <v>156</v>
       </c>
       <c r="F66" s="60"/>
       <c r="G66" s="60"/>
@@ -6590,34 +6621,34 @@
       </c>
       <c r="J66" s="46"/>
       <c r="K66" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L66" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N66" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O66" s="31"/>
     </row>
-    <row r="67" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="67" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A67" s="29" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B67" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>157</v>
-      </c>
       <c r="E67" s="59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F67" s="60"/>
       <c r="G67" s="60"/>
@@ -6629,34 +6660,34 @@
       </c>
       <c r="J67" s="46"/>
       <c r="K67" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L67" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N67" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O67" s="31"/>
     </row>
     <row r="68" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A68" s="29" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="E68" s="59" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="F68" s="60"/>
       <c r="G68" s="60"/>
@@ -6664,40 +6695,38 @@
         <v>42847</v>
       </c>
       <c r="I68" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="46" t="s">
-        <v>125</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J68" s="46"/>
       <c r="K68" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L68" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N68" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O68" s="31"/>
     </row>
     <row r="69" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A69" s="29" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B69" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="D69" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="28" t="s">
-        <v>123</v>
-      </c>
       <c r="E69" s="59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F69" s="60"/>
       <c r="G69" s="60"/>
@@ -6705,33 +6734,63 @@
         <v>42847</v>
       </c>
       <c r="I69" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J69" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>124</v>
+      </c>
       <c r="K69" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L69" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="N69" s="50" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O69" s="31"/>
     </row>
-    <row r="70" spans="1:15" ht="12" customHeight="1">
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="I70" s="55"/>
-      <c r="J70"/>
-      <c r="K70" s="55"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
+    <row r="70" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A70" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="45">
+        <v>42847</v>
+      </c>
+      <c r="I70" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="46"/>
+      <c r="K70" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L70" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="N70" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="O70" s="31"/>
     </row>
     <row r="71" spans="1:15" ht="12" customHeight="1">
       <c r="B71"/>
@@ -6832,7 +6891,9 @@
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="1:15" ht="13.5">
+    <row r="80" spans="1:15" ht="12" customHeight="1">
+      <c r="B80"/>
+      <c r="C80"/>
       <c r="I80" s="55"/>
       <c r="J80"/>
       <c r="K80" s="55"/>
@@ -11098,24 +11159,34 @@
       <c r="N553"/>
       <c r="O553"/>
     </row>
+    <row r="554" spans="9:15" ht="13.5">
+      <c r="I554" s="55"/>
+      <c r="J554"/>
+      <c r="K554" s="55"/>
+      <c r="L554"/>
+      <c r="M554"/>
+      <c r="N554"/>
+      <c r="O554"/>
+    </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="E65:G65"/>
+  <mergeCells count="82">
     <mergeCell ref="E66:G66"/>
     <mergeCell ref="E67:G67"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="E69:G69"/>
-    <mergeCell ref="A64:O64"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="A65:O65"/>
+    <mergeCell ref="E60:G60"/>
     <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E58:G58"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="E56:G56"/>
     <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A61:O61"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E51:G51"/>
@@ -11183,33 +11254,49 @@
     <mergeCell ref="E27:G27"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="I1:I60 I62:I1048576">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Not">
+  <conditionalFormatting sqref="M1:M60 M62:M1048576">
+    <cfRule type="beginsWith" dxfId="5" priority="5" operator="beginsWith" text="Not">
       <formula>LEFT(M1,LEN("Not"))="Not"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M53:M63 M38:M43 M13:M16 M18:M36 M45:M51 M65:M69">
+  <conditionalFormatting sqref="I61">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M61">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Not">
+      <formula>LEFT(M61,LEN("Not"))="Not"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Automated">
+      <formula>NOT(ISERROR(SEARCH("Automated",M61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M66:M70 M38:M43 M13:M16 M18:M36 M45:M51 M62:M64 M53:M57 M58:M60">
       <formula1>$S$1:$S$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13 N13:N16 N18:N36 N38:N43 N45:N51 N53:N63 N65:N69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13 N13:N16 N18:N36 N38:N43 N45:N51 N66:N70 N62:N64 N53:N57 N58:N60">
       <formula1>$T$1:$T$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16 I18:I36 I38:I43 I45:I51 I54:I63 I65:I69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16 I18:I36 I38:I43 I45:I51 I66:I70 I62:I64 I54:I57 I58:I60">
       <formula1>$R$1:$R$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K16 K18:K36 K38:K43 K45:K51 K53:K63 K65:K69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K16 K18:K36 K38:K43 K45:K51 K66:K70 K62:K64 K53:K57 K58:K60">
       <formula1>$Q$1:$Q$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="254">
   <si>
     <t>Fail</t>
   </si>
@@ -362,9 +362,6 @@
 4: Click on "Cancel" button</t>
   </si>
   <si>
-    <t>user should be redirected back to previously visited page</t>
-  </si>
-  <si>
     <t>Test if "Cancel" button is working properly with filled "Title" and "Content" fields</t>
   </si>
   <si>
@@ -439,14 +436,6 @@
   </si>
   <si>
     <t>"Delete" button exist, but user can't actualy delete the page</t>
-  </si>
-  <si>
-    <t>Test if "Back" button is working properly</t>
-  </si>
-  <si>
-    <t>1: Open blog "Home" page
-2: Click on any article
-3: Click on "Back" button</t>
   </si>
   <si>
     <t>1: Open blog "Home" page
@@ -468,9 +457,6 @@
     <t>1. Logged as Regular User 2. At least one exisiting article not created by currently logged user</t>
   </si>
   <si>
-    <t>1. Logged as Regular User 2. At least one exisiting article</t>
-  </si>
-  <si>
     <t>1. Logged as Regular User 2. At least one exisiting article created by the currently logged user</t>
   </si>
   <si>
@@ -580,13 +566,6 @@
     <t>1: Open blog "Home" page
 2: Click on any article created by currently logged user 3: Click on "Edit" button
 4: Type "Test Automation is the key" in "Title" field(any title with more that 5 characters and less than 50 characters).
-5: Type "Traditional quality assurance has become a bottleneck in the development process and the advancement of test automation. Innovative development teams ..." in "Content" field(any text with more that 100 characters and less than 10 000 characters).
-6: Click on "Edit" button</t>
-  </si>
-  <si>
-    <t>1: Open blog "Home" page
-2: Click on any article created by currently logged user 3: Click on "Edit" button
-4: Type "Test Automation is the key" in "Title" field(any title with more that 5 characters and less than 50 characters).
 5: Type "Traditional quality assurance..." in "Content" field(any text with less that 100 characters).
 6: Click on "Edit" button</t>
   </si>
@@ -611,13 +590,6 @@
     <t>Edit Own Article with title with more than 50 characters(including spaces)</t>
   </si>
   <si>
-    <t>1: Open blog "Home" page
-2: Click on any article created by currently logged user 3: Click on "Edit" button
-4: Type "Test Automation Process is the key" in "Title" field(any title with more 50 characters).
-5: Type "Traditional quality assurance has become a bottleneck in the development process and the advancement of test automation. Innovative development teams ..." in "Content" field(any text with more that 100 characters and less than 10 000 characters).
-6: Click on "Edit" button</t>
-  </si>
-  <si>
     <t>"Invalid login attempt." message should be shown to user</t>
   </si>
   <si>
@@ -1005,7 +977,18 @@
     <t>EAP_TC7</t>
   </si>
   <si>
-    <t>EAP_TC8</t>
+    <t>1: Open blog "Home" page
+2: Click on any article created by currently logged user 3: Click on "Edit" button
+4: Type "This article has been Edited" in "Title" field(any title with more that 5 characters and less than 50 characters).
+5: Type "This article has been Edited. The original content of the article was starting with: Traditional quality assurance has become a bottleneck in the development process and the advancement of test automation. Innovative development teams ..." in "Content" field(any text with more that 100 characters and less than 10 000 characters).
+6: Click on "Edit" button</t>
+  </si>
+  <si>
+    <t>1: Open blog "Home" page
+2: Click on any article created by currently logged user 3: Click on "Edit" button
+4: Type any content that contains more than 50 characters(including spaces) in "Title" field(any title with more 50 characters).
+5: Type "Traditional quality assurance has become a bottleneck in the development process and the advancement of test automation. Innovative development teams ..." in "Content" field(any text with more that 100 characters and less than 10 000 characters).
+6: Click on "Edit" button</t>
   </si>
 </sst>
 </file>
@@ -1576,23 +1559,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1612,15 +1625,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1632,9 +1636,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1648,55 +1649,13 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="1"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="2"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -4342,12 +4301,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T554"/>
+  <dimension ref="A1:T553"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A36" sqref="A36"/>
-      <selection pane="topRight" activeCell="A60" sqref="A60"/>
+      <selection pane="topRight" activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -4370,10 +4329,10 @@
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -4386,24 +4345,24 @@
       <c r="O1" s="43"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -4416,90 +4375,90 @@
       <c r="O2" s="43"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="25.5">
       <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
       <c r="P4" s="7"/>
       <c r="T4" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="23" customFormat="1" ht="25.5">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="22"/>
       <c r="T5" s="23" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4507,27 +4466,27 @@
         <v>13</v>
       </c>
       <c r="B6" s="32">
-        <f>COUNTIF(I17:I138,"Pass")</f>
-        <v>34</v>
+        <f>COUNTIF(I17:I137,"Pass")</f>
+        <v>33</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="10">
-        <f>COUNTIF(I10:I761,"Pending")</f>
+        <f>COUNTIF(I10:I760,"Pending")</f>
         <v>0</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4535,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="33">
-        <f>COUNTIF(I17:I138,"Fail")</f>
+        <f>COUNTIF(I17:I137,"Fail")</f>
         <v>14</v>
       </c>
       <c r="C7" s="33"/>
@@ -4543,27 +4502,27 @@
         <v>6</v>
       </c>
       <c r="E7" s="15">
-        <f>COUNTIF(A17:A138,"TC*")</f>
+        <f>COUNTIF(A17:A137,"TC*")</f>
         <v>0</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4577,119 +4536,119 @@
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="80" t="s">
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="62" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="N9" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="O9" s="76" t="s">
+      <c r="M9" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" s="64" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:20" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="58"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="63"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="76"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64"/>
       <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:20" s="26" customFormat="1" ht="15">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="86"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
     </row>
     <row r="12" spans="1:20" s="3" customFormat="1" ht="12.75">
-      <c r="A12" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="71"/>
+      <c r="A12" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" spans="1:20" s="3" customFormat="1" ht="76.5" customHeight="1" outlineLevel="1">
       <c r="A13" s="29" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+        <v>201</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="45">
         <v>42841</v>
       </c>
@@ -4698,35 +4657,35 @@
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L13" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O13" s="27"/>
     </row>
     <row r="14" spans="1:20" s="3" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A14" s="29" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
+        <v>204</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="45">
         <v>42841</v>
       </c>
@@ -4735,33 +4694,33 @@
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N14" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O14" s="27"/>
     </row>
     <row r="15" spans="1:20" s="3" customFormat="1" ht="38.25" outlineLevel="1">
       <c r="A15" s="29" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
+        <v>207</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="45">
         <v>42841</v>
       </c>
@@ -4770,33 +4729,33 @@
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O15" s="27"/>
     </row>
     <row r="16" spans="1:20" s="3" customFormat="1" ht="38.25" outlineLevel="1">
       <c r="A16" s="29" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
+        <v>210</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="45">
         <v>42841</v>
       </c>
@@ -4805,52 +4764,52 @@
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O16" s="27"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="12.75">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A18" s="29" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+        <v>218</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="45">
         <v>42841</v>
       </c>
@@ -4859,22 +4818,22 @@
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N18" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A19" s="29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>15</v>
@@ -4883,11 +4842,11 @@
       <c r="D19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
+      <c r="E19" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
       <c r="H19" s="45">
         <v>42841</v>
       </c>
@@ -4896,22 +4855,22 @@
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L19" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N19" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O19" s="27"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A20" s="29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>19</v>
@@ -4920,11 +4879,11 @@
       <c r="D20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
       <c r="H20" s="45">
         <v>42841</v>
       </c>
@@ -4933,22 +4892,22 @@
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L20" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O20" s="27"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A21" s="29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>21</v>
@@ -4957,11 +4916,11 @@
       <c r="D21" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="45">
         <v>42841</v>
       </c>
@@ -4972,22 +4931,22 @@
         <v>24</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L21" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N21" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A22" s="29" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>25</v>
@@ -4996,11 +4955,11 @@
       <c r="D22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="45">
         <v>42841</v>
       </c>
@@ -5009,22 +4968,22 @@
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L22" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M22" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N22" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A23" s="29" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>27</v>
@@ -5033,11 +4992,11 @@
       <c r="D23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="45">
         <v>42841</v>
       </c>
@@ -5048,35 +5007,35 @@
         <v>30</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L23" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N23" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O23" s="27"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A24" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
+        <v>191</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="45">
         <v>42841</v>
       </c>
@@ -5085,22 +5044,22 @@
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L24" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N24" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O24" s="27"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A25" s="29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B25" s="39" t="s">
         <v>34</v>
@@ -5109,11 +5068,11 @@
       <c r="D25" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="45">
         <v>42841</v>
       </c>
@@ -5124,22 +5083,22 @@
         <v>32</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L25" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N25" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O25" s="27"/>
     </row>
     <row r="26" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A26" s="29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>33</v>
@@ -5148,11 +5107,11 @@
       <c r="D26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="45">
         <v>42841</v>
       </c>
@@ -5161,22 +5120,22 @@
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L26" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M26" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N26" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O26" s="27"/>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A27" s="29" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>37</v>
@@ -5185,11 +5144,11 @@
       <c r="D27" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="45">
         <v>42841</v>
       </c>
@@ -5198,22 +5157,22 @@
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L27" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N27" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A28" s="29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>40</v>
@@ -5222,11 +5181,11 @@
       <c r="D28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="45">
         <v>42841</v>
       </c>
@@ -5237,35 +5196,35 @@
         <v>30</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L28" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N28" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O28" s="31"/>
     </row>
     <row r="29" spans="1:19" s="30" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A29" s="29" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+        <v>192</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="45">
         <v>42841</v>
       </c>
@@ -5276,16 +5235,16 @@
         <v>32</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L29" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N29" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O29" s="41"/>
       <c r="P29" s="40"/>
@@ -5295,7 +5254,7 @@
     </row>
     <row r="30" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A30" s="29" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>43</v>
@@ -5304,11 +5263,11 @@
       <c r="D30" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="45">
         <v>42841</v>
       </c>
@@ -5317,22 +5276,22 @@
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L30" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M30" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N30" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O30" s="31"/>
     </row>
     <row r="31" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A31" s="29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>47</v>
@@ -5341,11 +5300,11 @@
       <c r="D31" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="45">
         <v>42841</v>
       </c>
@@ -5354,22 +5313,22 @@
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L31" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N31" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O31" s="31"/>
     </row>
     <row r="32" spans="1:19" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A32" s="29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>51</v>
@@ -5378,11 +5337,11 @@
       <c r="D32" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="45">
         <v>42841</v>
       </c>
@@ -5391,22 +5350,22 @@
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L32" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M32" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N32" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O32" s="31"/>
     </row>
     <row r="33" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A33" s="29" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B33" s="39" t="s">
         <v>54</v>
@@ -5415,11 +5374,11 @@
       <c r="D33" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="45">
         <v>42841</v>
       </c>
@@ -5428,35 +5387,35 @@
       </c>
       <c r="J33" s="37"/>
       <c r="K33" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L33" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N33" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O33" s="31"/>
     </row>
     <row r="34" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A34" s="51" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+        <v>224</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="45">
         <v>42841</v>
       </c>
@@ -5465,35 +5424,35 @@
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L34" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N34" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O34" s="31"/>
     </row>
     <row r="35" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A35" s="51" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
+        <v>227</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="45">
         <v>42841</v>
       </c>
@@ -5502,35 +5461,35 @@
       </c>
       <c r="J35" s="37"/>
       <c r="K35" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L35" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N35" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O35" s="31"/>
     </row>
     <row r="36" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A36" s="51" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
+        <v>230</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="45">
         <v>42841</v>
       </c>
@@ -5539,56 +5498,56 @@
       </c>
       <c r="J36" s="37"/>
       <c r="K36" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L36" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M36" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N36" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O36" s="31"/>
     </row>
     <row r="37" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="71"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="61"/>
     </row>
     <row r="38" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A38" s="29" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="45">
         <v>42843</v>
       </c>
@@ -5597,22 +5556,22 @@
       </c>
       <c r="J38" s="37"/>
       <c r="K38" s="54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L38" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M38" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N38" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O38" s="31"/>
     </row>
     <row r="39" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
       <c r="A39" s="29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B39" s="39" t="s">
         <v>62</v>
@@ -5621,11 +5580,11 @@
       <c r="D39" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
       <c r="H39" s="45">
         <v>42843</v>
       </c>
@@ -5634,22 +5593,22 @@
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L39" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M39" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N39" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O39" s="31"/>
     </row>
     <row r="40" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A40" s="29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>63</v>
@@ -5660,11 +5619,11 @@
       <c r="D40" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
+      <c r="E40" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
       <c r="H40" s="45">
         <v>42843</v>
       </c>
@@ -5673,22 +5632,22 @@
       </c>
       <c r="J40" s="37"/>
       <c r="K40" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L40" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M40" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N40" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O40" s="31"/>
     </row>
     <row r="41" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A41" s="29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B41" s="39" t="s">
         <v>64</v>
@@ -5699,11 +5658,11 @@
       <c r="D41" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="E41" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="45">
         <v>42843</v>
       </c>
@@ -5712,35 +5671,35 @@
       </c>
       <c r="J41" s="37"/>
       <c r="K41" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L41" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M41" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N41" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O41" s="31"/>
     </row>
     <row r="42" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A42" s="29" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
+        <v>196</v>
+      </c>
+      <c r="E42" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="45">
         <v>42869</v>
       </c>
@@ -5749,37 +5708,37 @@
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L42" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M42" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N42" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O42" s="31"/>
     </row>
     <row r="43" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A43" s="29" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
+        <v>123</v>
+      </c>
+      <c r="E43" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="45">
         <v>42843</v>
       </c>
@@ -5788,56 +5747,56 @@
       </c>
       <c r="J43" s="37"/>
       <c r="K43" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L43" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N43" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O43" s="31"/>
     </row>
     <row r="44" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="71"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="61"/>
     </row>
     <row r="45" spans="1:15" s="30" customFormat="1" ht="140.25" outlineLevel="1">
       <c r="A45" s="29" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B45" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
+      <c r="E45" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
       <c r="H45" s="45">
         <v>42843</v>
       </c>
@@ -5846,37 +5805,37 @@
       </c>
       <c r="J45" s="37"/>
       <c r="K45" s="54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L45" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M45" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N45" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
       <c r="A46" s="29" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B46" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
+      <c r="E46" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="45">
         <v>42843</v>
       </c>
@@ -5885,37 +5844,37 @@
       </c>
       <c r="J46" s="37"/>
       <c r="K46" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L46" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M46" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N46" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O46" s="31"/>
     </row>
     <row r="47" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A47" s="29" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B47" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="E47" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="45">
         <v>42843</v>
       </c>
@@ -5924,37 +5883,37 @@
       </c>
       <c r="J47" s="37"/>
       <c r="K47" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L47" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M47" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N47" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A48" s="29" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
+        <v>80</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="45">
         <v>42843</v>
       </c>
@@ -5962,40 +5921,40 @@
         <v>0</v>
       </c>
       <c r="J48" s="46" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L48" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M48" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N48" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O48" s="31"/>
     </row>
     <row r="49" spans="1:15" s="30" customFormat="1" ht="102" outlineLevel="1">
       <c r="A49" s="29" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
+        <v>132</v>
+      </c>
+      <c r="E49" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
       <c r="H49" s="45">
         <v>42843</v>
       </c>
@@ -6004,37 +5963,37 @@
       </c>
       <c r="J49" s="46"/>
       <c r="K49" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L49" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M49" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N49" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O49" s="31"/>
     </row>
     <row r="50" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A50" s="29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
+        <v>81</v>
+      </c>
+      <c r="E50" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
       <c r="H50" s="45">
         <v>42843</v>
       </c>
@@ -6042,40 +6001,40 @@
         <v>0</v>
       </c>
       <c r="J50" s="46" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L50" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M50" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N50" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O50" s="31"/>
     </row>
     <row r="51" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A51" s="29" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B51" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
+      <c r="E51" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
       <c r="H51" s="45">
         <v>42843</v>
       </c>
@@ -6083,59 +6042,59 @@
         <v>0</v>
       </c>
       <c r="J51" s="46" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L51" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M51" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N51" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O51" s="31"/>
     </row>
     <row r="52" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A52" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="71"/>
-    </row>
-    <row r="53" spans="1:15" s="30" customFormat="1" ht="165.75" outlineLevel="1">
+      <c r="A52" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="61"/>
+    </row>
+    <row r="53" spans="1:15" s="30" customFormat="1" ht="178.5" outlineLevel="1">
       <c r="A53" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
+        <v>252</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
       <c r="H53" s="45">
         <v>42843</v>
       </c>
@@ -6144,37 +6103,37 @@
       </c>
       <c r="J53" s="37"/>
       <c r="K53" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L53" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N53" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O53" s="31"/>
     </row>
     <row r="54" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
       <c r="A54" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
+        <v>98</v>
+      </c>
+      <c r="E54" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
       <c r="H54" s="45">
         <v>42843</v>
       </c>
@@ -6182,40 +6141,40 @@
         <v>0</v>
       </c>
       <c r="J54" s="46" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L54" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M54" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="N54" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="O54" s="31"/>
+    </row>
+    <row r="55" spans="1:15" s="30" customFormat="1" ht="165.75" outlineLevel="1">
+      <c r="A55" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="N54" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="O54" s="31"/>
-    </row>
-    <row r="55" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
-      <c r="A55" s="29" t="s">
-        <v>250</v>
-      </c>
       <c r="B55" s="39" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
+        <v>253</v>
+      </c>
+      <c r="E55" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
       <c r="H55" s="45">
         <v>42843</v>
       </c>
@@ -6224,37 +6183,37 @@
       </c>
       <c r="J55" s="37"/>
       <c r="K55" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L55" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N55" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O55" s="31"/>
     </row>
     <row r="56" spans="1:15" s="30" customFormat="1" ht="127.5" outlineLevel="1">
       <c r="A56" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B56" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="D56" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
+        <v>133</v>
+      </c>
+      <c r="E56" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
       <c r="H56" s="45">
         <v>42843</v>
       </c>
@@ -6262,40 +6221,40 @@
         <v>0</v>
       </c>
       <c r="J56" s="46" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L56" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N56" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O56" s="31"/>
     </row>
     <row r="57" spans="1:15" s="30" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A57" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D57" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
       <c r="H57" s="45">
         <v>42843</v>
       </c>
@@ -6303,301 +6262,301 @@
         <v>0</v>
       </c>
       <c r="J57" s="46" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L57" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N57" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O57" s="31"/>
     </row>
-    <row r="58" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
+    <row r="58" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A58" s="29" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
+        <v>94</v>
+      </c>
+      <c r="E58" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
       <c r="H58" s="45">
         <v>42843</v>
       </c>
       <c r="I58" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="46" t="s">
+        <v>90</v>
+      </c>
       <c r="K58" s="54" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="L58" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N58" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O58" s="31"/>
     </row>
-    <row r="59" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="59" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
       <c r="A59" s="29" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
+        <v>135</v>
+      </c>
+      <c r="E59" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
       <c r="H59" s="45">
         <v>42843</v>
       </c>
       <c r="I59" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="46" t="s">
-        <v>91</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J59" s="37"/>
       <c r="K59" s="54" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L59" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N59" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="O59" s="31"/>
+    </row>
+    <row r="60" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A60" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="O59" s="31"/>
-    </row>
-    <row r="60" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
-      <c r="A60" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="59" t="s">
-        <v>153</v>
-      </c>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
       <c r="F60" s="60"/>
       <c r="G60" s="60"/>
-      <c r="H60" s="45">
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="61"/>
+    </row>
+    <row r="61" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A61" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="45">
         <v>42843</v>
       </c>
-      <c r="I60" s="54" t="s">
+      <c r="I61" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L60" s="28" t="s">
+      <c r="J61" s="46"/>
+      <c r="K61" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="L61" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M60" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="N60" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="O60" s="31"/>
-    </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A61" s="69" t="s">
-        <v>247</v>
-      </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="71"/>
+      <c r="M61" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="N61" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="O61" s="31"/>
     </row>
     <row r="62" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A62" s="29" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E62" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
+        <v>93</v>
+      </c>
+      <c r="E62" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="45">
         <v>42843</v>
       </c>
       <c r="I62" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="46" t="s">
+        <v>97</v>
+      </c>
       <c r="K62" s="54" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="L62" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N62" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O62" s="31"/>
     </row>
     <row r="63" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A63" s="29" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
+        <v>148</v>
+      </c>
+      <c r="E63" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
       <c r="H63" s="45">
         <v>42843</v>
       </c>
       <c r="I63" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="46" t="s">
-        <v>98</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J63" s="46"/>
       <c r="K63" s="54" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L63" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N63" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O63" s="31"/>
     </row>
-    <row r="64" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A64" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" s="59" t="s">
-        <v>151</v>
-      </c>
+    <row r="64" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A64" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
       <c r="F64" s="60"/>
       <c r="G64" s="60"/>
-      <c r="H64" s="45">
-        <v>42843</v>
-      </c>
-      <c r="I64" s="54" t="s">
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="60"/>
+      <c r="O64" s="61"/>
+    </row>
+    <row r="65" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A65" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="45">
+        <v>42847</v>
+      </c>
+      <c r="I65" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="46"/>
-      <c r="K64" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L64" s="28" t="s">
+      <c r="J65" s="46"/>
+      <c r="K65" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="L65" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M64" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="N64" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="O64" s="31"/>
-    </row>
-    <row r="65" spans="1:15" s="3" customFormat="1" ht="12.75">
-      <c r="A65" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="70"/>
-      <c r="N65" s="70"/>
-      <c r="O65" s="71"/>
-    </row>
-    <row r="66" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="M65" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="N65" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="O65" s="31"/>
+    </row>
+    <row r="66" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A66" s="29" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B66" s="39" t="s">
         <v>112</v>
@@ -6606,13 +6565,13 @@
         <v>113</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E66" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
+      <c r="E66" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
       <c r="H66" s="45">
         <v>42847</v>
       </c>
@@ -6621,37 +6580,37 @@
       </c>
       <c r="J66" s="46"/>
       <c r="K66" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L66" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N66" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O66" s="31"/>
     </row>
-    <row r="67" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="67" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A67" s="29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
+        <v>150</v>
+      </c>
+      <c r="E67" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="45">
         <v>42847</v>
       </c>
@@ -6660,137 +6619,109 @@
       </c>
       <c r="J67" s="46"/>
       <c r="K67" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L67" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N67" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O67" s="31"/>
     </row>
     <row r="68" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A68" s="29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>117</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
+        <v>118</v>
+      </c>
+      <c r="E68" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="45">
         <v>42847</v>
       </c>
       <c r="I68" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J68" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="46" t="s">
+        <v>120</v>
+      </c>
       <c r="K68" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L68" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N68" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O68" s="31"/>
     </row>
     <row r="69" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A69" s="29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
+        <v>118</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
       <c r="H69" s="45">
         <v>42847</v>
       </c>
       <c r="I69" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J69" s="46" t="s">
-        <v>124</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J69" s="46"/>
       <c r="K69" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L69" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N69" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O69" s="31"/>
     </row>
-    <row r="70" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
-      <c r="A70" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="45">
-        <v>42847</v>
-      </c>
-      <c r="I70" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J70" s="46"/>
-      <c r="K70" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="L70" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M70" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="N70" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="O70" s="31"/>
+    <row r="70" spans="1:15" ht="12" customHeight="1">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="I70" s="55"/>
+      <c r="J70"/>
+      <c r="K70" s="55"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
     </row>
     <row r="71" spans="1:15" ht="12" customHeight="1">
       <c r="B71"/>
@@ -6891,9 +6822,7 @@
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="1:15" ht="12" customHeight="1">
-      <c r="B80"/>
-      <c r="C80"/>
+    <row r="80" spans="1:15" ht="13.5">
       <c r="I80" s="55"/>
       <c r="J80"/>
       <c r="K80" s="55"/>
@@ -11159,44 +11088,47 @@
       <c r="N553"/>
       <c r="O553"/>
     </row>
-    <row r="554" spans="9:15" ht="13.5">
-      <c r="I554" s="55"/>
-      <c r="J554"/>
-      <c r="K554" s="55"/>
-      <c r="L554"/>
-      <c r="M554"/>
-      <c r="N554"/>
-      <c r="O554"/>
-    </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="A65:O65"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A61:O61"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="A52:O52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
+  <mergeCells count="81">
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="A37:O37"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="E40:G40"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="C9:C10"/>
@@ -11213,48 +11145,35 @@
     <mergeCell ref="A11:O11"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="A37:O37"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A17:O17"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="A52:O52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A64:O64"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A60:O60"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I60 I62:I1048576">
+  <conditionalFormatting sqref="I61:I1048576 I1:I59">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
     </cfRule>
@@ -11262,7 +11181,7 @@
       <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M60 M62:M1048576">
+  <conditionalFormatting sqref="M61:M1048576 M1:M59">
     <cfRule type="beginsWith" dxfId="5" priority="5" operator="beginsWith" text="Not">
       <formula>LEFT(M1,LEN("Not"))="Not"</formula>
     </cfRule>
@@ -11270,33 +11189,33 @@
       <formula>NOT(ISERROR(SEARCH("Automated",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I60">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",I61)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",I60)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",I61)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",I60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M61">
+  <conditionalFormatting sqref="M60">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Not">
-      <formula>LEFT(M61,LEN("Not"))="Not"</formula>
+      <formula>LEFT(M60,LEN("Not"))="Not"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Automated">
-      <formula>NOT(ISERROR(SEARCH("Automated",M61)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Automated",M60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M66:M70 M38:M43 M13:M16 M18:M36 M45:M51 M62:M64 M53:M57 M58:M60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M65:M69 M38:M43 M13:M16 M18:M36 M45:M51 M61:M63 M53:M59">
       <formula1>$S$1:$S$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13 N13:N16 N18:N36 N38:N43 N45:N51 N66:N70 N62:N64 N53:N57 N58:N60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13 N13:N16 N18:N36 N38:N43 N45:N51 N65:N69 N61:N63 N53:N59">
       <formula1>$T$1:$T$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16 I18:I36 I38:I43 I45:I51 I66:I70 I62:I64 I54:I57 I58:I60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16 I18:I36 I38:I43 I45:I51 I65:I69 I61:I63 I54:I59">
       <formula1>$R$1:$R$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K16 K18:K36 K38:K43 K45:K51 K66:K70 K62:K64 K53:K57 K58:K60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K16 K18:K36 K38:K43 K45:K51 K65:K69 K61:K63 K53:K59">
       <formula1>$Q$1:$Q$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftUni\Team Papaya\QA-Automation-Team-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="7455" tabRatio="821"/>
   </bookViews>
@@ -29,12 +24,12 @@
     <definedName name="Port">[1]Validation!$F$2:$F$40</definedName>
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="258">
   <si>
     <t>Fail</t>
   </si>
@@ -362,42 +357,6 @@
 4: Click on "Cancel" button</t>
   </si>
   <si>
-    <t>Test if "Cancel" button is working properly with filled "Title" and "Content" fields</t>
-  </si>
-  <si>
-    <t>1: Open blog "Create" page
-2: Type "Test Automation is the key" in "Title" field.
-3: Type "Traditional quality assurance has become a bottleneck in the development process and the advancement of test automation. Innovative development teams ..." in "Content" field.
-4: Click on "Cancel" button</t>
-  </si>
-  <si>
-    <t>1: Open blog "Create" page
-2: Type "Test" in "Title" field.
-3: Type "Traditional quality assurance has become a bottleneck in the development process and the advancement of test automation. Innovative development teams ..." in "Content" field.
-4: Click on "Create" button</t>
-  </si>
-  <si>
-    <t>1: Open blog "Create" page
-2: Type " Test Title" in "Title" field.
-3: Type "Traditional quality assurance has become..." in "Content" field.
-4: Click on "Create" button</t>
-  </si>
-  <si>
-    <t>Create article with title with less than 5 characters(including spaces)</t>
-  </si>
-  <si>
-    <t>Create article with title with less than 100 characters(including spaces)</t>
-  </si>
-  <si>
-    <t>Create article with title with more than 10 000 characters(including spaces)</t>
-  </si>
-  <si>
-    <t>1: Open blog "Create" page
-2: Type " Test Title" in "Title" field.
-3: Type any text with more than 10 000 characters(including spaces) in "Content" field.
-4: Click on "Create" button</t>
-  </si>
-  <si>
     <t>Edit Article with valid data</t>
   </si>
   <si>
@@ -557,12 +516,6 @@
 4: Click on "Create" button</t>
   </si>
   <si>
-    <t>1: Open blog "Create" page
-2: Type more than 50 characters(with spaces) in "Title" field.
-3: Type "Traditional quality assurance has become a bottleneck in the development process and the advancement of test automation. Innovative development teams ..." in "Content" field.
-4: Click on "Create" button</t>
-  </si>
-  <si>
     <t>1: Open blog "Home" page
 2: Click on any article created by currently logged user 3: Click on "Edit" button
 4: Type "Test Automation is the key" in "Title" field(any title with more that 5 characters and less than 50 characters).
@@ -584,9 +537,6 @@
 6: Click on "Edit" button</t>
   </si>
   <si>
-    <t>Create article with title with more than 50 characters(including spaces)</t>
-  </si>
-  <si>
     <t>Edit Own Article with title with more than 50 characters(including spaces)</t>
   </si>
   <si>
@@ -606,9 +556,6 @@
   </si>
   <si>
     <t>Arcitcle is updated. Minimum characters required are 1</t>
-  </si>
-  <si>
-    <t>Arcitcle is created. Minimum characters required are 1</t>
   </si>
   <si>
     <t>Article is deleted. User is redirected to "Home"page</t>
@@ -989,6 +936,67 @@
 4: Type any content that contains more than 50 characters(including spaces) in "Title" field(any title with more 50 characters).
 5: Type "Traditional quality assurance has become a bottleneck in the development process and the advancement of test automation. Innovative development teams ..." in "Content" field(any text with more that 100 characters and less than 10 000 characters).
 6: Click on "Edit" button</t>
+  </si>
+  <si>
+    <t>Test Create Article Without Content</t>
+  </si>
+  <si>
+    <t>Create article without title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Open blog "Create" page
+2: Clear Title Field and type "Tralala" in the field
+3: Clear content field
+4: Click on "Create Article  Button" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assert "The Content field is required."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Open blog "Create" page
+2: Clear title field
+3: Clear content field and type in content field "Tralala"
+4: Click on "Create" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assert "The Title field is required"</t>
+  </si>
+  <si>
+    <t>Create Article without content and without title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Open blog "Create" page
+2:Clear Title Field
+3: Clear Content field
+4: Clicl on Create button
+</t>
+  </si>
+  <si>
+    <t>Assert
+The Title field is required.", "The Content field is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Open blog "Create" page
+</t>
+  </si>
+  <si>
+    <t>Assert element 
+Assert element text "Create Article"</t>
+  </si>
+  <si>
+    <t>Check create article page  displayed</t>
+  </si>
+  <si>
+    <t>Create Article Content Resize</t>
+  </si>
+  <si>
+    <t>1: Open blog "Create" page
+2: Resize content field</t>
+  </si>
+  <si>
+    <t>Assert content field size</t>
   </si>
 </sst>
 </file>
@@ -4054,7 +4062,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4089,7 +4097,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4303,10 +4311,10 @@
   </sheetPr>
   <dimension ref="A1:T553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A36" sqref="A36"/>
-      <selection pane="topRight" activeCell="A58" sqref="A58:XFD58"/>
+      <selection pane="topRight" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -4345,16 +4353,16 @@
       <c r="O1" s="43"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
@@ -4375,16 +4383,16 @@
       <c r="O2" s="43"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4409,10 +4417,10 @@
       <c r="O3" s="80"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="25.5">
@@ -4435,7 +4443,7 @@
       <c r="O4" s="80"/>
       <c r="P4" s="7"/>
       <c r="T4" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="23" customFormat="1" ht="25.5">
@@ -4458,7 +4466,7 @@
       <c r="O5" s="79"/>
       <c r="P5" s="22"/>
       <c r="T5" s="23" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4467,7 +4475,7 @@
       </c>
       <c r="B6" s="32">
         <f>COUNTIF(I17:I137,"Pass")</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="8" t="s">
@@ -4495,7 +4503,7 @@
       </c>
       <c r="B7" s="33">
         <f>COUNTIF(I17:I137,"Fail")</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="12" t="s">
@@ -4563,16 +4571,16 @@
         <v>16</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L9" s="62" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="N9" s="62" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="O9" s="64" t="s">
         <v>10</v>
@@ -4616,7 +4624,7 @@
     </row>
     <row r="12" spans="1:20" s="3" customFormat="1" ht="12.75">
       <c r="A12" s="59" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
@@ -4635,17 +4643,17 @@
     </row>
     <row r="13" spans="1:20" s="3" customFormat="1" ht="76.5" customHeight="1" outlineLevel="1">
       <c r="A13" s="29" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="28" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F13" s="70"/>
       <c r="G13" s="70"/>
@@ -4657,32 +4665,32 @@
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="54" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L13" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O13" s="27"/>
     </row>
     <row r="14" spans="1:20" s="3" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A14" s="29" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="28" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F14" s="70"/>
       <c r="G14" s="70"/>
@@ -4694,30 +4702,30 @@
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="54" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N14" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O14" s="27"/>
     </row>
     <row r="15" spans="1:20" s="3" customFormat="1" ht="38.25" outlineLevel="1">
       <c r="A15" s="29" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="28" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
@@ -4729,30 +4737,30 @@
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="54" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O15" s="27"/>
     </row>
     <row r="16" spans="1:20" s="3" customFormat="1" ht="38.25" outlineLevel="1">
       <c r="A16" s="29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="28" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="70"/>
@@ -4764,14 +4772,14 @@
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="54" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O16" s="27"/>
     </row>
@@ -4796,17 +4804,17 @@
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A18" s="29" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="28" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F18" s="70"/>
       <c r="G18" s="70"/>
@@ -4818,22 +4826,22 @@
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="54" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N18" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A19" s="29" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>15</v>
@@ -4843,7 +4851,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F19" s="70"/>
       <c r="G19" s="70"/>
@@ -4855,22 +4863,22 @@
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="54" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L19" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N19" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O19" s="27"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A20" s="29" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>19</v>
@@ -4892,22 +4900,22 @@
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L20" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O20" s="27"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A21" s="29" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>21</v>
@@ -4931,22 +4939,22 @@
         <v>24</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L21" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N21" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A22" s="29" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>25</v>
@@ -4968,22 +4976,22 @@
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L22" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M22" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N22" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A23" s="29" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>27</v>
@@ -5007,32 +5015,32 @@
         <v>30</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L23" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N23" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O23" s="27"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A24" s="29" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="28" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
@@ -5044,22 +5052,22 @@
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L24" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N24" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O24" s="27"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A25" s="29" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B25" s="39" t="s">
         <v>34</v>
@@ -5083,22 +5091,22 @@
         <v>32</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L25" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N25" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O25" s="27"/>
     </row>
     <row r="26" spans="1:19" s="3" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A26" s="29" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>33</v>
@@ -5120,22 +5128,22 @@
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L26" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M26" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N26" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O26" s="27"/>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A27" s="29" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>37</v>
@@ -5157,22 +5165,22 @@
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L27" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N27" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A28" s="29" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>40</v>
@@ -5196,32 +5204,32 @@
         <v>30</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L28" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N28" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O28" s="31"/>
     </row>
     <row r="29" spans="1:19" s="30" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A29" s="29" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="28" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
@@ -5235,16 +5243,16 @@
         <v>32</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L29" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N29" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O29" s="41"/>
       <c r="P29" s="40"/>
@@ -5254,7 +5262,7 @@
     </row>
     <row r="30" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A30" s="29" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>43</v>
@@ -5276,22 +5284,22 @@
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L30" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M30" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N30" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O30" s="31"/>
     </row>
     <row r="31" spans="1:19" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A31" s="29" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>47</v>
@@ -5313,22 +5321,22 @@
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L31" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N31" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O31" s="31"/>
     </row>
     <row r="32" spans="1:19" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A32" s="29" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>51</v>
@@ -5350,22 +5358,22 @@
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L32" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M32" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N32" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O32" s="31"/>
     </row>
     <row r="33" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A33" s="29" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B33" s="39" t="s">
         <v>54</v>
@@ -5387,32 +5395,32 @@
       </c>
       <c r="J33" s="37"/>
       <c r="K33" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L33" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N33" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O33" s="31"/>
     </row>
     <row r="34" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A34" s="51" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="28" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E34" s="57" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F34" s="58"/>
       <c r="G34" s="58"/>
@@ -5424,32 +5432,32 @@
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L34" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N34" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O34" s="31"/>
     </row>
     <row r="35" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A35" s="51" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="28" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F35" s="58"/>
       <c r="G35" s="58"/>
@@ -5461,32 +5469,32 @@
       </c>
       <c r="J35" s="37"/>
       <c r="K35" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L35" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N35" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O35" s="31"/>
     </row>
     <row r="36" spans="1:15" s="30" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A36" s="51" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="28" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E36" s="57" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F36" s="58"/>
       <c r="G36" s="58"/>
@@ -5498,16 +5506,16 @@
       </c>
       <c r="J36" s="37"/>
       <c r="K36" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L36" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M36" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N36" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O36" s="31"/>
     </row>
@@ -5532,13 +5540,13 @@
     </row>
     <row r="38" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A38" s="29" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>69</v>
@@ -5556,22 +5564,22 @@
       </c>
       <c r="J38" s="37"/>
       <c r="K38" s="54" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L38" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M38" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N38" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O38" s="31"/>
     </row>
     <row r="39" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
       <c r="A39" s="29" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B39" s="39" t="s">
         <v>62</v>
@@ -5593,22 +5601,22 @@
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L39" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M39" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N39" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O39" s="31"/>
     </row>
     <row r="40" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A40" s="29" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>63</v>
@@ -5620,7 +5628,7 @@
         <v>71</v>
       </c>
       <c r="E40" s="57" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F40" s="58"/>
       <c r="G40" s="58"/>
@@ -5632,22 +5640,22 @@
       </c>
       <c r="J40" s="37"/>
       <c r="K40" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L40" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M40" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N40" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O40" s="31"/>
     </row>
     <row r="41" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A41" s="29" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B41" s="39" t="s">
         <v>64</v>
@@ -5659,7 +5667,7 @@
         <v>72</v>
       </c>
       <c r="E41" s="57" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F41" s="58"/>
       <c r="G41" s="58"/>
@@ -5671,32 +5679,32 @@
       </c>
       <c r="J41" s="37"/>
       <c r="K41" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L41" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M41" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N41" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O41" s="31"/>
     </row>
     <row r="42" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A42" s="29" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="28" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E42" s="57" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F42" s="58"/>
       <c r="G42" s="58"/>
@@ -5708,34 +5716,34 @@
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L42" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M42" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N42" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O42" s="31"/>
     </row>
     <row r="43" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A43" s="29" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E43" s="57" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F43" s="58"/>
       <c r="G43" s="58"/>
@@ -5747,16 +5755,16 @@
       </c>
       <c r="J43" s="37"/>
       <c r="K43" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L43" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N43" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O43" s="31"/>
     </row>
@@ -5781,19 +5789,19 @@
     </row>
     <row r="45" spans="1:15" s="30" customFormat="1" ht="140.25" outlineLevel="1">
       <c r="A45" s="29" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B45" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E45" s="57" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F45" s="58"/>
       <c r="G45" s="58"/>
@@ -5805,34 +5813,34 @@
       </c>
       <c r="J45" s="37"/>
       <c r="K45" s="54" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L45" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M45" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N45" s="50" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15" s="30" customFormat="1" ht="51" outlineLevel="1">
       <c r="A46" s="29" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B46" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E46" s="57" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F46" s="58"/>
       <c r="G46" s="58"/>
@@ -5844,34 +5852,34 @@
       </c>
       <c r="J46" s="37"/>
       <c r="K46" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L46" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M46" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N46" s="50" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O46" s="31"/>
     </row>
-    <row r="47" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="47" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A47" s="29" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="E47" s="57" t="s">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="F47" s="58"/>
       <c r="G47" s="58"/>
@@ -5883,34 +5891,34 @@
       </c>
       <c r="J47" s="37"/>
       <c r="K47" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L47" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M47" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N47" s="50" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O47" s="31"/>
     </row>
-    <row r="48" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
+    <row r="48" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A48" s="29" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="E48" s="57" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="F48" s="58"/>
       <c r="G48" s="58"/>
@@ -5918,40 +5926,38 @@
         <v>42843</v>
       </c>
       <c r="I48" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="46" t="s">
-        <v>144</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J48" s="46"/>
       <c r="K48" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L48" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M48" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N48" s="50" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O48" s="31"/>
     </row>
-    <row r="49" spans="1:15" s="30" customFormat="1" ht="102" outlineLevel="1">
+    <row r="49" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A49" s="29" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="E49" s="57" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="F49" s="58"/>
       <c r="G49" s="58"/>
@@ -5963,34 +5969,34 @@
       </c>
       <c r="J49" s="46"/>
       <c r="K49" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L49" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M49" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N49" s="50" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O49" s="31"/>
     </row>
-    <row r="50" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="50" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A50" s="29" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="E50" s="57" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="F50" s="58"/>
       <c r="G50" s="58"/>
@@ -5998,40 +6004,38 @@
         <v>42843</v>
       </c>
       <c r="I50" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="46" t="s">
-        <v>144</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J50" s="46"/>
       <c r="K50" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L50" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M50" s="50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N50" s="50" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O50" s="31"/>
     </row>
-    <row r="51" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
+    <row r="51" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A51" s="29" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="E51" s="57" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="F51" s="58"/>
       <c r="G51" s="58"/>
@@ -6039,28 +6043,26 @@
         <v>42843</v>
       </c>
       <c r="I51" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="46" t="s">
-        <v>141</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J51" s="46"/>
       <c r="K51" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L51" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M51" s="50" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="N51" s="50" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O51" s="31"/>
     </row>
     <row r="52" spans="1:15" s="3" customFormat="1" ht="12.75">
       <c r="A52" s="59" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B52" s="60"/>
       <c r="C52" s="60"/>
@@ -6079,19 +6081,19 @@
     </row>
     <row r="53" spans="1:15" s="30" customFormat="1" ht="178.5" outlineLevel="1">
       <c r="A53" s="29" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E53" s="57" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
@@ -6103,34 +6105,34 @@
       </c>
       <c r="J53" s="37"/>
       <c r="K53" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L53" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M53" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N53" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O53" s="31"/>
     </row>
     <row r="54" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
       <c r="A54" s="29" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E54" s="57" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F54" s="58"/>
       <c r="G54" s="58"/>
@@ -6141,37 +6143,37 @@
         <v>0</v>
       </c>
       <c r="J54" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="K54" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="K54" s="54" t="s">
-        <v>154</v>
       </c>
       <c r="L54" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M54" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N54" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O54" s="31"/>
     </row>
     <row r="55" spans="1:15" s="30" customFormat="1" ht="165.75" outlineLevel="1">
       <c r="A55" s="29" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E55" s="57" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F55" s="58"/>
       <c r="G55" s="58"/>
@@ -6183,34 +6185,34 @@
       </c>
       <c r="J55" s="37"/>
       <c r="K55" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L55" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N55" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O55" s="31"/>
     </row>
     <row r="56" spans="1:15" s="30" customFormat="1" ht="127.5" outlineLevel="1">
       <c r="A56" s="29" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E56" s="57" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F56" s="58"/>
       <c r="G56" s="58"/>
@@ -6221,37 +6223,37 @@
         <v>0</v>
       </c>
       <c r="J56" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="K56" s="54" t="s">
-        <v>154</v>
       </c>
       <c r="L56" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N56" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O56" s="31"/>
     </row>
     <row r="57" spans="1:15" s="30" customFormat="1" ht="114.75" outlineLevel="1">
       <c r="A57" s="29" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E57" s="57" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F57" s="58"/>
       <c r="G57" s="58"/>
@@ -6262,37 +6264,37 @@
         <v>0</v>
       </c>
       <c r="J57" s="46" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L57" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N57" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O57" s="31"/>
     </row>
     <row r="58" spans="1:15" s="30" customFormat="1" ht="89.25" outlineLevel="1">
       <c r="A58" s="29" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E58" s="57" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F58" s="58"/>
       <c r="G58" s="58"/>
@@ -6303,37 +6305,37 @@
         <v>0</v>
       </c>
       <c r="J58" s="46" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L58" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N58" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O58" s="31"/>
     </row>
     <row r="59" spans="1:15" s="30" customFormat="1" ht="153" outlineLevel="1">
       <c r="A59" s="29" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E59" s="57" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F59" s="58"/>
       <c r="G59" s="58"/>
@@ -6345,22 +6347,22 @@
       </c>
       <c r="J59" s="37"/>
       <c r="K59" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L59" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N59" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O59" s="31"/>
     </row>
     <row r="60" spans="1:15" s="3" customFormat="1" ht="12.75">
       <c r="A60" s="59" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B60" s="60"/>
       <c r="C60" s="60"/>
@@ -6379,19 +6381,19 @@
     </row>
     <row r="61" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A61" s="29" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E61" s="57" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F61" s="58"/>
       <c r="G61" s="58"/>
@@ -6403,34 +6405,34 @@
       </c>
       <c r="J61" s="46"/>
       <c r="K61" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L61" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N61" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O61" s="31"/>
     </row>
     <row r="62" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A62" s="29" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E62" s="57" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F62" s="58"/>
       <c r="G62" s="58"/>
@@ -6441,37 +6443,37 @@
         <v>0</v>
       </c>
       <c r="J62" s="46" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K62" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L62" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N62" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O62" s="31"/>
     </row>
     <row r="63" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A63" s="29" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E63" s="57" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F63" s="58"/>
       <c r="G63" s="58"/>
@@ -6483,22 +6485,22 @@
       </c>
       <c r="J63" s="46"/>
       <c r="K63" s="54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L63" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N63" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O63" s="31"/>
     </row>
     <row r="64" spans="1:15" s="3" customFormat="1" ht="12.75">
       <c r="A64" s="59" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
@@ -6517,19 +6519,19 @@
     </row>
     <row r="65" spans="1:15" s="30" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A65" s="29" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E65" s="57" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F65" s="58"/>
       <c r="G65" s="58"/>
@@ -6541,34 +6543,34 @@
       </c>
       <c r="J65" s="46"/>
       <c r="K65" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L65" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N65" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O65" s="31"/>
     </row>
     <row r="66" spans="1:15" s="30" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A66" s="29" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E66" s="57" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F66" s="58"/>
       <c r="G66" s="58"/>
@@ -6580,34 +6582,34 @@
       </c>
       <c r="J66" s="46"/>
       <c r="K66" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L66" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N66" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O66" s="31"/>
     </row>
     <row r="67" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A67" s="29" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E67" s="57" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F67" s="58"/>
       <c r="G67" s="58"/>
@@ -6619,34 +6621,34 @@
       </c>
       <c r="J67" s="46"/>
       <c r="K67" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L67" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N67" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O67" s="31"/>
     </row>
     <row r="68" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A68" s="29" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E68" s="57" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F68" s="58"/>
       <c r="G68" s="58"/>
@@ -6657,37 +6659,37 @@
         <v>0</v>
       </c>
       <c r="J68" s="46" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K68" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L68" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N68" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O68" s="31"/>
     </row>
     <row r="69" spans="1:15" s="30" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A69" s="29" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E69" s="57" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F69" s="58"/>
       <c r="G69" s="58"/>
@@ -6699,16 +6701,16 @@
       </c>
       <c r="J69" s="46"/>
       <c r="K69" s="54" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L69" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="N69" s="50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O69" s="31"/>
     </row>
@@ -11205,17 +11207,17 @@
       <formula>NOT(ISERROR(SEARCH("Automated",M60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M65:M69 M38:M43 M13:M16 M18:M36 M45:M51 M61:M63 M53:M59">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M65:M69 M38:M43 M13:M16 M18:M36 M61:M63 M53:M59 M45:M51">
       <formula1>$S$1:$S$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13 N13:N16 N18:N36 N38:N43 N45:N51 N65:N69 N61:N63 N53:N59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13 N13:N16 N18:N36 N38:N43 N65:N69 N61:N63 N53:N59 N45:N51">
       <formula1>$T$1:$T$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16 I18:I36 I38:I43 I45:I51 I65:I69 I61:I63 I54:I59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16 I18:I36 I38:I43 I65:I69 I61:I63 I54:I59 I45:I51">
       <formula1>$R$1:$R$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K16 K18:K36 K38:K43 K45:K51 K65:K69 K61:K63 K53:K59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K16 K18:K36 K38:K43 K65:K69 K61:K63 K53:K59 K45:K51">
       <formula1>$Q$1:$Q$3</formula1>
     </dataValidation>
   </dataValidations>
